--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="220">
   <si>
     <t>section</t>
   </si>
@@ -505,6 +505,9 @@
     <t>starting_month_to_numeric</t>
   </si>
   <si>
+    <t>month_year_repeat_group</t>
+  </si>
+  <si>
     <t>dc</t>
   </si>
   <si>
@@ -523,22 +526,40 @@
     <t>July</t>
   </si>
   <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>Dombotombo</t>
+  </si>
+  <si>
+    <t>Dimbiti Rural Health Centre</t>
+  </si>
+  <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Disposablegloves ReusableDorsalKits DisposableUniversal</t>
+  </si>
+  <si>
     <t>Disposablegloves</t>
   </si>
   <si>
+    <t>Disposablegloves Syringes Lancets</t>
+  </si>
+  <si>
     <t>Disposablegloves Syringes Lancets containers</t>
   </si>
   <si>
-    <t>no</t>
+    <t>clean_running_water soap</t>
   </si>
   <si>
     <t>clean_running_water soap disinfectant hand_sanitizer</t>
@@ -550,24 +571,42 @@
     <t>Ceftriaxone Metronidazole Doxycycline</t>
   </si>
   <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
     <t>Amoxycillin/clavulanic_acid</t>
   </si>
   <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
     <t>amoxycillinclavulanic_acid</t>
   </si>
   <si>
     <t>Lignocaine Bupivacaine</t>
   </si>
   <si>
+    <t>stethoscope Sphygmomanometer AdultBloodPressureCuff</t>
+  </si>
+  <si>
     <t>stethoscope Sphygmomanometer AdultBloodPressureCuff paediatric_cuff</t>
   </si>
   <si>
+    <t>glucometer</t>
+  </si>
+  <si>
     <t>glucometer GlucometerStrips Pulse-oximeter</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -586,10 +625,22 @@
     <t>all in order</t>
   </si>
   <si>
+    <t>Material available for use</t>
+  </si>
+  <si>
+    <t>door to door</t>
+  </si>
+  <si>
     <t>school based</t>
   </si>
   <si>
-    <t>door to door</t>
+    <t>walk ins</t>
+  </si>
+  <si>
+    <t>mines</t>
+  </si>
+  <si>
+    <t>farms</t>
   </si>
   <si>
     <t>Mobilisation at beerhalls</t>
@@ -601,15 +652,15 @@
     <t>Chiefs Headmen</t>
   </si>
   <si>
+    <t>all cadres involved</t>
+  </si>
+  <si>
     <t>All Community cadres are involved</t>
   </si>
   <si>
     <t>Have implemented door to door</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -617,6 +668,12 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '0', 'mrfmcs': '12', 'registermcs': '12', 'zazicmcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '13', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '13', 'current_iteration': '1', 'mrfmcs': '13', 'registermcs': '13', 'zazicmcs': '13'}, {'calculatedMonth': 'July', 'calculatedYear': '2024', 'calculated_month_numeric': '7', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5', 'zazicmcs': '5'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '0', 'mrfmcs': '12', 'registermcs': '12', 'zazicmcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '11', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '11', 'current_iteration': '1', 'mrfmcs': '11', 'registermcs': '11', 'zazicmcs': '9'}, {'calculatedMonth': 'July', 'calculatedYear': '2024', 'calculated_month_numeric': '7', 'cifno': '8', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '2', 'mrfmcs': '8', 'registermcs': '8', 'zazicmcs': '8'}]</t>
   </si>
 </sst>
 </file>
@@ -974,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH4"/>
+  <dimension ref="A1:FI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:164">
+    <row r="1" spans="1:165">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,19 +1527,22 @@
       <c r="FH1" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="FI1" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="2" spans="1:164">
+    <row r="2" spans="1:165">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -1491,91 +1551,73 @@
         <v>0</v>
       </c>
       <c r="DR2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="DS2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="DT2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="DV2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="DX2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="DZ2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="EB2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="ED2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="EF2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="EH2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="EJ2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EK2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EL2">
         <v>0</v>
       </c>
       <c r="EM2" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>203</v>
       </c>
       <c r="EO2" t="s">
-        <v>190</v>
+        <v>204</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>206</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>205</v>
       </c>
       <c r="ES2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="ET2" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="EW2" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="EY2" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="EZ2" t="s">
-        <v>195</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="FB2">
         <v>0</v>
@@ -1590,36 +1632,36 @@
         <v>0</v>
       </c>
       <c r="FG2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="FH2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:164">
+    <row r="3" spans="1:165">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" t="s">
         <v>168</v>
       </c>
-      <c r="F3" t="s">
-        <v>167</v>
-      </c>
       <c r="G3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -1628,58 +1670,58 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DA3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DB3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DC3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DD3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DE3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DF3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DG3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DH3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DI3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DJ3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DK3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DL3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DM3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DN3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DO3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DP3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DQ3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EL3">
         <v>0</v>
@@ -1697,333 +1739,885 @@
         <v>0</v>
       </c>
       <c r="FF3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="FG3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="FH3" t="s">
-        <v>200</v>
+        <v>217</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:164">
+    <row r="4" spans="1:165">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" t="s">
+        <v>175</v>
+      </c>
+      <c r="U4" t="s">
+        <v>175</v>
+      </c>
+      <c r="V4" t="s">
+        <v>175</v>
+      </c>
+      <c r="W4" t="s">
+        <v>175</v>
+      </c>
+      <c r="X4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>176</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>190</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>192</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="FB4">
+        <v>0</v>
+      </c>
+      <c r="FC4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>215</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:165">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>195</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>197</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>175</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>198</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>175</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>199</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>175</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>200</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>201</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>201</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>202</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>202</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>202</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EL5">
+        <v>0</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>205</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>204</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>209</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>210</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>213</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>214</v>
+      </c>
+      <c r="FB5">
+        <v>0</v>
+      </c>
+      <c r="FC5">
+        <v>0</v>
+      </c>
+      <c r="FD5">
+        <v>0</v>
+      </c>
+      <c r="FE5">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>215</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:165">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>165</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
         <v>169</v>
       </c>
-      <c r="H4" t="s">
-        <v>170</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" t="s">
         <v>171</v>
       </c>
-      <c r="J4" t="s">
+      <c r="H6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>175</v>
+      </c>
+      <c r="EL6">
+        <v>0</v>
+      </c>
+      <c r="FB6">
+        <v>0</v>
+      </c>
+      <c r="FC6">
+        <v>0</v>
+      </c>
+      <c r="FD6">
+        <v>0</v>
+      </c>
+      <c r="FE6">
+        <v>0</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>196</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>216</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>217</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:165">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" t="s">
         <v>171</v>
       </c>
-      <c r="K4" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" t="s">
-        <v>171</v>
-      </c>
-      <c r="M4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N4" t="s">
-        <v>171</v>
-      </c>
-      <c r="O4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>171</v>
-      </c>
-      <c r="R4" t="s">
-        <v>171</v>
-      </c>
-      <c r="S4" t="s">
-        <v>171</v>
-      </c>
-      <c r="T4" t="s">
-        <v>171</v>
-      </c>
-      <c r="U4" t="s">
-        <v>171</v>
-      </c>
-      <c r="V4" t="s">
-        <v>171</v>
-      </c>
-      <c r="W4" t="s">
-        <v>171</v>
-      </c>
-      <c r="X4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN4" t="s">
+      <c r="H7" t="s">
         <v>174</v>
       </c>
-      <c r="AO4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD4" t="s">
+      <c r="I7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" t="s">
+        <v>175</v>
+      </c>
+      <c r="O7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>175</v>
+      </c>
+      <c r="R7" t="s">
+        <v>175</v>
+      </c>
+      <c r="S7" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U7" t="s">
+        <v>175</v>
+      </c>
+      <c r="V7" t="s">
+        <v>175</v>
+      </c>
+      <c r="W7" t="s">
+        <v>175</v>
+      </c>
+      <c r="X7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN7" t="s">
         <v>176</v>
       </c>
-      <c r="BE4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>181</v>
-      </c>
-      <c r="CY4" t="s">
+      <c r="AO7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR7" t="s">
         <v>182</v>
       </c>
-      <c r="EL4">
-        <v>0</v>
-      </c>
-      <c r="FB4">
-        <v>0</v>
-      </c>
-      <c r="FC4">
-        <v>0</v>
-      </c>
-      <c r="FD4">
-        <v>0</v>
-      </c>
-      <c r="FE4">
-        <v>0</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>198</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>198</v>
+      <c r="AS7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>191</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>193</v>
+      </c>
+      <c r="EL7">
+        <v>0</v>
+      </c>
+      <c r="FB7">
+        <v>0</v>
+      </c>
+      <c r="FC7">
+        <v>0</v>
+      </c>
+      <c r="FD7">
+        <v>0</v>
+      </c>
+      <c r="FE7">
+        <v>0</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>215</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="220">
   <si>
     <t>section</t>
   </si>
@@ -508,15 +508,15 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>qa</t>
+  </si>
+  <si>
     <t>dc</t>
   </si>
   <si>
     <t>m&amp;e</t>
   </si>
   <si>
-    <t>qa</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -535,9 +535,6 @@
     <t>Dombotombo</t>
   </si>
   <si>
-    <t>Dimbiti Rural Health Centre</t>
-  </si>
-  <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
@@ -565,6 +562,9 @@
     <t>clean_running_water soap disinfectant hand_sanitizer</t>
   </si>
   <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
     <t>Ceftriaxone Doxycycline</t>
   </si>
   <si>
@@ -586,7 +586,7 @@
     <t>Lignocaine Bupivacaine</t>
   </si>
   <si>
-    <t>stethoscope Sphygmomanometer AdultBloodPressureCuff</t>
+    <t>stethoscope Sphygmomanometer</t>
   </si>
   <si>
     <t>stethoscope Sphygmomanometer AdultBloodPressureCuff paediatric_cuff</t>
@@ -1544,80 +1544,290 @@
       <c r="H2" t="s">
         <v>172</v>
       </c>
+      <c r="I2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M2" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" t="s">
+        <v>174</v>
+      </c>
+      <c r="T2" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" t="s">
+        <v>174</v>
+      </c>
+      <c r="W2" t="s">
+        <v>174</v>
+      </c>
+      <c r="X2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>174</v>
+      </c>
       <c r="AD2">
         <v>0</v>
       </c>
+      <c r="AE2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>176</v>
+      </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="DR2" t="s">
-        <v>194</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>196</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="AK2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL2" t="s">
         <v>175</v>
       </c>
-      <c r="DV2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>175</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>175</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>175</v>
+      <c r="BM2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>192</v>
       </c>
       <c r="EL2">
         <v>0</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>203</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>204</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>206</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>205</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>207</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>208</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>210</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>211</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>212</v>
       </c>
       <c r="FB2">
         <v>0</v>
@@ -1645,18 +1855,6 @@
       <c r="B3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
       <c r="G3" t="s">
         <v>170</v>
       </c>
@@ -1669,63 +1867,75 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="CZ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>175</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>175</v>
+      <c r="DR3" t="s">
+        <v>194</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>196</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>174</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>174</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>174</v>
       </c>
       <c r="EL3">
         <v>0</v>
       </c>
+      <c r="EM3" t="s">
+        <v>174</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>203</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>204</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>206</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>205</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>207</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>208</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>210</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>212</v>
+      </c>
       <c r="FB3">
         <v>0</v>
       </c>
@@ -1738,17 +1948,11 @@
       <c r="FE3">
         <v>0</v>
       </c>
-      <c r="FF3" t="s">
-        <v>196</v>
-      </c>
       <c r="FG3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="FH3" t="s">
-        <v>217</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:165">
@@ -1758,287 +1962,83 @@
       <c r="B4" t="s">
         <v>166</v>
       </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>168</v>
+      </c>
       <c r="G4" t="s">
         <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L4" t="s">
-        <v>175</v>
-      </c>
-      <c r="M4" t="s">
-        <v>175</v>
-      </c>
-      <c r="N4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>176</v>
-      </c>
-      <c r="R4" t="s">
-        <v>175</v>
-      </c>
-      <c r="S4" t="s">
-        <v>175</v>
-      </c>
-      <c r="T4" t="s">
-        <v>175</v>
-      </c>
-      <c r="U4" t="s">
-        <v>175</v>
-      </c>
-      <c r="V4" t="s">
-        <v>175</v>
-      </c>
-      <c r="W4" t="s">
-        <v>175</v>
-      </c>
-      <c r="X4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
-      <c r="AE4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>177</v>
-      </c>
       <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AK4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>187</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>189</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>175</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>190</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>192</v>
+      <c r="CZ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>174</v>
       </c>
       <c r="EL4">
         <v>0</v>
@@ -2055,11 +2055,17 @@
       <c r="FE4">
         <v>0</v>
       </c>
+      <c r="FF4" t="s">
+        <v>196</v>
+      </c>
       <c r="FG4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="FH4" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:165">
@@ -2067,13 +2073,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G5" t="s">
         <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -2088,64 +2094,64 @@
         <v>197</v>
       </c>
       <c r="DT5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DU5" t="s">
         <v>198</v>
       </c>
       <c r="DV5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DW5" t="s">
         <v>199</v>
       </c>
       <c r="DX5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DY5" t="s">
         <v>200</v>
       </c>
       <c r="DZ5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EA5" t="s">
         <v>201</v>
       </c>
       <c r="EB5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EC5" t="s">
         <v>201</v>
       </c>
       <c r="ED5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EE5" t="s">
         <v>202</v>
       </c>
       <c r="EF5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EG5" t="s">
         <v>202</v>
       </c>
       <c r="EH5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EI5" t="s">
         <v>202</v>
       </c>
       <c r="EJ5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EK5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EL5">
         <v>0</v>
       </c>
       <c r="EM5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EO5" t="s">
         <v>205</v>
@@ -2192,7 +2198,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" t="s">
         <v>167</v>
@@ -2210,7 +2216,7 @@
         <v>171</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -2219,58 +2225,58 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DA6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DB6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DC6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DD6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DE6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DF6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DG6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DH6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DI6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DJ6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DK6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DL6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DM6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DN6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DO6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DP6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DQ6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="EL6">
         <v>0</v>
@@ -2305,154 +2311,154 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
         <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" t="s">
+        <v>174</v>
+      </c>
+      <c r="O7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>174</v>
+      </c>
+      <c r="R7" t="s">
+        <v>174</v>
+      </c>
+      <c r="S7" t="s">
+        <v>174</v>
+      </c>
+      <c r="T7" t="s">
+        <v>174</v>
+      </c>
+      <c r="U7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V7" t="s">
+        <v>174</v>
+      </c>
+      <c r="W7" t="s">
+        <v>174</v>
+      </c>
+      <c r="X7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN7" t="s">
         <v>175</v>
       </c>
-      <c r="J7" t="s">
+      <c r="AO7" t="s">
         <v>175</v>
       </c>
-      <c r="K7" t="s">
+      <c r="AP7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY7" t="s">
         <v>175</v>
       </c>
-      <c r="L7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>175</v>
-      </c>
-      <c r="R7" t="s">
-        <v>175</v>
-      </c>
-      <c r="S7" t="s">
-        <v>175</v>
-      </c>
-      <c r="T7" t="s">
-        <v>175</v>
-      </c>
-      <c r="U7" t="s">
-        <v>175</v>
-      </c>
-      <c r="V7" t="s">
-        <v>175</v>
-      </c>
-      <c r="W7" t="s">
-        <v>175</v>
-      </c>
-      <c r="X7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>176</v>
-      </c>
       <c r="AZ7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BA7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BC7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BD7" t="s">
         <v>183</v>
@@ -2464,10 +2470,10 @@
         <v>186</v>
       </c>
       <c r="BG7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BH7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BI7" t="s">
         <v>188</v>
@@ -2476,121 +2482,121 @@
         <v>189</v>
       </c>
       <c r="BK7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM7" t="s">
         <v>175</v>
       </c>
-      <c r="BL7" t="s">
-        <v>175</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>176</v>
-      </c>
       <c r="BN7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BO7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BP7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BQ7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BS7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BT7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BU7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BV7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BW7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BX7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BY7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BZ7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CA7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CB7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CC7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CD7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CE7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CF7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CG7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CH7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CI7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CJ7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CK7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CL7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CM7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CN7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CO7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CP7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CQ7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CR7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CS7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CT7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CU7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CV7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CW7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="CX7" t="s">
         <v>191</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="447">
   <si>
     <t>section</t>
   </si>
@@ -1126,42 +1126,69 @@
     <t>a</t>
   </si>
   <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>Karoi District Hospital</t>
+  </si>
+  <si>
     <t>Sai Clinic</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>June</t>
+    <t>August</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Didn't meet all required expections</t>
+  </si>
+  <si>
     <t>The Facility has meet all Standards in th Operating theatre and recovery room</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>No Funding</t>
   </si>
   <si>
+    <t>Disposable_Dorsal_slit Reusable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit Device_removal_kit</t>
   </si>
   <si>
+    <t>Disposable_gloves Syringes_with_needles</t>
+  </si>
+  <si>
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
   </si>
   <si>
+    <t>Room for improvement</t>
+  </si>
+  <si>
     <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
   </si>
   <si>
+    <t>There is room for improvement</t>
+  </si>
+  <si>
     <t>All HTS and STI regulations meet</t>
   </si>
   <si>
@@ -1177,66 +1204,138 @@
     <t>Lignocaine Bupivacaine</t>
   </si>
   <si>
+    <t>Doing well</t>
+  </si>
+  <si>
     <t>well done</t>
   </si>
   <si>
+    <t>doing relatively well</t>
+  </si>
+  <si>
     <t>No Bins in the rooms</t>
   </si>
   <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline</t>
   </si>
   <si>
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
   </si>
   <si>
+    <t>Facility is doing relatively well save for issues to do with examination room that needs attention</t>
+  </si>
+  <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
   </si>
   <si>
+    <t>There are issues with data in DHIS2</t>
+  </si>
+  <si>
     <t>All data tallied</t>
   </si>
   <si>
+    <t>Facility is doing well. There are only data discepencies in DHIS2 that needs to be corrected</t>
+  </si>
+  <si>
     <t>2WT system is working well</t>
   </si>
   <si>
+    <t>Standards were met</t>
+  </si>
+  <si>
     <t>Door to door were the main activites for age group 15-24 and market place mobilisatiin for the older age group</t>
   </si>
   <si>
+    <t>Artisanal_Miners Men_who_go_to_work</t>
+  </si>
+  <si>
     <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
+    <t>Health_Promotional_Officer Community_Nursing DAC</t>
+  </si>
+  <si>
     <t>Health_Promotional_Officer Community_Nursing</t>
   </si>
   <si>
+    <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
     <t>Chiefs Headmen</t>
   </si>
   <si>
+    <t>Yes , they introduced talk shows that are hosted after every two months</t>
+  </si>
+  <si>
     <t>Yes have introduced the Vmmc - viac linkage system</t>
   </si>
   <si>
+    <t>Facility is doing relatively well</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing VMMC_circumcisors:_Doctors Cleaners/Theatre_Hands/Runners Community_Health_Workers</t>
+  </si>
+  <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing</t>
   </si>
   <si>
+    <t>Facility is doing ok</t>
+  </si>
+  <si>
     <t>Under staffing</t>
   </si>
   <si>
+    <t>Counseller delivered the session very well</t>
+  </si>
+  <si>
     <t>All it Order</t>
   </si>
   <si>
+    <t>Condom Use was  properly demonstrated</t>
+  </si>
+  <si>
+    <t>done well</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
+    <t>8</t>
   </si>
   <si>
     <t>amutenha</t>
   </si>
   <si>
+    <t>2025-06-28T08:50:59.231581Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:47:04.336179Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:41:05.800777Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:38:33.051525Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:19:48.560738Z</t>
+  </si>
+  <si>
+    <t>2025-06-28T08:10:58.247144Z</t>
+  </si>
+  <si>
     <t>2025-06-27T17:32:40.730283Z</t>
   </si>
   <si>
@@ -1250,6 +1349,9 @@
   </si>
   <si>
     <t>2025-06-27T17:06:09.110083Z</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '13', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'July', 'calculatedYear': '2025', 'calculated_month_numeric': '7', 'cifno': '6', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '1', 'mrfmcs': '6', 'registermcs': '6'}, {'calculatedMonth': 'August', 'calculatedYear': '2025', 'calculated_month_numeric': '8', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '2', 'mrfmcs': '9', 'registermcs': '9'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'April', 'calculatedYear': '2024', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2024', 'calculated_month_numeric': '5', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '1', 'mrfmcs': '12', 'registermcs': '12'}, {'calculatedMonth': 'June', 'calculatedYear': '2024', 'calculated_month_numeric': '6', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '2', 'mrfmcs': '9', 'registermcs': '9'}]</t>
@@ -1610,13 +1712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SL6"/>
+  <dimension ref="A1:SN12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:506">
+    <row r="1" spans="1:508">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1960,1180 +2062,1186 @@
         <v>113</v>
       </c>
       <c r="DL1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="FS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="GS1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="GT1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="GU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="GV1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="GW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="GY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HC1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HD1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="HE1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HF1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HT1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="II1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IN1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IP1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="IQ1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="IZ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JB1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JD1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c r="JX1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c r="KA1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c r="KB1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KC1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KD1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c r="KE1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="KD1" s="1" t="s">
+      <c r="KF1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="KE1" s="1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="KK1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c r="KL1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c r="KM1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c r="KN1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c r="KO1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="KQ1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c r="KR1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="KS1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="KT1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="KU1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c r="KX1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c r="KY1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c r="KZ1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c r="LA1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c r="LB1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c r="LC1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c r="LD1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c r="LE1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c r="LF1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c r="LG1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c r="LH1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="LI1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="LI1" s="1" t="s">
+      <c r="LK1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="LL1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="LK1" s="1" t="s">
+      <c r="LM1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="LL1" s="1" t="s">
+      <c r="LN1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="LM1" s="1" t="s">
+      <c r="LO1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="LN1" s="1" t="s">
+      <c r="LP1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="LQ1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LR1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="LQ1" s="1" t="s">
+      <c r="LS1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="LR1" s="1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="LS1" s="1" t="s">
+      <c r="LU1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="LV1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="LW1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="LX1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="LY1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c r="LZ1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="LY1" s="1" t="s">
+      <c r="MA1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="LZ1" s="1" t="s">
+      <c r="MB1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="MA1" s="1" t="s">
+      <c r="MC1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="MB1" s="1" t="s">
+      <c r="MD1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="MC1" s="1" t="s">
+      <c r="ME1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="MD1" s="1" t="s">
+      <c r="MF1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="ME1" s="1" t="s">
+      <c r="MG1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="MF1" s="1" t="s">
+      <c r="MH1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="MG1" s="1" t="s">
+      <c r="MI1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="MH1" s="1" t="s">
+      <c r="MJ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="MI1" s="1" t="s">
+      <c r="MK1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="MJ1" s="1" t="s">
+      <c r="ML1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="MK1" s="1" t="s">
+      <c r="MM1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="ML1" s="1" t="s">
+      <c r="MN1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="MM1" s="1" t="s">
+      <c r="MO1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="MN1" s="1" t="s">
+      <c r="MP1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="MO1" s="1" t="s">
+      <c r="MQ1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="MP1" s="1" t="s">
+      <c r="MR1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="MQ1" s="1" t="s">
+      <c r="MS1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="MR1" s="1" t="s">
+      <c r="MT1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="MS1" s="1" t="s">
+      <c r="MU1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="MT1" s="1" t="s">
+      <c r="MV1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="MU1" s="1" t="s">
+      <c r="MW1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="MV1" s="1" t="s">
+      <c r="MX1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="MW1" s="1" t="s">
+      <c r="MY1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="MX1" s="1" t="s">
+      <c r="MZ1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="MY1" s="1" t="s">
+      <c r="NA1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="MZ1" s="1" t="s">
+      <c r="NB1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="NA1" s="1" t="s">
+      <c r="NC1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="NB1" s="1" t="s">
+      <c r="ND1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="NC1" s="1" t="s">
+      <c r="NE1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="ND1" s="1" t="s">
+      <c r="NF1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="NE1" s="1" t="s">
+      <c r="NG1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="NF1" s="1" t="s">
+      <c r="NH1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="NG1" s="1" t="s">
+      <c r="NI1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="NH1" s="1" t="s">
+      <c r="NJ1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="NI1" s="1" t="s">
+      <c r="NK1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="NJ1" s="1" t="s">
+      <c r="NL1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="NK1" s="1" t="s">
+      <c r="NM1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="NL1" s="1" t="s">
+      <c r="NN1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="NM1" s="1" t="s">
+      <c r="NO1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="NN1" s="1" t="s">
+      <c r="NP1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="NO1" s="1" t="s">
+      <c r="NQ1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="NP1" s="1" t="s">
+      <c r="NR1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="NQ1" s="1" t="s">
+      <c r="NS1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="NR1" s="1" t="s">
+      <c r="NT1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="NS1" s="1" t="s">
+      <c r="NU1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="NT1" s="1" t="s">
+      <c r="NV1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="NU1" s="1" t="s">
+      <c r="NW1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="NV1" s="1" t="s">
+      <c r="NX1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="NW1" s="1" t="s">
+      <c r="NY1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="NX1" s="1" t="s">
+      <c r="NZ1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="NY1" s="1" t="s">
+      <c r="OA1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="NZ1" s="1" t="s">
+      <c r="OB1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="OA1" s="1" t="s">
+      <c r="OC1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="OB1" s="1" t="s">
+      <c r="OD1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="OC1" s="1" t="s">
+      <c r="OE1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="OD1" s="1" t="s">
+      <c r="OF1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="OE1" s="1" t="s">
+      <c r="OG1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="OF1" s="1" t="s">
+      <c r="OH1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="OG1" s="1" t="s">
+      <c r="OI1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="OH1" s="1" t="s">
+      <c r="OJ1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="OI1" s="1" t="s">
+      <c r="OK1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="OJ1" s="1" t="s">
+      <c r="OL1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="OK1" s="1" t="s">
+      <c r="OM1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="OL1" s="1" t="s">
+      <c r="ON1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="OM1" s="1" t="s">
+      <c r="OO1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="ON1" s="1" t="s">
+      <c r="OP1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="OO1" s="1" t="s">
+      <c r="OQ1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="OP1" s="1" t="s">
+      <c r="OR1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="OQ1" s="1" t="s">
+      <c r="OS1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="OR1" s="1" t="s">
+      <c r="OT1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="OS1" s="1" t="s">
+      <c r="OU1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="OT1" s="1" t="s">
+      <c r="OV1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="OU1" s="1" t="s">
+      <c r="OW1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="OV1" s="1" t="s">
+      <c r="OX1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="OW1" s="1" t="s">
+      <c r="OY1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="OX1" s="1" t="s">
+      <c r="OZ1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="OY1" s="1" t="s">
+      <c r="PA1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="OZ1" s="1" t="s">
+      <c r="PB1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="PA1" s="1" t="s">
+      <c r="PC1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="PB1" s="1" t="s">
+      <c r="PD1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="PC1" s="1" t="s">
+      <c r="PE1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="PD1" s="1" t="s">
+      <c r="PF1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="PE1" s="1" t="s">
+      <c r="PG1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="PF1" s="1" t="s">
+      <c r="PH1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="PG1" s="1" t="s">
+      <c r="PI1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="PH1" s="1" t="s">
+      <c r="PJ1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="PI1" s="1" t="s">
+      <c r="PK1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="PJ1" s="1" t="s">
+      <c r="PL1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="PK1" s="1" t="s">
+      <c r="PM1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="PL1" s="1" t="s">
+      <c r="PN1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="PM1" s="1" t="s">
+      <c r="PO1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="PN1" s="1" t="s">
+      <c r="PP1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="PO1" s="1" t="s">
+      <c r="PQ1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="PP1" s="1" t="s">
+      <c r="PR1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="PQ1" s="1" t="s">
+      <c r="PS1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="PR1" s="1" t="s">
+      <c r="PT1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="PS1" s="1" t="s">
+      <c r="PU1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="PT1" s="1" t="s">
+      <c r="PV1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="PU1" s="1" t="s">
+      <c r="PW1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="PV1" s="1" t="s">
+      <c r="PX1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="PW1" s="1" t="s">
+      <c r="PY1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="PX1" s="1" t="s">
+      <c r="PZ1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="PY1" s="1" t="s">
+      <c r="QA1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="PZ1" s="1" t="s">
+      <c r="QB1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="QA1" s="1" t="s">
+      <c r="QC1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="QB1" s="1" t="s">
+      <c r="QD1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="QC1" s="1" t="s">
+      <c r="QE1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="QD1" s="1" t="s">
+      <c r="QF1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="QE1" s="1" t="s">
+      <c r="QG1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="QF1" s="1" t="s">
+      <c r="QH1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="QG1" s="1" t="s">
+      <c r="QI1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="QH1" s="1" t="s">
+      <c r="QJ1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="QI1" s="1" t="s">
+      <c r="QK1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="QJ1" s="1" t="s">
+      <c r="QL1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="QK1" s="1" t="s">
+      <c r="QM1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="QL1" s="1" t="s">
+      <c r="QN1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="QM1" s="1" t="s">
+      <c r="QO1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="QN1" s="1" t="s">
+      <c r="QP1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="QO1" s="1" t="s">
+      <c r="QQ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="QP1" s="1" t="s">
+      <c r="QR1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="QQ1" s="1" t="s">
+      <c r="QS1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="QR1" s="1" t="s">
+      <c r="QT1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="QS1" s="1" t="s">
+      <c r="QU1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="QT1" s="1" t="s">
+      <c r="QV1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="QU1" s="1" t="s">
+      <c r="QW1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="QV1" s="1" t="s">
+      <c r="QX1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="QW1" s="1" t="s">
+      <c r="QY1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="QX1" s="1" t="s">
+      <c r="QZ1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="QY1" s="1" t="s">
+      <c r="RA1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="QZ1" s="1" t="s">
+      <c r="RB1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="RA1" s="1" t="s">
+      <c r="RC1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="RB1" s="1" t="s">
+      <c r="RD1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="RC1" s="1" t="s">
+      <c r="RE1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="RD1" s="1" t="s">
+      <c r="RF1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="RE1" s="1" t="s">
+      <c r="RG1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="RF1" s="1" t="s">
+      <c r="RH1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="RG1" s="1" t="s">
+      <c r="RI1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="RH1" s="1" t="s">
+      <c r="RJ1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="RI1" s="1" t="s">
+      <c r="RK1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="RJ1" s="1" t="s">
+      <c r="RL1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="RK1" s="1" t="s">
+      <c r="RM1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="RL1" s="1" t="s">
+      <c r="RN1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="RM1" s="1" t="s">
+      <c r="RO1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="RN1" s="1" t="s">
+      <c r="RP1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="RO1" s="1" t="s">
+      <c r="RQ1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="RP1" s="1" t="s">
+      <c r="RR1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="RQ1" s="1" t="s">
+      <c r="RS1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="RR1" s="1" t="s">
+      <c r="RT1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="RS1" s="1" t="s">
+      <c r="RU1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="RT1" s="1" t="s">
+      <c r="RV1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="RU1" s="1" t="s">
+      <c r="RW1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="RV1" s="1" t="s">
+      <c r="RX1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="RW1" s="1" t="s">
+      <c r="RY1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="RX1" s="1" t="s">
+      <c r="RZ1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="RY1" s="1" t="s">
+      <c r="SA1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="RZ1" s="1" t="s">
+      <c r="SB1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="SA1" s="1" t="s">
+      <c r="SC1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="SB1" s="1" t="s">
+      <c r="SD1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="SC1" s="1" t="s">
+      <c r="SE1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="SD1" s="1" t="s">
+      <c r="SF1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="SE1" s="1" t="s">
+      <c r="SG1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="SF1" s="1" t="s">
+      <c r="SH1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="SG1" s="1" t="s">
+      <c r="SI1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="SH1" s="1" t="s">
+      <c r="SJ1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="SI1" s="1" t="s">
+      <c r="SK1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="SJ1" s="1" t="s">
+      <c r="SL1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="SK1" s="1" t="s">
+      <c r="SM1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="SL1" s="1" t="s">
+      <c r="SN1" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:506">
+    <row r="2" spans="1:508">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3144,1694 +3252,3401 @@
         <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="DA2">
+      <c r="JU2" t="s">
+        <v>379</v>
+      </c>
+      <c r="JW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="JY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KA2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KO2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KQ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KS2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KU2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="KY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LA2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LC2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LE2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LG2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LI2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LK2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LM2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LO2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LQ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MC2" t="s">
+        <v>379</v>
+      </c>
+      <c r="ME2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MG2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MM2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MO2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MQ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="MY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NA2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NF2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NG2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NQ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NS2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NT2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NU2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NV2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NX2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OB2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OD2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OF2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OH2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OJ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OL2" t="s">
+        <v>379</v>
+      </c>
+      <c r="ON2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OP2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OR2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OT2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OV2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OX2" t="s">
+        <v>379</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PN2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PP2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PX2" t="s">
+        <v>379</v>
+      </c>
+      <c r="PZ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QH2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QJ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QR2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QT2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QV2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QX2" t="s">
+        <v>379</v>
+      </c>
+      <c r="QZ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RB2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RD2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RW2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>379</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>379</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>379</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>427</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG2">
         <v>0</v>
       </c>
-      <c r="FO2">
+      <c r="SH2">
         <v>0</v>
       </c>
-      <c r="GL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>401</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>387</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>387</v>
-      </c>
-      <c r="II2" t="s">
-        <v>377</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>387</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>387</v>
-      </c>
-      <c r="IV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="IZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>377</v>
-      </c>
-      <c r="JX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="JZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>377</v>
-      </c>
-      <c r="KB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>377</v>
-      </c>
-      <c r="KF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>377</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>377</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>377</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>377</v>
-      </c>
-      <c r="KV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="KZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>377</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="ML2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>387</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>387</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>377</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>377</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>377</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>377</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>377</v>
-      </c>
-      <c r="OE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>377</v>
-      </c>
-      <c r="OI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>377</v>
-      </c>
-      <c r="OM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>377</v>
-      </c>
-      <c r="OO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>377</v>
-      </c>
-      <c r="OY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PA2" t="s">
-        <v>377</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>377</v>
-      </c>
-      <c r="PC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>377</v>
-      </c>
-      <c r="QE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RA2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RC2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RE2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RG2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RI2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>375</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>375</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>387</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>403</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>403</v>
-      </c>
-      <c r="SE2">
+      <c r="SI2" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>434</v>
+      </c>
+      <c r="SL2">
         <v>0</v>
       </c>
-      <c r="SF2">
+      <c r="SM2">
         <v>0</v>
       </c>
-      <c r="SG2" t="s">
-        <v>406</v>
-      </c>
-      <c r="SH2" t="s">
-        <v>406</v>
-      </c>
-      <c r="SI2" t="s">
-        <v>407</v>
-      </c>
-      <c r="SJ2">
-        <v>0</v>
-      </c>
-      <c r="SK2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:506">
+    <row r="3" spans="1:508">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
         <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="DA3">
+      <c r="GN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>424</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>426</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="II3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>427</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>427</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>427</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JK3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JL3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KD3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KJ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KL3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KV3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="KZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LD3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LJ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LL3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LV3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="LZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MD3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MJ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="ML3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MN3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MP3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MR3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MT3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MV3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MX3" t="s">
+        <v>379</v>
+      </c>
+      <c r="MZ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="NB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="ND3" t="s">
+        <v>427</v>
+      </c>
+      <c r="NE3" t="s">
+        <v>427</v>
+      </c>
+      <c r="OA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OK3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OU3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OW3" t="s">
+        <v>379</v>
+      </c>
+      <c r="OY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PK3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PU3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PW3" t="s">
+        <v>379</v>
+      </c>
+      <c r="PY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QK3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QM3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QO3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QQ3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QS3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QU3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QW3" t="s">
+        <v>379</v>
+      </c>
+      <c r="QY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="RA3" t="s">
+        <v>379</v>
+      </c>
+      <c r="RC3" t="s">
+        <v>379</v>
+      </c>
+      <c r="RE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="RG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="RI3" t="s">
+        <v>379</v>
+      </c>
+      <c r="SE3" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF3" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG3">
         <v>0</v>
       </c>
-      <c r="EY3" t="s">
-        <v>375</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>377</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>377</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>377</v>
-      </c>
-      <c r="FO3">
+      <c r="SH3">
         <v>0</v>
       </c>
-      <c r="FQ3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>377</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>375</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>377</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>399</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>400</v>
-      </c>
-      <c r="SC3" t="s">
-        <v>403</v>
-      </c>
-      <c r="SD3" t="s">
-        <v>403</v>
-      </c>
-      <c r="SE3">
+      <c r="SI3" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ3" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK3" t="s">
+        <v>435</v>
+      </c>
+      <c r="SL3">
         <v>0</v>
       </c>
-      <c r="SF3">
+      <c r="SM3">
         <v>0</v>
       </c>
-      <c r="SG3" t="s">
-        <v>406</v>
-      </c>
-      <c r="SH3" t="s">
-        <v>406</v>
-      </c>
-      <c r="SI3" t="s">
-        <v>408</v>
-      </c>
-      <c r="SJ3">
-        <v>0</v>
-      </c>
-      <c r="SK3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:506">
+    <row r="4" spans="1:508">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
         <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="DA4">
+      <c r="DK4" t="s">
+        <v>379</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>379</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>420</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>422</v>
+      </c>
+      <c r="SE4" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF4" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG4">
         <v>0</v>
       </c>
-      <c r="DY4" t="s">
-        <v>375</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>375</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>375</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>394</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>395</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>396</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>397</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>398</v>
-      </c>
-      <c r="FO4">
+      <c r="SH4">
         <v>0</v>
       </c>
-      <c r="SC4" t="s">
-        <v>403</v>
-      </c>
-      <c r="SD4" t="s">
-        <v>403</v>
-      </c>
-      <c r="SE4">
+      <c r="SI4" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ4" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK4" t="s">
+        <v>436</v>
+      </c>
+      <c r="SL4">
         <v>0</v>
       </c>
-      <c r="SF4">
+      <c r="SM4">
         <v>0</v>
       </c>
-      <c r="SG4" t="s">
-        <v>406</v>
-      </c>
-      <c r="SH4" t="s">
-        <v>406</v>
-      </c>
-      <c r="SI4" t="s">
-        <v>409</v>
-      </c>
-      <c r="SJ4">
-        <v>0</v>
-      </c>
-      <c r="SK4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:506">
+    <row r="5" spans="1:508">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
         <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" t="s">
         <v>372</v>
-      </c>
-      <c r="F5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H5" t="s">
-        <v>373</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="DA5">
+      <c r="DZ5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>379</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>379</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>409</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>411</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>413</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>415</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>417</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>419</v>
+      </c>
+      <c r="SE5" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF5" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG5">
         <v>0</v>
       </c>
-      <c r="DG5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>377</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>391</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>392</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>375</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>393</v>
-      </c>
-      <c r="FO5">
+      <c r="SH5">
         <v>0</v>
       </c>
-      <c r="FP5" t="s">
-        <v>375</v>
-      </c>
-      <c r="SB5" t="s">
-        <v>402</v>
-      </c>
-      <c r="SC5" t="s">
-        <v>404</v>
-      </c>
-      <c r="SD5" t="s">
-        <v>405</v>
-      </c>
-      <c r="SE5">
+      <c r="SI5" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ5" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK5" t="s">
+        <v>437</v>
+      </c>
+      <c r="SL5">
         <v>0</v>
       </c>
-      <c r="SF5">
+      <c r="SM5">
         <v>0</v>
       </c>
-      <c r="SG5" t="s">
-        <v>406</v>
-      </c>
-      <c r="SH5" t="s">
-        <v>406</v>
-      </c>
-      <c r="SI5" t="s">
-        <v>410</v>
-      </c>
-      <c r="SJ5">
-        <v>0</v>
-      </c>
-      <c r="SK5">
-        <v>0</v>
-      </c>
-      <c r="SL5" t="s">
-        <v>412</v>
-      </c>
     </row>
-    <row r="6" spans="1:506">
+    <row r="6" spans="1:508">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
         <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
-      </c>
-      <c r="I6" t="s">
-        <v>375</v>
-      </c>
-      <c r="J6" t="s">
-        <v>375</v>
-      </c>
-      <c r="K6" t="s">
-        <v>375</v>
-      </c>
-      <c r="L6" t="s">
-        <v>375</v>
-      </c>
-      <c r="M6" t="s">
-        <v>375</v>
-      </c>
-      <c r="N6" t="s">
-        <v>375</v>
-      </c>
-      <c r="O6" t="s">
-        <v>375</v>
-      </c>
-      <c r="P6" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>375</v>
-      </c>
-      <c r="R6" t="s">
-        <v>375</v>
-      </c>
-      <c r="S6" t="s">
-        <v>375</v>
-      </c>
-      <c r="T6" t="s">
-        <v>375</v>
-      </c>
-      <c r="U6" t="s">
-        <v>375</v>
-      </c>
-      <c r="V6" t="s">
-        <v>375</v>
-      </c>
-      <c r="W6" t="s">
-        <v>375</v>
-      </c>
-      <c r="X6" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" t="s">
         <v>376</v>
       </c>
-      <c r="AE6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="G6" t="s">
         <v>378</v>
       </c>
-      <c r="AG6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>379</v>
+      <c r="H6" t="s">
+        <v>376</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
-      <c r="AM6" t="s">
+      <c r="DG6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>404</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>405</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>379</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>407</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>379</v>
+      </c>
+      <c r="SD6" t="s">
+        <v>428</v>
+      </c>
+      <c r="SE6" t="s">
+        <v>430</v>
+      </c>
+      <c r="SF6" t="s">
+        <v>432</v>
+      </c>
+      <c r="SG6">
+        <v>0</v>
+      </c>
+      <c r="SH6">
+        <v>0</v>
+      </c>
+      <c r="SI6" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ6" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK6" t="s">
+        <v>438</v>
+      </c>
+      <c r="SL6">
+        <v>0</v>
+      </c>
+      <c r="SM6">
+        <v>0</v>
+      </c>
+      <c r="SN6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:508">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="I7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L7" t="s">
         <v>380</v>
       </c>
-      <c r="AN6" t="s">
+      <c r="M7" t="s">
+        <v>380</v>
+      </c>
+      <c r="N7" t="s">
+        <v>380</v>
+      </c>
+      <c r="O7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>379</v>
+      </c>
+      <c r="R7" t="s">
+        <v>379</v>
+      </c>
+      <c r="S7" t="s">
+        <v>379</v>
+      </c>
+      <c r="T7" t="s">
+        <v>379</v>
+      </c>
+      <c r="U7" t="s">
+        <v>379</v>
+      </c>
+      <c r="V7" t="s">
+        <v>379</v>
+      </c>
+      <c r="W7" t="s">
+        <v>380</v>
+      </c>
+      <c r="X7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>389</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>379</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>390</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>392</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>392</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>395</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>396</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>379</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>398</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>379</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>400</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>402</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>403</v>
+      </c>
+      <c r="SE7" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF7" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG7">
+        <v>0</v>
+      </c>
+      <c r="SH7">
+        <v>0</v>
+      </c>
+      <c r="SI7" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ7" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK7" t="s">
+        <v>439</v>
+      </c>
+      <c r="SL7">
+        <v>0</v>
+      </c>
+      <c r="SM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:508">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="GN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HD8" t="s">
+        <v>425</v>
+      </c>
+      <c r="HE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HV8" t="s">
+        <v>397</v>
+      </c>
+      <c r="HW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="HZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="ID8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="II8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IJ8" t="s">
+        <v>397</v>
+      </c>
+      <c r="IK8" t="s">
+        <v>380</v>
+      </c>
+      <c r="IL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IV8" t="s">
+        <v>397</v>
+      </c>
+      <c r="IW8" t="s">
+        <v>397</v>
+      </c>
+      <c r="IX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="IZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="JY8" t="s">
+        <v>380</v>
+      </c>
+      <c r="JZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KC8" t="s">
+        <v>380</v>
+      </c>
+      <c r="KD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KG8" t="s">
+        <v>380</v>
+      </c>
+      <c r="KH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KI8" t="s">
+        <v>380</v>
+      </c>
+      <c r="KJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KS8" t="s">
+        <v>380</v>
+      </c>
+      <c r="KT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KV8" t="s">
+        <v>380</v>
+      </c>
+      <c r="KW8" t="s">
+        <v>380</v>
+      </c>
+      <c r="KX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="KZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="LY8" t="s">
+        <v>380</v>
+      </c>
+      <c r="LZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="ME8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="ML8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="MZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="ND8" t="s">
+        <v>397</v>
+      </c>
+      <c r="NE8" t="s">
+        <v>397</v>
+      </c>
+      <c r="NF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NV8" t="s">
+        <v>380</v>
+      </c>
+      <c r="NW8" t="s">
+        <v>380</v>
+      </c>
+      <c r="NX8" t="s">
+        <v>380</v>
+      </c>
+      <c r="NY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="NZ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="OA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OF8" t="s">
+        <v>380</v>
+      </c>
+      <c r="OG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OJ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="OK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="ON8" t="s">
+        <v>380</v>
+      </c>
+      <c r="OO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OP8" t="s">
+        <v>380</v>
+      </c>
+      <c r="OQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="OZ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="PA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PC8" t="s">
+        <v>380</v>
+      </c>
+      <c r="PD8" t="s">
+        <v>380</v>
+      </c>
+      <c r="PE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="PZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QF8" t="s">
+        <v>380</v>
+      </c>
+      <c r="QG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="QZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RC8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RF8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RG8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RH8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RI8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RJ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RK8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RL8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RM8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RN8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RO8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RP8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RQ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RR8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RS8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RT8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RU8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RV8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RW8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RX8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RY8" t="s">
+        <v>379</v>
+      </c>
+      <c r="RZ8" t="s">
+        <v>379</v>
+      </c>
+      <c r="SA8" t="s">
+        <v>379</v>
+      </c>
+      <c r="SB8" t="s">
+        <v>379</v>
+      </c>
+      <c r="SC8" t="s">
+        <v>397</v>
+      </c>
+      <c r="SE8" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF8" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG8">
+        <v>0</v>
+      </c>
+      <c r="SH8">
+        <v>0</v>
+      </c>
+      <c r="SI8" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ8" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK8" t="s">
+        <v>440</v>
+      </c>
+      <c r="SL8">
+        <v>0</v>
+      </c>
+      <c r="SM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:508">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FV9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>379</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GD9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GE9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GF9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GG9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GH9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>379</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>421</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>423</v>
+      </c>
+      <c r="SE9" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF9" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG9">
+        <v>0</v>
+      </c>
+      <c r="SH9">
+        <v>0</v>
+      </c>
+      <c r="SI9" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ9" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK9" t="s">
+        <v>441</v>
+      </c>
+      <c r="SL9">
+        <v>0</v>
+      </c>
+      <c r="SM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:508">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>379</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>379</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>410</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>412</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>414</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>416</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>418</v>
+      </c>
+      <c r="SE10" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF10" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG10">
+        <v>0</v>
+      </c>
+      <c r="SH10">
+        <v>0</v>
+      </c>
+      <c r="SI10" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ10" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK10" t="s">
+        <v>442</v>
+      </c>
+      <c r="SL10">
+        <v>0</v>
+      </c>
+      <c r="SM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:508">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E11" t="s">
         <v>375</v>
       </c>
-      <c r="AO6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AT6" t="s">
+      <c r="F11" t="s">
         <v>377</v>
       </c>
-      <c r="AU6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>375</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BE6" t="s">
+      <c r="G11" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>404</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>406</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>379</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>408</v>
+      </c>
+      <c r="FR11" t="s">
+        <v>379</v>
+      </c>
+      <c r="SD11" t="s">
+        <v>428</v>
+      </c>
+      <c r="SE11" t="s">
+        <v>431</v>
+      </c>
+      <c r="SF11" t="s">
+        <v>430</v>
+      </c>
+      <c r="SG11">
+        <v>0</v>
+      </c>
+      <c r="SH11">
+        <v>0</v>
+      </c>
+      <c r="SI11" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ11" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK11" t="s">
+        <v>443</v>
+      </c>
+      <c r="SL11">
+        <v>0</v>
+      </c>
+      <c r="SM11">
+        <v>0</v>
+      </c>
+      <c r="SN11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:508">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" t="s">
+        <v>373</v>
+      </c>
+      <c r="I12" t="s">
+        <v>379</v>
+      </c>
+      <c r="J12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K12" t="s">
+        <v>379</v>
+      </c>
+      <c r="L12" t="s">
+        <v>379</v>
+      </c>
+      <c r="M12" t="s">
+        <v>379</v>
+      </c>
+      <c r="N12" t="s">
+        <v>379</v>
+      </c>
+      <c r="O12" t="s">
+        <v>379</v>
+      </c>
+      <c r="P12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>379</v>
+      </c>
+      <c r="R12" t="s">
+        <v>379</v>
+      </c>
+      <c r="S12" t="s">
+        <v>379</v>
+      </c>
+      <c r="T12" t="s">
+        <v>379</v>
+      </c>
+      <c r="U12" t="s">
+        <v>379</v>
+      </c>
+      <c r="V12" t="s">
+        <v>379</v>
+      </c>
+      <c r="W12" t="s">
+        <v>379</v>
+      </c>
+      <c r="X12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD12" t="s">
         <v>382</v>
       </c>
-      <c r="BF6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BH6" t="s">
+      <c r="AE12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF12" t="s">
         <v>383</v>
       </c>
-      <c r="BI6" t="s">
-        <v>383</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>384</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BM6" t="s">
+      <c r="AG12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AK12" t="s">
         <v>385</v>
       </c>
-      <c r="BN6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BU6" t="s">
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="s">
         <v>387</v>
       </c>
-      <c r="BV6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>375</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>377</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>388</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>377</v>
-      </c>
-      <c r="DA6">
+      <c r="AN12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>389</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>391</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>392</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>392</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>395</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>397</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>379</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>380</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>399</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>379</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>379</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>401</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>402</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>397</v>
+      </c>
+      <c r="SE12" t="s">
+        <v>429</v>
+      </c>
+      <c r="SF12" t="s">
+        <v>429</v>
+      </c>
+      <c r="SG12">
         <v>0</v>
       </c>
-      <c r="DB6" t="s">
-        <v>377</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>375</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>389</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>390</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>387</v>
-      </c>
-      <c r="FO6">
+      <c r="SH12">
         <v>0</v>
       </c>
-      <c r="SC6" t="s">
-        <v>403</v>
-      </c>
-      <c r="SD6" t="s">
-        <v>403</v>
-      </c>
-      <c r="SE6">
+      <c r="SI12" t="s">
+        <v>433</v>
+      </c>
+      <c r="SJ12" t="s">
+        <v>433</v>
+      </c>
+      <c r="SK12" t="s">
+        <v>444</v>
+      </c>
+      <c r="SL12">
         <v>0</v>
       </c>
-      <c r="SF6">
-        <v>0</v>
-      </c>
-      <c r="SG6" t="s">
-        <v>406</v>
-      </c>
-      <c r="SH6" t="s">
-        <v>406</v>
-      </c>
-      <c r="SI6" t="s">
-        <v>411</v>
-      </c>
-      <c r="SJ6">
-        <v>0</v>
-      </c>
-      <c r="SK6">
+      <c r="SM12">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="471">
   <si>
     <t>section</t>
   </si>
@@ -1111,6 +1111,12 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
@@ -1120,10 +1126,10 @@
     <t>c</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>MBIRE</t>
+  </si>
+  <si>
+    <t>LUPANE</t>
   </si>
   <si>
     <t>HURUNGWE</t>
@@ -1132,24 +1138,36 @@
     <t>GOKWE SOUTH</t>
   </si>
   <si>
+    <t>Angwa Clinic</t>
+  </si>
+  <si>
+    <t>St Luke's Mission Hospital</t>
+  </si>
+  <si>
     <t>Karoi District Hospital</t>
   </si>
   <si>
     <t>Sai Clinic</t>
   </si>
   <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
     <t>June</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
     <t>2024</t>
   </si>
   <si>
+    <t>May</t>
+  </si>
+  <si>
     <t>August</t>
   </si>
   <si>
@@ -1159,6 +1177,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>Examination Room and Operating room meet standards save for Dosal charts that were not displayed</t>
+  </si>
+  <si>
     <t>Didn't meet all required expections</t>
   </si>
   <si>
@@ -1168,16 +1189,22 @@
     <t>No Funding</t>
   </si>
   <si>
+    <t>Disposable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Disposable_Dorsal_slit Reusable_Dorsal_slit</t>
   </si>
   <si>
     <t>Reusable_Dorsal_slit Device_removal_kit</t>
   </si>
   <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
+  </si>
+  <si>
     <t>Disposable_gloves Syringes_with_needles</t>
   </si>
   <si>
-    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
+    <t>All Supplies necessary for service delivery were on site</t>
   </si>
   <si>
     <t>Room for improvement</t>
@@ -1186,6 +1213,9 @@
     <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
   </si>
   <si>
+    <t>Facility meet requirements on this section</t>
+  </si>
+  <si>
     <t>There is room for improvement</t>
   </si>
   <si>
@@ -1204,18 +1234,28 @@
     <t>Lignocaine Bupivacaine</t>
   </si>
   <si>
+    <t>All requirements met</t>
+  </si>
+  <si>
     <t>Doing well</t>
   </si>
   <si>
     <t>well done</t>
   </si>
   <si>
+    <t>Waste Management is excellent
+Encouraged to purchase mpre bins</t>
+  </si>
+  <si>
     <t>doing relatively well</t>
   </si>
   <si>
     <t>No Bins in the rooms</t>
   </si>
   <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
   </si>
   <si>
@@ -1225,18 +1265,38 @@
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
   </si>
   <si>
+    <t>Facility is doing very well
+Recommendation include:
+Purchasing of more bins
+Using reusable kits</t>
+  </si>
+  <si>
     <t>Facility is doing relatively well save for issues to do with examination room that needs attention</t>
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
   </si>
   <si>
+    <t>Everything is in order</t>
+  </si>
+  <si>
+    <t>Data tallied for the period under review
+All source documebts perfectly filled</t>
+  </si>
+  <si>
     <t>There are issues with data in DHIS2</t>
   </si>
   <si>
     <t>All data tallied</t>
   </si>
   <si>
+    <t>everything good</t>
+  </si>
+  <si>
+    <t>2wT system is being utilised in client 
+Facility is doing well</t>
+  </si>
+  <si>
     <t>Facility is doing well. There are only data discepencies in DHIS2 that needs to be corrected</t>
   </si>
   <si>
@@ -1303,13 +1363,16 @@
     <t>3</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>8</t>
@@ -1318,6 +1381,15 @@
     <t>amutenha</t>
   </si>
   <si>
+    <t>2025-06-29T15:41:05.394282Z</t>
+  </si>
+  <si>
+    <t>2025-06-29T15:21:41.505050Z</t>
+  </si>
+  <si>
+    <t>2025-06-29T15:21:40.981289Z</t>
+  </si>
+  <si>
     <t>2025-06-28T08:50:59.231581Z</t>
   </si>
   <si>
@@ -1349,6 +1421,12 @@
   </si>
   <si>
     <t>2025-06-27T17:06:09.110083Z</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '1', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '2', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '2', 'current_iteration': '2', 'mrfmcs': '2', 'registermcs': '2'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '6', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '1', 'mrfmcs': '6', 'registermcs': '6'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '3', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '3', 'current_iteration': '2', 'mrfmcs': '3', 'registermcs': '3'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '13', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'July', 'calculatedYear': '2025', 'calculated_month_numeric': '7', 'cifno': '6', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '1', 'mrfmcs': '6', 'registermcs': '6'}, {'calculatedMonth': 'August', 'calculatedYear': '2025', 'calculated_month_numeric': '8', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '2', 'mrfmcs': '9', 'registermcs': '9'}]</t>
@@ -1712,7 +1790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN12"/>
+  <dimension ref="A1:SN15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3252,400 +3330,88 @@
         <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H2" t="s">
+        <v>381</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
-      <c r="JU2" t="s">
-        <v>379</v>
-      </c>
-      <c r="JW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="JY2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KA2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KC2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KE2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KG2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KK2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KM2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KO2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KQ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KU2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="KY2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LA2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LE2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LG2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LI2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LK2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LO2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LQ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LS2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LU2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MC2" t="s">
-        <v>379</v>
-      </c>
-      <c r="ME2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MM2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MO2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="MY2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NF2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NG2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NI2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NR2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NS2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NT2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NU2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NV2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NX2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NY2" t="s">
-        <v>379</v>
-      </c>
-      <c r="NZ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OB2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OD2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OF2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OH2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OJ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OL2" t="s">
-        <v>379</v>
-      </c>
-      <c r="ON2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OR2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OT2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OV2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OX2" t="s">
-        <v>379</v>
-      </c>
-      <c r="OZ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PB2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PD2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PF2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PH2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PJ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PL2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PN2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PR2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PT2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PV2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PX2" t="s">
-        <v>379</v>
-      </c>
-      <c r="PZ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QB2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QD2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QF2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QH2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QJ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QL2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QN2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QR2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QT2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QV2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QX2" t="s">
-        <v>379</v>
-      </c>
-      <c r="QZ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RB2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RD2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RF2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RH2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RJ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RK2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RL2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RM2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RN2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RO2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RQ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RR2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RS2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RT2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RU2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RV2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RX2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RY2" t="s">
-        <v>379</v>
-      </c>
-      <c r="RZ2" t="s">
-        <v>379</v>
-      </c>
-      <c r="SA2" t="s">
-        <v>379</v>
-      </c>
-      <c r="SB2" t="s">
-        <v>379</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>427</v>
+      <c r="DG2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>419</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>385</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>423</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>385</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>446</v>
       </c>
       <c r="SE2" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="SF2" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="SG2">
         <v>0</v>
@@ -3654,19 +3420,22 @@
         <v>0</v>
       </c>
       <c r="SI2" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ2" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK2" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="SL2">
         <v>0</v>
       </c>
       <c r="SM2">
         <v>0</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3677,541 +3446,91 @@
         <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="E3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" t="s">
+        <v>381</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
-      <c r="GN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HD3" t="s">
+      <c r="DG3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>420</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>385</v>
+      </c>
+      <c r="DY3" t="s">
         <v>424</v>
       </c>
-      <c r="HE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>426</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IF3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IH3" t="s">
-        <v>379</v>
-      </c>
-      <c r="II3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IJ3" t="s">
-        <v>427</v>
-      </c>
-      <c r="IK3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IL3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IM3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>427</v>
-      </c>
-      <c r="IW3" t="s">
-        <v>427</v>
-      </c>
-      <c r="IX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="IZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JD3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JF3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JH3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JI3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JJ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JK3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JL3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JM3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JV3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="JZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KD3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KF3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KH3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KJ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KL3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KV3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="KZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LD3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LF3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LH3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LJ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LL3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LV3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="LZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MD3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MF3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MH3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MJ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="ML3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MN3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MP3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MR3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MT3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MV3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MX3" t="s">
-        <v>379</v>
-      </c>
-      <c r="MZ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="NB3" t="s">
-        <v>379</v>
-      </c>
-      <c r="ND3" t="s">
-        <v>427</v>
-      </c>
-      <c r="NE3" t="s">
-        <v>427</v>
-      </c>
-      <c r="OA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OI3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OK3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OM3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OU3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OW3" t="s">
-        <v>379</v>
-      </c>
-      <c r="OY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PI3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PK3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PM3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PU3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PW3" t="s">
-        <v>379</v>
-      </c>
-      <c r="PY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QI3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QK3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QM3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QO3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QS3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QU3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QW3" t="s">
-        <v>379</v>
-      </c>
-      <c r="QY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="RA3" t="s">
-        <v>379</v>
-      </c>
-      <c r="RC3" t="s">
-        <v>379</v>
-      </c>
-      <c r="RE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="RG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="RI3" t="s">
-        <v>379</v>
+      <c r="FQ3" t="s">
+        <v>385</v>
+      </c>
+      <c r="SD3" t="s">
+        <v>446</v>
       </c>
       <c r="SE3" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="SF3" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="SG3">
         <v>0</v>
@@ -4220,19 +3539,22 @@
         <v>0</v>
       </c>
       <c r="SI3" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ3" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK3" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="SL3">
         <v>0</v>
       </c>
       <c r="SM3">
         <v>0</v>
+      </c>
+      <c r="SN3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -4243,139 +3565,316 @@
         <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="I4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" t="s">
+        <v>385</v>
+      </c>
+      <c r="K4" t="s">
+        <v>385</v>
+      </c>
+      <c r="L4" t="s">
+        <v>385</v>
+      </c>
+      <c r="M4" t="s">
+        <v>385</v>
+      </c>
+      <c r="N4" t="s">
+        <v>385</v>
+      </c>
+      <c r="O4" t="s">
+        <v>385</v>
+      </c>
+      <c r="P4" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>385</v>
+      </c>
+      <c r="R4" t="s">
+        <v>385</v>
+      </c>
+      <c r="S4" t="s">
+        <v>385</v>
+      </c>
+      <c r="T4" t="s">
+        <v>385</v>
+      </c>
+      <c r="U4" t="s">
+        <v>385</v>
+      </c>
+      <c r="V4" t="s">
+        <v>385</v>
+      </c>
+      <c r="W4" t="s">
+        <v>385</v>
+      </c>
+      <c r="X4" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>391</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="DK4" t="s">
-        <v>379</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>379</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>379</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>420</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>422</v>
+      <c r="AM4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>399</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>402</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>404</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>385</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>385</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>385</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>385</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>385</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>385</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>412</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>416</v>
       </c>
       <c r="SE4" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SF4" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SG4">
         <v>0</v>
@@ -4384,13 +3883,13 @@
         <v>0</v>
       </c>
       <c r="SI4" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ4" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK4" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="SL4">
         <v>0</v>
@@ -4407,88 +3906,403 @@
         <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="DZ5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>379</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>379</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>409</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>411</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>413</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>415</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>417</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>419</v>
+      <c r="JU5" t="s">
+        <v>385</v>
+      </c>
+      <c r="JW5" t="s">
+        <v>385</v>
+      </c>
+      <c r="JY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KA5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KC5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KE5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KG5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KI5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KK5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KO5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KQ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KS5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KU5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KW5" t="s">
+        <v>385</v>
+      </c>
+      <c r="KY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LA5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LC5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LE5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LG5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LI5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LK5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LO5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LQ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LS5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LU5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LW5" t="s">
+        <v>385</v>
+      </c>
+      <c r="LY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MA5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MC5" t="s">
+        <v>385</v>
+      </c>
+      <c r="ME5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MG5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MI5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MK5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MO5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MQ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MS5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MU5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MW5" t="s">
+        <v>385</v>
+      </c>
+      <c r="MY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NA5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NC5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NF5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NG5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NH5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NI5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NJ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NK5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NL5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NN5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NO5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NP5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NQ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NR5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NS5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NT5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NU5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NV5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NW5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="NZ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OB5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OD5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OF5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OH5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OJ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OL5" t="s">
+        <v>385</v>
+      </c>
+      <c r="ON5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OP5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OR5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OT5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OV5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OX5" t="s">
+        <v>385</v>
+      </c>
+      <c r="OZ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PB5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PD5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PF5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PH5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PJ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PL5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PN5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PP5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PR5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PT5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PV5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PX5" t="s">
+        <v>385</v>
+      </c>
+      <c r="PZ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QB5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QD5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QF5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QH5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QJ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QL5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QN5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QP5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QR5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QT5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QV5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QX5" t="s">
+        <v>385</v>
+      </c>
+      <c r="QZ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RB5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RD5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RF5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RH5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RJ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RK5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RL5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RN5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RO5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RP5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RQ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RR5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RS5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RT5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RU5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RV5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RW5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RX5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RY5" t="s">
+        <v>385</v>
+      </c>
+      <c r="RZ5" t="s">
+        <v>385</v>
+      </c>
+      <c r="SA5" t="s">
+        <v>385</v>
+      </c>
+      <c r="SB5" t="s">
+        <v>385</v>
+      </c>
+      <c r="SC5" t="s">
+        <v>445</v>
       </c>
       <c r="SE5" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SF5" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SG5">
         <v>0</v>
@@ -4497,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="SI5" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ5" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK5" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="SL5">
         <v>0</v>
@@ -4517,94 +4331,544 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" t="s">
-        <v>376</v>
-      </c>
-      <c r="G6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6" t="s">
         <v>376</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
-      <c r="DG6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>405</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>407</v>
-      </c>
-      <c r="FR6" t="s">
-        <v>379</v>
-      </c>
-      <c r="SD6" t="s">
-        <v>428</v>
+      <c r="GN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GV6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>385</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>442</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HV6" t="s">
+        <v>444</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>385</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>385</v>
+      </c>
+      <c r="II6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>445</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>445</v>
+      </c>
+      <c r="IW6" t="s">
+        <v>445</v>
+      </c>
+      <c r="IX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IY6" t="s">
+        <v>385</v>
+      </c>
+      <c r="IZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JD6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JF6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JH6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JI6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JL6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JM6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JV6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="JZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KD6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KF6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KH6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KJ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KL6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KV6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="KZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LD6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LF6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LH6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LJ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LL6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LV6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="LZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MD6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MF6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MH6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MJ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="ML6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MN6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MP6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MR6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MT6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MV6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MX6" t="s">
+        <v>385</v>
+      </c>
+      <c r="MZ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="NB6" t="s">
+        <v>385</v>
+      </c>
+      <c r="ND6" t="s">
+        <v>445</v>
+      </c>
+      <c r="NE6" t="s">
+        <v>445</v>
+      </c>
+      <c r="OA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OI6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OM6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OU6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OW6" t="s">
+        <v>385</v>
+      </c>
+      <c r="OY6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PI6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PM6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PU6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PW6" t="s">
+        <v>385</v>
+      </c>
+      <c r="PY6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QI6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QK6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QM6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QO6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QQ6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QS6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QU6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QW6" t="s">
+        <v>385</v>
+      </c>
+      <c r="QY6" t="s">
+        <v>385</v>
+      </c>
+      <c r="RA6" t="s">
+        <v>385</v>
+      </c>
+      <c r="RC6" t="s">
+        <v>385</v>
+      </c>
+      <c r="RE6" t="s">
+        <v>385</v>
+      </c>
+      <c r="RG6" t="s">
+        <v>385</v>
+      </c>
+      <c r="RI6" t="s">
+        <v>385</v>
       </c>
       <c r="SE6" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="SF6" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="SG6">
         <v>0</v>
@@ -4613,22 +4877,19 @@
         <v>0</v>
       </c>
       <c r="SI6" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ6" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK6" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="SL6">
         <v>0</v>
       </c>
       <c r="SM6">
         <v>0</v>
-      </c>
-      <c r="SN6" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4636,325 +4897,142 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
-      </c>
-      <c r="I7" t="s">
-        <v>379</v>
-      </c>
-      <c r="J7" t="s">
-        <v>379</v>
-      </c>
-      <c r="K7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M7" t="s">
-        <v>380</v>
-      </c>
-      <c r="N7" t="s">
-        <v>380</v>
-      </c>
-      <c r="O7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P7" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>379</v>
-      </c>
-      <c r="R7" t="s">
-        <v>379</v>
-      </c>
-      <c r="S7" t="s">
-        <v>379</v>
-      </c>
-      <c r="T7" t="s">
-        <v>379</v>
-      </c>
-      <c r="U7" t="s">
-        <v>379</v>
-      </c>
-      <c r="V7" t="s">
-        <v>379</v>
-      </c>
-      <c r="W7" t="s">
-        <v>380</v>
-      </c>
-      <c r="X7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>383</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="AM7" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>388</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>389</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>380</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>390</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>392</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>392</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>394</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>395</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>396</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>379</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CE7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CM7" t="s">
-        <v>398</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CU7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CY7" t="s">
-        <v>379</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>379</v>
-      </c>
-      <c r="DA7" t="s">
-        <v>379</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>379</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>379</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>400</v>
-      </c>
-      <c r="DE7" t="s">
-        <v>402</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>403</v>
+      <c r="DL7" t="s">
+        <v>385</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>385</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>385</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>438</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>440</v>
       </c>
       <c r="SE7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SF7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SG7">
         <v>0</v>
@@ -4963,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="SI7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="SL7">
         <v>0</v>
@@ -4983,925 +5061,91 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
-      <c r="GN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HD8" t="s">
-        <v>425</v>
-      </c>
-      <c r="HE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HV8" t="s">
-        <v>397</v>
-      </c>
-      <c r="HW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="HZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="ID8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="II8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IJ8" t="s">
-        <v>397</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>397</v>
-      </c>
-      <c r="IW8" t="s">
-        <v>397</v>
-      </c>
-      <c r="IX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="IZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="JY8" t="s">
-        <v>380</v>
-      </c>
-      <c r="JZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KC8" t="s">
-        <v>380</v>
-      </c>
-      <c r="KD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KG8" t="s">
-        <v>380</v>
-      </c>
-      <c r="KH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KI8" t="s">
-        <v>380</v>
-      </c>
-      <c r="KJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KS8" t="s">
-        <v>380</v>
-      </c>
-      <c r="KT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KV8" t="s">
-        <v>380</v>
-      </c>
-      <c r="KW8" t="s">
-        <v>380</v>
-      </c>
-      <c r="KX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="KZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="LY8" t="s">
-        <v>380</v>
-      </c>
-      <c r="LZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="ME8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="ML8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="MZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="ND8" t="s">
-        <v>397</v>
-      </c>
-      <c r="NE8" t="s">
-        <v>397</v>
-      </c>
-      <c r="NF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NV8" t="s">
-        <v>380</v>
-      </c>
-      <c r="NW8" t="s">
-        <v>380</v>
-      </c>
-      <c r="NX8" t="s">
-        <v>380</v>
-      </c>
-      <c r="NY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="NZ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="OA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OF8" t="s">
-        <v>380</v>
-      </c>
-      <c r="OG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OJ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="OK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="ON8" t="s">
-        <v>380</v>
-      </c>
-      <c r="OO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OP8" t="s">
-        <v>380</v>
-      </c>
-      <c r="OQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="OZ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="PA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PC8" t="s">
-        <v>380</v>
-      </c>
-      <c r="PD8" t="s">
-        <v>380</v>
-      </c>
-      <c r="PE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="PZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QF8" t="s">
-        <v>380</v>
-      </c>
-      <c r="QG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="QZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RC8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RF8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RG8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RH8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RI8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RJ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RK8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RL8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RM8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RN8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RO8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RP8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RQ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RR8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RS8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RT8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RU8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RV8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RW8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RX8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RY8" t="s">
-        <v>379</v>
-      </c>
-      <c r="RZ8" t="s">
-        <v>379</v>
-      </c>
-      <c r="SA8" t="s">
-        <v>379</v>
-      </c>
-      <c r="SB8" t="s">
-        <v>379</v>
-      </c>
-      <c r="SC8" t="s">
-        <v>397</v>
+      <c r="DZ8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>385</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>385</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>427</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>429</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>431</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>433</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>435</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>437</v>
       </c>
       <c r="SE8" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SF8" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SG8">
         <v>0</v>
@@ -5910,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="SI8" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ8" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK8" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="SL8">
         <v>0</v>
@@ -5930,133 +5174,94 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="E9" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H9" t="s">
+        <v>381</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
-      <c r="EZ9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FA9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FB9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FC9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FD9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FE9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FF9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FG9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FH9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FI9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FN9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FS9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FT9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FV9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FW9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FX9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY9" t="s">
-        <v>379</v>
-      </c>
-      <c r="FZ9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GC9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GD9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GE9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GG9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GH9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GI9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GJ9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GK9" t="s">
-        <v>379</v>
-      </c>
-      <c r="GL9" t="s">
+      <c r="DG9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DM9" t="s">
         <v>421</v>
       </c>
-      <c r="GM9" t="s">
-        <v>423</v>
+      <c r="DN9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>385</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>425</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>385</v>
+      </c>
+      <c r="SD9" t="s">
+        <v>446</v>
       </c>
       <c r="SE9" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="SF9" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="SG9">
         <v>0</v>
@@ -6065,19 +5270,22 @@
         <v>0</v>
       </c>
       <c r="SI9" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ9" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK9" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="SL9">
         <v>0</v>
       </c>
       <c r="SM9">
         <v>0</v>
+      </c>
+      <c r="SN9" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -6085,88 +5293,325 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="I10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" t="s">
+        <v>385</v>
+      </c>
+      <c r="K10" t="s">
+        <v>385</v>
+      </c>
+      <c r="L10" t="s">
+        <v>386</v>
+      </c>
+      <c r="M10" t="s">
+        <v>386</v>
+      </c>
+      <c r="N10" t="s">
+        <v>386</v>
+      </c>
+      <c r="O10" t="s">
+        <v>386</v>
+      </c>
+      <c r="P10" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>385</v>
+      </c>
+      <c r="R10" t="s">
+        <v>385</v>
+      </c>
+      <c r="S10" t="s">
+        <v>385</v>
+      </c>
+      <c r="T10" t="s">
+        <v>385</v>
+      </c>
+      <c r="U10" t="s">
+        <v>385</v>
+      </c>
+      <c r="V10" t="s">
+        <v>385</v>
+      </c>
+      <c r="W10" t="s">
+        <v>386</v>
+      </c>
+      <c r="X10" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>392</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="DZ10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>379</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EF10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EI10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EN10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EP10" t="s">
-        <v>379</v>
-      </c>
-      <c r="EQ10" t="s">
+      <c r="AM10" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>397</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>402</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>404</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>407</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>385</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CM10" t="s">
         <v>410</v>
       </c>
-      <c r="ER10" t="s">
-        <v>412</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>414</v>
-      </c>
-      <c r="EV10" t="s">
-        <v>416</v>
-      </c>
-      <c r="EX10" t="s">
-        <v>418</v>
+      <c r="CN10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>385</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>385</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>385</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>385</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>415</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>417</v>
       </c>
       <c r="SE10" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SF10" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SG10">
         <v>0</v>
@@ -6175,13 +5620,13 @@
         <v>0</v>
       </c>
       <c r="SI10" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ10" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK10" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="SL10">
         <v>0</v>
@@ -6195,94 +5640,925 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G11" t="s">
-        <v>374</v>
-      </c>
-      <c r="H11" t="s">
         <v>377</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="DG11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>406</v>
-      </c>
-      <c r="DN11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DX11" t="s">
-        <v>379</v>
-      </c>
-      <c r="DY11" t="s">
+      <c r="GN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="GZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HD11" t="s">
+        <v>443</v>
+      </c>
+      <c r="HE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HV11" t="s">
         <v>408</v>
       </c>
-      <c r="FR11" t="s">
-        <v>379</v>
-      </c>
-      <c r="SD11" t="s">
-        <v>428</v>
+      <c r="HW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="HZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="ID11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="II11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IJ11" t="s">
+        <v>408</v>
+      </c>
+      <c r="IK11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IV11" t="s">
+        <v>408</v>
+      </c>
+      <c r="IW11" t="s">
+        <v>408</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="IZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="JY11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KG11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KI11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KS11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KV11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KW11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="KZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="LY11" t="s">
+        <v>386</v>
+      </c>
+      <c r="LZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="ME11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="ML11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="MZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="ND11" t="s">
+        <v>408</v>
+      </c>
+      <c r="NE11" t="s">
+        <v>408</v>
+      </c>
+      <c r="NF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NV11" t="s">
+        <v>386</v>
+      </c>
+      <c r="NW11" t="s">
+        <v>386</v>
+      </c>
+      <c r="NX11" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="NZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OJ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="ON11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OP11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="OZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="PA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="PD11" t="s">
+        <v>386</v>
+      </c>
+      <c r="PE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="PZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="QG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="QZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RC11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RD11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RE11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RF11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RG11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RH11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RI11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RJ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RL11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RM11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RN11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RO11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RP11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RQ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RR11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RS11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RT11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RU11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RV11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RW11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RX11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RY11" t="s">
+        <v>385</v>
+      </c>
+      <c r="RZ11" t="s">
+        <v>385</v>
+      </c>
+      <c r="SA11" t="s">
+        <v>385</v>
+      </c>
+      <c r="SB11" t="s">
+        <v>385</v>
+      </c>
+      <c r="SC11" t="s">
+        <v>408</v>
       </c>
       <c r="SE11" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="SF11" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="SG11">
         <v>0</v>
@@ -6291,22 +6567,19 @@
         <v>0</v>
       </c>
       <c r="SI11" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ11" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK11" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="SL11">
         <v>0</v>
       </c>
       <c r="SM11">
         <v>0</v>
-      </c>
-      <c r="SN11" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -6314,319 +6587,133 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
-      </c>
-      <c r="I12" t="s">
-        <v>379</v>
-      </c>
-      <c r="J12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K12" t="s">
-        <v>379</v>
-      </c>
-      <c r="L12" t="s">
-        <v>379</v>
-      </c>
-      <c r="M12" t="s">
-        <v>379</v>
-      </c>
-      <c r="N12" t="s">
-        <v>379</v>
-      </c>
-      <c r="O12" t="s">
-        <v>379</v>
-      </c>
-      <c r="P12" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>379</v>
-      </c>
-      <c r="R12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S12" t="s">
-        <v>379</v>
-      </c>
-      <c r="T12" t="s">
-        <v>379</v>
-      </c>
-      <c r="U12" t="s">
-        <v>379</v>
-      </c>
-      <c r="V12" t="s">
-        <v>379</v>
-      </c>
-      <c r="W12" t="s">
-        <v>379</v>
-      </c>
-      <c r="X12" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>379</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>383</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
-      <c r="AM12" t="s">
-        <v>387</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>391</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>392</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>392</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>394</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>395</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>397</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>379</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>380</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>399</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CR12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>379</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>379</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>401</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>402</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>397</v>
+      <c r="EZ12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FA12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FC12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FD12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FE12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FF12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FG12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FH12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FI12" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FL12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FM12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FN12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FO12" t="s">
+        <v>386</v>
+      </c>
+      <c r="FS12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FT12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FU12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FV12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FW12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FX12" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY12" t="s">
+        <v>385</v>
+      </c>
+      <c r="FZ12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GA12" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GC12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GD12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GE12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GF12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GG12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GH12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GI12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GJ12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GK12" t="s">
+        <v>385</v>
+      </c>
+      <c r="GL12" t="s">
+        <v>439</v>
+      </c>
+      <c r="GM12" t="s">
+        <v>441</v>
       </c>
       <c r="SE12" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SF12" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="SG12">
         <v>0</v>
@@ -6635,18 +6722,588 @@
         <v>0</v>
       </c>
       <c r="SI12" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SJ12" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="SK12" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="SL12">
         <v>0</v>
       </c>
       <c r="SM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:508">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>385</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>385</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>428</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>430</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>432</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>434</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>436</v>
+      </c>
+      <c r="SE13" t="s">
+        <v>448</v>
+      </c>
+      <c r="SF13" t="s">
+        <v>448</v>
+      </c>
+      <c r="SG13">
+        <v>0</v>
+      </c>
+      <c r="SH13">
+        <v>0</v>
+      </c>
+      <c r="SI13" t="s">
+        <v>452</v>
+      </c>
+      <c r="SJ13" t="s">
+        <v>452</v>
+      </c>
+      <c r="SK13" t="s">
+        <v>464</v>
+      </c>
+      <c r="SL13">
+        <v>0</v>
+      </c>
+      <c r="SM13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:508">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" t="s">
+        <v>382</v>
+      </c>
+      <c r="G14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" t="s">
+        <v>382</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>418</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>422</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>385</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>426</v>
+      </c>
+      <c r="FQ14" t="s">
+        <v>385</v>
+      </c>
+      <c r="SD14" t="s">
+        <v>446</v>
+      </c>
+      <c r="SE14" t="s">
+        <v>447</v>
+      </c>
+      <c r="SF14" t="s">
+        <v>449</v>
+      </c>
+      <c r="SG14">
+        <v>0</v>
+      </c>
+      <c r="SH14">
+        <v>0</v>
+      </c>
+      <c r="SI14" t="s">
+        <v>452</v>
+      </c>
+      <c r="SJ14" t="s">
+        <v>452</v>
+      </c>
+      <c r="SK14" t="s">
+        <v>465</v>
+      </c>
+      <c r="SL14">
+        <v>0</v>
+      </c>
+      <c r="SM14">
+        <v>0</v>
+      </c>
+      <c r="SN14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:508">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>377</v>
+      </c>
+      <c r="I15" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" t="s">
+        <v>385</v>
+      </c>
+      <c r="K15" t="s">
+        <v>385</v>
+      </c>
+      <c r="L15" t="s">
+        <v>385</v>
+      </c>
+      <c r="M15" t="s">
+        <v>385</v>
+      </c>
+      <c r="N15" t="s">
+        <v>385</v>
+      </c>
+      <c r="O15" t="s">
+        <v>385</v>
+      </c>
+      <c r="P15" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>385</v>
+      </c>
+      <c r="R15" t="s">
+        <v>385</v>
+      </c>
+      <c r="S15" t="s">
+        <v>385</v>
+      </c>
+      <c r="T15" t="s">
+        <v>385</v>
+      </c>
+      <c r="U15" t="s">
+        <v>385</v>
+      </c>
+      <c r="V15" t="s">
+        <v>385</v>
+      </c>
+      <c r="W15" t="s">
+        <v>385</v>
+      </c>
+      <c r="X15" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>402</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>404</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>405</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>408</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>385</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>411</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>385</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>385</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>415</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>408</v>
+      </c>
+      <c r="SE15" t="s">
+        <v>448</v>
+      </c>
+      <c r="SF15" t="s">
+        <v>448</v>
+      </c>
+      <c r="SG15">
+        <v>0</v>
+      </c>
+      <c r="SH15">
+        <v>0</v>
+      </c>
+      <c r="SI15" t="s">
+        <v>452</v>
+      </c>
+      <c r="SJ15" t="s">
+        <v>452</v>
+      </c>
+      <c r="SK15" t="s">
+        <v>466</v>
+      </c>
+      <c r="SL15">
+        <v>0</v>
+      </c>
+      <c r="SM15">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="487">
   <si>
     <t>section</t>
   </si>
@@ -1126,25 +1126,25 @@
     <t>d</t>
   </si>
   <si>
+    <t>MBIRE</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
     <t>LUPANE</t>
   </si>
   <si>
-    <t>MBIRE</t>
-  </si>
-  <si>
     <t>HURUNGWE</t>
   </si>
   <si>
+    <t>Angwa Clinic</t>
+  </si>
+  <si>
     <t>Chitapo Clinic</t>
   </si>
   <si>
     <t>St Luke's Mission Hospital</t>
-  </si>
-  <si>
-    <t>Angwa Clinic</t>
   </si>
   <si>
     <t>Karoi District Hospital</t>
@@ -1306,6 +1306,9 @@
     <t>2WT system is working well</t>
   </si>
   <si>
+    <t>The DC team is doing very well</t>
+  </si>
+  <si>
     <t>They are doing well</t>
   </si>
   <si>
@@ -1318,21 +1321,21 @@
     <t>Door to door were the main activites for age group 15-24 and market place mobilisatiin for the older age group</t>
   </si>
   <si>
+    <t>Artisanal_Miners Men_who_go_to_work</t>
+  </si>
+  <si>
     <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men</t>
   </si>
   <si>
     <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
-    <t>Artisanal_Miners Men_who_go_to_work</t>
+    <t>Health_Promotional_Officer Community_Nursing</t>
   </si>
   <si>
     <t>Health_Promotional_Officer Community_Nursing Environmental_Health_Technicians</t>
   </si>
   <si>
-    <t>Health_Promotional_Officer Community_Nursing</t>
-  </si>
-  <si>
     <t>Health_Promotional_Officer Community_Nursing DAC</t>
   </si>
   <si>
@@ -1345,6 +1348,9 @@
     <t>Chiefs Headmen Councilors</t>
   </si>
   <si>
+    <t>Yes, they introduced inter program collaboration</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -1357,6 +1363,11 @@
     <t>Yes have introduced the Vmmc - viac linkage system</t>
   </si>
   <si>
+    <t>Site is doing very well
+encouraged to:
+come up with more mobilisation efforts</t>
+  </si>
+  <si>
     <t>Overally well</t>
   </si>
   <si>
@@ -1409,6 +1420,9 @@
   </si>
   <si>
     <t>amutenha</t>
+  </si>
+  <si>
+    <t>2025-06-30T05:42:07.558273Z</t>
   </si>
   <si>
     <t>2025-06-29T19:20:41.055236Z</t>
@@ -1826,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN17"/>
+  <dimension ref="A1:SN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3374,36 +3388,6 @@
       <c r="DZ2" t="s">
         <v>386</v>
       </c>
-      <c r="EA2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>386</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>386</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>386</v>
-      </c>
       <c r="EK2" t="s">
         <v>386</v>
       </c>
@@ -3426,25 +3410,25 @@
         <v>428</v>
       </c>
       <c r="ER2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="ET2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="EV2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="EX2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="EY2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="SE2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG2">
         <v>0</v>
@@ -3453,13 +3437,13 @@
         <v>0</v>
       </c>
       <c r="SI2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="SL2">
         <v>0</v>
@@ -3506,7 +3490,7 @@
         <v>386</v>
       </c>
       <c r="EG3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="EH3" t="s">
         <v>386</v>
@@ -3539,25 +3523,25 @@
         <v>429</v>
       </c>
       <c r="ER3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="ET3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="EV3" t="s">
         <v>439</v>
       </c>
       <c r="EX3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="EY3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="SE3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG3">
         <v>0</v>
@@ -3566,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="SI3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="SL3">
         <v>0</v>
@@ -3586,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
         <v>372</v>
@@ -3594,83 +3578,80 @@
       <c r="D4" t="s">
         <v>376</v>
       </c>
-      <c r="E4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G4" t="s">
-        <v>384</v>
-      </c>
-      <c r="H4" t="s">
-        <v>382</v>
-      </c>
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="DG4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>419</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>420</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>424</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>386</v>
-      </c>
-      <c r="SD4" t="s">
-        <v>456</v>
+      <c r="DZ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>387</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>430</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>435</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>440</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>444</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>449</v>
       </c>
       <c r="SE4" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="SF4" t="s">
         <v>460</v>
@@ -3682,22 +3663,19 @@
         <v>0</v>
       </c>
       <c r="SI4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ4" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK4" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="SL4">
         <v>0</v>
       </c>
       <c r="SM4">
         <v>0</v>
-      </c>
-      <c r="SN4" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -3708,19 +3686,19 @@
         <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
         <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
         <v>382</v>
@@ -3744,7 +3722,7 @@
         <v>386</v>
       </c>
       <c r="DM5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="DN5" t="s">
         <v>386</v>
@@ -3780,19 +3758,19 @@
         <v>386</v>
       </c>
       <c r="DY5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="FQ5" t="s">
         <v>386</v>
       </c>
       <c r="SD5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="SE5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="SF5" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="SG5">
         <v>0</v>
@@ -3801,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="SI5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="SL5">
         <v>0</v>
@@ -3816,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="SN5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -3824,319 +3802,94 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
-      </c>
-      <c r="I6" t="s">
-        <v>386</v>
-      </c>
-      <c r="J6" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" t="s">
-        <v>386</v>
-      </c>
-      <c r="L6" t="s">
-        <v>386</v>
-      </c>
-      <c r="M6" t="s">
-        <v>386</v>
-      </c>
-      <c r="N6" t="s">
-        <v>386</v>
-      </c>
-      <c r="O6" t="s">
-        <v>386</v>
-      </c>
-      <c r="P6" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>386</v>
-      </c>
-      <c r="R6" t="s">
-        <v>386</v>
-      </c>
-      <c r="S6" t="s">
-        <v>386</v>
-      </c>
-      <c r="T6" t="s">
-        <v>386</v>
-      </c>
-      <c r="U6" t="s">
-        <v>386</v>
-      </c>
-      <c r="V6" t="s">
-        <v>386</v>
-      </c>
-      <c r="W6" t="s">
-        <v>386</v>
-      </c>
-      <c r="X6" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>392</v>
+        <v>376</v>
+      </c>
+      <c r="E6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" t="s">
+        <v>382</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
-      <c r="AM6" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>400</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>387</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>403</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>403</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>404</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>406</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>407</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>386</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CC6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CM6" t="s">
-        <v>410</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CO6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CU6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>386</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>386</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>386</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>386</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>413</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>417</v>
+      <c r="DG6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>421</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>386</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>425</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD6" t="s">
+        <v>459</v>
       </c>
       <c r="SE6" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="SF6" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="SG6">
         <v>0</v>
@@ -4145,19 +3898,22 @@
         <v>0</v>
       </c>
       <c r="SI6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ6" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK6" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="SL6">
         <v>0</v>
       </c>
       <c r="SM6">
         <v>0</v>
+      </c>
+      <c r="SN6" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4165,406 +3921,319 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>376</v>
+      </c>
+      <c r="I7" t="s">
+        <v>386</v>
+      </c>
+      <c r="J7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M7" t="s">
+        <v>386</v>
+      </c>
+      <c r="N7" t="s">
+        <v>386</v>
+      </c>
+      <c r="O7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>386</v>
+      </c>
+      <c r="R7" t="s">
+        <v>386</v>
+      </c>
+      <c r="S7" t="s">
+        <v>386</v>
+      </c>
+      <c r="T7" t="s">
+        <v>386</v>
+      </c>
+      <c r="U7" t="s">
+        <v>386</v>
+      </c>
+      <c r="V7" t="s">
+        <v>386</v>
+      </c>
+      <c r="W7" t="s">
+        <v>386</v>
+      </c>
+      <c r="X7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>392</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
-      <c r="JU7" t="s">
-        <v>386</v>
-      </c>
-      <c r="JW7" t="s">
-        <v>386</v>
-      </c>
-      <c r="JY7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KA7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KC7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KE7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KG7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KI7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KK7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KM7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KO7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KQ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KS7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KU7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KW7" t="s">
-        <v>386</v>
-      </c>
-      <c r="KY7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LA7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LC7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LE7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LG7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LI7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LK7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LM7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LO7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LQ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LS7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LU7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LW7" t="s">
-        <v>386</v>
-      </c>
-      <c r="LY7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MA7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MC7" t="s">
-        <v>386</v>
-      </c>
-      <c r="ME7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MG7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MI7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MK7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MM7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MO7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MQ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MS7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MU7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MW7" t="s">
-        <v>386</v>
-      </c>
-      <c r="MY7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NA7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NC7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NF7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NG7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NH7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NI7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NJ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NK7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NL7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NM7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NN7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NO7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NP7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NQ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NR7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NS7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NT7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NU7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NV7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NW7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NX7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NY7" t="s">
-        <v>386</v>
-      </c>
-      <c r="NZ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OB7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OD7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OF7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OH7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OJ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OL7" t="s">
-        <v>386</v>
-      </c>
-      <c r="ON7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OP7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OR7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OT7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OV7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OX7" t="s">
-        <v>386</v>
-      </c>
-      <c r="OZ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PB7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PD7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PF7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PH7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PJ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PL7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PN7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PP7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PR7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PT7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PV7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PX7" t="s">
-        <v>386</v>
-      </c>
-      <c r="PZ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QB7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QD7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QF7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QH7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QJ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QL7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QN7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QP7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QR7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QT7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QV7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QX7" t="s">
-        <v>386</v>
-      </c>
-      <c r="QZ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RB7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RD7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RF7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RH7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RJ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RK7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RL7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RM7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RN7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RO7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RP7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RQ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RR7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RS7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RT7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RU7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RV7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RW7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RX7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RY7" t="s">
-        <v>386</v>
-      </c>
-      <c r="RZ7" t="s">
-        <v>386</v>
-      </c>
-      <c r="SA7" t="s">
-        <v>386</v>
-      </c>
-      <c r="SB7" t="s">
-        <v>386</v>
-      </c>
-      <c r="SC7" t="s">
-        <v>455</v>
+      <c r="AM7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>397</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>386</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>387</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>403</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>404</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>407</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>410</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>386</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>413</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>417</v>
       </c>
       <c r="SE7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG7">
         <v>0</v>
@@ -4573,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="SI7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="SL7">
         <v>0</v>
@@ -4604,533 +4273,395 @@
       <c r="AL8">
         <v>0</v>
       </c>
-      <c r="GN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GV8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GW8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>386</v>
-      </c>
-      <c r="GZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HD8" t="s">
-        <v>452</v>
-      </c>
-      <c r="HE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HF8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HH8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HI8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HJ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HK8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HL8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HM8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HV8" t="s">
-        <v>454</v>
-      </c>
-      <c r="HW8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HY8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="ID8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IF8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IH8" t="s">
-        <v>386</v>
-      </c>
-      <c r="II8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IJ8" t="s">
-        <v>455</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IM8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>455</v>
-      </c>
-      <c r="IW8" t="s">
-        <v>455</v>
-      </c>
-      <c r="IX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IY8" t="s">
-        <v>386</v>
-      </c>
-      <c r="IZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JD8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JF8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JH8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JI8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JJ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JK8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JL8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JM8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JV8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KD8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KF8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KH8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KJ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KL8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KV8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="KZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LD8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LF8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LH8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LJ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LL8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LV8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="LZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MD8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MF8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MH8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MJ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="ML8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MN8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MP8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MR8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MT8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MV8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MX8" t="s">
-        <v>386</v>
-      </c>
-      <c r="MZ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="NB8" t="s">
-        <v>386</v>
-      </c>
-      <c r="ND8" t="s">
-        <v>455</v>
-      </c>
-      <c r="NE8" t="s">
-        <v>455</v>
-      </c>
-      <c r="OA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OI8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OK8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OM8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OW8" t="s">
-        <v>386</v>
-      </c>
-      <c r="OY8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PI8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PK8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PM8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PW8" t="s">
-        <v>386</v>
-      </c>
-      <c r="PY8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QI8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QK8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QM8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QQ8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QW8" t="s">
-        <v>386</v>
-      </c>
-      <c r="QY8" t="s">
-        <v>386</v>
-      </c>
-      <c r="RA8" t="s">
-        <v>386</v>
-      </c>
-      <c r="RC8" t="s">
-        <v>386</v>
-      </c>
-      <c r="RE8" t="s">
-        <v>386</v>
-      </c>
-      <c r="RG8" t="s">
-        <v>386</v>
-      </c>
-      <c r="RI8" t="s">
-        <v>386</v>
+      <c r="JU8" t="s">
+        <v>386</v>
+      </c>
+      <c r="JW8" t="s">
+        <v>386</v>
+      </c>
+      <c r="JY8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KA8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KC8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KE8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KG8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KI8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KK8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KM8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KO8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KQ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KS8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KU8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KW8" t="s">
+        <v>386</v>
+      </c>
+      <c r="KY8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LA8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LC8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LE8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LG8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LI8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LK8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LM8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LO8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LQ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LS8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LU8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LW8" t="s">
+        <v>386</v>
+      </c>
+      <c r="LY8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MA8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MC8" t="s">
+        <v>386</v>
+      </c>
+      <c r="ME8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MG8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MI8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MK8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MM8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MO8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MQ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MS8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MU8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MW8" t="s">
+        <v>386</v>
+      </c>
+      <c r="MY8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NA8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NC8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NF8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NG8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NH8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NI8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NJ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NK8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NL8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NM8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NN8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NO8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NQ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NR8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NS8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NT8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NU8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NV8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NW8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NX8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY8" t="s">
+        <v>386</v>
+      </c>
+      <c r="NZ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OB8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OD8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OF8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OH8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OJ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OL8" t="s">
+        <v>386</v>
+      </c>
+      <c r="ON8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OR8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OT8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OV8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OX8" t="s">
+        <v>386</v>
+      </c>
+      <c r="OZ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PB8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PD8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PF8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PH8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PJ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PL8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PN8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PR8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PT8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PV8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PX8" t="s">
+        <v>386</v>
+      </c>
+      <c r="PZ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QB8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QD8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QF8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QH8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QJ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QL8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QN8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QR8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QT8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QV8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QX8" t="s">
+        <v>386</v>
+      </c>
+      <c r="QZ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RB8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RD8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RF8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RH8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RJ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RK8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RL8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RM8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RN8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RO8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RQ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RR8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RS8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RT8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RU8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RV8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RW8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RX8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RY8" t="s">
+        <v>386</v>
+      </c>
+      <c r="RZ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="SA8" t="s">
+        <v>386</v>
+      </c>
+      <c r="SB8" t="s">
+        <v>386</v>
+      </c>
+      <c r="SC8" t="s">
+        <v>458</v>
       </c>
       <c r="SE8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG8">
         <v>0</v>
@@ -5139,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="SI8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ8" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK8" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="SL8">
         <v>0</v>
@@ -5159,7 +4690,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
         <v>373</v>
@@ -5170,131 +4701,533 @@
       <c r="AL9">
         <v>0</v>
       </c>
-      <c r="DL9" t="s">
-        <v>386</v>
-      </c>
-      <c r="EZ9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FA9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FB9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FC9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FD9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FE9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FF9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FG9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FH9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FI9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FJ9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FN9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FR9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FS9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FT9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FV9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FW9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FX9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FY9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FZ9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GB9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GC9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GD9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GE9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GG9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GH9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GI9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GJ9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GK9" t="s">
-        <v>386</v>
-      </c>
-      <c r="GL9" t="s">
-        <v>448</v>
-      </c>
-      <c r="GM9" t="s">
-        <v>450</v>
+      <c r="GN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GV9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HD9" t="s">
+        <v>455</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HI9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HV9" t="s">
+        <v>457</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="ID9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="II9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>458</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>458</v>
+      </c>
+      <c r="IW9" t="s">
+        <v>458</v>
+      </c>
+      <c r="IX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JD9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JI9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JV9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="JZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KD9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KV9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="KZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LD9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LV9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="LZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MD9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="ML9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MV9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="MZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="NB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="ND9" t="s">
+        <v>458</v>
+      </c>
+      <c r="NE9" t="s">
+        <v>458</v>
+      </c>
+      <c r="OA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OI9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="OY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PI9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="PY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QI9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="QY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="RA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="RC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="RE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="RG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="RI9" t="s">
+        <v>386</v>
       </c>
       <c r="SE9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG9">
         <v>0</v>
@@ -5303,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="SI9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ9" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK9" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="SL9">
         <v>0</v>
@@ -5323,7 +5256,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
         <v>373</v>
@@ -5334,80 +5267,131 @@
       <c r="AL10">
         <v>0</v>
       </c>
-      <c r="DZ10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>386</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EF10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EI10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EN10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EP10" t="s">
-        <v>386</v>
-      </c>
-      <c r="EQ10" t="s">
-        <v>430</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>434</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>437</v>
-      </c>
-      <c r="EV10" t="s">
-        <v>440</v>
-      </c>
-      <c r="EX10" t="s">
-        <v>443</v>
-      </c>
-      <c r="EY10" t="s">
-        <v>447</v>
+      <c r="DL10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FB10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FH10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FI10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FR10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FS10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FT10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY10" t="s">
+        <v>386</v>
+      </c>
+      <c r="FZ10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GE10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GF10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GH10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL10" t="s">
+        <v>451</v>
+      </c>
+      <c r="GM10" t="s">
+        <v>453</v>
       </c>
       <c r="SE10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG10">
         <v>0</v>
@@ -5416,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="SI10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="SL10">
         <v>0</v>
@@ -5436,7 +5420,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C11" t="s">
         <v>373</v>
@@ -5444,86 +5428,83 @@
       <c r="D11" t="s">
         <v>377</v>
       </c>
-      <c r="E11" t="s">
-        <v>381</v>
-      </c>
-      <c r="F11" t="s">
-        <v>382</v>
-      </c>
-      <c r="G11" t="s">
-        <v>385</v>
-      </c>
-      <c r="H11" t="s">
-        <v>382</v>
-      </c>
       <c r="AL11">
         <v>0</v>
       </c>
-      <c r="DG11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>419</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DK11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>422</v>
-      </c>
-      <c r="DN11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DX11" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>426</v>
-      </c>
-      <c r="FQ11" t="s">
-        <v>386</v>
-      </c>
-      <c r="SD11" t="s">
-        <v>456</v>
+      <c r="DZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>431</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>433</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>438</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>441</v>
+      </c>
+      <c r="EX11" t="s">
+        <v>445</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>450</v>
       </c>
       <c r="SE11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="SF11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="SG11">
         <v>0</v>
@@ -5532,22 +5513,19 @@
         <v>0</v>
       </c>
       <c r="SI11" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ11" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="SL11">
         <v>0</v>
       </c>
       <c r="SM11">
         <v>0</v>
-      </c>
-      <c r="SN11" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -5555,7 +5533,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
         <v>373</v>
@@ -5563,317 +5541,86 @@
       <c r="D12" t="s">
         <v>377</v>
       </c>
-      <c r="I12" t="s">
-        <v>386</v>
-      </c>
-      <c r="J12" t="s">
-        <v>386</v>
-      </c>
-      <c r="K12" t="s">
-        <v>386</v>
-      </c>
-      <c r="L12" t="s">
-        <v>387</v>
-      </c>
-      <c r="M12" t="s">
-        <v>387</v>
-      </c>
-      <c r="N12" t="s">
-        <v>387</v>
-      </c>
-      <c r="O12" t="s">
-        <v>387</v>
-      </c>
-      <c r="P12" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>386</v>
-      </c>
-      <c r="R12" t="s">
-        <v>386</v>
-      </c>
-      <c r="S12" t="s">
-        <v>386</v>
-      </c>
-      <c r="T12" t="s">
-        <v>386</v>
-      </c>
-      <c r="U12" t="s">
-        <v>386</v>
-      </c>
-      <c r="V12" t="s">
-        <v>386</v>
-      </c>
-      <c r="W12" t="s">
-        <v>387</v>
-      </c>
-      <c r="X12" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>387</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>391</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>393</v>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" t="s">
+        <v>385</v>
+      </c>
+      <c r="H12" t="s">
+        <v>382</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
-      <c r="AM12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>398</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>399</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>387</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>401</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>403</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>403</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>404</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>405</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>406</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>408</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>411</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CR12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>386</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>386</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>386</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>414</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>416</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>418</v>
+      <c r="DG12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>422</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>426</v>
+      </c>
+      <c r="FQ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD12" t="s">
+        <v>459</v>
       </c>
       <c r="SE12" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="SF12" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="SG12">
         <v>0</v>
@@ -5882,19 +5629,22 @@
         <v>0</v>
       </c>
       <c r="SI12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="SL12">
         <v>0</v>
       </c>
       <c r="SM12">
         <v>0</v>
+      </c>
+      <c r="SN12" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:508">
@@ -5902,925 +5652,325 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>377</v>
+      </c>
+      <c r="I13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" t="s">
+        <v>387</v>
+      </c>
+      <c r="M13" t="s">
+        <v>387</v>
+      </c>
+      <c r="N13" t="s">
+        <v>387</v>
+      </c>
+      <c r="O13" t="s">
+        <v>387</v>
+      </c>
+      <c r="P13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>386</v>
+      </c>
+      <c r="R13" t="s">
+        <v>386</v>
+      </c>
+      <c r="S13" t="s">
+        <v>386</v>
+      </c>
+      <c r="T13" t="s">
+        <v>386</v>
+      </c>
+      <c r="U13" t="s">
+        <v>386</v>
+      </c>
+      <c r="V13" t="s">
+        <v>386</v>
+      </c>
+      <c r="W13" t="s">
+        <v>387</v>
+      </c>
+      <c r="X13" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>393</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
-      <c r="GN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="GZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HD13" t="s">
-        <v>453</v>
-      </c>
-      <c r="HE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HV13" t="s">
-        <v>409</v>
-      </c>
-      <c r="HW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="HZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="ID13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="II13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IJ13" t="s">
-        <v>409</v>
-      </c>
-      <c r="IK13" t="s">
+      <c r="AM13" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB13" t="s">
         <v>387</v>
       </c>
-      <c r="IL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IV13" t="s">
-        <v>409</v>
-      </c>
-      <c r="IW13" t="s">
-        <v>409</v>
-      </c>
-      <c r="IX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="IZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="JY13" t="s">
-        <v>387</v>
-      </c>
-      <c r="JZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KC13" t="s">
-        <v>387</v>
-      </c>
-      <c r="KD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KG13" t="s">
-        <v>387</v>
-      </c>
-      <c r="KH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KI13" t="s">
-        <v>387</v>
-      </c>
-      <c r="KJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KS13" t="s">
-        <v>387</v>
-      </c>
-      <c r="KT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KV13" t="s">
-        <v>387</v>
-      </c>
-      <c r="KW13" t="s">
-        <v>387</v>
-      </c>
-      <c r="KX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="KZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="LY13" t="s">
-        <v>387</v>
-      </c>
-      <c r="LZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="ME13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="ML13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="MZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="ND13" t="s">
-        <v>409</v>
-      </c>
-      <c r="NE13" t="s">
-        <v>409</v>
-      </c>
-      <c r="NF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NV13" t="s">
-        <v>387</v>
-      </c>
-      <c r="NW13" t="s">
-        <v>387</v>
-      </c>
-      <c r="NX13" t="s">
-        <v>387</v>
-      </c>
-      <c r="NY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="NZ13" t="s">
-        <v>387</v>
-      </c>
-      <c r="OA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OF13" t="s">
-        <v>387</v>
-      </c>
-      <c r="OG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OJ13" t="s">
-        <v>387</v>
-      </c>
-      <c r="OK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="ON13" t="s">
-        <v>387</v>
-      </c>
-      <c r="OO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OP13" t="s">
-        <v>387</v>
-      </c>
-      <c r="OQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="OZ13" t="s">
-        <v>387</v>
-      </c>
-      <c r="PA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PC13" t="s">
-        <v>387</v>
-      </c>
-      <c r="PD13" t="s">
-        <v>387</v>
-      </c>
-      <c r="PE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="PZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QF13" t="s">
-        <v>387</v>
-      </c>
-      <c r="QG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="QZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RC13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RD13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RE13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RF13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RG13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RH13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RI13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RJ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RK13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RL13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RM13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RN13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RO13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RP13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RQ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RR13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RS13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RT13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RU13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RV13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RW13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RX13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RY13" t="s">
-        <v>386</v>
-      </c>
-      <c r="RZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="SA13" t="s">
-        <v>386</v>
-      </c>
-      <c r="SB13" t="s">
-        <v>386</v>
-      </c>
-      <c r="SC13" t="s">
-        <v>409</v>
+      <c r="BC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>403</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>404</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>408</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>411</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>416</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>418</v>
       </c>
       <c r="SE13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG13">
         <v>0</v>
@@ -6829,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="SI13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="SL13">
         <v>0</v>
@@ -6849,10 +5999,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
         <v>378</v>
@@ -6860,122 +6010,914 @@
       <c r="AL14">
         <v>0</v>
       </c>
-      <c r="EZ14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FA14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FB14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FC14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FD14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FE14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FF14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FG14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FH14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FI14" t="s">
+      <c r="GN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HD14" t="s">
+        <v>456</v>
+      </c>
+      <c r="HE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HV14" t="s">
+        <v>409</v>
+      </c>
+      <c r="HW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="HZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="ID14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="II14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IJ14" t="s">
+        <v>409</v>
+      </c>
+      <c r="IK14" t="s">
         <v>387</v>
       </c>
-      <c r="FJ14" t="s">
+      <c r="IL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IV14" t="s">
+        <v>409</v>
+      </c>
+      <c r="IW14" t="s">
+        <v>409</v>
+      </c>
+      <c r="IX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="IZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="JY14" t="s">
         <v>387</v>
       </c>
-      <c r="FK14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FL14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FM14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FN14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FO14" t="s">
+      <c r="JZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KC14" t="s">
         <v>387</v>
       </c>
-      <c r="FS14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FT14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FU14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FV14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FW14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FX14" t="s">
+      <c r="KD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KG14" t="s">
         <v>387</v>
       </c>
-      <c r="FY14" t="s">
-        <v>386</v>
-      </c>
-      <c r="FZ14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GA14" t="s">
+      <c r="KH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KI14" t="s">
         <v>387</v>
       </c>
-      <c r="GB14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GC14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GD14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GE14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GF14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GG14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GH14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GI14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GJ14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GK14" t="s">
-        <v>386</v>
-      </c>
-      <c r="GL14" t="s">
-        <v>449</v>
-      </c>
-      <c r="GM14" t="s">
-        <v>451</v>
+      <c r="KJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KS14" t="s">
+        <v>387</v>
+      </c>
+      <c r="KT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KV14" t="s">
+        <v>387</v>
+      </c>
+      <c r="KW14" t="s">
+        <v>387</v>
+      </c>
+      <c r="KX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="KZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="LY14" t="s">
+        <v>387</v>
+      </c>
+      <c r="LZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="ME14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="ML14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="MZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="ND14" t="s">
+        <v>409</v>
+      </c>
+      <c r="NE14" t="s">
+        <v>409</v>
+      </c>
+      <c r="NF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NV14" t="s">
+        <v>387</v>
+      </c>
+      <c r="NW14" t="s">
+        <v>387</v>
+      </c>
+      <c r="NX14" t="s">
+        <v>387</v>
+      </c>
+      <c r="NY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="NZ14" t="s">
+        <v>387</v>
+      </c>
+      <c r="OA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OF14" t="s">
+        <v>387</v>
+      </c>
+      <c r="OG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OJ14" t="s">
+        <v>387</v>
+      </c>
+      <c r="OK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="ON14" t="s">
+        <v>387</v>
+      </c>
+      <c r="OO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OP14" t="s">
+        <v>387</v>
+      </c>
+      <c r="OQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="OZ14" t="s">
+        <v>387</v>
+      </c>
+      <c r="PA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PC14" t="s">
+        <v>387</v>
+      </c>
+      <c r="PD14" t="s">
+        <v>387</v>
+      </c>
+      <c r="PE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="PZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QF14" t="s">
+        <v>387</v>
+      </c>
+      <c r="QG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="QZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RQ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RS14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="RZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="SA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="SB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="SC14" t="s">
+        <v>409</v>
       </c>
       <c r="SE14" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF14" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG14">
         <v>0</v>
@@ -6984,13 +6926,13 @@
         <v>0</v>
       </c>
       <c r="SI14" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ14" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="SL14">
         <v>0</v>
@@ -7004,10 +6946,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
         <v>378</v>
@@ -7015,77 +6957,122 @@
       <c r="AL15">
         <v>0</v>
       </c>
-      <c r="DZ15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>386</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EL15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EM15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EO15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>386</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>431</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>433</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>436</v>
-      </c>
-      <c r="EV15" t="s">
-        <v>439</v>
-      </c>
-      <c r="EX15" t="s">
-        <v>444</v>
+      <c r="EZ15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FA15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FB15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FH15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FI15" t="s">
+        <v>387</v>
+      </c>
+      <c r="FJ15" t="s">
+        <v>387</v>
+      </c>
+      <c r="FK15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FO15" t="s">
+        <v>387</v>
+      </c>
+      <c r="FS15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FT15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FU15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX15" t="s">
+        <v>387</v>
+      </c>
+      <c r="FY15" t="s">
+        <v>386</v>
+      </c>
+      <c r="FZ15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA15" t="s">
+        <v>387</v>
+      </c>
+      <c r="GB15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GE15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GF15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GH15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK15" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL15" t="s">
+        <v>452</v>
+      </c>
+      <c r="GM15" t="s">
+        <v>454</v>
       </c>
       <c r="SE15" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SF15" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="SG15">
         <v>0</v>
@@ -7094,13 +7081,13 @@
         <v>0</v>
       </c>
       <c r="SI15" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ15" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK15" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="SL15">
         <v>0</v>
@@ -7114,94 +7101,88 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" t="s">
-        <v>380</v>
-      </c>
-      <c r="F16" t="s">
-        <v>383</v>
-      </c>
-      <c r="G16" t="s">
-        <v>381</v>
-      </c>
-      <c r="H16" t="s">
-        <v>383</v>
-      </c>
       <c r="AL16">
         <v>0</v>
       </c>
-      <c r="DG16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DH16" t="s">
-        <v>387</v>
-      </c>
-      <c r="DI16" t="s">
-        <v>419</v>
-      </c>
-      <c r="DJ16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DK16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>423</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DO16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DR16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DT16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DW16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DX16" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY16" t="s">
-        <v>427</v>
-      </c>
-      <c r="FQ16" t="s">
-        <v>386</v>
-      </c>
-      <c r="SD16" t="s">
-        <v>456</v>
+      <c r="DZ16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>432</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>435</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>436</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>440</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>446</v>
       </c>
       <c r="SE16" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="SF16" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="SG16">
         <v>0</v>
@@ -7210,13 +7191,13 @@
         <v>0</v>
       </c>
       <c r="SI16" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SJ16" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="SK16" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="SL16">
         <v>0</v>
@@ -7224,348 +7205,464 @@
       <c r="SM16">
         <v>0</v>
       </c>
-      <c r="SN16" t="s">
-        <v>482</v>
-      </c>
     </row>
-    <row r="17" spans="1:507">
+    <row r="17" spans="1:508">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D17" t="s">
         <v>378</v>
       </c>
-      <c r="I17" t="s">
-        <v>386</v>
-      </c>
-      <c r="J17" t="s">
-        <v>386</v>
-      </c>
-      <c r="K17" t="s">
-        <v>386</v>
-      </c>
-      <c r="L17" t="s">
-        <v>386</v>
-      </c>
-      <c r="M17" t="s">
-        <v>386</v>
-      </c>
-      <c r="N17" t="s">
-        <v>386</v>
-      </c>
-      <c r="O17" t="s">
-        <v>386</v>
-      </c>
-      <c r="P17" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>386</v>
-      </c>
-      <c r="R17" t="s">
-        <v>386</v>
-      </c>
-      <c r="S17" t="s">
-        <v>386</v>
-      </c>
-      <c r="T17" t="s">
-        <v>386</v>
-      </c>
-      <c r="U17" t="s">
-        <v>386</v>
-      </c>
-      <c r="V17" t="s">
-        <v>386</v>
-      </c>
-      <c r="W17" t="s">
-        <v>386</v>
-      </c>
-      <c r="X17" t="s">
-        <v>386</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>386</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD17" t="s">
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" t="s">
+        <v>383</v>
+      </c>
+      <c r="G17" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>387</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>419</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>423</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>386</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>427</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD17" t="s">
+        <v>459</v>
+      </c>
+      <c r="SE17" t="s">
+        <v>461</v>
+      </c>
+      <c r="SF17" t="s">
+        <v>462</v>
+      </c>
+      <c r="SG17">
+        <v>0</v>
+      </c>
+      <c r="SH17">
+        <v>0</v>
+      </c>
+      <c r="SI17" t="s">
+        <v>465</v>
+      </c>
+      <c r="SJ17" t="s">
+        <v>465</v>
+      </c>
+      <c r="SK17" t="s">
+        <v>481</v>
+      </c>
+      <c r="SL17">
+        <v>0</v>
+      </c>
+      <c r="SM17">
+        <v>0</v>
+      </c>
+      <c r="SN17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:508">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" t="s">
+        <v>386</v>
+      </c>
+      <c r="J18" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" t="s">
+        <v>386</v>
+      </c>
+      <c r="L18" t="s">
+        <v>386</v>
+      </c>
+      <c r="M18" t="s">
+        <v>386</v>
+      </c>
+      <c r="N18" t="s">
+        <v>386</v>
+      </c>
+      <c r="O18" t="s">
+        <v>386</v>
+      </c>
+      <c r="P18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>386</v>
+      </c>
+      <c r="R18" t="s">
+        <v>386</v>
+      </c>
+      <c r="S18" t="s">
+        <v>386</v>
+      </c>
+      <c r="T18" t="s">
+        <v>386</v>
+      </c>
+      <c r="U18" t="s">
+        <v>386</v>
+      </c>
+      <c r="V18" t="s">
+        <v>386</v>
+      </c>
+      <c r="W18" t="s">
+        <v>386</v>
+      </c>
+      <c r="X18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD18" t="s">
         <v>390</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE18" t="s">
         <v>387</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AF18" t="s">
         <v>391</v>
       </c>
-      <c r="AG17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AG18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK18" t="s">
         <v>394</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="s">
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="s">
         <v>395</v>
       </c>
-      <c r="AN17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AT17" t="s">
+      <c r="AN18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT18" t="s">
         <v>387</v>
       </c>
-      <c r="AU17" t="s">
+      <c r="AU18" t="s">
         <v>399</v>
       </c>
-      <c r="AV17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BE17" t="s">
+      <c r="AV18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE18" t="s">
         <v>402</v>
       </c>
-      <c r="BF17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BH17" t="s">
+      <c r="BF18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH18" t="s">
         <v>403</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BI18" t="s">
         <v>403</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BK17" t="s">
+      <c r="BJ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK18" t="s">
         <v>404</v>
       </c>
-      <c r="BL17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BM17" t="s">
+      <c r="BL18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM18" t="s">
         <v>405</v>
       </c>
-      <c r="BN17" t="s">
+      <c r="BN18" t="s">
         <v>406</v>
       </c>
-      <c r="BO17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BS17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BT17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BU17" t="s">
+      <c r="BO18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BU18" t="s">
         <v>409</v>
       </c>
-      <c r="BV17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>386</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CC17" t="s">
+      <c r="BV18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC18" t="s">
         <v>387</v>
       </c>
-      <c r="CD17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CG17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CH17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CJ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CM17" t="s">
+      <c r="CD18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM18" t="s">
         <v>412</v>
       </c>
-      <c r="CN17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CP17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CQ17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CR17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CU17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CV17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CW17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CX17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CY17" t="s">
-        <v>386</v>
-      </c>
-      <c r="CZ17" t="s">
+      <c r="CN18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ18" t="s">
         <v>387</v>
       </c>
-      <c r="DB17" t="s">
+      <c r="DB18" t="s">
         <v>387</v>
       </c>
-      <c r="DC17" t="s">
-        <v>386</v>
-      </c>
-      <c r="DD17" t="s">
+      <c r="DC18" t="s">
+        <v>386</v>
+      </c>
+      <c r="DD18" t="s">
         <v>415</v>
       </c>
-      <c r="DE17" t="s">
+      <c r="DE18" t="s">
         <v>416</v>
       </c>
-      <c r="DF17" t="s">
+      <c r="DF18" t="s">
         <v>409</v>
       </c>
-      <c r="SE17" t="s">
-        <v>457</v>
-      </c>
-      <c r="SF17" t="s">
-        <v>457</v>
-      </c>
-      <c r="SG17">
-        <v>0</v>
-      </c>
-      <c r="SH17">
-        <v>0</v>
-      </c>
-      <c r="SI17" t="s">
-        <v>462</v>
-      </c>
-      <c r="SJ17" t="s">
-        <v>462</v>
-      </c>
-      <c r="SK17" t="s">
-        <v>478</v>
-      </c>
-      <c r="SL17">
-        <v>0</v>
-      </c>
-      <c r="SM17">
+      <c r="SE18" t="s">
+        <v>460</v>
+      </c>
+      <c r="SF18" t="s">
+        <v>460</v>
+      </c>
+      <c r="SG18">
+        <v>0</v>
+      </c>
+      <c r="SH18">
+        <v>0</v>
+      </c>
+      <c r="SI18" t="s">
+        <v>465</v>
+      </c>
+      <c r="SJ18" t="s">
+        <v>465</v>
+      </c>
+      <c r="SK18" t="s">
+        <v>482</v>
+      </c>
+      <c r="SL18">
+        <v>0</v>
+      </c>
+      <c r="SM18">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="393">
   <si>
     <t>section</t>
   </si>
@@ -1124,31 +1124,43 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
+    <t>Dombotombo</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
+  </si>
+  <si>
+    <t>All available</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>jgavhera</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:32:34.958766Z</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
-    <t>MARONDERA</t>
-  </si>
-  <si>
-    <t>Dombotombo</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>complete and engaging. Clients showed learning tool place.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>clear</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>jgavhera</t>
   </si>
   <si>
     <t>2025-06-30T11:59:36.289790Z</t>
@@ -2199,15 +2211,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:SL3"/>
+  <dimension ref="A1:SN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="RR1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="2:506">
+    <row r="1" spans="2:508">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2551,1176 +2563,1182 @@
         <v>113</v>
       </c>
       <c r="DL1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="ES1" s="1" t="s">
+      <c r="ET1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="ET1" s="1" t="s">
+      <c r="EU1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="EU1" s="1" t="s">
+      <c r="EV1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="EX1" s="1" t="s">
+      <c r="EY1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="EY1" s="1" t="s">
+      <c r="EZ1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="EZ1" s="1" t="s">
+      <c r="FA1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="FB1" s="1" t="s">
+      <c r="FC1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="FJ1" s="1" t="s">
+      <c r="FK1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="FK1" s="1" t="s">
+      <c r="FL1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="FL1" s="1" t="s">
+      <c r="FM1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="FM1" s="1" t="s">
+      <c r="FN1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="FN1" s="1" t="s">
+      <c r="FO1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="FO1" s="1" t="s">
+      <c r="FP1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="FP1" s="1" t="s">
+      <c r="FQ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="FQ1" s="1" t="s">
+      <c r="FR1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="FS1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="FR1" s="1" t="s">
+      <c r="FT1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="FS1" s="1" t="s">
+      <c r="FU1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="FT1" s="1" t="s">
+      <c r="FV1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="FU1" s="1" t="s">
+      <c r="FW1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="FV1" s="1" t="s">
+      <c r="FX1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="FW1" s="1" t="s">
+      <c r="FY1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="FX1" s="1" t="s">
+      <c r="FZ1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="FY1" s="1" t="s">
+      <c r="GA1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="FZ1" s="1" t="s">
+      <c r="GB1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="GA1" s="1" t="s">
+      <c r="GC1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="GB1" s="1" t="s">
+      <c r="GD1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GC1" s="1" t="s">
+      <c r="GE1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="GD1" s="1" t="s">
+      <c r="GF1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="GE1" s="1" t="s">
+      <c r="GG1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="GF1" s="1" t="s">
+      <c r="GH1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="GG1" s="1" t="s">
+      <c r="GI1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="GH1" s="1" t="s">
+      <c r="GJ1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="GI1" s="1" t="s">
+      <c r="GK1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="GJ1" s="1" t="s">
+      <c r="GL1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="GK1" s="1" t="s">
+      <c r="GM1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="GL1" s="1" t="s">
+      <c r="GN1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="GM1" s="1" t="s">
+      <c r="GO1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="GN1" s="1" t="s">
+      <c r="GP1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="GO1" s="1" t="s">
+      <c r="GQ1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="GP1" s="1" t="s">
+      <c r="GR1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="GQ1" s="1" t="s">
+      <c r="GS1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="GR1" s="1" t="s">
+      <c r="GT1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="GS1" s="1" t="s">
+      <c r="GU1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="GT1" s="1" t="s">
+      <c r="GV1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="GU1" s="1" t="s">
+      <c r="GW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="GV1" s="1" t="s">
+      <c r="GX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="GW1" s="1" t="s">
+      <c r="GY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="GX1" s="1" t="s">
+      <c r="GZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="GY1" s="1" t="s">
+      <c r="HA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="GZ1" s="1" t="s">
+      <c r="HB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="HA1" s="1" t="s">
+      <c r="HC1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="HB1" s="1" t="s">
+      <c r="HD1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="HC1" s="1" t="s">
+      <c r="HE1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="HD1" s="1" t="s">
+      <c r="HF1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="HE1" s="1" t="s">
+      <c r="HG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="HF1" s="1" t="s">
+      <c r="HH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="HG1" s="1" t="s">
+      <c r="HI1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="HH1" s="1" t="s">
+      <c r="HJ1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="HI1" s="1" t="s">
+      <c r="HK1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="HJ1" s="1" t="s">
+      <c r="HL1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="HK1" s="1" t="s">
+      <c r="HM1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="HL1" s="1" t="s">
+      <c r="HN1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="HM1" s="1" t="s">
+      <c r="HO1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="HN1" s="1" t="s">
+      <c r="HP1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="HO1" s="1" t="s">
+      <c r="HQ1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="HP1" s="1" t="s">
+      <c r="HR1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="HQ1" s="1" t="s">
+      <c r="HS1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="HR1" s="1" t="s">
+      <c r="HT1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="HS1" s="1" t="s">
+      <c r="HU1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="HT1" s="1" t="s">
+      <c r="HV1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="HU1" s="1" t="s">
+      <c r="HW1" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="HV1" s="1" t="s">
+      <c r="HX1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="HW1" s="1" t="s">
+      <c r="HY1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="HX1" s="1" t="s">
+      <c r="HZ1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="HY1" s="1" t="s">
+      <c r="IA1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="HZ1" s="1" t="s">
+      <c r="IB1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="IA1" s="1" t="s">
+      <c r="IC1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="IB1" s="1" t="s">
+      <c r="ID1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="IC1" s="1" t="s">
+      <c r="IE1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="ID1" s="1" t="s">
+      <c r="IF1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="IE1" s="1" t="s">
+      <c r="IG1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="IF1" s="1" t="s">
+      <c r="IH1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="IG1" s="1" t="s">
+      <c r="II1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="IH1" s="1" t="s">
+      <c r="IJ1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="II1" s="1" t="s">
+      <c r="IK1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="IJ1" s="1" t="s">
+      <c r="IL1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="IK1" s="1" t="s">
+      <c r="IM1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="IL1" s="1" t="s">
+      <c r="IN1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="IM1" s="1" t="s">
+      <c r="IO1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="IN1" s="1" t="s">
+      <c r="IP1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="IO1" s="1" t="s">
+      <c r="IQ1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="IP1" s="1" t="s">
+      <c r="IR1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+      <c r="IS1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="IT1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IS1" s="1" t="s">
+      <c r="IU1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IT1" s="1" t="s">
+      <c r="IV1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IU1" s="1" t="s">
+      <c r="IW1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IV1" s="1" t="s">
+      <c r="IX1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="IW1" s="1" t="s">
+      <c r="IY1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="IX1" s="1" t="s">
+      <c r="IZ1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="IY1" s="1" t="s">
+      <c r="JA1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="IZ1" s="1" t="s">
+      <c r="JB1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="JA1" s="1" t="s">
+      <c r="JC1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="JB1" s="1" t="s">
+      <c r="JD1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="JC1" s="1" t="s">
+      <c r="JE1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="JD1" s="1" t="s">
+      <c r="JF1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="JE1" s="1" t="s">
+      <c r="JG1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="JF1" s="1" t="s">
+      <c r="JH1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="JG1" s="1" t="s">
+      <c r="JI1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="JH1" s="1" t="s">
+      <c r="JJ1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="JI1" s="1" t="s">
+      <c r="JK1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="JJ1" s="1" t="s">
+      <c r="JL1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="JK1" s="1" t="s">
+      <c r="JM1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="JL1" s="1" t="s">
+      <c r="JN1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="JM1" s="1" t="s">
+      <c r="JO1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="JN1" s="1" t="s">
+      <c r="JP1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="JO1" s="1" t="s">
+      <c r="JQ1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="JP1" s="1" t="s">
+      <c r="JR1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="JQ1" s="1" t="s">
+      <c r="JS1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="JR1" s="1" t="s">
+      <c r="JT1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="JS1" s="1" t="s">
+      <c r="JU1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="JT1" s="1" t="s">
+      <c r="JV1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="JU1" s="1" t="s">
+      <c r="JW1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="JV1" s="1" t="s">
+      <c r="JX1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="JW1" s="1" t="s">
+      <c r="JY1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="JX1" s="1" t="s">
+      <c r="JZ1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="JY1" s="1" t="s">
+      <c r="KA1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="JZ1" s="1" t="s">
+      <c r="KB1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="KA1" s="1" t="s">
+      <c r="KC1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="KB1" s="1" t="s">
+      <c r="KD1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="KC1" s="1" t="s">
+      <c r="KE1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="KD1" s="1" t="s">
+      <c r="KF1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="KE1" s="1" t="s">
+      <c r="KG1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="KF1" s="1" t="s">
+      <c r="KH1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="KG1" s="1" t="s">
+      <c r="KI1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="KH1" s="1" t="s">
+      <c r="KJ1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="KI1" s="1" t="s">
+      <c r="KK1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="KJ1" s="1" t="s">
+      <c r="KL1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="KK1" s="1" t="s">
+      <c r="KM1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="KL1" s="1" t="s">
+      <c r="KN1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="KM1" s="1" t="s">
+      <c r="KO1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="KN1" s="1" t="s">
+      <c r="KP1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="KO1" s="1" t="s">
+      <c r="KQ1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="KP1" s="1" t="s">
+      <c r="KR1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="KQ1" s="1" t="s">
+      <c r="KS1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="KR1" s="1" t="s">
+      <c r="KT1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="KS1" s="1" t="s">
+      <c r="KU1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="KT1" s="1" t="s">
+      <c r="KV1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="KU1" s="1" t="s">
+      <c r="KW1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="KV1" s="1" t="s">
+      <c r="KX1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="KW1" s="1" t="s">
+      <c r="KY1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="KX1" s="1" t="s">
+      <c r="KZ1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="KY1" s="1" t="s">
+      <c r="LA1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="KZ1" s="1" t="s">
+      <c r="LB1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="LA1" s="1" t="s">
+      <c r="LC1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="LB1" s="1" t="s">
+      <c r="LD1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="LC1" s="1" t="s">
+      <c r="LE1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="LD1" s="1" t="s">
+      <c r="LF1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="LE1" s="1" t="s">
+      <c r="LG1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="LF1" s="1" t="s">
+      <c r="LH1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="LG1" s="1" t="s">
+      <c r="LI1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="LH1" s="1" t="s">
+      <c r="LJ1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="LI1" s="1" t="s">
+      <c r="LK1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="LJ1" s="1" t="s">
+      <c r="LL1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="LK1" s="1" t="s">
+      <c r="LM1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="LL1" s="1" t="s">
+      <c r="LN1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="LM1" s="1" t="s">
+      <c r="LO1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="LN1" s="1" t="s">
+      <c r="LP1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LO1" s="1" t="s">
+      <c r="LQ1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="LP1" s="1" t="s">
+      <c r="LR1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="LQ1" s="1" t="s">
+      <c r="LS1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="LR1" s="1" t="s">
+      <c r="LT1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="LS1" s="1" t="s">
+      <c r="LU1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="LT1" s="1" t="s">
+      <c r="LV1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="LU1" s="1" t="s">
+      <c r="LW1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="LV1" s="1" t="s">
+      <c r="LX1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="LW1" s="1" t="s">
+      <c r="LY1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="LX1" s="1" t="s">
+      <c r="LZ1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="LY1" s="1" t="s">
+      <c r="MA1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="LZ1" s="1" t="s">
+      <c r="MB1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="MA1" s="1" t="s">
+      <c r="MC1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="MB1" s="1" t="s">
+      <c r="MD1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="MC1" s="1" t="s">
+      <c r="ME1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="MD1" s="1" t="s">
+      <c r="MF1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="ME1" s="1" t="s">
+      <c r="MG1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="MF1" s="1" t="s">
+      <c r="MH1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="MG1" s="1" t="s">
+      <c r="MI1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="MH1" s="1" t="s">
+      <c r="MJ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="MI1" s="1" t="s">
+      <c r="MK1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="MJ1" s="1" t="s">
+      <c r="ML1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="MK1" s="1" t="s">
+      <c r="MM1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="ML1" s="1" t="s">
+      <c r="MN1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="MM1" s="1" t="s">
+      <c r="MO1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="MN1" s="1" t="s">
+      <c r="MP1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="MO1" s="1" t="s">
+      <c r="MQ1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="MP1" s="1" t="s">
+      <c r="MR1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="MQ1" s="1" t="s">
+      <c r="MS1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="MR1" s="1" t="s">
+      <c r="MT1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="MS1" s="1" t="s">
+      <c r="MU1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="MT1" s="1" t="s">
+      <c r="MV1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="MU1" s="1" t="s">
+      <c r="MW1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="MV1" s="1" t="s">
+      <c r="MX1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="MW1" s="1" t="s">
+      <c r="MY1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="MX1" s="1" t="s">
+      <c r="MZ1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="MY1" s="1" t="s">
+      <c r="NA1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="MZ1" s="1" t="s">
+      <c r="NB1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="NA1" s="1" t="s">
+      <c r="NC1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="NB1" s="1" t="s">
+      <c r="ND1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="NC1" s="1" t="s">
+      <c r="NE1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="ND1" s="1" t="s">
+      <c r="NF1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="NE1" s="1" t="s">
+      <c r="NG1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="NF1" s="1" t="s">
+      <c r="NH1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="NG1" s="1" t="s">
+      <c r="NI1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="NH1" s="1" t="s">
+      <c r="NJ1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="NI1" s="1" t="s">
+      <c r="NK1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="NJ1" s="1" t="s">
+      <c r="NL1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="NK1" s="1" t="s">
+      <c r="NM1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="NL1" s="1" t="s">
+      <c r="NN1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="NM1" s="1" t="s">
+      <c r="NO1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="NN1" s="1" t="s">
+      <c r="NP1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="NO1" s="1" t="s">
+      <c r="NQ1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="NP1" s="1" t="s">
+      <c r="NR1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="NQ1" s="1" t="s">
+      <c r="NS1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="NR1" s="1" t="s">
+      <c r="NT1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="NS1" s="1" t="s">
+      <c r="NU1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="NT1" s="1" t="s">
+      <c r="NV1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="NU1" s="1" t="s">
+      <c r="NW1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="NV1" s="1" t="s">
+      <c r="NX1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="NW1" s="1" t="s">
+      <c r="NY1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="NX1" s="1" t="s">
+      <c r="NZ1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="NY1" s="1" t="s">
+      <c r="OA1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="NZ1" s="1" t="s">
+      <c r="OB1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="OA1" s="1" t="s">
+      <c r="OC1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="OB1" s="1" t="s">
+      <c r="OD1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="OC1" s="1" t="s">
+      <c r="OE1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="OD1" s="1" t="s">
+      <c r="OF1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="OE1" s="1" t="s">
+      <c r="OG1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="OF1" s="1" t="s">
+      <c r="OH1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="OG1" s="1" t="s">
+      <c r="OI1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="OH1" s="1" t="s">
+      <c r="OJ1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="OI1" s="1" t="s">
+      <c r="OK1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="OJ1" s="1" t="s">
+      <c r="OL1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="OK1" s="1" t="s">
+      <c r="OM1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="OL1" s="1" t="s">
+      <c r="ON1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="OM1" s="1" t="s">
+      <c r="OO1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="ON1" s="1" t="s">
+      <c r="OP1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="OO1" s="1" t="s">
+      <c r="OQ1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="OP1" s="1" t="s">
+      <c r="OR1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="OQ1" s="1" t="s">
+      <c r="OS1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="OR1" s="1" t="s">
+      <c r="OT1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="OS1" s="1" t="s">
+      <c r="OU1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="OT1" s="1" t="s">
+      <c r="OV1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="OU1" s="1" t="s">
+      <c r="OW1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="OV1" s="1" t="s">
+      <c r="OX1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="OW1" s="1" t="s">
+      <c r="OY1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="OX1" s="1" t="s">
+      <c r="OZ1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="OY1" s="1" t="s">
+      <c r="PA1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="OZ1" s="1" t="s">
+      <c r="PB1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="PA1" s="1" t="s">
+      <c r="PC1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="PB1" s="1" t="s">
+      <c r="PD1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="PC1" s="1" t="s">
+      <c r="PE1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="PD1" s="1" t="s">
+      <c r="PF1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="PE1" s="1" t="s">
+      <c r="PG1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="PF1" s="1" t="s">
+      <c r="PH1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="PG1" s="1" t="s">
+      <c r="PI1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="PH1" s="1" t="s">
+      <c r="PJ1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="PI1" s="1" t="s">
+      <c r="PK1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="PJ1" s="1" t="s">
+      <c r="PL1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="PK1" s="1" t="s">
+      <c r="PM1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="PL1" s="1" t="s">
+      <c r="PN1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="PM1" s="1" t="s">
+      <c r="PO1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="PN1" s="1" t="s">
+      <c r="PP1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="PO1" s="1" t="s">
+      <c r="PQ1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="PP1" s="1" t="s">
+      <c r="PR1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="PQ1" s="1" t="s">
+      <c r="PS1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="PR1" s="1" t="s">
+      <c r="PT1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="PS1" s="1" t="s">
+      <c r="PU1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="PT1" s="1" t="s">
+      <c r="PV1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="PU1" s="1" t="s">
+      <c r="PW1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="PV1" s="1" t="s">
+      <c r="PX1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="PW1" s="1" t="s">
+      <c r="PY1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="PX1" s="1" t="s">
+      <c r="PZ1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="PY1" s="1" t="s">
+      <c r="QA1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="PZ1" s="1" t="s">
+      <c r="QB1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="QA1" s="1" t="s">
+      <c r="QC1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="QB1" s="1" t="s">
+      <c r="QD1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="QC1" s="1" t="s">
+      <c r="QE1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="QD1" s="1" t="s">
+      <c r="QF1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="QE1" s="1" t="s">
+      <c r="QG1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="QF1" s="1" t="s">
+      <c r="QH1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="QG1" s="1" t="s">
+      <c r="QI1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="QH1" s="1" t="s">
+      <c r="QJ1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="QI1" s="1" t="s">
+      <c r="QK1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="QJ1" s="1" t="s">
+      <c r="QL1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="QK1" s="1" t="s">
+      <c r="QM1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="QL1" s="1" t="s">
+      <c r="QN1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="QM1" s="1" t="s">
+      <c r="QO1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="QN1" s="1" t="s">
+      <c r="QP1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="QO1" s="1" t="s">
+      <c r="QQ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="QP1" s="1" t="s">
+      <c r="QR1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="QQ1" s="1" t="s">
+      <c r="QS1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="QR1" s="1" t="s">
+      <c r="QT1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="QS1" s="1" t="s">
+      <c r="QU1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="QT1" s="1" t="s">
+      <c r="QV1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="QU1" s="1" t="s">
+      <c r="QW1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="QV1" s="1" t="s">
+      <c r="QX1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="QW1" s="1" t="s">
+      <c r="QY1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="QX1" s="1" t="s">
+      <c r="QZ1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="QY1" s="1" t="s">
+      <c r="RA1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="QZ1" s="1" t="s">
+      <c r="RB1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="RA1" s="1" t="s">
+      <c r="RC1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="RB1" s="1" t="s">
+      <c r="RD1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="RC1" s="1" t="s">
+      <c r="RE1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="RD1" s="1" t="s">
+      <c r="RF1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="RE1" s="1" t="s">
+      <c r="RG1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="RF1" s="1" t="s">
+      <c r="RH1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="RG1" s="1" t="s">
+      <c r="RI1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="RH1" s="1" t="s">
+      <c r="RJ1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="RI1" s="1" t="s">
+      <c r="RK1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="RJ1" s="1" t="s">
+      <c r="RL1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="RK1" s="1" t="s">
+      <c r="RM1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="RL1" s="1" t="s">
+      <c r="RN1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="RM1" s="1" t="s">
+      <c r="RO1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="RN1" s="1" t="s">
+      <c r="RP1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="RO1" s="1" t="s">
+      <c r="RQ1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="RP1" s="1" t="s">
+      <c r="RR1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="RQ1" s="1" t="s">
+      <c r="RS1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="RR1" s="1" t="s">
+      <c r="RT1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="RS1" s="1" t="s">
+      <c r="RU1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="RT1" s="1" t="s">
+      <c r="RV1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="RU1" s="1" t="s">
+      <c r="RW1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="RV1" s="1" t="s">
+      <c r="RX1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="RW1" s="1" t="s">
+      <c r="RY1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="RX1" s="1" t="s">
+      <c r="RZ1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="RY1" s="1" t="s">
+      <c r="SA1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="RZ1" s="1" t="s">
+      <c r="SB1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="SA1" s="1" t="s">
+      <c r="SC1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="SB1" s="1" t="s">
+      <c r="SD1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="SC1" s="1" t="s">
+      <c r="SE1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="SD1" s="1" t="s">
+      <c r="SF1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="SE1" s="1" t="s">
+      <c r="SG1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="SF1" s="1" t="s">
+      <c r="SH1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="SG1" s="1" t="s">
+      <c r="SI1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="SH1" s="1" t="s">
+      <c r="SJ1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="SI1" s="1" t="s">
+      <c r="SK1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="SJ1" s="1" t="s">
+      <c r="SL1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="SK1" s="1" t="s">
+      <c r="SM1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="SL1" s="1" t="s">
+      <c r="SN1" s="1" t="s">
         <v>364</v>
       </c>
     </row>
@@ -3737,653 +3755,143 @@
       <c r="D2" t="s">
         <v>367</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="CZ2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DB2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DD2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>0</v>
-      </c>
-      <c r="ER2">
-        <v>0</v>
-      </c>
-      <c r="ET2">
-        <v>0</v>
-      </c>
-      <c r="EV2">
-        <v>0</v>
-      </c>
-      <c r="EY2">
-        <v>0</v>
-      </c>
-      <c r="EZ2">
-        <v>0</v>
-      </c>
-      <c r="FA2">
-        <v>0</v>
-      </c>
-      <c r="FB2">
-        <v>0</v>
-      </c>
-      <c r="FC2">
-        <v>0</v>
-      </c>
-      <c r="FD2">
-        <v>0</v>
-      </c>
-      <c r="FE2">
-        <v>0</v>
-      </c>
-      <c r="FF2">
-        <v>0</v>
-      </c>
-      <c r="FG2">
-        <v>0</v>
-      </c>
-      <c r="FH2">
-        <v>0</v>
-      </c>
-      <c r="FI2">
-        <v>0</v>
-      </c>
-      <c r="FJ2">
-        <v>0</v>
-      </c>
-      <c r="FK2">
-        <v>0</v>
-      </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2">
-        <v>0</v>
-      </c>
-      <c r="FN2">
-        <v>0</v>
-      </c>
-      <c r="FO2">
-        <v>0</v>
-      </c>
-      <c r="FQ2">
-        <v>0</v>
-      </c>
-      <c r="FR2">
-        <v>0</v>
-      </c>
-      <c r="FS2">
-        <v>0</v>
-      </c>
-      <c r="FT2">
-        <v>0</v>
-      </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FV2">
-        <v>0</v>
-      </c>
-      <c r="FW2">
-        <v>0</v>
-      </c>
-      <c r="FX2">
-        <v>0</v>
-      </c>
-      <c r="FY2">
-        <v>0</v>
-      </c>
-      <c r="FZ2">
-        <v>0</v>
-      </c>
-      <c r="GA2">
-        <v>0</v>
-      </c>
-      <c r="GB2">
-        <v>0</v>
-      </c>
-      <c r="GC2">
-        <v>0</v>
-      </c>
-      <c r="GD2">
-        <v>0</v>
-      </c>
-      <c r="GE2">
-        <v>0</v>
-      </c>
-      <c r="GF2">
-        <v>0</v>
-      </c>
-      <c r="GG2">
-        <v>0</v>
-      </c>
-      <c r="GH2">
-        <v>0</v>
-      </c>
-      <c r="GI2">
-        <v>0</v>
-      </c>
-      <c r="GJ2">
-        <v>0</v>
-      </c>
-      <c r="GK2">
-        <v>0</v>
+      <c r="DK2" t="s">
+        <v>368</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>368</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>369</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>369</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>368</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>368</v>
       </c>
       <c r="GL2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="GM2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>369</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>370</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>370</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>370</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>370</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>368</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>368</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>370</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IH2" t="s">
         <v>371</v>
       </c>
-      <c r="II2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>370</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>368</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>371</v>
-      </c>
-      <c r="JH2" t="s">
-        <v>368</v>
-      </c>
-      <c r="JN2">
-        <v>0</v>
-      </c>
-      <c r="JO2">
-        <v>0</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>371</v>
-      </c>
-      <c r="SC2" t="s">
+      <c r="SE2" t="s">
         <v>372</v>
       </c>
-      <c r="SD2" t="s">
+      <c r="SF2" t="s">
         <v>372</v>
       </c>
-      <c r="SE2">
-        <v>0</v>
-      </c>
-      <c r="SF2">
-        <v>0</v>
-      </c>
-      <c r="SG2" t="s">
+      <c r="SI2" t="s">
         <v>373</v>
       </c>
-      <c r="SH2" t="s">
+      <c r="SJ2" t="s">
         <v>373</v>
       </c>
-      <c r="SI2" t="s">
+      <c r="SK2" t="s">
         <v>374</v>
       </c>
-      <c r="SJ2">
-        <v>0</v>
-      </c>
-      <c r="SK2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:506">
+    <row r="3" spans="1:505">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4396,539 +3904,304 @@
       <c r="D3" t="s">
         <v>367</v>
       </c>
-      <c r="E3" t="s">
+      <c r="GN3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>368</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HD3" t="s">
         <v>376</v>
       </c>
-      <c r="F3" t="s">
+      <c r="HE3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>369</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>369</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>369</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>369</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>368</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>368</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>369</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IJ3" t="s">
         <v>377</v>
       </c>
-      <c r="G3" t="s">
+      <c r="IK3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>369</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>368</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>377</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>368</v>
+      </c>
+      <c r="ND3" t="s">
+        <v>377</v>
+      </c>
+      <c r="SE3" t="s">
+        <v>372</v>
+      </c>
+      <c r="SF3" t="s">
+        <v>372</v>
+      </c>
+      <c r="SI3" t="s">
+        <v>373</v>
+      </c>
+      <c r="SJ3" t="s">
+        <v>373</v>
+      </c>
+      <c r="SK3" t="s">
         <v>378</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="4" spans="1:508">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
-        <v>0</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0</v>
-      </c>
-      <c r="BP3">
-        <v>0</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3">
-        <v>0</v>
-      </c>
-      <c r="BT3">
-        <v>0</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0</v>
-      </c>
-      <c r="BW3">
-        <v>0</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="CZ3">
-        <v>0</v>
-      </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DI3" t="s">
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
         <v>380</v>
       </c>
-      <c r="DJ3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DL3" t="s">
+      <c r="F4" t="s">
         <v>381</v>
       </c>
-      <c r="DM3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>368</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>370</v>
-      </c>
-      <c r="DX3" t="s">
+      <c r="G4" t="s">
         <v>382</v>
       </c>
-      <c r="ER3">
-        <v>0</v>
-      </c>
-      <c r="ET3">
-        <v>0</v>
-      </c>
-      <c r="EV3">
-        <v>0</v>
-      </c>
-      <c r="EY3">
-        <v>0</v>
-      </c>
-      <c r="EZ3">
-        <v>0</v>
-      </c>
-      <c r="FA3">
-        <v>0</v>
-      </c>
-      <c r="FB3">
-        <v>0</v>
-      </c>
-      <c r="FC3">
-        <v>0</v>
-      </c>
-      <c r="FD3">
-        <v>0</v>
-      </c>
-      <c r="FE3">
-        <v>0</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
-        <v>0</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>0</v>
-      </c>
-      <c r="FJ3">
-        <v>0</v>
-      </c>
-      <c r="FK3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>0</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>0</v>
-      </c>
-      <c r="FO3">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>368</v>
-      </c>
-      <c r="FQ3">
-        <v>0</v>
-      </c>
-      <c r="FR3">
-        <v>0</v>
-      </c>
-      <c r="FS3">
-        <v>0</v>
-      </c>
-      <c r="FT3">
-        <v>0</v>
-      </c>
-      <c r="FU3">
-        <v>0</v>
-      </c>
-      <c r="FV3">
-        <v>0</v>
-      </c>
-      <c r="FW3">
-        <v>0</v>
-      </c>
-      <c r="FX3">
-        <v>0</v>
-      </c>
-      <c r="FY3">
-        <v>0</v>
-      </c>
-      <c r="FZ3">
-        <v>0</v>
-      </c>
-      <c r="GA3">
-        <v>0</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0</v>
-      </c>
-      <c r="GD3">
-        <v>0</v>
-      </c>
-      <c r="GE3">
-        <v>0</v>
-      </c>
-      <c r="GF3">
-        <v>0</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0</v>
-      </c>
-      <c r="GI3">
-        <v>0</v>
-      </c>
-      <c r="GJ3">
-        <v>0</v>
-      </c>
-      <c r="GK3">
-        <v>0</v>
-      </c>
-      <c r="JN3">
-        <v>0</v>
-      </c>
-      <c r="JO3">
-        <v>0</v>
-      </c>
-      <c r="SB3" t="s">
+      <c r="H4" t="s">
         <v>383</v>
       </c>
-      <c r="SC3" t="s">
+      <c r="DG4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DI4" t="s">
         <v>384</v>
       </c>
-      <c r="SD3" t="s">
+      <c r="DJ4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DM4" t="s">
         <v>385</v>
       </c>
-      <c r="SE3">
-        <v>0</v>
-      </c>
-      <c r="SF3">
-        <v>0</v>
-      </c>
-      <c r="SG3" t="s">
+      <c r="DN4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>368</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DY4" t="s">
         <v>386</v>
       </c>
-      <c r="SH3" t="s">
-        <v>386</v>
-      </c>
-      <c r="SI3" t="s">
+      <c r="FR4" t="s">
+        <v>368</v>
+      </c>
+      <c r="SD4" t="s">
         <v>387</v>
       </c>
-      <c r="SJ3">
-        <v>0</v>
-      </c>
-      <c r="SK3">
-        <v>0</v>
-      </c>
-      <c r="SL3" t="s">
+      <c r="SE4" t="s">
         <v>388</v>
+      </c>
+      <c r="SF4" t="s">
+        <v>389</v>
+      </c>
+      <c r="SI4" t="s">
+        <v>390</v>
+      </c>
+      <c r="SJ4" t="s">
+        <v>390</v>
+      </c>
+      <c r="SK4" t="s">
+        <v>391</v>
+      </c>
+      <c r="SN4" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8700"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="421">
   <si>
     <t>section</t>
   </si>
@@ -1124,61 +1111,82 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>MARONDERA</t>
   </si>
   <si>
+    <t>SANYATI</t>
+  </si>
+  <si>
     <t>Dombotombo</t>
   </si>
   <si>
+    <t>Rimuka</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
-  </si>
-  <si>
-    <t>All available</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>jgavhera</t>
-  </si>
-  <si>
-    <t>2025-06-30T12:32:34.958766Z</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>complete and engaging. Clients showed learning tool place.</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>2025-06-30T11:59:36.289790Z</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>2025</t>
+    <t>Caravan in use no formal rooms available</t>
+  </si>
+  <si>
+    <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
+  </si>
+  <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
+  </si>
+  <si>
+    <t>no sharps tins</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Doxycycline</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
+    <t>Amoxycillin/clavulanic_acid Erythromycin</t>
+  </si>
+  <si>
+    <t>amoxycillinclavulanic_acid erythromycin</t>
+  </si>
+  <si>
+    <t>Lignocaine Bupivacaine</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
+  </si>
+  <si>
+    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
@@ -1194,16 +1202,92 @@
     <t>Facility not using EHR</t>
   </si>
   <si>
+    <t>Strategies for ages 15-24 included schools campaigns and soccer tournaments.  For ages 25-34 included work based DC in industries and farms.
+Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
+  </si>
+  <si>
+    <t>Men_who_go_to_work Remote_Communities</t>
+  </si>
+  <si>
+    <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
+  </si>
+  <si>
+    <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
+    <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
+  </si>
+  <si>
+    <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Community_Health_Workers Data_Clerks Receptionists Nurse_Testers</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
+  </si>
+  <si>
+    <t>Comments
+Most SOPs seen as well as registers but however 
+-Minute book seen does not include AEs
+- Linkages register not seen in VMMC department but in OI department
+- Female condoms expired March 25
+- AE register outdated
+- Adequate staffing
+- No staff member trained in STI Management 
+Recommendations
+- Staff encouraged to include AE identification, reporting and management 
+-To get a linkages register
+- Get a current AE register
+- Acquire unexpired condoms and discard the expires ones</t>
+  </si>
+  <si>
+    <t>All available</t>
+  </si>
+  <si>
+    <t>complete and engaging. Clients showed learning tool place.</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>tmunyaradzi</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
+    <t>jgavhera</t>
+  </si>
+  <si>
     <t>amutenha</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:40:04.045084Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:26:57.941855Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T13:25:47.843612Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T12:32:34.958766Z</t>
+  </si>
+  <si>
+    <t>2025-06-30T11:59:36.289790Z</t>
   </si>
   <si>
     <t>2025-06-30T11:51:05.207097Z</t>
@@ -1215,19 +1299,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,356 +1313,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1607,251 +1348,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1859,71 +1358,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2205,21 +1645,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:SN4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:SN7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:508">
+    <row r="1" spans="1:508">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3742,7 +3180,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:505">
+    <row r="2" spans="1:508">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3750,357 +3188,375 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>368</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>369</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>369</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>368</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>370</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="I2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L2" t="s">
+        <v>378</v>
+      </c>
+      <c r="M2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>378</v>
+      </c>
+      <c r="R2" t="s">
+        <v>378</v>
+      </c>
+      <c r="S2" t="s">
+        <v>378</v>
+      </c>
+      <c r="T2" t="s">
+        <v>378</v>
+      </c>
+      <c r="U2" t="s">
+        <v>378</v>
+      </c>
+      <c r="V2" t="s">
+        <v>378</v>
+      </c>
+      <c r="W2" t="s">
+        <v>378</v>
+      </c>
+      <c r="X2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>385</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>387</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>379</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>379</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>389</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>390</v>
       </c>
       <c r="SE2" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="SF2" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="SI2" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="SJ2" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="SK2" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:505">
+    <row r="3" spans="1:508">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>367</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>368</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>376</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>369</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>369</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>369</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>369</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>368</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>368</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IF3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IG3" t="s">
-        <v>369</v>
-      </c>
-      <c r="IH3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IJ3" t="s">
-        <v>377</v>
-      </c>
-      <c r="IK3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IL3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IM3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IN3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IO3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IQ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IS3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>369</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>368</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>377</v>
-      </c>
-      <c r="JJ3" t="s">
-        <v>368</v>
-      </c>
-      <c r="ND3" t="s">
-        <v>377</v>
+        <v>373</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>378</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>379</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>379</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FN3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>378</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>378</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>400</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>402</v>
       </c>
       <c r="SE3" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="SF3" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="SI3" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="SJ3" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="SK3" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -4108,104 +3564,562 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>372</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>378</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EK4" t="s">
         <v>379</v>
       </c>
-      <c r="C4" t="s">
+      <c r="EL4" t="s">
+        <v>379</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>394</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>395</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>396</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>397</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>398</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>399</v>
+      </c>
+      <c r="SE4" t="s">
+        <v>407</v>
+      </c>
+      <c r="SF4" t="s">
+        <v>407</v>
+      </c>
+      <c r="SI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="SJ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="SK4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:508">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>366</v>
       </c>
-      <c r="D4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H4" t="s">
-        <v>383</v>
-      </c>
-      <c r="DG4" t="s">
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" t="s">
+        <v>372</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FB5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FN5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FP5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FT5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FV5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FX5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>378</v>
+      </c>
+      <c r="FZ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GB5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GD5" t="s">
+        <v>379</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>379</v>
+      </c>
+      <c r="GF5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GH5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>378</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>401</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>403</v>
+      </c>
+      <c r="SE5" t="s">
+        <v>407</v>
+      </c>
+      <c r="SF5" t="s">
+        <v>407</v>
+      </c>
+      <c r="SI5" t="s">
+        <v>412</v>
+      </c>
+      <c r="SJ5" t="s">
+        <v>412</v>
+      </c>
+      <c r="SK5" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:508">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>368</v>
       </c>
-      <c r="DH4" t="s">
-        <v>368</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>384</v>
-      </c>
-      <c r="DJ4" t="s">
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="GN6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GP6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GR6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GT6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GV6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GX6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GZ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HB6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HD6" t="s">
+        <v>404</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HF6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HH6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HI6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HJ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HK6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HL6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HM6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HN6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HO6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HP6" t="s">
+        <v>379</v>
+      </c>
+      <c r="HQ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HR6" t="s">
+        <v>379</v>
+      </c>
+      <c r="HS6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HT6" t="s">
+        <v>379</v>
+      </c>
+      <c r="HU6" t="s">
+        <v>379</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HY6" t="s">
+        <v>378</v>
+      </c>
+      <c r="HZ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IA6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IB6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IC6" t="s">
+        <v>378</v>
+      </c>
+      <c r="ID6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IE6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IF6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IG6" t="s">
+        <v>379</v>
+      </c>
+      <c r="IH6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IJ6" t="s">
+        <v>405</v>
+      </c>
+      <c r="IK6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IL6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IM6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IN6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IO6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IP6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IQ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IR6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IS6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IT6" t="s">
+        <v>379</v>
+      </c>
+      <c r="IU6" t="s">
+        <v>378</v>
+      </c>
+      <c r="IV6" t="s">
+        <v>405</v>
+      </c>
+      <c r="JJ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="ND6" t="s">
+        <v>405</v>
+      </c>
+      <c r="SE6" t="s">
+        <v>407</v>
+      </c>
+      <c r="SF6" t="s">
+        <v>407</v>
+      </c>
+      <c r="SI6" t="s">
+        <v>412</v>
+      </c>
+      <c r="SJ6" t="s">
+        <v>412</v>
+      </c>
+      <c r="SK6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:508">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>369</v>
       </c>
-      <c r="DL4" t="s">
-        <v>368</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>385</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>369</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>369</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>369</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>368</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>369</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>369</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>368</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>368</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>368</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>369</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>368</v>
-      </c>
-      <c r="SD4" t="s">
-        <v>387</v>
-      </c>
-      <c r="SE4" t="s">
-        <v>388</v>
-      </c>
-      <c r="SF4" t="s">
-        <v>389</v>
-      </c>
-      <c r="SI4" t="s">
-        <v>390</v>
-      </c>
-      <c r="SJ4" t="s">
-        <v>390</v>
-      </c>
-      <c r="SK4" t="s">
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H7" t="s">
+        <v>377</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DI7" t="s">
         <v>391</v>
       </c>
-      <c r="SN4" t="s">
+      <c r="DJ7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DM7" t="s">
         <v>392</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>378</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>393</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>378</v>
+      </c>
+      <c r="SD7" t="s">
+        <v>406</v>
+      </c>
+      <c r="SE7" t="s">
+        <v>408</v>
+      </c>
+      <c r="SF7" t="s">
+        <v>409</v>
+      </c>
+      <c r="SI7" t="s">
+        <v>413</v>
+      </c>
+      <c r="SJ7" t="s">
+        <v>413</v>
+      </c>
+      <c r="SK7" t="s">
+        <v>419</v>
+      </c>
+      <c r="SN7" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="425">
   <si>
     <t>section</t>
   </si>
@@ -1111,6 +1111,9 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
@@ -1123,21 +1126,18 @@
     <t>e</t>
   </si>
   <si>
-    <t>b</t>
+    <t>SANYATI</t>
   </si>
   <si>
     <t>MARONDERA</t>
   </si>
   <si>
-    <t>SANYATI</t>
+    <t>Rimuka</t>
   </si>
   <si>
     <t>Dombotombo</t>
   </si>
   <si>
-    <t>Rimuka</t>
-  </si>
-  <si>
     <t>October</t>
   </si>
   <si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
+  </si>
+  <si>
+    <t>1. Site documenting linkages on monthly summaries
+2. Summaries indicating HIV tested
+3. Site not entering clients into EHR
+4. Discrepancies noted between Reg , CIF and MRF</t>
   </si>
   <si>
     <t>Data didnt tally for November 2024 and December 2024
@@ -1197,6 +1203,11 @@
 1) Facility MRFs for November and December had errors and need to be corrected to reflect the actual MCs that were conducted.
 2) CIF to be completed correctly, completely
 and without cancellations</t>
+  </si>
+  <si>
+    <t>1. The is a best practice case on Linkages documentation and reporting
+2. Site is enrolling into 2WT system
+3. Site should start enrolling clients into EHR</t>
   </si>
   <si>
     <t>Facility not using EHR</t>
@@ -1254,27 +1265,30 @@
     <t>8</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
     <t>tmunyaradzi</t>
   </si>
   <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
     <t>jgavhera</t>
   </si>
   <si>
     <t>amutenha</t>
   </si>
   <si>
+    <t>2025-06-30T16:51:35.768086Z</t>
+  </si>
+  <si>
     <t>2025-06-30T13:40:04.045084Z</t>
   </si>
   <si>
@@ -1291,6 +1305,9 @@
   </si>
   <si>
     <t>2025-06-30T11:51:05.207097Z</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '86', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '86', 'current_iteration': '0', 'mrfmcs': '86', 'registermcs': '86'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '73', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '73', 'current_iteration': '1', 'mrfmcs': '73', 'registermcs': '73'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '55', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '55', 'current_iteration': '2', 'mrfmcs': '55', 'registermcs': '55'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '3', 'mrfmcs': '47', 'registermcs': '51'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '49', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '49', 'current_iteration': '4', 'mrfmcs': '49', 'registermcs': '49'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '92', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '92', 'current_iteration': '5', 'mrfmcs': '92', 'registermcs': '92'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '88', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '88', 'current_iteration': '6', 'mrfmcs': '88', 'registermcs': '88'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '104', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '104', 'current_iteration': '7', 'mrfmcs': '104', 'registermcs': '104'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '0', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '47', 'current_iteration': '1', 'mrfmcs': '47', 'registermcs': '50'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '21', 'current_iteration': '2', 'mrfmcs': '21', 'registermcs': '24'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '3', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '24', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '24', 'current_iteration': '4', 'mrfmcs': '24', 'registermcs': '24'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '30', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '30', 'current_iteration': '6', 'mrfmcs': '30', 'registermcs': '30'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '31', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '31', 'current_iteration': '7', 'mrfmcs': '31', 'registermcs': '31'}]</t>
@@ -1651,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN7"/>
+  <dimension ref="A1:SN8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3193,221 +3210,95 @@
       <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="I2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L2" t="s">
-        <v>378</v>
-      </c>
-      <c r="M2" t="s">
-        <v>378</v>
-      </c>
-      <c r="N2" t="s">
-        <v>378</v>
-      </c>
-      <c r="O2" t="s">
-        <v>378</v>
-      </c>
-      <c r="P2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>378</v>
-      </c>
-      <c r="R2" t="s">
-        <v>378</v>
-      </c>
-      <c r="S2" t="s">
-        <v>378</v>
-      </c>
-      <c r="T2" t="s">
-        <v>378</v>
-      </c>
-      <c r="U2" t="s">
-        <v>378</v>
-      </c>
-      <c r="V2" t="s">
-        <v>378</v>
-      </c>
-      <c r="W2" t="s">
-        <v>378</v>
-      </c>
-      <c r="X2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H2" t="s">
+        <v>377</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DH2" t="s">
         <v>379</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="DI2" t="s">
+        <v>391</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>392</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DO2" t="s">
         <v>379</v>
       </c>
-      <c r="AB2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="DP2" t="s">
         <v>379</v>
       </c>
-      <c r="AD2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>383</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>384</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>385</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>386</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>387</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>388</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>378</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CT2" t="s">
+      <c r="DQ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>378</v>
+      </c>
+      <c r="DW2" t="s">
         <v>379</v>
       </c>
-      <c r="CU2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>378</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DX2" t="s">
         <v>379</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>379</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>389</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>390</v>
+      <c r="DY2" t="s">
+        <v>394</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>408</v>
       </c>
       <c r="SE2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="SF2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="SI2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="SJ2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="SK2" t="s">
-        <v>414</v>
+        <v>416</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3423,140 +3314,221 @@
       <c r="D3" t="s">
         <v>373</v>
       </c>
-      <c r="DK3" t="s">
-        <v>378</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FF3" t="s">
+      <c r="I3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" t="s">
+        <v>378</v>
+      </c>
+      <c r="M3" t="s">
+        <v>378</v>
+      </c>
+      <c r="N3" t="s">
+        <v>378</v>
+      </c>
+      <c r="O3" t="s">
+        <v>378</v>
+      </c>
+      <c r="P3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>378</v>
+      </c>
+      <c r="R3" t="s">
+        <v>378</v>
+      </c>
+      <c r="S3" t="s">
+        <v>378</v>
+      </c>
+      <c r="T3" t="s">
+        <v>378</v>
+      </c>
+      <c r="U3" t="s">
+        <v>378</v>
+      </c>
+      <c r="V3" t="s">
+        <v>378</v>
+      </c>
+      <c r="W3" t="s">
+        <v>378</v>
+      </c>
+      <c r="X3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z3" t="s">
         <v>379</v>
       </c>
-      <c r="FG3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FH3" t="s">
+      <c r="AA3" t="s">
         <v>379</v>
       </c>
-      <c r="FI3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>378</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GE3" t="s">
+      <c r="AB3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC3" t="s">
         <v>379</v>
       </c>
-      <c r="GF3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GG3" t="s">
+      <c r="AD3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>385</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>387</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CT3" t="s">
         <v>379</v>
       </c>
-      <c r="GH3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>378</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>400</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>402</v>
+      <c r="CU3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>378</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>379</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>378</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>389</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>390</v>
       </c>
       <c r="SE3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SF3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SI3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="SJ3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="SK3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3572,89 +3544,140 @@
       <c r="D4" t="s">
         <v>372</v>
       </c>
-      <c r="DZ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>378</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EK4" t="s">
+      <c r="DL4" t="s">
+        <v>378</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FF4" t="s">
         <v>379</v>
       </c>
-      <c r="EL4" t="s">
+      <c r="FG4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FH4" t="s">
         <v>379</v>
       </c>
-      <c r="EM4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>394</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>395</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>396</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>397</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>398</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>399</v>
+      <c r="FI4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>378</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>379</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>378</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>402</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>404</v>
       </c>
       <c r="SE4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SF4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SI4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="SJ4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="SK4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -3662,148 +3685,97 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EZ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FB5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FH5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FN5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FP5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FT5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FV5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FX5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>378</v>
-      </c>
-      <c r="FZ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GB5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GD5" t="s">
+        <v>373</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>378</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EK5" t="s">
         <v>379</v>
       </c>
-      <c r="GE5" t="s">
+      <c r="EL5" t="s">
         <v>379</v>
       </c>
-      <c r="GF5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GH5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GJ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>378</v>
-      </c>
-      <c r="GL5" t="s">
+      <c r="EM5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>378</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>396</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>397</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>398</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>399</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>400</v>
+      </c>
+      <c r="EY5" t="s">
         <v>401</v>
       </c>
-      <c r="GM5" t="s">
-        <v>403</v>
-      </c>
       <c r="SE5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SF5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SI5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="SJ5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="SK5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -3811,211 +3783,148 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
-      </c>
-      <c r="GN6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GO6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GP6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GQ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GR6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GS6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GT6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GU6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GV6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GX6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GZ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HA6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HB6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HC6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HD6" t="s">
-        <v>404</v>
-      </c>
-      <c r="HE6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HF6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HG6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HH6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HI6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HJ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HK6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HL6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HM6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HN6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HO6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HP6" t="s">
+        <v>373</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>378</v>
+      </c>
+      <c r="EZ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FR6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>378</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GD6" t="s">
         <v>379</v>
       </c>
-      <c r="HQ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HR6" t="s">
+      <c r="GE6" t="s">
         <v>379</v>
       </c>
-      <c r="HS6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HT6" t="s">
-        <v>379</v>
-      </c>
-      <c r="HU6" t="s">
-        <v>379</v>
-      </c>
-      <c r="HW6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HX6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HY6" t="s">
-        <v>378</v>
-      </c>
-      <c r="HZ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IA6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IB6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IC6" t="s">
-        <v>378</v>
-      </c>
-      <c r="ID6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IE6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IF6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IG6" t="s">
-        <v>379</v>
-      </c>
-      <c r="IH6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IJ6" t="s">
+      <c r="GF6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>378</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>403</v>
+      </c>
+      <c r="GM6" t="s">
         <v>405</v>
       </c>
-      <c r="IK6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IL6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IM6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IN6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IO6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IP6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IQ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IR6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IS6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IT6" t="s">
-        <v>379</v>
-      </c>
-      <c r="IU6" t="s">
-        <v>378</v>
-      </c>
-      <c r="IV6" t="s">
-        <v>405</v>
-      </c>
-      <c r="JJ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="ND6" t="s">
-        <v>405</v>
-      </c>
       <c r="SE6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SF6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="SI6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="SJ6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="SK6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4026,97 +3935,309 @@
         <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" t="s">
+        <v>373</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GQ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GR7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GT7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GU7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GV7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GX7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>378</v>
+      </c>
+      <c r="GZ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HB7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HD7" t="s">
+        <v>406</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HF7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HH7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HI7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HJ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HL7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HM7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HN7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HO7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>379</v>
+      </c>
+      <c r="HQ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HR7" t="s">
+        <v>379</v>
+      </c>
+      <c r="HS7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>379</v>
+      </c>
+      <c r="HU7" t="s">
+        <v>379</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HY7" t="s">
+        <v>378</v>
+      </c>
+      <c r="HZ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IA7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IB7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IC7" t="s">
+        <v>378</v>
+      </c>
+      <c r="ID7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IE7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IF7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IG7" t="s">
+        <v>379</v>
+      </c>
+      <c r="IH7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IJ7" t="s">
+        <v>407</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IL7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IM7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IN7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IO7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IQ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IR7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>379</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>378</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>407</v>
+      </c>
+      <c r="JJ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="ND7" t="s">
+        <v>407</v>
+      </c>
+      <c r="SE7" t="s">
+        <v>410</v>
+      </c>
+      <c r="SF7" t="s">
+        <v>410</v>
+      </c>
+      <c r="SI7" t="s">
+        <v>414</v>
+      </c>
+      <c r="SJ7" t="s">
+        <v>414</v>
+      </c>
+      <c r="SK7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:508">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" t="s">
         <v>374</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>375</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>376</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>377</v>
       </c>
-      <c r="DG7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DI7" t="s">
+      <c r="DG8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DI8" t="s">
         <v>391</v>
       </c>
-      <c r="DJ7" t="s">
+      <c r="DJ8" t="s">
         <v>379</v>
       </c>
-      <c r="DL7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>392</v>
-      </c>
-      <c r="DN7" t="s">
+      <c r="DK8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>393</v>
+      </c>
+      <c r="DN8" t="s">
         <v>379</v>
       </c>
-      <c r="DO7" t="s">
+      <c r="DO8" t="s">
         <v>379</v>
       </c>
-      <c r="DP7" t="s">
+      <c r="DP8" t="s">
         <v>379</v>
       </c>
-      <c r="DQ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DR7" t="s">
+      <c r="DQ8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR8" t="s">
         <v>379</v>
       </c>
-      <c r="DS7" t="s">
+      <c r="DS8" t="s">
         <v>379</v>
       </c>
-      <c r="DT7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>378</v>
-      </c>
-      <c r="DW7" t="s">
+      <c r="DT8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>378</v>
+      </c>
+      <c r="DW8" t="s">
         <v>379</v>
       </c>
-      <c r="DY7" t="s">
-        <v>393</v>
-      </c>
-      <c r="FR7" t="s">
-        <v>378</v>
-      </c>
-      <c r="SD7" t="s">
-        <v>406</v>
-      </c>
-      <c r="SE7" t="s">
+      <c r="DY8" t="s">
+        <v>395</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>378</v>
+      </c>
+      <c r="SD8" t="s">
         <v>408</v>
       </c>
-      <c r="SF7" t="s">
+      <c r="SE8" t="s">
         <v>409</v>
       </c>
-      <c r="SI7" t="s">
-        <v>413</v>
-      </c>
-      <c r="SJ7" t="s">
-        <v>413</v>
-      </c>
-      <c r="SK7" t="s">
-        <v>419</v>
-      </c>
-      <c r="SN7" t="s">
-        <v>420</v>
+      <c r="SF8" t="s">
+        <v>411</v>
+      </c>
+      <c r="SI8" t="s">
+        <v>415</v>
+      </c>
+      <c r="SJ8" t="s">
+        <v>415</v>
+      </c>
+      <c r="SK8" t="s">
+        <v>422</v>
+      </c>
+      <c r="SN8" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="443">
   <si>
     <t>section</t>
   </si>
@@ -1111,18 +1111,18 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -1156,18 +1156,39 @@
     <t>no</t>
   </si>
   <si>
+    <t>scrub expired 12/24 changed with unexpired 11/25</t>
+  </si>
+  <si>
     <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
+    <t>Disposable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
   </si>
   <si>
+    <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
+  </si>
+  <si>
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
   </si>
   <si>
+    <t>air conditioner not working for past month</t>
+  </si>
+  <si>
     <t>no sharps tins</t>
   </si>
   <si>
+    <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
+  </si>
+  <si>
+    <t>condoms in short supply</t>
+  </si>
+  <si>
+    <t>Ceftriaxone Metronidazole Doxycycline</t>
+  </si>
+  <si>
     <t>Ceftriaxone Doxycycline</t>
   </si>
   <si>
@@ -1180,13 +1201,26 @@
     <t>amoxycillinclavulanic_acid erythromycin</t>
   </si>
   <si>
+    <t>Lignocaine</t>
+  </si>
+  <si>
     <t>Lignocaine Bupivacaine</t>
   </si>
   <si>
+    <t>add strength of medicines on dispensing register
+incinerator is done off site at Rimuka Maternity</t>
+  </si>
+  <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
   </si>
   <si>
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>Good emergency management practices</t>
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
@@ -1213,20 +1247,37 @@
     <t>Facility not using EHR</t>
   </si>
   <si>
+    <t>For the 15-24 year age group, the DC team is effectively using Moonlight and intensive door-to-door campaigns. Moonlights are helping them to 'catch young men in places where they patronise in the evening. Door-to-door campaigns are helping them to address the target audiences in the comfort of their residences or temporary shelters.
+For the 25-34 year old, the DC team is using Community Dialogues and collaborative campaigns. However, the team is now avoiding conducting dialogues because the meetings are continuously becoming oversubscribed, thereby making it difficult for them to offer sufficient refreshments as the stipulated dialogue budget is $60. Collaborative campaigns are being conducted with various strategic partners such as Women Affairs dept, CESHHAR and Agritex (during Seed distribution).</t>
+  </si>
+  <si>
     <t>Strategies for ages 15-24 included schools campaigns and soccer tournaments.  For ages 25-34 included work based DC in industries and farms.
 Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
   </si>
   <si>
+    <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
+  </si>
+  <si>
     <t>Men_who_go_to_work Remote_Communities</t>
   </si>
   <si>
+    <t>Community_Nursing DAC Other_Health_Programmers</t>
+  </si>
+  <si>
     <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
   </si>
   <si>
     <t>Chiefs Headmen Councilors</t>
   </si>
   <si>
+    <t>Yes. the team introduced Information sessions for teachers to correct myths and misconceptions as well as to promote buy-in. In addition, the team is conducting girl child empowerment sessions entailing girl-specific ASRH education (e.g., menstrual hygiene), including VMMC sensitisation. Apparently, after sensitising girls in schools, the team has increased VMMC uptake in about 3 schools through tasking the empowered girls to give boys the consent forms to take home for parental consent. Prior to this innovation, it was reported that boys would refuse to collect consent forms out of fear of being ridiculed by the girls.
+The DC team is also effectively using the caravan through stationing it at the same venue for about five days. The prolonged caravan stay allows prospective clients and their influences to relate to the caravan more closely, seeking information and consent from partners. They will then schedule a day for VMMC on a day convenient to them during the week. The DCO commented that they have since stopped the 'migratory birds' approach.</t>
+  </si>
+  <si>
     <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
+  </si>
+  <si>
+    <t>The DC infrastructure in the district is strong.   Rimuka clinic is being supported by 5 consistently active mobilises and 3 inconsistently active ones. However, the DC system needs further strengthening through (1) promoting the more active involvement of EHTs, HPO' s office and the Community Nursing department, (2) involving the FBO sector (e.g., pastors), (3) increasing visibility through drafting and publishing success stories ( e.g., strategic involvement of girls in motivating boys to pick consent forms at school), (4) concreting the workplace through incorporating SMART objectives. The team plans to target highly mobile men such as truck drivers - and they have already identified a truck stop under construction to serve as an ideal intervention venue.   The team requested (1) an upward review of the Community Dialogue budget from $60 to $110 and (2) an increase in promotional materials to boost programme visibility.</t>
   </si>
   <si>
     <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
@@ -1265,25 +1316,31 @@
     <t>8</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>tmunyaradzi</t>
+  </si>
+  <si>
     <t>fgwenzi</t>
   </si>
   <si>
-    <t>tmunyaradzi</t>
-  </si>
-  <si>
     <t>jgavhera</t>
   </si>
   <si>
     <t>amutenha</t>
+  </si>
+  <si>
+    <t>2025-07-01T06:30:43.887465Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T06:30:43.262357Z</t>
   </si>
   <si>
     <t>2025-06-30T16:51:35.768086Z</t>
@@ -1668,7 +1725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN8"/>
+  <dimension ref="A1:SN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3210,95 +3267,59 @@
       <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="E2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" t="s">
-        <v>377</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DH2" t="s">
+      <c r="DZ2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EL2" t="s">
         <v>379</v>
       </c>
-      <c r="DI2" t="s">
-        <v>391</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>392</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>379</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>379</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>378</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>379</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>379</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>394</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>378</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>408</v>
+      <c r="EM2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>378</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>407</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>409</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>411</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>414</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>416</v>
       </c>
       <c r="SE2" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="SF2" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="SI2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="SJ2" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="SK2" t="s">
-        <v>416</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3309,10 +3330,10 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I3" t="s">
         <v>378</v>
@@ -3366,16 +3387,16 @@
         <v>378</v>
       </c>
       <c r="Z3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AA3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AB3" t="s">
         <v>378</v>
       </c>
       <c r="AC3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AD3" t="s">
         <v>380</v>
@@ -3386,11 +3407,20 @@
       <c r="AG3" t="s">
         <v>378</v>
       </c>
+      <c r="AH3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>378</v>
+      </c>
       <c r="AK3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN3" t="s">
         <v>378</v>
@@ -3402,10 +3432,43 @@
         <v>378</v>
       </c>
       <c r="AQ3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AR3" t="s">
-        <v>383</v>
+        <v>386</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>378</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>379</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>389</v>
       </c>
       <c r="BF3" t="s">
         <v>378</v>
@@ -3414,25 +3477,25 @@
         <v>378</v>
       </c>
       <c r="BH3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="BI3" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="BJ3" t="s">
         <v>378</v>
       </c>
       <c r="BK3" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="BL3" t="s">
         <v>378</v>
       </c>
       <c r="BM3" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="BN3" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="BO3" t="s">
         <v>378</v>
@@ -3461,6 +3524,42 @@
       <c r="BX3" t="s">
         <v>378</v>
       </c>
+      <c r="BY3" t="s">
+        <v>378</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>379</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>378</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>397</v>
+      </c>
       <c r="CN3" t="s">
         <v>378</v>
       </c>
@@ -3480,7 +3579,7 @@
         <v>378</v>
       </c>
       <c r="CT3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CU3" t="s">
         <v>378</v>
@@ -3495,7 +3594,7 @@
         <v>378</v>
       </c>
       <c r="CY3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CZ3" t="s">
         <v>378</v>
@@ -3504,31 +3603,34 @@
         <v>378</v>
       </c>
       <c r="DB3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="DC3" t="s">
         <v>378</v>
       </c>
       <c r="DD3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="DE3" t="s">
-        <v>390</v>
+        <v>400</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>401</v>
       </c>
       <c r="SE3" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SF3" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SI3" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="SJ3" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="SK3" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3544,140 +3646,95 @@
       <c r="D4" t="s">
         <v>372</v>
       </c>
-      <c r="DL4" t="s">
-        <v>378</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FF4" t="s">
+      <c r="E4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H4" t="s">
+        <v>377</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DH4" t="s">
         <v>379</v>
       </c>
-      <c r="FG4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FH4" t="s">
+      <c r="DI4" t="s">
+        <v>402</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>403</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DO4" t="s">
         <v>379</v>
       </c>
-      <c r="FI4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>378</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GE4" t="s">
+      <c r="DP4" t="s">
         <v>379</v>
       </c>
-      <c r="GF4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GG4" t="s">
+      <c r="DQ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>378</v>
+      </c>
+      <c r="DW4" t="s">
         <v>379</v>
       </c>
-      <c r="GH4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>378</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>402</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>404</v>
+      <c r="DX4" t="s">
+        <v>379</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>405</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>378</v>
+      </c>
+      <c r="SD4" t="s">
+        <v>424</v>
       </c>
       <c r="SE4" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="SF4" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="SI4" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="SJ4" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="SK4" t="s">
-        <v>418</v>
+        <v>434</v>
+      </c>
+      <c r="SN4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -3685,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
         <v>371</v>
@@ -3693,89 +3750,221 @@
       <c r="D5" t="s">
         <v>373</v>
       </c>
-      <c r="DZ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>378</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EK5" t="s">
+      <c r="I5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K5" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M5" t="s">
+        <v>378</v>
+      </c>
+      <c r="N5" t="s">
+        <v>378</v>
+      </c>
+      <c r="O5" t="s">
+        <v>378</v>
+      </c>
+      <c r="P5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>378</v>
+      </c>
+      <c r="R5" t="s">
+        <v>378</v>
+      </c>
+      <c r="S5" t="s">
+        <v>378</v>
+      </c>
+      <c r="T5" t="s">
+        <v>378</v>
+      </c>
+      <c r="U5" t="s">
+        <v>378</v>
+      </c>
+      <c r="V5" t="s">
+        <v>378</v>
+      </c>
+      <c r="W5" t="s">
+        <v>378</v>
+      </c>
+      <c r="X5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z5" t="s">
         <v>379</v>
       </c>
-      <c r="EL5" t="s">
+      <c r="AA5" t="s">
         <v>379</v>
       </c>
-      <c r="EM5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>378</v>
-      </c>
-      <c r="EQ5" t="s">
+      <c r="AB5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>387</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>391</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>392</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>393</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>394</v>
+      </c>
+      <c r="BN5" t="s">
         <v>396</v>
       </c>
-      <c r="ER5" t="s">
-        <v>397</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>398</v>
-      </c>
-      <c r="EV5" t="s">
+      <c r="BO5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>378</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>379</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>378</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>379</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>378</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>378</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>379</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>378</v>
+      </c>
+      <c r="DD5" t="s">
         <v>399</v>
       </c>
-      <c r="EX5" t="s">
+      <c r="DE5" t="s">
         <v>400</v>
       </c>
-      <c r="EY5" t="s">
-        <v>401</v>
-      </c>
       <c r="SE5" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SF5" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SI5" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="SJ5" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="SK5" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -3783,13 +3972,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="DL6" t="s">
         <v>378</v>
@@ -3813,13 +4002,13 @@
         <v>378</v>
       </c>
       <c r="FF6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FG6" t="s">
         <v>378</v>
       </c>
       <c r="FH6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FI6" t="s">
         <v>378</v>
@@ -3882,7 +4071,7 @@
         <v>378</v>
       </c>
       <c r="GD6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="GE6" t="s">
         <v>379</v>
@@ -3891,7 +4080,7 @@
         <v>378</v>
       </c>
       <c r="GG6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="GH6" t="s">
         <v>378</v>
@@ -3906,25 +4095,25 @@
         <v>378</v>
       </c>
       <c r="GL6" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="GM6" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="SE6" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SF6" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SI6" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="SJ6" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="SK6" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -3932,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -3940,203 +4129,89 @@
       <c r="D7" t="s">
         <v>373</v>
       </c>
-      <c r="GN7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GO7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GP7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GQ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GR7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GT7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GU7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GV7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GX7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>378</v>
-      </c>
-      <c r="GZ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HA7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HB7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HC7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HD7" t="s">
-        <v>406</v>
-      </c>
-      <c r="HE7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HF7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HG7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HI7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HJ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HK7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HL7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HM7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HN7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HO7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HP7" t="s">
+      <c r="DZ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>378</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EK7" t="s">
         <v>379</v>
       </c>
-      <c r="HQ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HR7" t="s">
+      <c r="EL7" t="s">
         <v>379</v>
       </c>
-      <c r="HS7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HT7" t="s">
-        <v>379</v>
-      </c>
-      <c r="HU7" t="s">
-        <v>379</v>
-      </c>
-      <c r="HW7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HY7" t="s">
-        <v>378</v>
-      </c>
-      <c r="HZ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IA7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IB7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IC7" t="s">
-        <v>378</v>
-      </c>
-      <c r="ID7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IE7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IF7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IG7" t="s">
-        <v>379</v>
-      </c>
-      <c r="IH7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IJ7" t="s">
-        <v>407</v>
-      </c>
-      <c r="IK7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IL7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IM7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IN7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IO7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IP7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IQ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IR7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IS7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IT7" t="s">
-        <v>379</v>
-      </c>
-      <c r="IU7" t="s">
-        <v>378</v>
-      </c>
-      <c r="IV7" t="s">
-        <v>407</v>
-      </c>
-      <c r="JJ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="ND7" t="s">
-        <v>407</v>
+      <c r="EM7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>378</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>408</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>410</v>
+      </c>
+      <c r="ET7" t="s">
+        <v>412</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>413</v>
+      </c>
+      <c r="EX7" t="s">
+        <v>415</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>417</v>
       </c>
       <c r="SE7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SF7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="SI7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="SJ7" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="SK7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4144,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
         <v>371</v>
@@ -4152,92 +4227,453 @@
       <c r="D8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="DL8" t="s">
+        <v>378</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FR8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FV8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>378</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GB8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GD8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GE8" t="s">
+        <v>379</v>
+      </c>
+      <c r="GF8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GG8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>378</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>419</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>421</v>
+      </c>
+      <c r="SE8" t="s">
+        <v>425</v>
+      </c>
+      <c r="SF8" t="s">
+        <v>425</v>
+      </c>
+      <c r="SI8" t="s">
+        <v>430</v>
+      </c>
+      <c r="SJ8" t="s">
+        <v>430</v>
+      </c>
+      <c r="SK8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:508">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" t="s">
+        <v>373</v>
+      </c>
+      <c r="GN9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GR9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GT9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GV9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GX9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>378</v>
+      </c>
+      <c r="GZ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HB9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HD9" t="s">
+        <v>422</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HF9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HI9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HJ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HK9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HL9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HM9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HN9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>379</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>379</v>
+      </c>
+      <c r="HS9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>379</v>
+      </c>
+      <c r="HU9" t="s">
+        <v>379</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HX9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HY9" t="s">
+        <v>378</v>
+      </c>
+      <c r="HZ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IB9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>378</v>
+      </c>
+      <c r="ID9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IE9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IF9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IG9" t="s">
+        <v>379</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>423</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IM9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IQ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IR9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>379</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>378</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>423</v>
+      </c>
+      <c r="JJ9" t="s">
+        <v>378</v>
+      </c>
+      <c r="ND9" t="s">
+        <v>423</v>
+      </c>
+      <c r="SE9" t="s">
+        <v>425</v>
+      </c>
+      <c r="SF9" t="s">
+        <v>425</v>
+      </c>
+      <c r="SI9" t="s">
+        <v>430</v>
+      </c>
+      <c r="SJ9" t="s">
+        <v>430</v>
+      </c>
+      <c r="SK9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:508">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" t="s">
         <v>374</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>375</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>376</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H10" t="s">
         <v>377</v>
       </c>
-      <c r="DG8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DI8" t="s">
-        <v>391</v>
-      </c>
-      <c r="DJ8" t="s">
+      <c r="DG10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>402</v>
+      </c>
+      <c r="DJ10" t="s">
         <v>379</v>
       </c>
-      <c r="DK8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>393</v>
-      </c>
-      <c r="DN8" t="s">
+      <c r="DK10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>404</v>
+      </c>
+      <c r="DN10" t="s">
         <v>379</v>
       </c>
-      <c r="DO8" t="s">
+      <c r="DO10" t="s">
         <v>379</v>
       </c>
-      <c r="DP8" t="s">
+      <c r="DP10" t="s">
         <v>379</v>
       </c>
-      <c r="DQ8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DR8" t="s">
+      <c r="DQ10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR10" t="s">
         <v>379</v>
       </c>
-      <c r="DS8" t="s">
+      <c r="DS10" t="s">
         <v>379</v>
       </c>
-      <c r="DT8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>378</v>
-      </c>
-      <c r="DW8" t="s">
+      <c r="DT10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>378</v>
+      </c>
+      <c r="DW10" t="s">
         <v>379</v>
       </c>
-      <c r="DY8" t="s">
-        <v>395</v>
-      </c>
-      <c r="FQ8" t="s">
-        <v>378</v>
-      </c>
-      <c r="SD8" t="s">
-        <v>408</v>
-      </c>
-      <c r="SE8" t="s">
-        <v>409</v>
-      </c>
-      <c r="SF8" t="s">
-        <v>411</v>
-      </c>
-      <c r="SI8" t="s">
-        <v>415</v>
-      </c>
-      <c r="SJ8" t="s">
-        <v>415</v>
-      </c>
-      <c r="SK8" t="s">
-        <v>422</v>
-      </c>
-      <c r="SN8" t="s">
+      <c r="DY10" t="s">
+        <v>406</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>378</v>
+      </c>
+      <c r="SD10" t="s">
         <v>424</v>
+      </c>
+      <c r="SE10" t="s">
+        <v>426</v>
+      </c>
+      <c r="SF10" t="s">
+        <v>427</v>
+      </c>
+      <c r="SI10" t="s">
+        <v>431</v>
+      </c>
+      <c r="SJ10" t="s">
+        <v>431</v>
+      </c>
+      <c r="SK10" t="s">
+        <v>440</v>
+      </c>
+      <c r="SN10" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="471">
   <si>
     <t>section</t>
   </si>
@@ -1114,22 +1114,28 @@
     <t>c</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>MARONDERA</t>
   </si>
   <si>
     <t>SANYATI</t>
   </si>
   <si>
-    <t>MARONDERA</t>
+    <t>Masikana Council Clinic</t>
+  </si>
+  <si>
+    <t>Jompani</t>
   </si>
   <si>
     <t>Rimuka</t>
@@ -1224,6 +1230,12 @@
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
+  </si>
+  <si>
+    <t>There is data discepancy in May 2025 due to underreporting in MRF</t>
+  </si>
+  <si>
+    <t>No discrepancies across all the month under review</t>
   </si>
   <si>
     <t>1. Site documenting linkages on monthly summaries
@@ -1239,6 +1251,17 @@
 and without cancellations</t>
   </si>
   <si>
+    <t>EHR is down and has not been workung for the last 3 months
+2WT is also affected b poor network &amp; team has no access to 2WT data base for them to establish the follow up rates
+Referals/linkages are to VMMC instead of linkages to other services</t>
+  </si>
+  <si>
+    <t>1. Linkages not documented  in the VMMC register
+2. Linkages register was not available on site
+3. Site not entering VMMC data into EHR
+4. The site needs to include monthly summaries regarding HTS and Linkages in the register</t>
+  </si>
+  <si>
     <t>1. The is a best practice case on Linkages documentation and reporting
 2. Site is enrolling into 2WT system
 3. Site should start enrolling clients into EHR</t>
@@ -1247,6 +1270,9 @@
     <t>Facility not using EHR</t>
   </si>
   <si>
+    <t>They do snooker tournaments and farms engagement and one on ones for 25-34 years. For 15-24  schools engagement and soccer tournaments.</t>
+  </si>
+  <si>
     <t>For the 15-24 year age group, the DC team is effectively using Moonlight and intensive door-to-door campaigns. Moonlights are helping them to 'catch young men in places where they patronise in the evening. Door-to-door campaigns are helping them to address the target audiences in the comfort of their residences or temporary shelters.
 For the 25-34 year old, the DC team is using Community Dialogues and collaborative campaigns. However, the team is now avoiding conducting dialogues because the meetings are continuously becoming oversubscribed, thereby making it difficult for them to offer sufficient refreshments as the stipulated dialogue budget is $60. Collaborative campaigns are being conducted with various strategic partners such as Women Affairs dept, CESHHAR and Agritex (during Seed distribution).</t>
   </si>
@@ -1255,19 +1281,31 @@
 Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
   </si>
   <si>
+    <t>Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
+  </si>
+  <si>
     <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
     <t>Men_who_go_to_work Remote_Communities</t>
   </si>
   <si>
+    <t>Environmental_Health_Technicians Other_Health_Programmers</t>
+  </si>
+  <si>
     <t>Community_Nursing DAC Other_Health_Programmers</t>
   </si>
   <si>
     <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
   </si>
   <si>
+    <t>Headmen Village_Heads Church_Leaders</t>
+  </si>
+  <si>
     <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
+    <t>Yes the site would day and moonlight by the tobacco farms as they would be processing tobacco in the barns.</t>
   </si>
   <si>
     <t>Yes. the team introduced Information sessions for teachers to correct myths and misconceptions as well as to promote buy-in. In addition, the team is conducting girl child empowerment sessions entailing girl-specific ASRH education (e.g., menstrual hygiene), including VMMC sensitisation. Apparently, after sensitising girls in schools, the team has increased VMMC uptake in about 3 schools through tasking the empowered girls to give boys the consent forms to take home for parental consent. Prior to this innovation, it was reported that boys would refuse to collect consent forms out of fear of being ridiculed by the girls.
@@ -1277,16 +1315,28 @@
     <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
   </si>
   <si>
+    <t>Workplace to be shared with outreach clinics for better efficiency in Demand creation.</t>
+  </si>
+  <si>
     <t>The DC infrastructure in the district is strong.   Rimuka clinic is being supported by 5 consistently active mobilises and 3 inconsistently active ones. However, the DC system needs further strengthening through (1) promoting the more active involvement of EHTs, HPO' s office and the Community Nursing department, (2) involving the FBO sector (e.g., pastors), (3) increasing visibility through drafting and publishing success stories ( e.g., strategic involvement of girls in motivating boys to pick consent forms at school), (4) concreting the workplace through incorporating SMART objectives. The team plans to target highly mobile men such as truck drivers - and they have already identified a truck stop under construction to serve as an ideal intervention venue.   The team requested (1) an upward review of the Community Dialogue budget from $60 to $110 and (2) an increase in promotional materials to boost programme visibility.</t>
   </si>
   <si>
     <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
   </si>
   <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors STI_Trained_Nurses</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors</t>
+  </si>
+  <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Community_Health_Workers Data_Clerks Receptionists Nurse_Testers</t>
   </si>
   <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors</t>
+  </si>
+  <si>
+    <t>Most of the relevant SOPs available save for the staff job descriptions.  the site could benefit from a replenishment of the tools.</t>
   </si>
   <si>
     <t>Comments
@@ -1307,12 +1357,25 @@
     <t>All available</t>
   </si>
   <si>
+    <t>Session well articulated only missing condom demonstration,  team informed to include condom demonstration for all age groups.</t>
+  </si>
+  <si>
     <t>complete and engaging. Clients showed learning tool place.</t>
   </si>
   <si>
+    <t>condom demonstration again missed in this session, little or no probing into client's understanding and any issues that may be individual and peculiar to clients 
+- highly recomend refresher on client counselling.</t>
+  </si>
+  <si>
+    <t>-recommend refresher on client counselling.</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
+    <t>-Highly recommend refresher on client counselling</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -1325,16 +1388,37 @@
     <t>5</t>
   </si>
   <si>
+    <t>jgavhera</t>
+  </si>
+  <si>
+    <t>amutenha</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
+    <t>gguveya</t>
+  </si>
+  <si>
     <t>tmunyaradzi</t>
   </si>
   <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
-    <t>jgavhera</t>
-  </si>
-  <si>
-    <t>amutenha</t>
+    <t>2025-07-01T10:44:54.322797Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:20.908622Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:42:20.433043Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T10:23:04.055931Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:39:44.353253Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T09:33:08.411101Z</t>
   </si>
   <si>
     <t>2025-07-01T06:30:43.887465Z</t>
@@ -1362,6 +1446,12 @@
   </si>
   <si>
     <t>2025-06-30T11:51:05.207097Z</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '0', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '32', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '32', 'current_iteration': '1', 'mrfmcs': '32', 'registermcs': '32'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '18', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '18', 'current_iteration': '2', 'mrfmcs': '18', 'registermcs': '18'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '8', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '8', 'current_iteration': '3', 'mrfmcs': '8', 'registermcs': '8'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '4', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '6', 'mrfmcs': '12', 'registermcs': '12'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '13', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '7', 'mrfmcs': '0', 'registermcs': '13'}]</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '38', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '37', 'current_iteration': '0', 'mrfmcs': '37', 'registermcs': '37'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '1', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '7', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '7', 'current_iteration': '2', 'mrfmcs': '7', 'registermcs': '7'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '6', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '6', 'current_iteration': '3', 'mrfmcs': '6', 'registermcs': '6'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '4', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '29', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '29', 'current_iteration': '5', 'mrfmcs': '29', 'registermcs': '29'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '7', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '7', 'current_iteration': '6', 'mrfmcs': '7', 'registermcs': '7'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '39', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '39', 'current_iteration': '7', 'mrfmcs': '39', 'registermcs': '39'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '86', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '86', 'current_iteration': '0', 'mrfmcs': '86', 'registermcs': '86'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '73', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '73', 'current_iteration': '1', 'mrfmcs': '73', 'registermcs': '73'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '55', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '55', 'current_iteration': '2', 'mrfmcs': '55', 'registermcs': '55'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '50', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '3', 'mrfmcs': '47', 'registermcs': '51'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '49', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '49', 'current_iteration': '4', 'mrfmcs': '49', 'registermcs': '49'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '92', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '92', 'current_iteration': '5', 'mrfmcs': '92', 'registermcs': '92'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '88', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '88', 'current_iteration': '6', 'mrfmcs': '88', 'registermcs': '88'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '104', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '104', 'current_iteration': '7', 'mrfmcs': '104', 'registermcs': '104'}]</t>
@@ -1725,7 +1815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN10"/>
+  <dimension ref="A1:SN16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3268,58 +3358,88 @@
         <v>372</v>
       </c>
       <c r="DZ2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EA2" t="s">
-        <v>378</v>
+        <v>380</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>380</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>380</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>380</v>
       </c>
       <c r="EK2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="EL2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="EM2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EN2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EO2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EP2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="EQ2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="ER2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="ET2" t="s">
-        <v>411</v>
+        <v>419</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>422</v>
       </c>
       <c r="EX2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="EY2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="SE2" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SF2" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SI2" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="SJ2" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="SK2" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3335,302 +3455,206 @@
       <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="I3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J3" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" t="s">
-        <v>378</v>
-      </c>
-      <c r="L3" t="s">
-        <v>378</v>
-      </c>
-      <c r="M3" t="s">
-        <v>378</v>
-      </c>
-      <c r="N3" t="s">
-        <v>378</v>
-      </c>
-      <c r="O3" t="s">
-        <v>378</v>
-      </c>
-      <c r="P3" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>378</v>
-      </c>
-      <c r="R3" t="s">
-        <v>378</v>
-      </c>
-      <c r="S3" t="s">
-        <v>378</v>
-      </c>
-      <c r="T3" t="s">
-        <v>378</v>
-      </c>
-      <c r="U3" t="s">
-        <v>378</v>
-      </c>
-      <c r="V3" t="s">
-        <v>378</v>
-      </c>
-      <c r="W3" t="s">
-        <v>378</v>
-      </c>
-      <c r="X3" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>389</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>390</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>392</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>394</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>395</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>378</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>379</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>379</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>397</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>378</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>378</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>378</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>378</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>378</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>398</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>400</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>401</v>
+      <c r="GN3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GV3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>380</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>437</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>381</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>439</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>380</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="IA3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>380</v>
+      </c>
+      <c r="IC3" t="s">
+        <v>381</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>380</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>380</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>440</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>380</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>381</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>380</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>442</v>
+      </c>
+      <c r="JJ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="ND3" t="s">
+        <v>442</v>
       </c>
       <c r="SE3" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SF3" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SI3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="SJ3" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="SK3" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3646,95 +3670,134 @@
       <c r="D4" t="s">
         <v>372</v>
       </c>
-      <c r="E4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G4" t="s">
-        <v>376</v>
-      </c>
-      <c r="H4" t="s">
-        <v>377</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>379</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>402</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>403</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>379</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>379</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>378</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>379</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>379</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>405</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>378</v>
-      </c>
-      <c r="SD4" t="s">
-        <v>424</v>
+      <c r="EZ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>381</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>381</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>381</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>430</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>434</v>
       </c>
       <c r="SE4" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="SF4" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="SI4" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="SJ4" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="SK4" t="s">
-        <v>434</v>
-      </c>
-      <c r="SN4" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -3742,229 +3805,94 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" t="s">
         <v>378</v>
       </c>
-      <c r="J5" t="s">
-        <v>378</v>
-      </c>
-      <c r="K5" t="s">
-        <v>378</v>
-      </c>
-      <c r="L5" t="s">
-        <v>378</v>
-      </c>
-      <c r="M5" t="s">
-        <v>378</v>
-      </c>
-      <c r="N5" t="s">
-        <v>378</v>
-      </c>
-      <c r="O5" t="s">
-        <v>378</v>
-      </c>
-      <c r="P5" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>378</v>
-      </c>
-      <c r="R5" t="s">
-        <v>378</v>
-      </c>
-      <c r="S5" t="s">
-        <v>378</v>
-      </c>
-      <c r="T5" t="s">
-        <v>378</v>
-      </c>
-      <c r="U5" t="s">
-        <v>378</v>
-      </c>
-      <c r="V5" t="s">
-        <v>378</v>
-      </c>
-      <c r="W5" t="s">
-        <v>378</v>
-      </c>
-      <c r="X5" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z5" t="s">
+      <c r="H5" t="s">
         <v>379</v>
       </c>
-      <c r="AA5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>379</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>385</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>387</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>391</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>392</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>393</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>394</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>396</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>378</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>378</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>379</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>378</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>378</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>379</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>378</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>399</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>400</v>
+      <c r="DG5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>404</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>405</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>409</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD5" t="s">
+        <v>443</v>
       </c>
       <c r="SE5" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="SF5" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="SI5" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="SJ5" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="SK5" t="s">
-        <v>435</v>
+        <v>455</v>
+      </c>
+      <c r="SN5" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -3975,145 +3903,100 @@
         <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
-      </c>
-      <c r="DL6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" t="s">
         <v>378</v>
       </c>
-      <c r="EZ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FB6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FC6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FD6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FE6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FF6" t="s">
+      <c r="H6" t="s">
         <v>379</v>
       </c>
-      <c r="FG6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FH6" t="s">
-        <v>379</v>
-      </c>
-      <c r="FI6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FJ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FN6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FR6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FU6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FV6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FW6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FX6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FY6" t="s">
-        <v>378</v>
-      </c>
-      <c r="FZ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GA6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GC6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GD6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GE6" t="s">
-        <v>379</v>
-      </c>
-      <c r="GF6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GG6" t="s">
-        <v>379</v>
-      </c>
-      <c r="GH6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GI6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GJ6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GK6" t="s">
-        <v>378</v>
-      </c>
-      <c r="GL6" t="s">
-        <v>418</v>
-      </c>
-      <c r="GM6" t="s">
-        <v>420</v>
+      <c r="DG6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>404</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>406</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>381</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>410</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD6" t="s">
+        <v>443</v>
       </c>
       <c r="SE6" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="SF6" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="SI6" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="SJ6" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="SK6" t="s">
-        <v>436</v>
+        <v>456</v>
+      </c>
+      <c r="SN6" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4121,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -4129,89 +4012,128 @@
       <c r="D7" t="s">
         <v>373</v>
       </c>
-      <c r="DZ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>378</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EE7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>379</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>379</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>378</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>408</v>
-      </c>
-      <c r="ER7" t="s">
-        <v>410</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>412</v>
-      </c>
-      <c r="EV7" t="s">
-        <v>413</v>
-      </c>
-      <c r="EX7" t="s">
-        <v>415</v>
-      </c>
-      <c r="EY7" t="s">
-        <v>417</v>
+      <c r="EZ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>381</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>381</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>381</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>431</v>
       </c>
       <c r="SE7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SF7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SI7" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="SJ7" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="SK7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4219,148 +4141,67 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
         <v>371</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>378</v>
-      </c>
-      <c r="EZ8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FA8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FB8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FC8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FD8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FE8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FF8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FG8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FH8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FI8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FJ8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FK8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FN8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FO8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FP8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FR8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FS8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FT8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FU8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FV8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FW8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FX8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FY8" t="s">
-        <v>378</v>
-      </c>
-      <c r="FZ8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GB8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GC8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GD8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GE8" t="s">
-        <v>379</v>
-      </c>
-      <c r="GF8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GG8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GH8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GI8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GJ8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GK8" t="s">
-        <v>378</v>
-      </c>
-      <c r="GL8" t="s">
-        <v>419</v>
-      </c>
-      <c r="GM8" t="s">
-        <v>421</v>
+        <v>374</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>380</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>414</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>417</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>420</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>425</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>428</v>
       </c>
       <c r="SE8" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SF8" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SI8" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="SJ8" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="SK8" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4374,205 +4215,304 @@
         <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
-      </c>
-      <c r="GN9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GO9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GP9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GQ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GR9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GS9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GT9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GU9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GV9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GX9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GY9" t="s">
-        <v>378</v>
-      </c>
-      <c r="GZ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HA9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HB9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HC9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HD9" t="s">
-        <v>422</v>
-      </c>
-      <c r="HE9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HF9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HG9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HH9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HI9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HJ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HK9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HL9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HM9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HN9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HO9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HP9" t="s">
-        <v>379</v>
-      </c>
-      <c r="HQ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HR9" t="s">
-        <v>379</v>
-      </c>
-      <c r="HS9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HT9" t="s">
-        <v>379</v>
-      </c>
-      <c r="HU9" t="s">
-        <v>379</v>
-      </c>
-      <c r="HW9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HX9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HY9" t="s">
-        <v>378</v>
-      </c>
-      <c r="HZ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IA9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IB9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IC9" t="s">
-        <v>378</v>
-      </c>
-      <c r="ID9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IE9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IF9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IG9" t="s">
-        <v>379</v>
-      </c>
-      <c r="IH9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IJ9" t="s">
-        <v>423</v>
-      </c>
-      <c r="IK9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IL9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IM9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IN9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IO9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IP9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IQ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IR9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IS9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IT9" t="s">
-        <v>379</v>
-      </c>
-      <c r="IU9" t="s">
-        <v>378</v>
-      </c>
-      <c r="IV9" t="s">
-        <v>423</v>
-      </c>
-      <c r="JJ9" t="s">
-        <v>378</v>
-      </c>
-      <c r="ND9" t="s">
-        <v>423</v>
+        <v>374</v>
+      </c>
+      <c r="I9" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K9" t="s">
+        <v>380</v>
+      </c>
+      <c r="L9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M9" t="s">
+        <v>380</v>
+      </c>
+      <c r="N9" t="s">
+        <v>380</v>
+      </c>
+      <c r="O9" t="s">
+        <v>380</v>
+      </c>
+      <c r="P9" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>380</v>
+      </c>
+      <c r="R9" t="s">
+        <v>380</v>
+      </c>
+      <c r="S9" t="s">
+        <v>380</v>
+      </c>
+      <c r="T9" t="s">
+        <v>380</v>
+      </c>
+      <c r="U9" t="s">
+        <v>380</v>
+      </c>
+      <c r="V9" t="s">
+        <v>380</v>
+      </c>
+      <c r="W9" t="s">
+        <v>380</v>
+      </c>
+      <c r="X9" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>390</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>394</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>395</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>396</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>397</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>381</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>381</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>399</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>380</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>380</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>380</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>380</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>400</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>402</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>403</v>
       </c>
       <c r="SE9" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SF9" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="SI9" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="SJ9" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="SK9" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -4580,100 +4520,1042 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
         <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H10" t="s">
+        <v>379</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>404</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>407</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>411</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD10" t="s">
+        <v>443</v>
+      </c>
+      <c r="SE10" t="s">
+        <v>445</v>
+      </c>
+      <c r="SF10" t="s">
+        <v>446</v>
+      </c>
+      <c r="SI10" t="s">
+        <v>449</v>
+      </c>
+      <c r="SJ10" t="s">
+        <v>449</v>
+      </c>
+      <c r="SK10" t="s">
+        <v>460</v>
+      </c>
+      <c r="SN10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:508">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" t="s">
+        <v>375</v>
+      </c>
+      <c r="I11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J11" t="s">
+        <v>380</v>
+      </c>
+      <c r="K11" t="s">
+        <v>380</v>
+      </c>
+      <c r="L11" t="s">
+        <v>380</v>
+      </c>
+      <c r="M11" t="s">
+        <v>380</v>
+      </c>
+      <c r="N11" t="s">
+        <v>380</v>
+      </c>
+      <c r="O11" t="s">
+        <v>380</v>
+      </c>
+      <c r="P11" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>380</v>
+      </c>
+      <c r="R11" t="s">
+        <v>380</v>
+      </c>
+      <c r="S11" t="s">
+        <v>380</v>
+      </c>
+      <c r="T11" t="s">
+        <v>380</v>
+      </c>
+      <c r="U11" t="s">
+        <v>380</v>
+      </c>
+      <c r="V11" t="s">
+        <v>380</v>
+      </c>
+      <c r="W11" t="s">
+        <v>380</v>
+      </c>
+      <c r="X11" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>389</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>393</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>394</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>395</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>396</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>398</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>381</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>381</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>380</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>381</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>380</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>401</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>402</v>
+      </c>
+      <c r="SE11" t="s">
+        <v>444</v>
+      </c>
+      <c r="SF11" t="s">
+        <v>444</v>
+      </c>
+      <c r="SI11" t="s">
+        <v>451</v>
+      </c>
+      <c r="SJ11" t="s">
+        <v>451</v>
+      </c>
+      <c r="SK11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:508">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C12" t="s">
+        <v>371</v>
+      </c>
+      <c r="D12" t="s">
         <v>374</v>
       </c>
-      <c r="F10" t="s">
+      <c r="DL12" t="s">
+        <v>380</v>
+      </c>
+      <c r="EZ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FA12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FB12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FC12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FD12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF12" t="s">
+        <v>381</v>
+      </c>
+      <c r="FG12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FH12" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FR12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FS12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FU12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY12" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GE12" t="s">
+        <v>381</v>
+      </c>
+      <c r="GF12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG12" t="s">
+        <v>381</v>
+      </c>
+      <c r="GH12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK12" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL12" t="s">
+        <v>432</v>
+      </c>
+      <c r="GM12" t="s">
+        <v>435</v>
+      </c>
+      <c r="SE12" t="s">
+        <v>444</v>
+      </c>
+      <c r="SF12" t="s">
+        <v>444</v>
+      </c>
+      <c r="SI12" t="s">
+        <v>449</v>
+      </c>
+      <c r="SJ12" t="s">
+        <v>449</v>
+      </c>
+      <c r="SK12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:508">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" t="s">
         <v>375</v>
       </c>
-      <c r="G10" t="s">
+      <c r="DZ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>380</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>381</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>380</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>415</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>418</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>421</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>423</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>426</v>
+      </c>
+      <c r="EY13" t="s">
+        <v>429</v>
+      </c>
+      <c r="SE13" t="s">
+        <v>444</v>
+      </c>
+      <c r="SF13" t="s">
+        <v>444</v>
+      </c>
+      <c r="SI13" t="s">
+        <v>451</v>
+      </c>
+      <c r="SJ13" t="s">
+        <v>451</v>
+      </c>
+      <c r="SK13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:508">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" t="s">
+        <v>375</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>380</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FG14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FH14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FI14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FR14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FS14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FU14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY14" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD14" t="s">
+        <v>381</v>
+      </c>
+      <c r="GE14" t="s">
+        <v>381</v>
+      </c>
+      <c r="GF14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GH14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK14" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL14" t="s">
+        <v>433</v>
+      </c>
+      <c r="GM14" t="s">
+        <v>436</v>
+      </c>
+      <c r="SE14" t="s">
+        <v>444</v>
+      </c>
+      <c r="SF14" t="s">
+        <v>444</v>
+      </c>
+      <c r="SI14" t="s">
+        <v>447</v>
+      </c>
+      <c r="SJ14" t="s">
+        <v>447</v>
+      </c>
+      <c r="SK14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:508">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>375</v>
+      </c>
+      <c r="GN15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GO15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GP15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GR15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GS15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GT15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GV15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GW15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GX15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GY15" t="s">
+        <v>380</v>
+      </c>
+      <c r="GZ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HA15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HB15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HC15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HD15" t="s">
+        <v>438</v>
+      </c>
+      <c r="HE15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HF15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HG15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HH15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HI15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HJ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HK15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HL15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HM15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HN15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HO15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HP15" t="s">
+        <v>381</v>
+      </c>
+      <c r="HQ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HR15" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HT15" t="s">
+        <v>381</v>
+      </c>
+      <c r="HU15" t="s">
+        <v>381</v>
+      </c>
+      <c r="HW15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HX15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HY15" t="s">
+        <v>380</v>
+      </c>
+      <c r="HZ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IA15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IB15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IC15" t="s">
+        <v>380</v>
+      </c>
+      <c r="ID15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IE15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IF15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IG15" t="s">
+        <v>381</v>
+      </c>
+      <c r="IH15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IJ15" t="s">
+        <v>441</v>
+      </c>
+      <c r="IK15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IL15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IM15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IN15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IO15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IP15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IQ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IR15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IS15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IT15" t="s">
+        <v>381</v>
+      </c>
+      <c r="IU15" t="s">
+        <v>380</v>
+      </c>
+      <c r="IV15" t="s">
+        <v>441</v>
+      </c>
+      <c r="JJ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="ND15" t="s">
+        <v>441</v>
+      </c>
+      <c r="SE15" t="s">
+        <v>444</v>
+      </c>
+      <c r="SF15" t="s">
+        <v>444</v>
+      </c>
+      <c r="SI15" t="s">
+        <v>447</v>
+      </c>
+      <c r="SJ15" t="s">
+        <v>447</v>
+      </c>
+      <c r="SK15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:508">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16" t="s">
         <v>376</v>
       </c>
-      <c r="H10" t="s">
+      <c r="F16" t="s">
         <v>377</v>
       </c>
-      <c r="DG10" t="s">
+      <c r="G16" t="s">
         <v>378</v>
       </c>
-      <c r="DH10" t="s">
-        <v>378</v>
-      </c>
-      <c r="DI10" t="s">
-        <v>402</v>
-      </c>
-      <c r="DJ10" t="s">
+      <c r="H16" t="s">
         <v>379</v>
       </c>
-      <c r="DK10" t="s">
-        <v>378</v>
-      </c>
-      <c r="DM10" t="s">
+      <c r="DG16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI16" t="s">
         <v>404</v>
       </c>
-      <c r="DN10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>378</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>378</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>378</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>378</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>406</v>
-      </c>
-      <c r="FQ10" t="s">
-        <v>378</v>
-      </c>
-      <c r="SD10" t="s">
-        <v>424</v>
-      </c>
-      <c r="SE10" t="s">
-        <v>426</v>
-      </c>
-      <c r="SF10" t="s">
-        <v>427</v>
-      </c>
-      <c r="SI10" t="s">
-        <v>431</v>
-      </c>
-      <c r="SJ10" t="s">
-        <v>431</v>
-      </c>
-      <c r="SK10" t="s">
-        <v>440</v>
-      </c>
-      <c r="SN10" t="s">
-        <v>442</v>
+      <c r="DJ16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>408</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>412</v>
+      </c>
+      <c r="FQ16" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD16" t="s">
+        <v>443</v>
+      </c>
+      <c r="SE16" t="s">
+        <v>445</v>
+      </c>
+      <c r="SF16" t="s">
+        <v>446</v>
+      </c>
+      <c r="SI16" t="s">
+        <v>448</v>
+      </c>
+      <c r="SJ16" t="s">
+        <v>448</v>
+      </c>
+      <c r="SK16" t="s">
+        <v>466</v>
+      </c>
+      <c r="SN16" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="486">
   <si>
     <t>section</t>
   </si>
@@ -1111,33 +1111,33 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
-    <t>a</t>
+    <t>SANYATI</t>
   </si>
   <si>
     <t>MARONDERA</t>
   </si>
   <si>
-    <t>SANYATI</t>
+    <t>Jompani</t>
   </si>
   <si>
     <t>Masikana Council Clinic</t>
   </si>
   <si>
-    <t>Jompani</t>
-  </si>
-  <si>
     <t>Rimuka</t>
   </si>
   <si>
@@ -1162,12 +1162,18 @@
     <t>no</t>
   </si>
   <si>
+    <t>There rooms that can be interchanged for different sessions</t>
+  </si>
+  <si>
     <t>scrub expired 12/24 changed with unexpired 11/25</t>
   </si>
   <si>
     <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
+    <t>Reusable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Disposable_Dorsal_slit</t>
   </si>
   <si>
@@ -1180,6 +1186,9 @@
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
   </si>
   <si>
+    <t>Registers well documented and kits stored accordingly</t>
+  </si>
+  <si>
     <t>air conditioner not working for past month</t>
   </si>
   <si>
@@ -1189,28 +1198,37 @@
     <t>Clean_running_water Soap Disinfectant Hand_sanitizer</t>
   </si>
   <si>
+    <t>Female condoms are expired and need replacement</t>
+  </si>
+  <si>
     <t>condoms in short supply</t>
   </si>
   <si>
+    <t>Ceftriaxone Metronidazole</t>
+  </si>
+  <si>
     <t>Ceftriaxone Metronidazole Doxycycline</t>
   </si>
   <si>
     <t>Ceftriaxone Doxycycline</t>
   </si>
   <si>
-    <t>Ceftriaxone Metronidazole</t>
-  </si>
-  <si>
     <t>Amoxycillin/clavulanic_acid Erythromycin</t>
   </si>
   <si>
     <t>amoxycillinclavulanic_acid erythromycin</t>
   </si>
   <si>
+    <t>Lignocaine Bupivacaine</t>
+  </si>
+  <si>
     <t>Lignocaine</t>
   </si>
   <si>
-    <t>Lignocaine Bupivacaine</t>
+    <t>Argument has been out of stock for the past 5 months</t>
+  </si>
+  <si>
+    <t>Ther is need to avoid mixing of waste, Colour coded bins available</t>
   </si>
   <si>
     <t>add strength of medicines on dispensing register
@@ -1223,7 +1241,13 @@
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
   </si>
   <si>
+    <t>glucometer Glucometer_Strips</t>
+  </si>
+  <si>
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
+    <t>Participant who went for Emergency  management training cascaded the training. All basic drugs in stock.</t>
   </si>
   <si>
     <t>Good emergency management practices</t>
@@ -1357,16 +1381,27 @@
     <t>All available</t>
   </si>
   <si>
+    <t>Key messages not well articulated.</t>
+  </si>
+  <si>
     <t>Session well articulated only missing condom demonstration,  team informed to include condom demonstration for all age groups.</t>
   </si>
   <si>
     <t>complete and engaging. Clients showed learning tool place.</t>
+  </si>
+  <si>
+    <t>Counselling  room allows for disturbances. Room  used for other activities</t>
   </si>
   <si>
     <t>condom demonstration again missed in this session, little or no probing into client's understanding and any issues that may be individual and peculiar to clients 
 - highly recomend refresher on client counselling.</t>
   </si>
   <si>
+    <t>Risk assessment  missed as well as other HIV prevention strategies 
+Comments
+Service providers  encouraged to use guide so that they don't miss out important information  and flow</t>
+  </si>
+  <si>
     <t>-recommend refresher on client counselling.</t>
   </si>
   <si>
@@ -1376,6 +1411,12 @@
     <t>-Highly recommend refresher on client counselling</t>
   </si>
   <si>
+    <t>HIV testing not observed</t>
+  </si>
+  <si>
+    <t>Not observed</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -1388,6 +1429,9 @@
     <t>5</t>
   </si>
   <si>
+    <t>gguveya</t>
+  </si>
+  <si>
     <t>jgavhera</t>
   </si>
   <si>
@@ -1397,10 +1441,13 @@
     <t>fgwenzi</t>
   </si>
   <si>
-    <t>gguveya</t>
-  </si>
-  <si>
     <t>tmunyaradzi</t>
+  </si>
+  <si>
+    <t>2025-07-01T11:23:04.377933Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T11:23:03.961382Z</t>
   </si>
   <si>
     <t>2025-07-01T10:44:54.322797Z</t>
@@ -1815,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN16"/>
+  <dimension ref="A1:SN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3357,89 +3404,218 @@
       <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="DZ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>380</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>381</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>413</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>416</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>419</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>422</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>424</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>427</v>
+      <c r="GN2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>380</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>381</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>445</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>381</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>381</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>381</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>381</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>448</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>380</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>381</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>380</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>450</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>380</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>454</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>381</v>
+      </c>
+      <c r="IY2" t="s">
+        <v>381</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>380</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>454</v>
+      </c>
+      <c r="NH2" t="s">
+        <v>380</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>455</v>
       </c>
       <c r="SE2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI2" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="SJ2" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="SK2" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3455,206 +3631,296 @@
       <c r="D3" t="s">
         <v>372</v>
       </c>
-      <c r="GN3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>437</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>381</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>439</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>380</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>381</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IF3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IG3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IH3" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ3" t="s">
-        <v>440</v>
-      </c>
-      <c r="IK3" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IM3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IN3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IO3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IQ3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IS3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>381</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>380</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>442</v>
-      </c>
-      <c r="JJ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="ND3" t="s">
-        <v>442</v>
+      <c r="I3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K3" t="s">
+        <v>380</v>
+      </c>
+      <c r="L3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" t="s">
+        <v>380</v>
+      </c>
+      <c r="N3" t="s">
+        <v>380</v>
+      </c>
+      <c r="O3" t="s">
+        <v>380</v>
+      </c>
+      <c r="P3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>380</v>
+      </c>
+      <c r="R3" t="s">
+        <v>380</v>
+      </c>
+      <c r="S3" t="s">
+        <v>380</v>
+      </c>
+      <c r="T3" t="s">
+        <v>380</v>
+      </c>
+      <c r="U3" t="s">
+        <v>380</v>
+      </c>
+      <c r="V3" t="s">
+        <v>380</v>
+      </c>
+      <c r="W3" t="s">
+        <v>380</v>
+      </c>
+      <c r="X3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>385</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>394</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>396</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>397</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>403</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>380</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>381</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>381</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>404</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>380</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>380</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>380</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>380</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>381</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>406</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>408</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>410</v>
       </c>
       <c r="SE3" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF3" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="SJ3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="SK3" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3665,139 +3931,94 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>381</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>381</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>381</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL4" t="s">
+        <v>373</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>380</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>381</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>380</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>421</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>424</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>427</v>
+      </c>
+      <c r="EV4" t="s">
         <v>430</v>
       </c>
-      <c r="GM4" t="s">
-        <v>434</v>
+      <c r="EX4" t="s">
+        <v>432</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>435</v>
       </c>
       <c r="SE4" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF4" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI4" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="SJ4" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="SK4" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -3805,94 +4026,214 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F5" t="s">
-        <v>377</v>
-      </c>
-      <c r="G5" t="s">
-        <v>378</v>
-      </c>
-      <c r="H5" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>405</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>381</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>381</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>409</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD5" t="s">
-        <v>443</v>
+        <v>373</v>
+      </c>
+      <c r="GN5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GP5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GR5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GT5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GV5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GX5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>380</v>
+      </c>
+      <c r="GZ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HB5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HD5" t="s">
+        <v>446</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HF5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HH5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HI5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HJ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HK5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HL5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HM5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HN5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HO5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HP5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HQ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HR5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HT5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HU5" t="s">
+        <v>381</v>
+      </c>
+      <c r="HV5" t="s">
+        <v>449</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HY5" t="s">
+        <v>380</v>
+      </c>
+      <c r="HZ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IA5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IB5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IC5" t="s">
+        <v>381</v>
+      </c>
+      <c r="ID5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IE5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IF5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IG5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IH5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IJ5" t="s">
+        <v>451</v>
+      </c>
+      <c r="IK5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IL5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IM5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IN5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IO5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IP5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IQ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IR5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IS5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IT5" t="s">
+        <v>381</v>
+      </c>
+      <c r="IU5" t="s">
+        <v>380</v>
+      </c>
+      <c r="IV5" t="s">
+        <v>453</v>
+      </c>
+      <c r="JJ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="ND5" t="s">
+        <v>453</v>
       </c>
       <c r="SE5" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="SF5" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="SI5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="SJ5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="SK5" t="s">
-        <v>455</v>
-      </c>
-      <c r="SN5" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -3908,95 +4249,134 @@
       <c r="D6" t="s">
         <v>373</v>
       </c>
-      <c r="E6" t="s">
-        <v>376</v>
-      </c>
-      <c r="F6" t="s">
-        <v>377</v>
-      </c>
-      <c r="G6" t="s">
-        <v>378</v>
-      </c>
-      <c r="H6" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>406</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>410</v>
-      </c>
-      <c r="FQ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD6" t="s">
-        <v>443</v>
+      <c r="EZ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FB6" t="s">
+        <v>381</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>381</v>
+      </c>
+      <c r="FD6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FH6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP6" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>381</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GE6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GF6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GH6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>438</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>442</v>
       </c>
       <c r="SE6" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="SF6" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="SI6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="SJ6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="SK6" t="s">
-        <v>456</v>
-      </c>
-      <c r="SN6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4004,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
         <v>371</v>
@@ -4012,128 +4392,86 @@
       <c r="D7" t="s">
         <v>373</v>
       </c>
-      <c r="EZ7" t="s">
-        <v>381</v>
-      </c>
-      <c r="FB7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FC7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FD7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FG7" t="s">
-        <v>381</v>
-      </c>
-      <c r="FH7" t="s">
-        <v>381</v>
-      </c>
-      <c r="FI7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP7" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS7" t="s">
-        <v>381</v>
-      </c>
-      <c r="FT7" t="s">
-        <v>381</v>
-      </c>
-      <c r="FU7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY7" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE7" t="s">
-        <v>381</v>
-      </c>
-      <c r="GF7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GH7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK7" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL7" t="s">
-        <v>431</v>
+      <c r="E7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H7" t="s">
+        <v>379</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>412</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>413</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>381</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>417</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD7" t="s">
+        <v>456</v>
       </c>
       <c r="SE7" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="SF7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="SI7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="SJ7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="SK7" t="s">
-        <v>457</v>
+        <v>470</v>
+      </c>
+      <c r="SN7" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4141,67 +4479,103 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP8" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G8" t="s">
+        <v>378</v>
+      </c>
+      <c r="H8" t="s">
+        <v>379</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>412</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM8" t="s">
         <v>414</v>
       </c>
-      <c r="ER8" t="s">
-        <v>417</v>
-      </c>
-      <c r="ET8" t="s">
-        <v>420</v>
-      </c>
-      <c r="EX8" t="s">
-        <v>425</v>
-      </c>
-      <c r="EY8" t="s">
-        <v>428</v>
+      <c r="DN8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>381</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY8" t="s">
+        <v>418</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD8" t="s">
+        <v>456</v>
       </c>
       <c r="SE8" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="SF8" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="SI8" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="SJ8" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="SK8" t="s">
-        <v>458</v>
+        <v>471</v>
+      </c>
+      <c r="SN8" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4209,310 +4583,136 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
-      </c>
-      <c r="I9" t="s">
-        <v>380</v>
-      </c>
-      <c r="J9" t="s">
-        <v>380</v>
-      </c>
-      <c r="K9" t="s">
-        <v>380</v>
-      </c>
-      <c r="L9" t="s">
-        <v>380</v>
-      </c>
-      <c r="M9" t="s">
-        <v>380</v>
-      </c>
-      <c r="N9" t="s">
-        <v>380</v>
-      </c>
-      <c r="O9" t="s">
-        <v>380</v>
-      </c>
-      <c r="P9" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>380</v>
-      </c>
-      <c r="R9" t="s">
-        <v>380</v>
-      </c>
-      <c r="S9" t="s">
-        <v>380</v>
-      </c>
-      <c r="T9" t="s">
-        <v>380</v>
-      </c>
-      <c r="U9" t="s">
-        <v>380</v>
-      </c>
-      <c r="V9" t="s">
-        <v>380</v>
-      </c>
-      <c r="W9" t="s">
-        <v>380</v>
-      </c>
-      <c r="X9" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>384</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>390</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>394</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>395</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>396</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>397</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>381</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>381</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>399</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CQ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CU9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CW9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CX9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CY9" t="s">
-        <v>380</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DC9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DD9" t="s">
-        <v>400</v>
-      </c>
-      <c r="DE9" t="s">
-        <v>402</v>
-      </c>
-      <c r="DF9" t="s">
-        <v>403</v>
+        <v>372</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>381</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FD9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>381</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP9" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>381</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>381</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GE9" t="s">
+        <v>381</v>
+      </c>
+      <c r="GF9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GH9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>439</v>
       </c>
       <c r="SE9" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF9" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI9" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="SJ9" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="SK9" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -4520,103 +4720,67 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
         <v>374</v>
       </c>
-      <c r="E10" t="s">
-        <v>376</v>
-      </c>
-      <c r="F10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DI10" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM10" t="s">
-        <v>407</v>
-      </c>
-      <c r="DN10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>411</v>
-      </c>
-      <c r="FQ10" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD10" t="s">
-        <v>443</v>
+      <c r="DZ10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>380</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>422</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>425</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>428</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>433</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>436</v>
       </c>
       <c r="SE10" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="SF10" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="SI10" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="SJ10" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="SK10" t="s">
-        <v>460</v>
-      </c>
-      <c r="SN10" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:508">
@@ -4624,13 +4788,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C11" t="s">
         <v>370</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I11" t="s">
         <v>380</v>
@@ -4684,16 +4848,16 @@
         <v>380</v>
       </c>
       <c r="Z11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB11" t="s">
         <v>380</v>
       </c>
       <c r="AC11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD11" t="s">
         <v>383</v>
@@ -4704,11 +4868,20 @@
       <c r="AG11" t="s">
         <v>380</v>
       </c>
+      <c r="AH11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>380</v>
+      </c>
       <c r="AK11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM11" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN11" t="s">
         <v>380</v>
@@ -4720,10 +4893,43 @@
         <v>380</v>
       </c>
       <c r="AQ11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AR11" t="s">
-        <v>389</v>
+        <v>391</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>395</v>
       </c>
       <c r="BF11" t="s">
         <v>380</v>
@@ -4732,25 +4938,25 @@
         <v>380</v>
       </c>
       <c r="BH11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BI11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="BJ11" t="s">
         <v>380</v>
       </c>
       <c r="BK11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="BL11" t="s">
         <v>380</v>
       </c>
       <c r="BM11" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="BN11" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="BO11" t="s">
         <v>380</v>
@@ -4779,6 +4985,42 @@
       <c r="BX11" t="s">
         <v>380</v>
       </c>
+      <c r="BY11" t="s">
+        <v>380</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>381</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>381</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>380</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>405</v>
+      </c>
       <c r="CN11" t="s">
         <v>380</v>
       </c>
@@ -4798,7 +5040,7 @@
         <v>380</v>
       </c>
       <c r="CT11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CU11" t="s">
         <v>380</v>
@@ -4813,7 +5055,7 @@
         <v>380</v>
       </c>
       <c r="CY11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CZ11" t="s">
         <v>380</v>
@@ -4822,31 +5064,34 @@
         <v>380</v>
       </c>
       <c r="DB11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DC11" t="s">
         <v>380</v>
       </c>
       <c r="DD11" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="DE11" t="s">
-        <v>402</v>
+        <v>409</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>411</v>
       </c>
       <c r="SE11" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF11" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="SJ11" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="SK11" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -4854,148 +5099,103 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
         <v>374</v>
       </c>
-      <c r="DL12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EZ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FC12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FD12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF12" t="s">
-        <v>381</v>
-      </c>
-      <c r="FG12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH12" t="s">
-        <v>381</v>
-      </c>
-      <c r="FI12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FR12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FS12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FU12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY12" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE12" t="s">
-        <v>381</v>
-      </c>
-      <c r="GF12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG12" t="s">
-        <v>381</v>
-      </c>
-      <c r="GH12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK12" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL12" t="s">
-        <v>432</v>
-      </c>
-      <c r="GM12" t="s">
-        <v>435</v>
+      <c r="E12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" t="s">
+        <v>379</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>381</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>412</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>415</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>381</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>419</v>
+      </c>
+      <c r="FQ12" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD12" t="s">
+        <v>456</v>
       </c>
       <c r="SE12" t="s">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="SF12" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="SI12" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="SJ12" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="SK12" t="s">
-        <v>462</v>
+        <v>475</v>
+      </c>
+      <c r="SN12" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:508">
@@ -5003,97 +5203,229 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
         <v>375</v>
       </c>
-      <c r="DZ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EA13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EB13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>380</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EE13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>381</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP13" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ13" t="s">
-        <v>415</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>418</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>421</v>
-      </c>
-      <c r="EV13" t="s">
-        <v>423</v>
-      </c>
-      <c r="EX13" t="s">
-        <v>426</v>
-      </c>
-      <c r="EY13" t="s">
-        <v>429</v>
+      <c r="I13" t="s">
+        <v>380</v>
+      </c>
+      <c r="J13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" t="s">
+        <v>380</v>
+      </c>
+      <c r="M13" t="s">
+        <v>380</v>
+      </c>
+      <c r="N13" t="s">
+        <v>380</v>
+      </c>
+      <c r="O13" t="s">
+        <v>380</v>
+      </c>
+      <c r="P13" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>380</v>
+      </c>
+      <c r="R13" t="s">
+        <v>380</v>
+      </c>
+      <c r="S13" t="s">
+        <v>380</v>
+      </c>
+      <c r="T13" t="s">
+        <v>380</v>
+      </c>
+      <c r="U13" t="s">
+        <v>380</v>
+      </c>
+      <c r="V13" t="s">
+        <v>380</v>
+      </c>
+      <c r="W13" t="s">
+        <v>380</v>
+      </c>
+      <c r="X13" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>392</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>398</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>396</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>399</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>400</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>401</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>380</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>380</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>380</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>381</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>380</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>407</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>409</v>
       </c>
       <c r="SE13" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF13" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="SJ13" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="SK13" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:508">
@@ -5101,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C14" t="s">
         <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="DL14" t="s">
         <v>380</v>
@@ -5131,13 +5463,13 @@
         <v>380</v>
       </c>
       <c r="FF14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FG14" t="s">
         <v>380</v>
       </c>
       <c r="FH14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FI14" t="s">
         <v>380</v>
@@ -5200,7 +5532,7 @@
         <v>380</v>
       </c>
       <c r="GD14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GE14" t="s">
         <v>381</v>
@@ -5209,7 +5541,7 @@
         <v>380</v>
       </c>
       <c r="GG14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GH14" t="s">
         <v>380</v>
@@ -5224,25 +5556,25 @@
         <v>380</v>
       </c>
       <c r="GL14" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="GM14" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="SE14" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF14" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI14" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="SJ14" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="SK14" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:508">
@@ -5250,211 +5582,97 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
         <v>375</v>
       </c>
-      <c r="GN15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY15" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HC15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HD15" t="s">
-        <v>438</v>
-      </c>
-      <c r="HE15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HL15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HP15" t="s">
-        <v>381</v>
-      </c>
-      <c r="HQ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HR15" t="s">
-        <v>381</v>
-      </c>
-      <c r="HS15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT15" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU15" t="s">
-        <v>381</v>
-      </c>
-      <c r="HW15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY15" t="s">
-        <v>380</v>
-      </c>
-      <c r="HZ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IB15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC15" t="s">
-        <v>380</v>
-      </c>
-      <c r="ID15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IF15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IG15" t="s">
-        <v>381</v>
-      </c>
-      <c r="IH15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ15" t="s">
-        <v>441</v>
-      </c>
-      <c r="IK15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IM15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IN15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IP15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IQ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IR15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IS15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IT15" t="s">
-        <v>381</v>
-      </c>
-      <c r="IU15" t="s">
-        <v>380</v>
-      </c>
-      <c r="IV15" t="s">
-        <v>441</v>
-      </c>
-      <c r="JJ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="ND15" t="s">
-        <v>441</v>
+      <c r="DZ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>380</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>381</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>380</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>423</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>426</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>429</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>431</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>434</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>437</v>
       </c>
       <c r="SE15" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SF15" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SI15" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="SJ15" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="SK15" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:508">
@@ -5465,97 +5683,458 @@
         <v>368</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D16" t="s">
         <v>375</v>
       </c>
-      <c r="E16" t="s">
+      <c r="DL16" t="s">
+        <v>380</v>
+      </c>
+      <c r="EZ16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FA16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FB16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FC16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FD16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FE16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FF16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FG16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FH16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FI16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FJ16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FK16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FL16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FN16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FO16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FP16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FR16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FS16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FT16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FU16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FV16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FW16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FX16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FY16" t="s">
+        <v>380</v>
+      </c>
+      <c r="FZ16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GA16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GB16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GC16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GD16" t="s">
+        <v>381</v>
+      </c>
+      <c r="GE16" t="s">
+        <v>381</v>
+      </c>
+      <c r="GF16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GG16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GH16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GI16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GJ16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GK16" t="s">
+        <v>380</v>
+      </c>
+      <c r="GL16" t="s">
+        <v>441</v>
+      </c>
+      <c r="GM16" t="s">
+        <v>444</v>
+      </c>
+      <c r="SE16" t="s">
+        <v>457</v>
+      </c>
+      <c r="SF16" t="s">
+        <v>457</v>
+      </c>
+      <c r="SI16" t="s">
+        <v>461</v>
+      </c>
+      <c r="SJ16" t="s">
+        <v>461</v>
+      </c>
+      <c r="SK16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:508">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>375</v>
+      </c>
+      <c r="GN17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GO17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GP17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GQ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GR17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GS17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GT17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GU17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GV17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GW17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GX17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GY17" t="s">
+        <v>380</v>
+      </c>
+      <c r="GZ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HA17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HB17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HC17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HD17" t="s">
+        <v>447</v>
+      </c>
+      <c r="HE17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HF17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HG17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HH17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HI17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HJ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HK17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HL17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HM17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HN17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HO17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HP17" t="s">
+        <v>381</v>
+      </c>
+      <c r="HQ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HR17" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HT17" t="s">
+        <v>381</v>
+      </c>
+      <c r="HU17" t="s">
+        <v>381</v>
+      </c>
+      <c r="HW17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HX17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HY17" t="s">
+        <v>380</v>
+      </c>
+      <c r="HZ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IA17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IB17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IC17" t="s">
+        <v>380</v>
+      </c>
+      <c r="ID17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IE17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IF17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IG17" t="s">
+        <v>381</v>
+      </c>
+      <c r="IH17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IJ17" t="s">
+        <v>452</v>
+      </c>
+      <c r="IK17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IL17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IM17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IN17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IO17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IP17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IQ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IR17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IS17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IT17" t="s">
+        <v>381</v>
+      </c>
+      <c r="IU17" t="s">
+        <v>380</v>
+      </c>
+      <c r="IV17" t="s">
+        <v>452</v>
+      </c>
+      <c r="JJ17" t="s">
+        <v>380</v>
+      </c>
+      <c r="ND17" t="s">
+        <v>452</v>
+      </c>
+      <c r="SE17" t="s">
+        <v>457</v>
+      </c>
+      <c r="SF17" t="s">
+        <v>457</v>
+      </c>
+      <c r="SI17" t="s">
+        <v>461</v>
+      </c>
+      <c r="SJ17" t="s">
+        <v>461</v>
+      </c>
+      <c r="SK17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:508">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" t="s">
+        <v>375</v>
+      </c>
+      <c r="E18" t="s">
         <v>376</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
         <v>377</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G18" t="s">
         <v>378</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H18" t="s">
         <v>379</v>
       </c>
-      <c r="DG16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI16" t="s">
-        <v>404</v>
-      </c>
-      <c r="DJ16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DK16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>408</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DO16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DT16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW16" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY16" t="s">
+      <c r="DG18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DH18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DI18" t="s">
         <v>412</v>
       </c>
-      <c r="FQ16" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD16" t="s">
-        <v>443</v>
-      </c>
-      <c r="SE16" t="s">
-        <v>445</v>
-      </c>
-      <c r="SF16" t="s">
-        <v>446</v>
-      </c>
-      <c r="SI16" t="s">
-        <v>448</v>
-      </c>
-      <c r="SJ16" t="s">
-        <v>448</v>
-      </c>
-      <c r="SK16" t="s">
-        <v>466</v>
-      </c>
-      <c r="SN16" t="s">
-        <v>470</v>
+      <c r="DJ18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DK18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>416</v>
+      </c>
+      <c r="DN18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DO18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>380</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>381</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>420</v>
+      </c>
+      <c r="FQ18" t="s">
+        <v>380</v>
+      </c>
+      <c r="SD18" t="s">
+        <v>456</v>
+      </c>
+      <c r="SE18" t="s">
+        <v>458</v>
+      </c>
+      <c r="SF18" t="s">
+        <v>459</v>
+      </c>
+      <c r="SI18" t="s">
+        <v>462</v>
+      </c>
+      <c r="SJ18" t="s">
+        <v>462</v>
+      </c>
+      <c r="SK18" t="s">
+        <v>481</v>
+      </c>
+      <c r="SN18" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="502">
   <si>
     <t>section</t>
   </si>
@@ -1111,33 +1111,36 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
+    <t>MARONDERA</t>
+  </si>
+  <si>
     <t>SANYATI</t>
   </si>
   <si>
-    <t>MARONDERA</t>
+    <t>Masikana Council Clinic</t>
+  </si>
+  <si>
+    <t>Vere</t>
   </si>
   <si>
     <t>Jompani</t>
   </si>
   <si>
-    <t>Masikana Council Clinic</t>
-  </si>
-  <si>
     <t>Rimuka</t>
   </si>
   <si>
@@ -1162,6 +1165,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>Site is outreach and space is made available per rising need. Generally space is clean and conducive with comfortable temperatures and privacy.</t>
+  </si>
+  <si>
     <t>There rooms that can be interchanged for different sessions</t>
   </si>
   <si>
@@ -1171,6 +1177,9 @@
     <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
+    <t>Reusable_Dorsal_slit Disposable_universal</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit</t>
   </si>
   <si>
@@ -1186,6 +1195,9 @@
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
   </si>
   <si>
+    <t>HTS provided by site and all areas satisfactory.</t>
+  </si>
+  <si>
     <t>Registers well documented and kits stored accordingly</t>
   </si>
   <si>
@@ -1204,6 +1216,9 @@
     <t>condoms in short supply</t>
   </si>
   <si>
+    <t>Metronidazole Doxycycline</t>
+  </si>
+  <si>
     <t>Ceftriaxone Metronidazole</t>
   </si>
   <si>
@@ -1225,7 +1240,13 @@
     <t>Lignocaine</t>
   </si>
   <si>
+    <t>Drugs availability satisfactory.</t>
+  </si>
+  <si>
     <t>Argument has been out of stock for the past 5 months</t>
+  </si>
+  <si>
+    <t>no segregation of waste, presently site does not have color coded waste bins/points but staff is knowledgeable on these.</t>
   </si>
   <si>
     <t>Ther is need to avoid mixing of waste, Colour coded bins available</t>
@@ -1235,16 +1256,22 @@
 incinerator is done off site at Rimuka Maternity</t>
   </si>
   <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters 2_Sizes_of_Syringes 2_Sizes_of_Needles Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
   </si>
   <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
   </si>
   <si>
+    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+  </si>
+  <si>
     <t>glucometer Glucometer_Strips</t>
   </si>
   <si>
-    <t>glucometer Glucometer_Strips Pulse-oximeter</t>
+    <t>Training need for emergency management.</t>
   </si>
   <si>
     <t>Participant who went for Emergency  management training cascaded the training. All basic drugs in stock.</t>
@@ -1294,6 +1321,15 @@
     <t>Facility not using EHR</t>
   </si>
   <si>
+    <t>The site does not have active and consistent mobilises as they mainly
+depend on a team of mobilises who rove from Sanyati mission to Jompani clinic. However, the site has a few infrequently active mobilises- one of which is unwell and comes from a far away area, making it difficult for her to perform DC duties for the site. There is therefore need to specifically train  mobilises for Jompani in August 2025 and to involve the local EHT to boost DC locally.
+For the 15-24 year old, the DC team is using Agriculture shows as such shows attract the target age-group through music. The team also uses the Studio outreach initiative which entails sensitising young people who converge at a local studio to produce music. This initiative
+has yielded about 4 clients to date. 
+For the 25-34 year old, the team is using Green shows and Drama group. There is need for the team to generate Success stories out of the studio and drama initiatives to showcase these Good/ Best Practices.
+Currently, there is no active involvement of other partners implementing community and health programmes. Going forward, the DC team should forge strategic linkages with other implementing partners.
+Community involvement is considerably extensive since chiefs (e.g, chief Hozhele), headmen, village heads and councillors. However, the involvement of Church leaders is limited - hence the need to engage church leaders individually and collectively. The DCFA proposed an Indaba with the chief and his headmen. The team should put forward a sensitisation proposal for the indaba. The has requested an upward review of the Community Dialogue budget from the current $60 to $110 to cater for refreshments.</t>
+  </si>
+  <si>
     <t>They do snooker tournaments and farms engagement and one on ones for 25-34 years. For 15-24  schools engagement and soccer tournaments.</t>
   </si>
   <si>
@@ -1305,6 +1341,9 @@
 Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
   </si>
   <si>
+    <t>Artisanal_Miners Men_who_go_to_work Remote_Communities</t>
+  </si>
+  <si>
     <t>Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
@@ -1323,10 +1362,16 @@
     <t>Community_Nursing Environmental_Health_Technicians Other_Health_Programmers</t>
   </si>
   <si>
+    <t>Chiefs Headmen Village_Heads Councilors</t>
+  </si>
+  <si>
     <t>Headmen Village_Heads Church_Leaders</t>
   </si>
   <si>
     <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
+    <t>Yes. Studio outreach initiative.</t>
   </si>
   <si>
     <t>Yes the site would day and moonlight by the tobacco farms as they would be processing tobacco in the barns.</t>
@@ -1337,6 +1382,9 @@
   </si>
   <si>
     <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
+  </si>
+  <si>
+    <t>Train and involve EHTs. Active engagement of other strategic partners in the district. Sustain the practice of catering for busy working men during weekends.</t>
   </si>
   <si>
     <t>Workplace to be shared with outreach clinics for better efficiency in Demand creation.</t>
@@ -1429,19 +1477,25 @@
     <t>5</t>
   </si>
   <si>
+    <t>jgavhera</t>
+  </si>
+  <si>
+    <t>fgwenzi</t>
+  </si>
+  <si>
     <t>gguveya</t>
   </si>
   <si>
-    <t>jgavhera</t>
-  </si>
-  <si>
     <t>amutenha</t>
   </si>
   <si>
-    <t>fgwenzi</t>
-  </si>
-  <si>
     <t>tmunyaradzi</t>
+  </si>
+  <si>
+    <t>2025-07-01T11:55:23.800665Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T11:53:37.654981Z</t>
   </si>
   <si>
     <t>2025-07-01T11:23:04.377933Z</t>
@@ -1862,7 +1916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN18"/>
+  <dimension ref="A1:SN20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3404,218 +3458,302 @@
       <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="GN2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>381</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>445</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HL2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN2" t="s">
-        <v>381</v>
-      </c>
-      <c r="HO2" t="s">
-        <v>381</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HR2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT2" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU2" t="s">
-        <v>381</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>448</v>
-      </c>
-      <c r="HW2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX2" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY2" t="s">
-        <v>381</v>
-      </c>
-      <c r="HZ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IB2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC2" t="s">
-        <v>380</v>
-      </c>
-      <c r="ID2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IF2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IG2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IH2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ2" t="s">
-        <v>450</v>
-      </c>
-      <c r="IK2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IM2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IN2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IO2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IP2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IQ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IR2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IT2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IU2" t="s">
-        <v>380</v>
-      </c>
-      <c r="IW2" t="s">
-        <v>454</v>
-      </c>
-      <c r="IX2" t="s">
-        <v>381</v>
-      </c>
-      <c r="IY2" t="s">
-        <v>381</v>
-      </c>
-      <c r="JJ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>454</v>
-      </c>
-      <c r="NH2" t="s">
-        <v>380</v>
-      </c>
-      <c r="SC2" t="s">
-        <v>455</v>
+      <c r="I2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J2" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L2" t="s">
+        <v>381</v>
+      </c>
+      <c r="M2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N2" t="s">
+        <v>381</v>
+      </c>
+      <c r="O2" t="s">
+        <v>381</v>
+      </c>
+      <c r="P2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R2" t="s">
+        <v>381</v>
+      </c>
+      <c r="S2" t="s">
+        <v>381</v>
+      </c>
+      <c r="T2" t="s">
+        <v>381</v>
+      </c>
+      <c r="U2" t="s">
+        <v>381</v>
+      </c>
+      <c r="V2" t="s">
+        <v>381</v>
+      </c>
+      <c r="W2" t="s">
+        <v>381</v>
+      </c>
+      <c r="X2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>400</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>408</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>381</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>381</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>382</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>381</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>416</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>418</v>
       </c>
       <c r="SE2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI2" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="SJ2" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="SK2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3626,301 +3764,67 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
-      </c>
-      <c r="I3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J3" t="s">
-        <v>380</v>
-      </c>
-      <c r="K3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M3" t="s">
-        <v>380</v>
-      </c>
-      <c r="N3" t="s">
-        <v>380</v>
-      </c>
-      <c r="O3" t="s">
-        <v>380</v>
-      </c>
-      <c r="P3" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>380</v>
-      </c>
-      <c r="R3" t="s">
-        <v>380</v>
-      </c>
-      <c r="S3" t="s">
-        <v>380</v>
-      </c>
-      <c r="T3" t="s">
-        <v>380</v>
-      </c>
-      <c r="U3" t="s">
-        <v>380</v>
-      </c>
-      <c r="V3" t="s">
-        <v>380</v>
-      </c>
-      <c r="W3" t="s">
-        <v>380</v>
-      </c>
-      <c r="X3" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>381</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>394</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>396</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>397</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>401</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>403</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>381</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>381</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>404</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>380</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>380</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>380</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>381</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>406</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>408</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>410</v>
+        <v>373</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>381</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>430</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>434</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>438</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>441</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>444</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>448</v>
       </c>
       <c r="SE3" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF3" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="SJ3" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="SK3" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3934,91 +3838,220 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>380</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>381</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>421</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>424</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>427</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>430</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>432</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>435</v>
+        <v>374</v>
+      </c>
+      <c r="GN4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>381</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>459</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>462</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>381</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>381</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>464</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IQ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>468</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>381</v>
+      </c>
+      <c r="NE4" t="s">
+        <v>468</v>
+      </c>
+      <c r="NH4" t="s">
+        <v>381</v>
+      </c>
+      <c r="SC4" t="s">
+        <v>469</v>
       </c>
       <c r="SE4" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF4" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI4" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="SJ4" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="SK4" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -4032,208 +4065,298 @@
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="GN5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HD5" t="s">
-        <v>446</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HL5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HO5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HP5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HQ5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HR5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HS5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU5" t="s">
-        <v>381</v>
-      </c>
-      <c r="HV5" t="s">
-        <v>449</v>
-      </c>
-      <c r="HW5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY5" t="s">
-        <v>380</v>
-      </c>
-      <c r="HZ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IB5" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC5" t="s">
-        <v>381</v>
-      </c>
-      <c r="ID5" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IF5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IG5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IH5" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ5" t="s">
-        <v>451</v>
-      </c>
-      <c r="IK5" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IM5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IN5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IO5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IP5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IQ5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IR5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IS5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IT5" t="s">
-        <v>381</v>
-      </c>
-      <c r="IU5" t="s">
-        <v>380</v>
-      </c>
-      <c r="IV5" t="s">
-        <v>453</v>
-      </c>
-      <c r="JJ5" t="s">
-        <v>380</v>
-      </c>
-      <c r="ND5" t="s">
-        <v>453</v>
+        <v>374</v>
+      </c>
+      <c r="I5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J5" t="s">
+        <v>381</v>
+      </c>
+      <c r="K5" t="s">
+        <v>381</v>
+      </c>
+      <c r="L5" t="s">
+        <v>381</v>
+      </c>
+      <c r="M5" t="s">
+        <v>381</v>
+      </c>
+      <c r="N5" t="s">
+        <v>381</v>
+      </c>
+      <c r="O5" t="s">
+        <v>381</v>
+      </c>
+      <c r="P5" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>381</v>
+      </c>
+      <c r="R5" t="s">
+        <v>381</v>
+      </c>
+      <c r="S5" t="s">
+        <v>381</v>
+      </c>
+      <c r="T5" t="s">
+        <v>381</v>
+      </c>
+      <c r="U5" t="s">
+        <v>381</v>
+      </c>
+      <c r="V5" t="s">
+        <v>381</v>
+      </c>
+      <c r="W5" t="s">
+        <v>381</v>
+      </c>
+      <c r="X5" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>388</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>394</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>398</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>401</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>402</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>409</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>382</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>411</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>381</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>417</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>419</v>
       </c>
       <c r="SE5" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF5" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI5" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="SJ5" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="SK5" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -4241,142 +4364,97 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
-      </c>
-      <c r="EZ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB6" t="s">
-        <v>381</v>
-      </c>
-      <c r="FC6" t="s">
-        <v>381</v>
-      </c>
-      <c r="FD6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FG6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FI6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP6" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>381</v>
-      </c>
-      <c r="FU6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY6" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GF6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GH6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK6" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL6" t="s">
+        <v>372</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>381</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>382</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>382</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>381</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>431</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>435</v>
+      </c>
+      <c r="ET6" t="s">
         <v>438</v>
       </c>
-      <c r="GM6" t="s">
+      <c r="EV6" t="s">
         <v>442</v>
       </c>
+      <c r="EX6" t="s">
+        <v>445</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>449</v>
+      </c>
       <c r="SE6" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF6" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="SJ6" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="SK6" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4384,94 +4462,214 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
-      </c>
-      <c r="E7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H7" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>412</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>413</v>
-      </c>
-      <c r="DN7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>381</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>381</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>417</v>
-      </c>
-      <c r="FQ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD7" t="s">
-        <v>456</v>
+        <v>372</v>
+      </c>
+      <c r="GN7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GP7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GQ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GR7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GT7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GU7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GV7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GX7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>381</v>
+      </c>
+      <c r="GZ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HB7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HD7" t="s">
+        <v>460</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HF7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HH7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HI7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HJ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HK7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HL7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HM7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HN7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HO7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HP7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HQ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HR7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HS7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HT7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HU7" t="s">
+        <v>382</v>
+      </c>
+      <c r="HV7" t="s">
+        <v>463</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HY7" t="s">
+        <v>381</v>
+      </c>
+      <c r="HZ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="IA7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IB7" t="s">
+        <v>381</v>
+      </c>
+      <c r="IC7" t="s">
+        <v>382</v>
+      </c>
+      <c r="ID7" t="s">
+        <v>381</v>
+      </c>
+      <c r="IE7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IF7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IG7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IH7" t="s">
+        <v>381</v>
+      </c>
+      <c r="IJ7" t="s">
+        <v>465</v>
+      </c>
+      <c r="IK7" t="s">
+        <v>381</v>
+      </c>
+      <c r="IL7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IM7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IN7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IO7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IP7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IQ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IR7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IS7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IT7" t="s">
+        <v>382</v>
+      </c>
+      <c r="IU7" t="s">
+        <v>381</v>
+      </c>
+      <c r="IV7" t="s">
+        <v>467</v>
+      </c>
+      <c r="JJ7" t="s">
+        <v>381</v>
+      </c>
+      <c r="ND7" t="s">
+        <v>467</v>
       </c>
       <c r="SE7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="SF7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="SI7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="SJ7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="SK7" t="s">
-        <v>470</v>
-      </c>
-      <c r="SN7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4479,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
         <v>370</v>
@@ -4487,95 +4685,134 @@
       <c r="D8" t="s">
         <v>372</v>
       </c>
-      <c r="E8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F8" t="s">
-        <v>377</v>
-      </c>
-      <c r="G8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI8" t="s">
-        <v>412</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>414</v>
-      </c>
-      <c r="DN8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>381</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>418</v>
-      </c>
-      <c r="FQ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD8" t="s">
+      <c r="EZ8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FL8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FP8" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FT8" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FV8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FX8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>381</v>
+      </c>
+      <c r="FZ8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GB8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GD8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GE8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GF8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GG8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GH8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>381</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>452</v>
+      </c>
+      <c r="GM8" t="s">
         <v>456</v>
       </c>
       <c r="SE8" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="SF8" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="SI8" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="SJ8" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="SK8" t="s">
-        <v>471</v>
-      </c>
-      <c r="SN8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4583,7 +4820,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C9" t="s">
         <v>370</v>
@@ -4591,128 +4828,86 @@
       <c r="D9" t="s">
         <v>372</v>
       </c>
-      <c r="EZ9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FB9" t="s">
+      <c r="E9" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H9" t="s">
         <v>380</v>
       </c>
-      <c r="FC9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FD9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FG9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FH9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FI9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FT9" t="s">
-        <v>381</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY9" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE9" t="s">
-        <v>381</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GH9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK9" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL9" t="s">
-        <v>439</v>
+      <c r="DG9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>421</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>422</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>382</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>382</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>426</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>381</v>
+      </c>
+      <c r="SD9" t="s">
+        <v>470</v>
       </c>
       <c r="SE9" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="SF9" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="SI9" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="SJ9" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="SK9" t="s">
-        <v>472</v>
+        <v>486</v>
+      </c>
+      <c r="SN9" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -4720,67 +4915,103 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D10" t="s">
         <v>374</v>
       </c>
-      <c r="DZ10" t="s">
+      <c r="E10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" t="s">
+        <v>379</v>
+      </c>
+      <c r="H10" t="s">
         <v>380</v>
       </c>
-      <c r="EA10" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>380</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN10" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP10" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ10" t="s">
-        <v>422</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>425</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>428</v>
-      </c>
-      <c r="EX10" t="s">
-        <v>433</v>
-      </c>
-      <c r="EY10" t="s">
-        <v>436</v>
+      <c r="DG10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>423</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>382</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>382</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>381</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>382</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>382</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>427</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>381</v>
+      </c>
+      <c r="SD10" t="s">
+        <v>470</v>
       </c>
       <c r="SE10" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="SF10" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="SI10" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="SJ10" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="SK10" t="s">
-        <v>473</v>
+        <v>487</v>
+      </c>
+      <c r="SN10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:508">
@@ -4788,310 +5019,136 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
         <v>374</v>
       </c>
-      <c r="I11" t="s">
-        <v>380</v>
-      </c>
-      <c r="J11" t="s">
-        <v>380</v>
-      </c>
-      <c r="K11" t="s">
-        <v>380</v>
-      </c>
-      <c r="L11" t="s">
-        <v>380</v>
-      </c>
-      <c r="M11" t="s">
-        <v>380</v>
-      </c>
-      <c r="N11" t="s">
-        <v>380</v>
-      </c>
-      <c r="O11" t="s">
-        <v>380</v>
-      </c>
-      <c r="P11" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>380</v>
-      </c>
-      <c r="R11" t="s">
-        <v>380</v>
-      </c>
-      <c r="S11" t="s">
-        <v>380</v>
-      </c>
-      <c r="T11" t="s">
-        <v>380</v>
-      </c>
-      <c r="U11" t="s">
-        <v>380</v>
-      </c>
-      <c r="V11" t="s">
-        <v>380</v>
-      </c>
-      <c r="W11" t="s">
-        <v>380</v>
-      </c>
-      <c r="X11" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>391</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>395</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>397</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>396</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>399</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>400</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>402</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>381</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>381</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>405</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CU11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CX11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CY11" t="s">
-        <v>380</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>380</v>
-      </c>
-      <c r="DA11" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB11" t="s">
-        <v>380</v>
-      </c>
-      <c r="DC11" t="s">
-        <v>380</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>406</v>
-      </c>
-      <c r="DE11" t="s">
-        <v>409</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>411</v>
+      <c r="EZ11" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FC11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FD11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FE11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FF11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FG11" t="s">
+        <v>382</v>
+      </c>
+      <c r="FH11" t="s">
+        <v>382</v>
+      </c>
+      <c r="FI11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FJ11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FK11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FL11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FM11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FN11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FO11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FP11" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS11" t="s">
+        <v>382</v>
+      </c>
+      <c r="FT11" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FV11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FW11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FX11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FY11" t="s">
+        <v>381</v>
+      </c>
+      <c r="FZ11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GA11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GB11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GC11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GD11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GE11" t="s">
+        <v>382</v>
+      </c>
+      <c r="GF11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GG11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GH11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GJ11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>381</v>
+      </c>
+      <c r="GL11" t="s">
+        <v>453</v>
       </c>
       <c r="SE11" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF11" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI11" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="SJ11" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="SK11" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -5099,103 +5156,67 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G12" t="s">
-        <v>378</v>
-      </c>
-      <c r="H12" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>381</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>412</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>415</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX12" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>419</v>
-      </c>
-      <c r="FQ12" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD12" t="s">
-        <v>456</v>
+        <v>375</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>381</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>432</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>436</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>439</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>446</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>450</v>
       </c>
       <c r="SE12" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="SF12" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="SI12" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="SJ12" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="SK12" t="s">
-        <v>475</v>
-      </c>
-      <c r="SN12" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:508">
@@ -5203,7 +5224,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C13" t="s">
         <v>371</v>
@@ -5212,55 +5233,55 @@
         <v>375</v>
       </c>
       <c r="I13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="T13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="U13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="W13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="X13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z13" t="s">
         <v>381</v>
@@ -5269,163 +5290,244 @@
         <v>381</v>
       </c>
       <c r="AB13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AC13" t="s">
         <v>381</v>
       </c>
       <c r="AD13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AE13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG13" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>381</v>
       </c>
       <c r="AK13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AO13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AP13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AQ13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AR13" t="s">
-        <v>392</v>
+        <v>395</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>397</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>399</v>
       </c>
       <c r="BF13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BG13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BH13" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="BI13" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="BJ13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BK13" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="BL13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BM13" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="BN13" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="BO13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BP13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BQ13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BR13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BS13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BT13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BV13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BW13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BX13" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>381</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>382</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>382</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>381</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>412</v>
       </c>
       <c r="CN13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CO13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CP13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CQ13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CR13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CS13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CT13" t="s">
         <v>381</v>
       </c>
       <c r="CU13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CV13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CW13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CX13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CY13" t="s">
         <v>381</v>
       </c>
       <c r="CZ13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="DA13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="DB13" t="s">
         <v>381</v>
       </c>
       <c r="DC13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="DD13" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="DE13" t="s">
-        <v>409</v>
+        <v>416</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>420</v>
       </c>
       <c r="SE13" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF13" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI13" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="SJ13" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="SK13" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:508">
@@ -5433,148 +5535,103 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
-      </c>
-      <c r="DL14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" t="s">
         <v>380</v>
       </c>
-      <c r="EZ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FC14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FD14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF14" t="s">
-        <v>381</v>
-      </c>
-      <c r="FG14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH14" t="s">
-        <v>381</v>
-      </c>
-      <c r="FI14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FR14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FS14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FU14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY14" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE14" t="s">
-        <v>381</v>
-      </c>
-      <c r="GF14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG14" t="s">
-        <v>381</v>
-      </c>
-      <c r="GH14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK14" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL14" t="s">
-        <v>440</v>
-      </c>
-      <c r="GM14" t="s">
-        <v>443</v>
+      <c r="DG14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>421</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>424</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>382</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>382</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>382</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>428</v>
+      </c>
+      <c r="FQ14" t="s">
+        <v>381</v>
+      </c>
+      <c r="SD14" t="s">
+        <v>470</v>
       </c>
       <c r="SE14" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="SF14" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="SI14" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="SJ14" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="SK14" t="s">
-        <v>477</v>
+        <v>491</v>
+      </c>
+      <c r="SN14" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:508">
@@ -5582,97 +5639,229 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>380</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>381</v>
-      </c>
-      <c r="EL15" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>423</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>426</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>429</v>
-      </c>
-      <c r="EV15" t="s">
-        <v>431</v>
-      </c>
-      <c r="EX15" t="s">
-        <v>434</v>
-      </c>
-      <c r="EY15" t="s">
-        <v>437</v>
+        <v>376</v>
+      </c>
+      <c r="I15" t="s">
+        <v>381</v>
+      </c>
+      <c r="J15" t="s">
+        <v>381</v>
+      </c>
+      <c r="K15" t="s">
+        <v>381</v>
+      </c>
+      <c r="L15" t="s">
+        <v>381</v>
+      </c>
+      <c r="M15" t="s">
+        <v>381</v>
+      </c>
+      <c r="N15" t="s">
+        <v>381</v>
+      </c>
+      <c r="O15" t="s">
+        <v>381</v>
+      </c>
+      <c r="P15" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>381</v>
+      </c>
+      <c r="R15" t="s">
+        <v>381</v>
+      </c>
+      <c r="S15" t="s">
+        <v>381</v>
+      </c>
+      <c r="T15" t="s">
+        <v>381</v>
+      </c>
+      <c r="U15" t="s">
+        <v>381</v>
+      </c>
+      <c r="V15" t="s">
+        <v>381</v>
+      </c>
+      <c r="W15" t="s">
+        <v>381</v>
+      </c>
+      <c r="X15" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>390</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>396</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>403</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>401</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>404</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>405</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>406</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>381</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>381</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>382</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>381</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>381</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>381</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>415</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>416</v>
       </c>
       <c r="SE15" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF15" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI15" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="SJ15" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="SK15" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16" spans="1:508">
@@ -5689,139 +5878,139 @@
         <v>375</v>
       </c>
       <c r="DL16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="EZ16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FA16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FB16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FC16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FD16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FE16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FF16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FG16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FH16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FI16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FJ16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FK16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FL16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FM16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FN16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FO16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FP16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FR16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FS16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FT16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FU16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FV16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FW16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FX16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FY16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FZ16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GA16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GB16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GC16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GD16" t="s">
         <v>381</v>
       </c>
       <c r="GE16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="GF16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GG16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GH16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GI16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GJ16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GK16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="GL16" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="GM16" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="SE16" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF16" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI16" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="SJ16" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="SK16" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:508">
@@ -5829,211 +6018,97 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
-      </c>
-      <c r="GN17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY17" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HC17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HD17" t="s">
+        <v>376</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>381</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>382</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>382</v>
+      </c>
+      <c r="EM17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EN17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>381</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>433</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>437</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>440</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>443</v>
+      </c>
+      <c r="EX17" t="s">
         <v>447</v>
       </c>
-      <c r="HE17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HL17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HO17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HP17" t="s">
-        <v>381</v>
-      </c>
-      <c r="HQ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HR17" t="s">
-        <v>381</v>
-      </c>
-      <c r="HS17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT17" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU17" t="s">
-        <v>381</v>
-      </c>
-      <c r="HW17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY17" t="s">
-        <v>380</v>
-      </c>
-      <c r="HZ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IB17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC17" t="s">
-        <v>380</v>
-      </c>
-      <c r="ID17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IF17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IG17" t="s">
-        <v>381</v>
-      </c>
-      <c r="IH17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ17" t="s">
-        <v>452</v>
-      </c>
-      <c r="IK17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IM17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IN17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IO17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IP17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IQ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IR17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IS17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IT17" t="s">
-        <v>381</v>
-      </c>
-      <c r="IU17" t="s">
-        <v>380</v>
-      </c>
-      <c r="IV17" t="s">
-        <v>452</v>
-      </c>
-      <c r="JJ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="ND17" t="s">
-        <v>452</v>
+      <c r="EY17" t="s">
+        <v>451</v>
       </c>
       <c r="SE17" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SF17" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="SI17" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="SJ17" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="SK17" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:508">
@@ -6041,100 +6116,461 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>376</v>
+      </c>
+      <c r="DL18" t="s">
+        <v>381</v>
+      </c>
+      <c r="EZ18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FA18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FB18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FC18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FD18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FE18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FF18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FG18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FH18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FI18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FJ18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FK18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FL18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FM18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FN18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FO18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FP18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FR18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FT18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FU18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FV18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FW18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FX18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FY18" t="s">
+        <v>381</v>
+      </c>
+      <c r="FZ18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GA18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GB18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GC18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GD18" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE18" t="s">
+        <v>382</v>
+      </c>
+      <c r="GF18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GG18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GH18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GI18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GJ18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GK18" t="s">
+        <v>381</v>
+      </c>
+      <c r="GL18" t="s">
+        <v>455</v>
+      </c>
+      <c r="GM18" t="s">
+        <v>458</v>
+      </c>
+      <c r="SE18" t="s">
+        <v>471</v>
+      </c>
+      <c r="SF18" t="s">
+        <v>471</v>
+      </c>
+      <c r="SI18" t="s">
+        <v>474</v>
+      </c>
+      <c r="SJ18" t="s">
+        <v>474</v>
+      </c>
+      <c r="SK18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:508">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" t="s">
+        <v>376</v>
+      </c>
+      <c r="GN19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GO19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GP19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GQ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GR19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GS19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GT19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GU19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GV19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GW19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GX19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GY19" t="s">
+        <v>381</v>
+      </c>
+      <c r="GZ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HA19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HB19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HC19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HD19" t="s">
+        <v>461</v>
+      </c>
+      <c r="HE19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HF19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HG19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HH19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HI19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HJ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HK19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HL19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HM19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HN19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HO19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HP19" t="s">
+        <v>382</v>
+      </c>
+      <c r="HQ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HR19" t="s">
+        <v>382</v>
+      </c>
+      <c r="HS19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HT19" t="s">
+        <v>382</v>
+      </c>
+      <c r="HU19" t="s">
+        <v>382</v>
+      </c>
+      <c r="HW19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HX19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HY19" t="s">
+        <v>381</v>
+      </c>
+      <c r="HZ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IA19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IB19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IC19" t="s">
+        <v>381</v>
+      </c>
+      <c r="ID19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IE19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IF19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IG19" t="s">
+        <v>382</v>
+      </c>
+      <c r="IH19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IJ19" t="s">
+        <v>466</v>
+      </c>
+      <c r="IK19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IL19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IM19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IN19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IO19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IP19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IQ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IR19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IS19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IT19" t="s">
+        <v>382</v>
+      </c>
+      <c r="IU19" t="s">
+        <v>381</v>
+      </c>
+      <c r="IV19" t="s">
+        <v>466</v>
+      </c>
+      <c r="JJ19" t="s">
+        <v>381</v>
+      </c>
+      <c r="ND19" t="s">
+        <v>466</v>
+      </c>
+      <c r="SE19" t="s">
+        <v>471</v>
+      </c>
+      <c r="SF19" t="s">
+        <v>471</v>
+      </c>
+      <c r="SI19" t="s">
+        <v>474</v>
+      </c>
+      <c r="SJ19" t="s">
+        <v>474</v>
+      </c>
+      <c r="SK19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:508">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>369</v>
       </c>
-      <c r="C18" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" t="s">
-        <v>375</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
         <v>376</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E20" t="s">
         <v>377</v>
       </c>
-      <c r="G18" t="s">
+      <c r="F20" t="s">
         <v>378</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G20" t="s">
         <v>379</v>
       </c>
-      <c r="DG18" t="s">
+      <c r="H20" t="s">
         <v>380</v>
       </c>
-      <c r="DH18" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI18" t="s">
-        <v>412</v>
-      </c>
-      <c r="DJ18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DK18" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM18" t="s">
-        <v>416</v>
-      </c>
-      <c r="DN18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DO18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ18" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DT18" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU18" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV18" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW18" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY18" t="s">
-        <v>420</v>
-      </c>
-      <c r="FQ18" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD18" t="s">
-        <v>456</v>
-      </c>
-      <c r="SE18" t="s">
-        <v>458</v>
-      </c>
-      <c r="SF18" t="s">
-        <v>459</v>
-      </c>
-      <c r="SI18" t="s">
-        <v>462</v>
-      </c>
-      <c r="SJ18" t="s">
-        <v>462</v>
-      </c>
-      <c r="SK18" t="s">
-        <v>481</v>
-      </c>
-      <c r="SN18" t="s">
-        <v>485</v>
+      <c r="DG20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DH20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DI20" t="s">
+        <v>421</v>
+      </c>
+      <c r="DJ20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>425</v>
+      </c>
+      <c r="DN20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DR20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>429</v>
+      </c>
+      <c r="FQ20" t="s">
+        <v>381</v>
+      </c>
+      <c r="SD20" t="s">
+        <v>470</v>
+      </c>
+      <c r="SE20" t="s">
+        <v>472</v>
+      </c>
+      <c r="SF20" t="s">
+        <v>473</v>
+      </c>
+      <c r="SI20" t="s">
+        <v>477</v>
+      </c>
+      <c r="SJ20" t="s">
+        <v>477</v>
+      </c>
+      <c r="SK20" t="s">
+        <v>497</v>
+      </c>
+      <c r="SN20" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="501">
   <si>
     <t>section</t>
   </si>
@@ -1133,9 +1133,6 @@
   </si>
   <si>
     <t>Masikana Council Clinic</t>
-  </si>
-  <si>
-    <t>Vere</t>
   </si>
   <si>
     <t>Jompani</t>
@@ -3459,301 +3456,301 @@
         <v>372</v>
       </c>
       <c r="I2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q2" t="s">
+        <v>381</v>
+      </c>
+      <c r="R2" t="s">
+        <v>380</v>
+      </c>
+      <c r="S2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T2" t="s">
+        <v>380</v>
+      </c>
+      <c r="U2" t="s">
+        <v>380</v>
+      </c>
+      <c r="V2" t="s">
+        <v>380</v>
+      </c>
+      <c r="W2" t="s">
+        <v>380</v>
+      </c>
+      <c r="X2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD2" t="s">
         <v>382</v>
       </c>
-      <c r="R2" t="s">
-        <v>381</v>
-      </c>
-      <c r="S2" t="s">
-        <v>381</v>
-      </c>
-      <c r="T2" t="s">
-        <v>381</v>
-      </c>
-      <c r="U2" t="s">
-        <v>381</v>
-      </c>
-      <c r="V2" t="s">
-        <v>381</v>
-      </c>
-      <c r="W2" t="s">
-        <v>381</v>
-      </c>
-      <c r="X2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>381</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>383</v>
-      </c>
       <c r="AE2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AH2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AP2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AQ2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AR2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AS2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AT2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AV2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AX2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AY2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AZ2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BA2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BB2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BC2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BD2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BF2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BG2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BH2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BI2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BJ2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BL2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BN2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BO2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BP2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BQ2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BR2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BS2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BU2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BV2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BW2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BX2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BY2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BZ2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CA2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CC2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CD2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CE2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CF2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CG2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CH2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CI2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CJ2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CK2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CL2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CM2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CN2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CP2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CQ2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CR2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CS2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CT2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CU2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CW2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CX2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CY2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CZ2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DA2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DB2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DC2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DD2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="DE2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DF2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="SE2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SJ2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SK2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3770,61 +3767,61 @@
         <v>373</v>
       </c>
       <c r="DZ3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="EA3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EK3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EL3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EM3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EN3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EO3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EP3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EQ3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="ER3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="ET3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="EV3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="EX3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="EY3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="SE3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SJ3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SK3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3838,220 +3835,220 @@
         <v>371</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="GN4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GO4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GP4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GQ4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GR4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GS4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GT4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GU4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GV4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GW4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GX4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GY4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GZ4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HA4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HB4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HC4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HD4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="HE4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HF4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HG4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HH4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HI4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HJ4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HK4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HL4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HM4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HN4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HO4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HP4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HQ4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HR4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HS4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HT4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HU4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HV4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="HW4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HX4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HY4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HZ4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IA4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IB4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IC4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="ID4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IE4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IF4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IG4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IH4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IJ4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="IK4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IL4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IM4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IN4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IO4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IP4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IQ4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IR4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IS4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IT4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IU4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IW4" t="s">
+        <v>467</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>381</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>381</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>380</v>
+      </c>
+      <c r="NE4" t="s">
+        <v>467</v>
+      </c>
+      <c r="NH4" t="s">
+        <v>380</v>
+      </c>
+      <c r="SC4" t="s">
         <v>468</v>
       </c>
-      <c r="IX4" t="s">
-        <v>382</v>
-      </c>
-      <c r="IY4" t="s">
-        <v>382</v>
-      </c>
-      <c r="JJ4" t="s">
-        <v>381</v>
-      </c>
-      <c r="NE4" t="s">
-        <v>468</v>
-      </c>
-      <c r="NH4" t="s">
-        <v>381</v>
-      </c>
-      <c r="SC4" t="s">
-        <v>469</v>
-      </c>
       <c r="SE4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="SJ4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="SK4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -4065,298 +4062,298 @@
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Z5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AE5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AM5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AP5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AQ5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AR5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AS5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AT5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>380</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>380</v>
+      </c>
+      <c r="BE5" t="s">
         <v>397</v>
       </c>
-      <c r="AW5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>381</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>381</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>381</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>398</v>
-      </c>
       <c r="BF5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BG5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BH5" t="s">
+        <v>400</v>
+      </c>
+      <c r="BI5" t="s">
         <v>401</v>
       </c>
-      <c r="BI5" t="s">
-        <v>402</v>
-      </c>
       <c r="BJ5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BL5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BN5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BO5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BP5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BQ5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BR5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BS5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BU5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BV5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BW5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BX5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BY5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BZ5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CA5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CB5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CC5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CD5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CE5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CF5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CG5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CH5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CI5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CJ5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CK5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CL5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CM5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="CN5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CP5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CQ5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CR5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CS5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CT5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CU5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CV5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CW5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CX5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CY5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CZ5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DA5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DB5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DC5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DD5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DE5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="DF5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="SE5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="SJ5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="SK5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -4373,88 +4370,88 @@
         <v>372</v>
       </c>
       <c r="DZ6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EA6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EB6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EC6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="ED6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EE6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EF6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EG6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EH6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EI6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EJ6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EK6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="EL6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="EM6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EN6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EO6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EP6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EQ6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="ER6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="ET6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="EV6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="EX6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="EY6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="SE6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SJ6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SK6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4471,205 +4468,205 @@
         <v>372</v>
       </c>
       <c r="GN7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GO7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GP7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GQ7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GR7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GS7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GT7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GU7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GV7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GW7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GX7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GY7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GZ7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HA7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HB7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HC7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HD7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="HE7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HF7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HG7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HH7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HI7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HJ7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HK7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HL7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HM7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HN7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HO7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HP7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HQ7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HR7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HS7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HT7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HU7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HV7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="HW7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HX7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HY7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HZ7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IA7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IB7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IC7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="ID7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IE7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IF7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IG7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IH7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IJ7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="IK7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IL7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IM7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IN7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IO7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IP7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IQ7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IR7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IS7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IT7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IU7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IV7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="JJ7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="ND7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="SE7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SJ7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SK7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4686,133 +4683,133 @@
         <v>372</v>
       </c>
       <c r="EZ8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FA8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FB8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FC8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FD8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FE8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FF8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FG8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FH8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FI8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FJ8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FK8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FL8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FM8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FN8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FO8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FP8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FS8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FT8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FU8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FV8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FW8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FX8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FY8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FZ8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GA8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GB8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GC8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GD8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GE8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GF8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GG8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GH8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GI8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GJ8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GK8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GL8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="GM8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="SE8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SJ8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SK8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4829,85 +4826,85 @@
         <v>372</v>
       </c>
       <c r="E9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" t="s">
         <v>377</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>378</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>379</v>
       </c>
-      <c r="H9" t="s">
-        <v>380</v>
-      </c>
       <c r="DG9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DH9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DI9" t="s">
+        <v>420</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>380</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>380</v>
+      </c>
+      <c r="DM9" t="s">
         <v>421</v>
       </c>
-      <c r="DJ9" t="s">
-        <v>381</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>381</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>422</v>
-      </c>
       <c r="DN9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DO9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DP9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DQ9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DR9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DS9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DU9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DW9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DY9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="FQ9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="SD9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="SE9" t="s">
+        <v>471</v>
+      </c>
+      <c r="SF9" t="s">
         <v>472</v>
       </c>
-      <c r="SF9" t="s">
-        <v>473</v>
-      </c>
       <c r="SI9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="SJ9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="SK9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="SN9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -4921,97 +4918,97 @@
         <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F10" t="s">
         <v>377</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>378</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>379</v>
       </c>
-      <c r="H10" t="s">
-        <v>380</v>
-      </c>
       <c r="DG10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DH10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DI10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="DJ10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DK10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DM10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="DN10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DO10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DP10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DQ10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DR10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DS10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DT10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DU10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DV10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DW10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DX10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DY10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="FQ10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="SD10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="SE10" t="s">
+        <v>471</v>
+      </c>
+      <c r="SF10" t="s">
         <v>472</v>
       </c>
-      <c r="SF10" t="s">
-        <v>473</v>
-      </c>
       <c r="SI10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SJ10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SK10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="SN10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:508">
@@ -5025,130 +5022,130 @@
         <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="EZ11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FB11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FC11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FD11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FE11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FF11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FG11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FH11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FI11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FJ11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FK11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FL11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FM11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FN11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FO11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FP11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FS11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FT11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FU11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FV11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FW11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FX11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FY11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FZ11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GA11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GB11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GC11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GD11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GE11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="GF11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GG11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GH11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GI11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GJ11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GK11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GL11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="SE11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="SJ11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="SK11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -5162,61 +5159,61 @@
         <v>371</v>
       </c>
       <c r="D12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="DZ12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EA12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EK12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EL12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="EM12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EN12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EO12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EP12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EQ12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="ER12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="ET12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="EX12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="EY12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="SE12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SJ12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SK12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:508">
@@ -5230,304 +5227,304 @@
         <v>371</v>
       </c>
       <c r="D13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Z13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AA13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AD13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AE13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AH13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AP13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AQ13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AR13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AS13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AT13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AU13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AV13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AW13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AX13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AY13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AZ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BA13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BD13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BE13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BF13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BG13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BH13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BI13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BJ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BK13" t="s">
+        <v>403</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM13" t="s">
         <v>404</v>
       </c>
-      <c r="BL13" t="s">
-        <v>381</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>405</v>
-      </c>
       <c r="BN13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BO13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BP13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BQ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BR13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BS13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BV13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BW13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BX13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BY13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BZ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CA13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CB13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CC13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CD13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CE13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CF13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CG13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CK13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CL13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CM13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="CN13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CP13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CQ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CR13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CS13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CT13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CU13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CV13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CW13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CX13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CY13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CZ13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DA13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DB13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DC13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DD13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="DE13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DF13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="SE13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SJ13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SK13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:508">
@@ -5541,97 +5538,97 @@
         <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E14" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" t="s">
         <v>377</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>378</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>379</v>
       </c>
-      <c r="H14" t="s">
-        <v>380</v>
-      </c>
       <c r="DG14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DH14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DI14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="DJ14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DK14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DM14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="DN14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DO14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DP14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DQ14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DR14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DS14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DT14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DU14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DV14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DW14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DX14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DY14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="FQ14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="SD14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="SE14" t="s">
+        <v>471</v>
+      </c>
+      <c r="SF14" t="s">
         <v>472</v>
       </c>
-      <c r="SF14" t="s">
-        <v>473</v>
-      </c>
       <c r="SI14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SJ14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SK14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="SN14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:508">
@@ -5645,223 +5642,223 @@
         <v>370</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Q15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="T15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="V15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="W15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Z15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AA15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AD15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AK15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AM15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AN15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AO15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AP15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AQ15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AR15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BF15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BG15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BH15" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>400</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>380</v>
+      </c>
+      <c r="BK15" t="s">
         <v>403</v>
       </c>
-      <c r="BI15" t="s">
-        <v>401</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>381</v>
-      </c>
-      <c r="BK15" t="s">
+      <c r="BL15" t="s">
+        <v>380</v>
+      </c>
+      <c r="BM15" t="s">
         <v>404</v>
       </c>
-      <c r="BL15" t="s">
-        <v>381</v>
-      </c>
-      <c r="BM15" t="s">
+      <c r="BN15" t="s">
         <v>405</v>
       </c>
-      <c r="BN15" t="s">
-        <v>406</v>
-      </c>
       <c r="BO15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BP15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BQ15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BR15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BS15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BT15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BV15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BW15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BX15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CN15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CO15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CP15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CQ15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CR15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CS15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CT15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CU15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CV15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CW15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CX15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CY15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CZ15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DA15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DB15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DC15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DD15" t="s">
+        <v>414</v>
+      </c>
+      <c r="DE15" t="s">
         <v>415</v>
       </c>
-      <c r="DE15" t="s">
-        <v>416</v>
-      </c>
       <c r="SE15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SJ15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SK15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:508">
@@ -5875,142 +5872,142 @@
         <v>371</v>
       </c>
       <c r="D16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="DL16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EZ16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FA16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FB16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FC16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FD16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FE16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FF16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FG16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FH16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="FI16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FJ16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FK16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FL16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FM16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FN16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FO16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FP16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FR16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FS16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FT16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FU16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FV16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FW16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FX16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FY16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FZ16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GA16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GB16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GC16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GD16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GE16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="GF16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GG16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="GH16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GI16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GJ16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GK16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GL16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="GM16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="SE16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SJ16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="SK16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:508">
@@ -6024,91 +6021,91 @@
         <v>370</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="DZ17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EA17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EB17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EC17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="ED17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EE17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EF17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EG17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EH17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EI17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EJ17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EK17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="EL17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="EM17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EN17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EO17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EP17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EQ17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="ER17" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="ET17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="EV17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="EX17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="EY17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="SE17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF17" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SJ17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="SK17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:508">
@@ -6122,142 +6119,142 @@
         <v>370</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="DL18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="EZ18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FA18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FB18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FC18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FD18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FE18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FF18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FG18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FH18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FI18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FJ18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FK18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FL18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FM18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FN18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FO18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FP18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FR18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FS18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FT18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FU18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FV18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FW18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FX18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FY18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="FZ18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GA18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GB18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GC18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GD18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="GE18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="GF18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GG18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GH18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GI18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GJ18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GK18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GL18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="GM18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="SE18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF18" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SJ18" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SK18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:508">
@@ -6271,205 +6268,205 @@
         <v>370</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="GN19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GO19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GP19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GQ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GR19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GS19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GT19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GU19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GV19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GW19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GX19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GY19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GZ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HA19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HB19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HC19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HD19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="HE19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HF19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HG19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HH19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HI19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HJ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HK19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HL19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HM19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HN19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HO19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HP19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HQ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HR19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HS19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HT19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HU19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="HW19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HX19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HY19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="HZ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IA19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IB19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IC19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="ID19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IE19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IF19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IG19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IH19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IJ19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="IK19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IL19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IM19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IN19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IO19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IP19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IQ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IR19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IS19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IT19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="IU19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="IV19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="JJ19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="ND19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="SE19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SF19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="SI19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SJ19" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="SK19" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:508">
@@ -6483,94 +6480,94 @@
         <v>370</v>
       </c>
       <c r="D20" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" t="s">
         <v>376</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>377</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>378</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>379</v>
       </c>
-      <c r="H20" t="s">
-        <v>380</v>
-      </c>
       <c r="DG20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DH20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DI20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="DJ20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DK20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DM20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="DN20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DO20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DP20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DQ20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DR20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DS20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DT20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DU20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DV20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DW20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="DY20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="FQ20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="SD20" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="SE20" t="s">
+        <v>471</v>
+      </c>
+      <c r="SF20" t="s">
         <v>472</v>
       </c>
-      <c r="SF20" t="s">
-        <v>473</v>
-      </c>
       <c r="SI20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="SJ20" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="SK20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="SN20" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="514">
   <si>
     <t>section</t>
   </si>
@@ -1111,19 +1111,22 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>c</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>b</t>
+    <t>HURUNGWE</t>
   </si>
   <si>
     <t>MARONDERA</t>
@@ -1132,6 +1135,9 @@
     <t>SANYATI</t>
   </si>
   <si>
+    <t>Mwami Rural Hosptal</t>
+  </si>
+  <si>
     <t>Masikana Council Clinic</t>
   </si>
   <si>
@@ -1162,6 +1168,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>The theatre room is used as the recovery room</t>
+  </si>
+  <si>
     <t>Site is outreach and space is made available per rising need. Generally space is clean and conducive with comfortable temperatures and privacy.</t>
   </si>
   <si>
@@ -1174,24 +1183,30 @@
     <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
+    <t>Reusable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit Disposable_universal</t>
   </si>
   <si>
-    <t>Reusable_Dorsal_slit</t>
-  </si>
-  <si>
     <t>Disposable_Dorsal_slit</t>
   </si>
   <si>
     <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
   </si>
   <si>
+    <t>Disposable_gloves Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
+  </si>
+  <si>
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing Rigid_WHO-approved_sharps_containers</t>
   </si>
   <si>
     <t>Disposable_gloves Syringes_with_needles Lancets_for_adults_and_pediatric_capillary_blood_drawing</t>
   </si>
   <si>
+    <t>There has been no RTKs stock outs</t>
+  </si>
+  <si>
     <t>HTS provided by site and all areas satisfactory.</t>
   </si>
   <si>
@@ -1213,13 +1228,13 @@
     <t>condoms in short supply</t>
   </si>
   <si>
+    <t>Ceftriaxone Metronidazole Doxycycline</t>
+  </si>
+  <si>
     <t>Metronidazole Doxycycline</t>
   </si>
   <si>
     <t>Ceftriaxone Metronidazole</t>
-  </si>
-  <si>
-    <t>Ceftriaxone Metronidazole Doxycycline</t>
   </si>
   <si>
     <t>Ceftriaxone Doxycycline</t>
@@ -1253,6 +1268,9 @@
 incinerator is done off site at Rimuka Maternity</t>
   </si>
   <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters 2_Sizes_of_Syringes 2_Sizes_of_Needles Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
   </si>
   <si>
@@ -1260,6 +1278,9 @@
   </si>
   <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
+  </si>
+  <si>
+    <t>glucometer</t>
   </si>
   <si>
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
@@ -1391,6 +1412,9 @@
   </si>
   <si>
     <t>Outreach site need to be empowered in terms of DC workplans and engagement of mobilisers in the clinic jurisdiction especially considering the site is in urban setting.</t>
+  </si>
+  <si>
+    <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Community_Health_Workers Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors STI_Trained_Nurses</t>
   </si>
   <si>
     <t>VMMC_Nurse_Counsellors VMMC_circumcisors:_Nursing Cleaners/Theatre_Hands/Runners Data_Clerks Receptionists Nurse_Testers Primary_Care_Counsellors STI_Trained_Nurses</t>
@@ -1465,15 +1489,18 @@
     <t>8</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>vmuseza</t>
+  </si>
+  <si>
     <t>jgavhera</t>
   </si>
   <si>
@@ -1489,6 +1516,15 @@
     <t>tmunyaradzi</t>
   </si>
   <si>
+    <t>2025-07-01T17:26:58.658772Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T17:26:58.108886Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T17:26:57.069032Z</t>
+  </si>
+  <si>
     <t>2025-07-01T11:55:23.800665Z</t>
   </si>
   <si>
@@ -1544,6 +1580,9 @@
   </si>
   <si>
     <t>2025-06-30T11:51:05.207097Z</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '44', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '44', 'current_iteration': '0', 'mrfmcs': '44', 'registermcs': '44'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '54', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '54', 'current_iteration': '1', 'mrfmcs': '54', 'registermcs': '54'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '16', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '16', 'current_iteration': '2', 'mrfmcs': '16', 'registermcs': '16'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '26', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '26', 'current_iteration': '3', 'mrfmcs': '26', 'registermcs': '26'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '23', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '23', 'current_iteration': '4', 'mrfmcs': '23', 'registermcs': '23'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '78', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '78', 'current_iteration': '5', 'mrfmcs': '78', 'registermcs': '78'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '72', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '72', 'current_iteration': '6', 'mrfmcs': '72', 'registermcs': '72'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '61', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '61', 'current_iteration': '7', 'mrfmcs': '61', 'registermcs': '61'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '0', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '32', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '32', 'current_iteration': '1', 'mrfmcs': '32', 'registermcs': '32'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '18', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '18', 'current_iteration': '2', 'mrfmcs': '18', 'registermcs': '18'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '8', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '8', 'current_iteration': '3', 'mrfmcs': '8', 'registermcs': '8'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '4', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '22', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '22', 'current_iteration': '5', 'mrfmcs': '22', 'registermcs': '22'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '6', 'mrfmcs': '12', 'registermcs': '12'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '13', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '7', 'mrfmcs': '0', 'registermcs': '13'}]</t>
@@ -1913,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN20"/>
+  <dimension ref="A1:SN23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3453,304 +3492,91 @@
         <v>370</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" t="s">
         <v>380</v>
       </c>
-      <c r="J2" t="s">
-        <v>380</v>
-      </c>
-      <c r="K2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L2" t="s">
-        <v>380</v>
-      </c>
-      <c r="M2" t="s">
-        <v>380</v>
-      </c>
-      <c r="N2" t="s">
-        <v>380</v>
-      </c>
-      <c r="O2" t="s">
-        <v>380</v>
-      </c>
-      <c r="P2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="H2" t="s">
         <v>381</v>
       </c>
-      <c r="R2" t="s">
-        <v>380</v>
-      </c>
-      <c r="S2" t="s">
-        <v>380</v>
-      </c>
-      <c r="T2" t="s">
-        <v>380</v>
-      </c>
-      <c r="U2" t="s">
-        <v>380</v>
-      </c>
-      <c r="V2" t="s">
-        <v>380</v>
-      </c>
-      <c r="W2" t="s">
-        <v>380</v>
-      </c>
-      <c r="X2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>390</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>392</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>381</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>381</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>399</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>399</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>405</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>407</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>381</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>409</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>380</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>381</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>380</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>380</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>380</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>412</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>415</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>417</v>
+      <c r="DG2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>382</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>383</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>477</v>
       </c>
       <c r="SE2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="SF2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="SI2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="SJ2" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="SK2" t="s">
-        <v>478</v>
+        <v>487</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3761,67 +3587,310 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
         <v>373</v>
       </c>
-      <c r="DZ3" t="s">
-        <v>381</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>429</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>433</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>437</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>440</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>443</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>447</v>
+      <c r="I3" t="s">
+        <v>382</v>
+      </c>
+      <c r="J3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K3" t="s">
+        <v>382</v>
+      </c>
+      <c r="L3" t="s">
+        <v>382</v>
+      </c>
+      <c r="M3" t="s">
+        <v>382</v>
+      </c>
+      <c r="N3" t="s">
+        <v>382</v>
+      </c>
+      <c r="O3" t="s">
+        <v>382</v>
+      </c>
+      <c r="P3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R3" t="s">
+        <v>382</v>
+      </c>
+      <c r="S3" t="s">
+        <v>382</v>
+      </c>
+      <c r="T3" t="s">
+        <v>382</v>
+      </c>
+      <c r="U3" t="s">
+        <v>382</v>
+      </c>
+      <c r="V3" t="s">
+        <v>382</v>
+      </c>
+      <c r="W3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>405</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>417</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>421</v>
       </c>
       <c r="SE3" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF3" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI3" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="SJ3" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="SK3" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3832,223 +3901,142 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
         <v>373</v>
       </c>
-      <c r="GN4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>381</v>
-      </c>
-      <c r="HD4" t="s">
+      <c r="DL4" t="s">
+        <v>382</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>383</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN4" t="s">
+        <v>383</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>383</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL4" t="s">
         <v>458</v>
       </c>
-      <c r="HE4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HL4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN4" t="s">
-        <v>381</v>
-      </c>
-      <c r="HO4" t="s">
-        <v>381</v>
-      </c>
-      <c r="HP4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HR4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT4" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU4" t="s">
-        <v>381</v>
-      </c>
-      <c r="HV4" t="s">
-        <v>461</v>
-      </c>
-      <c r="HW4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX4" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY4" t="s">
-        <v>381</v>
-      </c>
-      <c r="HZ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IB4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC4" t="s">
-        <v>380</v>
-      </c>
-      <c r="ID4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IF4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IG4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IH4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ4" t="s">
-        <v>463</v>
-      </c>
-      <c r="IK4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IM4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IN4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IO4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IP4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IQ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IR4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IS4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IT4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IU4" t="s">
-        <v>380</v>
-      </c>
-      <c r="IW4" t="s">
-        <v>467</v>
-      </c>
-      <c r="IX4" t="s">
-        <v>381</v>
-      </c>
-      <c r="IY4" t="s">
-        <v>381</v>
-      </c>
-      <c r="JJ4" t="s">
-        <v>380</v>
-      </c>
-      <c r="NE4" t="s">
-        <v>467</v>
-      </c>
-      <c r="NH4" t="s">
-        <v>380</v>
-      </c>
-      <c r="SC4" t="s">
-        <v>468</v>
-      </c>
       <c r="SE4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="SJ4" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="SK4" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -4056,304 +4044,310 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="R5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="S5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="T5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="U5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="V5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="W5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="X5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Y5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Z5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AA5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AB5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AC5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AD5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AE5" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>382</v>
       </c>
       <c r="AK5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AM5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AN5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AO5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AP5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AQ5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AR5" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AS5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AT5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AU5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>381</v>
+        <v>401</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>382</v>
       </c>
       <c r="AX5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AY5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AZ5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BA5" t="s">
-        <v>380</v>
+        <v>382</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>383</v>
       </c>
       <c r="BC5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="BD5" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="BF5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BG5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BH5" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="BI5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="BJ5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BL5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BN5" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="BO5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BP5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BQ5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BR5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BS5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BT5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BU5" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="BV5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BW5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BX5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="BY5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="BZ5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CA5" t="s">
-        <v>380</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="CC5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CD5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CE5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CF5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CG5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CH5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CI5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CJ5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="CK5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="CL5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CM5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="CN5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CO5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CP5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CQ5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CR5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CS5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CT5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="CU5" t="s">
-        <v>380</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CW5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CX5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CY5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CZ5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="DA5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="DB5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="DC5" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="DD5" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="DE5" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="DF5" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="SE5" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF5" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI5" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="SJ5" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="SK5" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -4361,97 +4355,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="DZ6" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="EA6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>380</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>380</v>
-      </c>
-      <c r="EJ6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="EK6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="EL6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="EM6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="EN6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="EO6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="EP6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="EQ6" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="ER6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="ET6" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="EV6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="EX6" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="EY6" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="SE6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF6" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI6" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="SJ6" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="SK6" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4459,214 +4426,226 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="GN7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GO7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GP7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GQ7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GR7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GS7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GT7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GU7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GV7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GW7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GX7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GY7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GZ7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HA7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HB7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="HC7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="HD7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="HE7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HF7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HG7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HH7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HI7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HJ7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HK7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="HL7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HM7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HN7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="HO7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="HP7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="HQ7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="HR7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="HS7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HT7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="HU7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="HV7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="HW7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HX7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="HY7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="HZ7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="IA7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IB7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="IC7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="ID7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="IE7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IF7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IG7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IH7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="IJ7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="IK7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="IL7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IM7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IN7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IO7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IP7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IQ7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IR7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IS7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IT7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="IU7" t="s">
-        <v>380</v>
-      </c>
-      <c r="IV7" t="s">
-        <v>466</v>
+        <v>382</v>
+      </c>
+      <c r="IW7" t="s">
+        <v>475</v>
+      </c>
+      <c r="IX7" t="s">
+        <v>383</v>
+      </c>
+      <c r="IY7" t="s">
+        <v>383</v>
       </c>
       <c r="JJ7" t="s">
-        <v>380</v>
-      </c>
-      <c r="ND7" t="s">
-        <v>466</v>
+        <v>382</v>
+      </c>
+      <c r="NE7" t="s">
+        <v>475</v>
+      </c>
+      <c r="NH7" t="s">
+        <v>382</v>
+      </c>
+      <c r="SC7" t="s">
+        <v>476</v>
       </c>
       <c r="SE7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="SJ7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="SK7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4674,142 +4653,304 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
-      </c>
-      <c r="EZ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB8" t="s">
-        <v>381</v>
-      </c>
-      <c r="FC8" t="s">
-        <v>381</v>
-      </c>
-      <c r="FD8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FG8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FI8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP8" t="s">
-        <v>381</v>
-      </c>
-      <c r="FS8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT8" t="s">
-        <v>381</v>
-      </c>
-      <c r="FU8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY8" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GF8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GH8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK8" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL8" t="s">
-        <v>451</v>
-      </c>
-      <c r="GM8" t="s">
-        <v>455</v>
+        <v>375</v>
+      </c>
+      <c r="I8" t="s">
+        <v>382</v>
+      </c>
+      <c r="J8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K8" t="s">
+        <v>382</v>
+      </c>
+      <c r="L8" t="s">
+        <v>382</v>
+      </c>
+      <c r="M8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N8" t="s">
+        <v>382</v>
+      </c>
+      <c r="O8" t="s">
+        <v>382</v>
+      </c>
+      <c r="P8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R8" t="s">
+        <v>382</v>
+      </c>
+      <c r="S8" t="s">
+        <v>382</v>
+      </c>
+      <c r="T8" t="s">
+        <v>382</v>
+      </c>
+      <c r="U8" t="s">
+        <v>382</v>
+      </c>
+      <c r="V8" t="s">
+        <v>382</v>
+      </c>
+      <c r="W8" t="s">
+        <v>382</v>
+      </c>
+      <c r="X8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>402</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>406</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>404</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>413</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>383</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>383</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>382</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC8" t="s">
+        <v>383</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>419</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>423</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>425</v>
       </c>
       <c r="SE8" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF8" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI8" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="SJ8" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="SK8" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4817,94 +4958,97 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" t="s">
-        <v>376</v>
-      </c>
-      <c r="F9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G9" t="s">
-        <v>378</v>
-      </c>
-      <c r="H9" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>420</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>421</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>381</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>381</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>425</v>
-      </c>
-      <c r="FQ9" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD9" t="s">
-        <v>469</v>
+        <v>374</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>382</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>383</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>437</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>441</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>444</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>448</v>
+      </c>
+      <c r="EX9" t="s">
+        <v>451</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>455</v>
       </c>
       <c r="SE9" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="SF9" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="SI9" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="SJ9" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="SK9" t="s">
-        <v>485</v>
-      </c>
-      <c r="SN9" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -4918,97 +5062,208 @@
         <v>371</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" t="s">
-        <v>376</v>
-      </c>
-      <c r="F10" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H10" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI10" t="s">
-        <v>420</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM10" t="s">
-        <v>422</v>
-      </c>
-      <c r="DN10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>426</v>
-      </c>
-      <c r="FQ10" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD10" t="s">
-        <v>469</v>
+        <v>374</v>
+      </c>
+      <c r="GN10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GO10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GP10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GR10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GS10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GT10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GV10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GX10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>382</v>
+      </c>
+      <c r="GZ10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HC10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HD10" t="s">
+        <v>467</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HF10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HG10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HH10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HI10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HJ10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HK10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HL10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HN10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HQ10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HR10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HS10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HT10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HU10" t="s">
+        <v>383</v>
+      </c>
+      <c r="HV10" t="s">
+        <v>470</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HX10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HY10" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ10" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IB10" t="s">
+        <v>382</v>
+      </c>
+      <c r="IC10" t="s">
+        <v>383</v>
+      </c>
+      <c r="ID10" t="s">
+        <v>382</v>
+      </c>
+      <c r="IE10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IF10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IG10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IH10" t="s">
+        <v>382</v>
+      </c>
+      <c r="IJ10" t="s">
+        <v>472</v>
+      </c>
+      <c r="IK10" t="s">
+        <v>382</v>
+      </c>
+      <c r="IL10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IM10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IN10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IO10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IP10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IQ10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IR10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IS10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IT10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IU10" t="s">
+        <v>382</v>
+      </c>
+      <c r="IV10" t="s">
+        <v>474</v>
+      </c>
+      <c r="JJ10" t="s">
+        <v>382</v>
+      </c>
+      <c r="ND10" t="s">
+        <v>474</v>
       </c>
       <c r="SE10" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="SF10" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="SI10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="SJ10" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="SK10" t="s">
-        <v>486</v>
-      </c>
-      <c r="SN10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:508">
@@ -5016,136 +5271,142 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
         <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="EZ11" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="FA11" t="s">
+        <v>382</v>
       </c>
       <c r="FB11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="FC11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="FD11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FE11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FF11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FG11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="FH11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="FI11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FJ11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FK11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FL11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FM11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FN11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FO11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FP11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="FS11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="FT11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="FU11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FV11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FW11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FX11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FY11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="FZ11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GA11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GB11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GC11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GD11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GE11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="GF11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GG11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GH11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GI11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GJ11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GK11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="GL11" t="s">
-        <v>452</v>
+        <v>459</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>463</v>
       </c>
       <c r="SE11" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF11" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI11" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="SJ11" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="SK11" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -5153,7 +5414,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
         <v>371</v>
@@ -5161,59 +5422,86 @@
       <c r="D12" t="s">
         <v>374</v>
       </c>
-      <c r="DZ12" t="s">
+      <c r="E12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" t="s">
         <v>380</v>
       </c>
-      <c r="EA12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EL12" t="s">
+      <c r="H12" t="s">
         <v>381</v>
       </c>
-      <c r="EM12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP12" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ12" t="s">
-        <v>431</v>
-      </c>
-      <c r="ER12" t="s">
-        <v>435</v>
-      </c>
-      <c r="ET12" t="s">
-        <v>438</v>
-      </c>
-      <c r="EX12" t="s">
-        <v>445</v>
-      </c>
-      <c r="EY12" t="s">
-        <v>449</v>
+      <c r="DG12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>428</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>383</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>383</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>432</v>
+      </c>
+      <c r="FQ12" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD12" t="s">
+        <v>477</v>
       </c>
       <c r="SE12" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="SF12" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="SI12" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="SJ12" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="SK12" t="s">
-        <v>488</v>
+        <v>497</v>
+      </c>
+      <c r="SN12" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:508">
@@ -5224,307 +5512,100 @@
         <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
-        <v>374</v>
-      </c>
-      <c r="I13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" t="s">
         <v>380</v>
       </c>
-      <c r="J13" t="s">
-        <v>380</v>
-      </c>
-      <c r="K13" t="s">
-        <v>380</v>
-      </c>
-      <c r="L13" t="s">
-        <v>380</v>
-      </c>
-      <c r="M13" t="s">
-        <v>380</v>
-      </c>
-      <c r="N13" t="s">
-        <v>380</v>
-      </c>
-      <c r="O13" t="s">
-        <v>380</v>
-      </c>
-      <c r="P13" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>380</v>
-      </c>
-      <c r="R13" t="s">
-        <v>380</v>
-      </c>
-      <c r="S13" t="s">
-        <v>380</v>
-      </c>
-      <c r="T13" t="s">
-        <v>380</v>
-      </c>
-      <c r="U13" t="s">
-        <v>380</v>
-      </c>
-      <c r="V13" t="s">
-        <v>380</v>
-      </c>
-      <c r="W13" t="s">
-        <v>380</v>
-      </c>
-      <c r="X13" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>390</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ13" t="s">
+      <c r="H13" t="s">
         <v>381</v>
       </c>
-      <c r="AR13" t="s">
-        <v>394</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>396</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>381</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>380</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>381</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>398</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>401</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>400</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>403</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>404</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>406</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>380</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>381</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>381</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>411</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CW13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CY13" t="s">
-        <v>380</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>380</v>
-      </c>
-      <c r="DA13" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>380</v>
-      </c>
-      <c r="DC13" t="s">
-        <v>380</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>413</v>
-      </c>
-      <c r="DE13" t="s">
-        <v>415</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>419</v>
+      <c r="DG13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>429</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>383</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>383</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>383</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>433</v>
+      </c>
+      <c r="FQ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD13" t="s">
+        <v>477</v>
       </c>
       <c r="SE13" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="SF13" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="SI13" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="SJ13" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="SK13" t="s">
-        <v>489</v>
+        <v>498</v>
+      </c>
+      <c r="SN13" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:508">
@@ -5532,102 +5613,135 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" t="s">
-        <v>377</v>
-      </c>
-      <c r="G14" t="s">
-        <v>378</v>
-      </c>
-      <c r="H14" t="s">
-        <v>379</v>
-      </c>
-      <c r="DG14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>381</v>
-      </c>
-      <c r="DI14" t="s">
-        <v>420</v>
-      </c>
-      <c r="DJ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DK14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>423</v>
-      </c>
-      <c r="DN14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP14" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV14" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW14" t="s">
-        <v>381</v>
-      </c>
-      <c r="DX14" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY14" t="s">
-        <v>427</v>
-      </c>
-      <c r="FQ14" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD14" t="s">
-        <v>469</v>
+        <v>375</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>383</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FG14" t="s">
+        <v>383</v>
+      </c>
+      <c r="FH14" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>383</v>
+      </c>
+      <c r="FS14" t="s">
+        <v>383</v>
+      </c>
+      <c r="FT14" t="s">
+        <v>383</v>
+      </c>
+      <c r="FU14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY14" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE14" t="s">
+        <v>383</v>
+      </c>
+      <c r="GF14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK14" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL14" t="s">
+        <v>460</v>
       </c>
       <c r="SE14" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="SF14" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="SI14" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="SJ14" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="SK14" t="s">
-        <v>490</v>
-      </c>
-      <c r="SN14" t="s">
         <v>499</v>
       </c>
     </row>
@@ -5636,229 +5750,67 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C15" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>375</v>
-      </c>
-      <c r="I15" t="s">
-        <v>380</v>
-      </c>
-      <c r="J15" t="s">
-        <v>380</v>
-      </c>
-      <c r="K15" t="s">
-        <v>380</v>
-      </c>
-      <c r="L15" t="s">
-        <v>380</v>
-      </c>
-      <c r="M15" t="s">
-        <v>380</v>
-      </c>
-      <c r="N15" t="s">
-        <v>380</v>
-      </c>
-      <c r="O15" t="s">
-        <v>380</v>
-      </c>
-      <c r="P15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>380</v>
-      </c>
-      <c r="R15" t="s">
-        <v>380</v>
-      </c>
-      <c r="S15" t="s">
-        <v>380</v>
-      </c>
-      <c r="T15" t="s">
-        <v>380</v>
-      </c>
-      <c r="U15" t="s">
-        <v>380</v>
-      </c>
-      <c r="V15" t="s">
-        <v>380</v>
-      </c>
-      <c r="W15" t="s">
-        <v>380</v>
-      </c>
-      <c r="X15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>381</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>391</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>395</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>402</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>400</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>403</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>404</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>405</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>380</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CQ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CR15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CS15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>381</v>
-      </c>
-      <c r="CU15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>380</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>381</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>380</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>380</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>381</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>380</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>414</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>415</v>
+        <v>376</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EL15" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>438</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>442</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>445</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>452</v>
+      </c>
+      <c r="EY15" t="s">
+        <v>456</v>
       </c>
       <c r="SE15" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF15" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI15" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="SJ15" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="SK15" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:508">
@@ -5866,148 +5818,310 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
-      </c>
-      <c r="DL16" t="s">
-        <v>380</v>
-      </c>
-      <c r="EZ16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FC16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FD16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF16" t="s">
-        <v>381</v>
-      </c>
-      <c r="FG16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH16" t="s">
-        <v>381</v>
-      </c>
-      <c r="FI16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FR16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FS16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FU16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY16" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GE16" t="s">
-        <v>381</v>
-      </c>
-      <c r="GF16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG16" t="s">
-        <v>381</v>
-      </c>
-      <c r="GH16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK16" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL16" t="s">
-        <v>453</v>
-      </c>
-      <c r="GM16" t="s">
-        <v>456</v>
+        <v>376</v>
+      </c>
+      <c r="I16" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" t="s">
+        <v>382</v>
+      </c>
+      <c r="K16" t="s">
+        <v>382</v>
+      </c>
+      <c r="L16" t="s">
+        <v>382</v>
+      </c>
+      <c r="M16" t="s">
+        <v>382</v>
+      </c>
+      <c r="N16" t="s">
+        <v>382</v>
+      </c>
+      <c r="O16" t="s">
+        <v>382</v>
+      </c>
+      <c r="P16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>382</v>
+      </c>
+      <c r="R16" t="s">
+        <v>382</v>
+      </c>
+      <c r="S16" t="s">
+        <v>382</v>
+      </c>
+      <c r="T16" t="s">
+        <v>382</v>
+      </c>
+      <c r="U16" t="s">
+        <v>382</v>
+      </c>
+      <c r="V16" t="s">
+        <v>382</v>
+      </c>
+      <c r="W16" t="s">
+        <v>382</v>
+      </c>
+      <c r="X16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>403</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>404</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>411</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>416</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>382</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>419</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>422</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>426</v>
       </c>
       <c r="SE16" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF16" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI16" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="SJ16" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="SK16" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:508">
@@ -6015,97 +6129,103 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
-      </c>
-      <c r="DZ17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" t="s">
         <v>380</v>
       </c>
-      <c r="EA17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EB17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EC17" t="s">
-        <v>380</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EE17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EF17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EG17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EH17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EI17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EJ17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EK17" t="s">
+      <c r="H17" t="s">
         <v>381</v>
       </c>
-      <c r="EL17" t="s">
-        <v>381</v>
-      </c>
-      <c r="EM17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EN17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EO17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EP17" t="s">
-        <v>380</v>
-      </c>
-      <c r="EQ17" t="s">
-        <v>432</v>
-      </c>
-      <c r="ER17" t="s">
-        <v>436</v>
-      </c>
-      <c r="ET17" t="s">
-        <v>439</v>
-      </c>
-      <c r="EV17" t="s">
-        <v>442</v>
-      </c>
-      <c r="EX17" t="s">
-        <v>446</v>
-      </c>
-      <c r="EY17" t="s">
-        <v>450</v>
+      <c r="DG17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>383</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>430</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>383</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>383</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>434</v>
+      </c>
+      <c r="FQ17" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD17" t="s">
+        <v>477</v>
       </c>
       <c r="SE17" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="SF17" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="SI17" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="SJ17" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="SK17" t="s">
-        <v>493</v>
+        <v>502</v>
+      </c>
+      <c r="SN17" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="1:508">
@@ -6113,148 +6233,229 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
-      </c>
-      <c r="DL18" t="s">
-        <v>380</v>
-      </c>
-      <c r="EZ18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FA18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FB18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FC18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FD18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FE18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FF18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FG18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FH18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FI18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FJ18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FK18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FL18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FM18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FN18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FO18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FP18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FR18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FS18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FT18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FU18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FV18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FW18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FX18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FY18" t="s">
-        <v>380</v>
-      </c>
-      <c r="FZ18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GA18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GB18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GC18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GD18" t="s">
-        <v>381</v>
-      </c>
-      <c r="GE18" t="s">
-        <v>381</v>
-      </c>
-      <c r="GF18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GG18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GH18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GI18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GJ18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GK18" t="s">
-        <v>380</v>
-      </c>
-      <c r="GL18" t="s">
-        <v>454</v>
-      </c>
-      <c r="GM18" t="s">
-        <v>457</v>
+        <v>377</v>
+      </c>
+      <c r="I18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J18" t="s">
+        <v>382</v>
+      </c>
+      <c r="K18" t="s">
+        <v>382</v>
+      </c>
+      <c r="L18" t="s">
+        <v>382</v>
+      </c>
+      <c r="M18" t="s">
+        <v>382</v>
+      </c>
+      <c r="N18" t="s">
+        <v>382</v>
+      </c>
+      <c r="O18" t="s">
+        <v>382</v>
+      </c>
+      <c r="P18" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>382</v>
+      </c>
+      <c r="R18" t="s">
+        <v>382</v>
+      </c>
+      <c r="S18" t="s">
+        <v>382</v>
+      </c>
+      <c r="T18" t="s">
+        <v>382</v>
+      </c>
+      <c r="U18" t="s">
+        <v>382</v>
+      </c>
+      <c r="V18" t="s">
+        <v>382</v>
+      </c>
+      <c r="W18" t="s">
+        <v>382</v>
+      </c>
+      <c r="X18" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>407</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>383</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>383</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>383</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>420</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>422</v>
       </c>
       <c r="SE18" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF18" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="SJ18" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="SK18" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:508">
@@ -6265,208 +6466,145 @@
         <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D19" t="s">
-        <v>375</v>
-      </c>
-      <c r="GN19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GO19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GP19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GQ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GR19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GS19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GT19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GU19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GV19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GW19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GX19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GY19" t="s">
-        <v>380</v>
-      </c>
-      <c r="GZ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HA19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HB19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HC19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HD19" t="s">
-        <v>460</v>
-      </c>
-      <c r="HE19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HF19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HG19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HH19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HI19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HJ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HK19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HL19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HM19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HN19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HO19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HP19" t="s">
-        <v>381</v>
-      </c>
-      <c r="HQ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HR19" t="s">
-        <v>381</v>
-      </c>
-      <c r="HS19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HT19" t="s">
-        <v>381</v>
-      </c>
-      <c r="HU19" t="s">
-        <v>381</v>
-      </c>
-      <c r="HW19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HX19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HY19" t="s">
-        <v>380</v>
-      </c>
-      <c r="HZ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IA19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IB19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IC19" t="s">
-        <v>380</v>
-      </c>
-      <c r="ID19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IE19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IF19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IG19" t="s">
-        <v>381</v>
-      </c>
-      <c r="IH19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IJ19" t="s">
-        <v>465</v>
-      </c>
-      <c r="IK19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IL19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IM19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IN19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IO19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IP19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IQ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IR19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IS19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IT19" t="s">
-        <v>381</v>
-      </c>
-      <c r="IU19" t="s">
-        <v>380</v>
-      </c>
-      <c r="IV19" t="s">
-        <v>465</v>
-      </c>
-      <c r="JJ19" t="s">
-        <v>380</v>
-      </c>
-      <c r="ND19" t="s">
-        <v>465</v>
+        <v>376</v>
+      </c>
+      <c r="DL19" t="s">
+        <v>382</v>
+      </c>
+      <c r="EZ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF19" t="s">
+        <v>383</v>
+      </c>
+      <c r="FG19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FH19" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FO19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FT19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY19" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE19" t="s">
+        <v>383</v>
+      </c>
+      <c r="GF19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG19" t="s">
+        <v>383</v>
+      </c>
+      <c r="GH19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK19" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL19" t="s">
+        <v>461</v>
+      </c>
+      <c r="GM19" t="s">
+        <v>464</v>
       </c>
       <c r="SE19" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SF19" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="SI19" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="SJ19" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="SK19" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:508">
@@ -6474,100 +6612,559 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" t="s">
+        <v>377</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>382</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EE20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EH20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EI20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>383</v>
+      </c>
+      <c r="EL20" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EP20" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>439</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>443</v>
+      </c>
+      <c r="ET20" t="s">
+        <v>446</v>
+      </c>
+      <c r="EV20" t="s">
+        <v>449</v>
+      </c>
+      <c r="EX20" t="s">
+        <v>453</v>
+      </c>
+      <c r="EY20" t="s">
+        <v>457</v>
+      </c>
+      <c r="SE20" t="s">
+        <v>479</v>
+      </c>
+      <c r="SF20" t="s">
+        <v>479</v>
+      </c>
+      <c r="SI20" t="s">
+        <v>486</v>
+      </c>
+      <c r="SJ20" t="s">
+        <v>486</v>
+      </c>
+      <c r="SK20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:508">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" t="s">
+        <v>377</v>
+      </c>
+      <c r="DL21" t="s">
+        <v>382</v>
+      </c>
+      <c r="EZ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FG21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FH21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FI21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FO21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FT21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY21" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD21" t="s">
+        <v>383</v>
+      </c>
+      <c r="GE21" t="s">
+        <v>383</v>
+      </c>
+      <c r="GF21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK21" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL21" t="s">
+        <v>462</v>
+      </c>
+      <c r="GM21" t="s">
+        <v>465</v>
+      </c>
+      <c r="SE21" t="s">
+        <v>479</v>
+      </c>
+      <c r="SF21" t="s">
+        <v>479</v>
+      </c>
+      <c r="SI21" t="s">
+        <v>482</v>
+      </c>
+      <c r="SJ21" t="s">
+        <v>482</v>
+      </c>
+      <c r="SK21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:508">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>369</v>
       </c>
-      <c r="C20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D20" t="s">
-        <v>375</v>
-      </c>
-      <c r="E20" t="s">
-        <v>376</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" t="s">
         <v>377</v>
       </c>
-      <c r="G20" t="s">
+      <c r="GN22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GO22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GP22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GR22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GS22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GT22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GV22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GW22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GX22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GY22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GZ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HA22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HC22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HD22" t="s">
+        <v>468</v>
+      </c>
+      <c r="HE22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HF22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HG22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HH22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HI22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HJ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HK22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HL22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HN22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP22" t="s">
+        <v>383</v>
+      </c>
+      <c r="HQ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HR22" t="s">
+        <v>383</v>
+      </c>
+      <c r="HS22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HT22" t="s">
+        <v>383</v>
+      </c>
+      <c r="HU22" t="s">
+        <v>383</v>
+      </c>
+      <c r="HW22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HX22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HY22" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IB22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IC22" t="s">
+        <v>382</v>
+      </c>
+      <c r="ID22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IE22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IF22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IG22" t="s">
+        <v>383</v>
+      </c>
+      <c r="IH22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IJ22" t="s">
+        <v>473</v>
+      </c>
+      <c r="IK22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IL22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IM22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IN22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IO22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IP22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IQ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IR22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IS22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IT22" t="s">
+        <v>383</v>
+      </c>
+      <c r="IU22" t="s">
+        <v>382</v>
+      </c>
+      <c r="IV22" t="s">
+        <v>473</v>
+      </c>
+      <c r="JJ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="ND22" t="s">
+        <v>473</v>
+      </c>
+      <c r="SE22" t="s">
+        <v>479</v>
+      </c>
+      <c r="SF22" t="s">
+        <v>479</v>
+      </c>
+      <c r="SI22" t="s">
+        <v>482</v>
+      </c>
+      <c r="SJ22" t="s">
+        <v>482</v>
+      </c>
+      <c r="SK22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:508">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" t="s">
+        <v>377</v>
+      </c>
+      <c r="E23" t="s">
         <v>378</v>
       </c>
-      <c r="H20" t="s">
+      <c r="F23" t="s">
         <v>379</v>
       </c>
-      <c r="DG20" t="s">
+      <c r="G23" t="s">
         <v>380</v>
       </c>
-      <c r="DH20" t="s">
-        <v>380</v>
-      </c>
-      <c r="DI20" t="s">
-        <v>420</v>
-      </c>
-      <c r="DJ20" t="s">
+      <c r="H23" t="s">
         <v>381</v>
       </c>
-      <c r="DK20" t="s">
-        <v>380</v>
-      </c>
-      <c r="DM20" t="s">
-        <v>424</v>
-      </c>
-      <c r="DN20" t="s">
-        <v>381</v>
-      </c>
-      <c r="DO20" t="s">
-        <v>381</v>
-      </c>
-      <c r="DP20" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ20" t="s">
-        <v>380</v>
-      </c>
-      <c r="DR20" t="s">
-        <v>381</v>
-      </c>
-      <c r="DS20" t="s">
-        <v>381</v>
-      </c>
-      <c r="DT20" t="s">
-        <v>380</v>
-      </c>
-      <c r="DU20" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV20" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW20" t="s">
-        <v>381</v>
-      </c>
-      <c r="DY20" t="s">
-        <v>428</v>
-      </c>
-      <c r="FQ20" t="s">
-        <v>380</v>
-      </c>
-      <c r="SD20" t="s">
-        <v>469</v>
-      </c>
-      <c r="SE20" t="s">
-        <v>471</v>
-      </c>
-      <c r="SF20" t="s">
-        <v>472</v>
-      </c>
-      <c r="SI20" t="s">
-        <v>476</v>
-      </c>
-      <c r="SJ20" t="s">
-        <v>476</v>
-      </c>
-      <c r="SK20" t="s">
-        <v>496</v>
-      </c>
-      <c r="SN20" t="s">
-        <v>500</v>
+      <c r="DG23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI23" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DK23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>431</v>
+      </c>
+      <c r="DN23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DP23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>435</v>
+      </c>
+      <c r="FQ23" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD23" t="s">
+        <v>477</v>
+      </c>
+      <c r="SE23" t="s">
+        <v>478</v>
+      </c>
+      <c r="SF23" t="s">
+        <v>480</v>
+      </c>
+      <c r="SI23" t="s">
+        <v>485</v>
+      </c>
+      <c r="SJ23" t="s">
+        <v>485</v>
+      </c>
+      <c r="SK23" t="s">
+        <v>508</v>
+      </c>
+      <c r="SN23" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="530">
   <si>
     <t>section</t>
   </si>
@@ -1111,6 +1111,12 @@
     <t>month_year_repeat_group</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -1118,12 +1124,6 @@
   </si>
   <si>
     <t>d</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
   </si>
   <si>
     <t>HURUNGWE</t>
@@ -1337,6 +1337,9 @@
   </si>
   <si>
     <t>Facility not using EHR</t>
+  </si>
+  <si>
+    <t>very good schools programme, ASRH content fit for both boys and girls. well done. Site needs IEC materials.For men above 25, we use the spouses or village heads and village health workers . we hold monthly meetings with them. soccer and pool tournaments.</t>
   </si>
   <si>
     <t>The site does not have active and consistent mobilises as they mainly
@@ -1359,18 +1362,21 @@
 Work plan was not found at Dombotombo outreach site but at static site it is present.</t>
   </si>
   <si>
+    <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
+  </si>
+  <si>
     <t>Artisanal_Miners Men_who_go_to_work Remote_Communities</t>
   </si>
   <si>
     <t>Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
   </si>
   <si>
-    <t>Artisanal_Miners Men_who_go_to_work Other_highly_mobile_men Remote_Communities</t>
-  </si>
-  <si>
     <t>Men_who_go_to_work Remote_Communities</t>
   </si>
   <si>
+    <t>Health_Promotional_Officer Community_Nursing Environmental_Health_Technicians DAC Other_Health_Programmers</t>
+  </si>
+  <si>
     <t>Environmental_Health_Technicians Other_Health_Programmers</t>
   </si>
   <si>
@@ -1387,6 +1393,9 @@
   </si>
   <si>
     <t>Chiefs Headmen Councilors</t>
+  </si>
+  <si>
+    <t>Calling for support from other clinic departments and professionals, eg. getting a long serving nurse in uniform who is popular in the area to speak to resistant communities because they trust him. Identify influential people in the locality to lead planning of engagements on behalf of the program.</t>
   </si>
   <si>
     <t>Yes. Studio outreach initiative.</t>
@@ -1400,6 +1409,9 @@
   </si>
   <si>
     <t>Yes chain champion DC in the Marondera rank with use of promo material as the motivator for the champions. This was discovered during the recent tandem review.</t>
+  </si>
+  <si>
+    <t>There is evidence of good work going on. Very good DC session observed. Site generally</t>
   </si>
   <si>
     <t>Train and involve EHTs. Active engagement of other strategic partners in the district. Sustain the practice of catering for busy working men during weekends.</t>
@@ -1450,6 +1462,12 @@
     <t>All available</t>
   </si>
   <si>
+    <t>group was mostly made up of school boys making female condom demo highly optional</t>
+  </si>
+  <si>
+    <t>well done, but pace of speech could have been a bit slower. female condom not necessary for age range</t>
+  </si>
+  <si>
     <t>Key messages not well articulated.</t>
   </si>
   <si>
@@ -1457,6 +1475,12 @@
   </si>
   <si>
     <t>complete and engaging. Clients showed learning tool place.</t>
+  </si>
+  <si>
+    <t>client was 21yrs old and sexually active, female condom was necessary here</t>
+  </si>
+  <si>
+    <t>session flow was excellent, well done</t>
   </si>
   <si>
     <t>Counselling  room allows for disturbances. Room  used for other activities</t>
@@ -1464,6 +1488,12 @@
   <si>
     <t>condom demonstration again missed in this session, little or no probing into client's understanding and any issues that may be individual and peculiar to clients 
 - highly recomend refresher on client counselling.</t>
+  </si>
+  <si>
+    <t>well done. thorough coverage</t>
+  </si>
+  <si>
+    <t>counselor was quite thorough</t>
   </si>
   <si>
     <t>Risk assessment  missed as well as other HIV prevention strategies 
@@ -1477,6 +1507,12 @@
     <t>clear</t>
   </si>
   <si>
+    <t>excellent session</t>
+  </si>
+  <si>
+    <t>very good session</t>
+  </si>
+  <si>
     <t>-Highly recommend refresher on client counselling</t>
   </si>
   <si>
@@ -1489,15 +1525,18 @@
     <t>8</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>lmasimba</t>
+  </si>
+  <si>
     <t>vmuseza</t>
   </si>
   <si>
@@ -1514,6 +1553,15 @@
   </si>
   <si>
     <t>tmunyaradzi</t>
+  </si>
+  <si>
+    <t>2025-07-01T18:32:36.306859Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T18:32:35.680196Z</t>
+  </si>
+  <si>
+    <t>2025-07-01T18:32:35.197130Z</t>
   </si>
   <si>
     <t>2025-07-01T17:26:58.658772Z</t>
@@ -1952,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN23"/>
+  <dimension ref="A1:SN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3494,89 +3542,206 @@
       <c r="D2" t="s">
         <v>373</v>
       </c>
-      <c r="E2" t="s">
-        <v>378</v>
-      </c>
-      <c r="F2" t="s">
-        <v>379</v>
-      </c>
-      <c r="G2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H2" t="s">
-        <v>381</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>427</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>383</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>383</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>382</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>383</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>382</v>
-      </c>
-      <c r="SD2" t="s">
-        <v>477</v>
+      <c r="GN2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GV2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>382</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>383</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>470</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>383</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>475</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IC2" t="s">
+        <v>382</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IG2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>479</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IU2" t="s">
+        <v>382</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>484</v>
+      </c>
+      <c r="JJ2" t="s">
+        <v>382</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>484</v>
       </c>
       <c r="SE2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="SF2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="SI2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="SJ2" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="SK2" t="s">
-        <v>487</v>
-      </c>
-      <c r="SN2" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3592,305 +3757,89 @@
       <c r="D3" t="s">
         <v>373</v>
       </c>
-      <c r="I3" t="s">
-        <v>382</v>
-      </c>
-      <c r="J3" t="s">
-        <v>382</v>
-      </c>
-      <c r="K3" t="s">
-        <v>382</v>
-      </c>
-      <c r="L3" t="s">
-        <v>382</v>
-      </c>
-      <c r="M3" t="s">
-        <v>382</v>
-      </c>
-      <c r="N3" t="s">
-        <v>382</v>
-      </c>
-      <c r="O3" t="s">
-        <v>382</v>
-      </c>
-      <c r="P3" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>382</v>
-      </c>
-      <c r="R3" t="s">
-        <v>382</v>
-      </c>
-      <c r="S3" t="s">
-        <v>382</v>
-      </c>
-      <c r="T3" t="s">
-        <v>382</v>
-      </c>
-      <c r="U3" t="s">
-        <v>382</v>
-      </c>
-      <c r="V3" t="s">
-        <v>382</v>
-      </c>
-      <c r="W3" t="s">
-        <v>382</v>
-      </c>
-      <c r="X3" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>384</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>393</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>396</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>401</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>404</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>405</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>408</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>409</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>410</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>382</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>382</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>383</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>382</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>382</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>382</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>382</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>417</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>421</v>
+      <c r="DZ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>382</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>383</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>436</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>441</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>445</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>449</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>452</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>457</v>
       </c>
       <c r="SE3" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF3" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI3" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="SJ3" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="SK3" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3898,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
         <v>370</v>
@@ -3906,137 +3855,311 @@
       <c r="D4" t="s">
         <v>373</v>
       </c>
-      <c r="DL4" t="s">
-        <v>382</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>383</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>383</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>383</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>383</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>382</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>382</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>458</v>
+      <c r="GN4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GP4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GR4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GT4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GV4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>382</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>471</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>383</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>476</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IC4" t="s">
+        <v>382</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IG4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>382</v>
+      </c>
+      <c r="II4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>480</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IQ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IU4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>485</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IY4" t="s">
+        <v>382</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JA4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JD4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JG4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JH4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JI4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JJ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JK4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JL4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JM4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JN4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>383</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>383</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>382</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>382</v>
+      </c>
+      <c r="KB4" t="s">
+        <v>382</v>
+      </c>
+      <c r="KD4" t="s">
+        <v>382</v>
+      </c>
+      <c r="KF4" t="s">
+        <v>382</v>
+      </c>
+      <c r="KH4" t="s">
+        <v>382</v>
+      </c>
+      <c r="ND4" t="s">
+        <v>485</v>
+      </c>
+      <c r="OA4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OC4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OE4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OG4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OI4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OK4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OM4" t="s">
+        <v>382</v>
+      </c>
+      <c r="OO4" t="s">
+        <v>382</v>
       </c>
       <c r="SE4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF4" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI4" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="SJ4" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="SK4" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -4044,310 +4167,97 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I5" t="s">
-        <v>382</v>
-      </c>
-      <c r="J5" t="s">
-        <v>382</v>
-      </c>
-      <c r="K5" t="s">
-        <v>382</v>
-      </c>
-      <c r="L5" t="s">
-        <v>382</v>
-      </c>
-      <c r="M5" t="s">
-        <v>382</v>
-      </c>
-      <c r="N5" t="s">
-        <v>382</v>
-      </c>
-      <c r="O5" t="s">
-        <v>382</v>
-      </c>
-      <c r="P5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>383</v>
-      </c>
-      <c r="R5" t="s">
-        <v>382</v>
-      </c>
-      <c r="S5" t="s">
-        <v>382</v>
-      </c>
-      <c r="T5" t="s">
-        <v>382</v>
-      </c>
-      <c r="U5" t="s">
-        <v>382</v>
-      </c>
-      <c r="V5" t="s">
-        <v>382</v>
-      </c>
-      <c r="W5" t="s">
-        <v>382</v>
-      </c>
-      <c r="X5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>385</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>390</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>394</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>383</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>401</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>405</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>405</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>410</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>412</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>382</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>383</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>414</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>382</v>
-      </c>
-      <c r="CU5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>383</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>382</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>382</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>382</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>382</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>418</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>422</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>424</v>
+        <v>373</v>
+      </c>
+      <c r="E5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>382</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>383</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD5" t="s">
+        <v>489</v>
       </c>
       <c r="SE5" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="SF5" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="SI5" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="SJ5" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="SK5" t="s">
-        <v>490</v>
+        <v>503</v>
+      </c>
+      <c r="SN5" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -4358,67 +4268,310 @@
         <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>375</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>383</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EN6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>382</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>436</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>440</v>
-      </c>
-      <c r="ET6" t="s">
-        <v>444</v>
-      </c>
-      <c r="EV6" t="s">
-        <v>447</v>
-      </c>
-      <c r="EX6" t="s">
-        <v>450</v>
-      </c>
-      <c r="EY6" t="s">
-        <v>454</v>
+        <v>373</v>
+      </c>
+      <c r="I6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" t="s">
+        <v>382</v>
+      </c>
+      <c r="K6" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" t="s">
+        <v>382</v>
+      </c>
+      <c r="M6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N6" t="s">
+        <v>382</v>
+      </c>
+      <c r="O6" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>382</v>
+      </c>
+      <c r="R6" t="s">
+        <v>382</v>
+      </c>
+      <c r="S6" t="s">
+        <v>382</v>
+      </c>
+      <c r="T6" t="s">
+        <v>382</v>
+      </c>
+      <c r="U6" t="s">
+        <v>382</v>
+      </c>
+      <c r="V6" t="s">
+        <v>382</v>
+      </c>
+      <c r="W6" t="s">
+        <v>382</v>
+      </c>
+      <c r="X6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>383</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>404</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>405</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>417</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>421</v>
       </c>
       <c r="SE6" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF6" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI6" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="SJ6" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="SK6" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4429,223 +4582,142 @@
         <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>375</v>
-      </c>
-      <c r="GN7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GO7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GP7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GQ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GR7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GT7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GU7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GV7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GX7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>382</v>
-      </c>
-      <c r="GZ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HA7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HB7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HC7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HD7" t="s">
-        <v>466</v>
-      </c>
-      <c r="HE7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HF7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HG7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HH7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HI7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HJ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HK7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HL7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HM7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HN7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HO7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HP7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HQ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HR7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HS7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HT7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HU7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HV7" t="s">
-        <v>469</v>
-      </c>
-      <c r="HW7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HX7" t="s">
-        <v>382</v>
-      </c>
-      <c r="HY7" t="s">
-        <v>383</v>
-      </c>
-      <c r="HZ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IA7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IB7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IC7" t="s">
-        <v>382</v>
-      </c>
-      <c r="ID7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IE7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IF7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IG7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IH7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IJ7" t="s">
-        <v>471</v>
-      </c>
-      <c r="IK7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IL7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IM7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IN7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IO7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IP7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IQ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IR7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IS7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IT7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IU7" t="s">
-        <v>382</v>
-      </c>
-      <c r="IW7" t="s">
-        <v>475</v>
-      </c>
-      <c r="IX7" t="s">
-        <v>383</v>
-      </c>
-      <c r="IY7" t="s">
-        <v>383</v>
-      </c>
-      <c r="JJ7" t="s">
-        <v>382</v>
-      </c>
-      <c r="NE7" t="s">
-        <v>475</v>
-      </c>
-      <c r="NH7" t="s">
-        <v>382</v>
-      </c>
-      <c r="SC7" t="s">
-        <v>476</v>
+        <v>373</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>382</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>383</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>383</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>383</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>462</v>
       </c>
       <c r="SE7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="SJ7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="SK7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4653,13 +4725,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I8" t="s">
         <v>382</v>
@@ -4686,7 +4758,7 @@
         <v>382</v>
       </c>
       <c r="Q8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R8" t="s">
         <v>382</v>
@@ -4725,13 +4797,25 @@
         <v>382</v>
       </c>
       <c r="AD8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE8" t="s">
         <v>382</v>
       </c>
+      <c r="AG8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>382</v>
+      </c>
       <c r="AK8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM8" t="s">
         <v>394</v>
@@ -4749,7 +4833,7 @@
         <v>383</v>
       </c>
       <c r="AR8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AS8" t="s">
         <v>382</v>
@@ -4760,8 +4844,8 @@
       <c r="AU8" t="s">
         <v>401</v>
       </c>
-      <c r="AW8" t="s">
-        <v>383</v>
+      <c r="AV8" t="s">
+        <v>382</v>
       </c>
       <c r="AX8" t="s">
         <v>382</v>
@@ -4775,15 +4859,15 @@
       <c r="BA8" t="s">
         <v>382</v>
       </c>
+      <c r="BB8" t="s">
+        <v>383</v>
+      </c>
       <c r="BC8" t="s">
         <v>383</v>
       </c>
       <c r="BD8" t="s">
         <v>382</v>
       </c>
-      <c r="BE8" t="s">
-        <v>402</v>
-      </c>
       <c r="BF8" t="s">
         <v>382</v>
       </c>
@@ -4791,10 +4875,10 @@
         <v>382</v>
       </c>
       <c r="BH8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BI8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BJ8" t="s">
         <v>382</v>
@@ -4824,7 +4908,7 @@
         <v>382</v>
       </c>
       <c r="BU8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BV8" t="s">
         <v>382</v>
@@ -4844,11 +4928,8 @@
       <c r="CA8" t="s">
         <v>382</v>
       </c>
-      <c r="CB8" t="s">
-        <v>383</v>
-      </c>
       <c r="CC8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CD8" t="s">
         <v>382</v>
@@ -4860,7 +4941,7 @@
         <v>383</v>
       </c>
       <c r="CG8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CH8" t="s">
         <v>383</v>
@@ -4872,13 +4953,13 @@
         <v>383</v>
       </c>
       <c r="CK8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="CL8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CM8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CN8" t="s">
         <v>382</v>
@@ -4893,7 +4974,7 @@
         <v>382</v>
       </c>
       <c r="CR8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CS8" t="s">
         <v>382</v>
@@ -4902,19 +4983,16 @@
         <v>382</v>
       </c>
       <c r="CU8" t="s">
-        <v>382</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CW8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CX8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CY8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CZ8" t="s">
         <v>382</v>
@@ -4926,31 +5004,31 @@
         <v>382</v>
       </c>
       <c r="DC8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="DD8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DE8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="DF8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="SE8" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF8" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI8" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="SJ8" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="SK8" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4958,52 +5036,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="DZ9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="EA9" t="s">
         <v>382</v>
       </c>
-      <c r="EB9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>382</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EF9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EI9" t="s">
-        <v>382</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>382</v>
-      </c>
       <c r="EK9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="EL9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="EM9" t="s">
         <v>382</v>
@@ -5021,34 +5072,34 @@
         <v>437</v>
       </c>
       <c r="ER9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="ET9" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="EV9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="EX9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="EY9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="SE9" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF9" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI9" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="SJ9" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="SK9" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -5056,13 +5107,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="GN10" t="s">
         <v>382</v>
@@ -5107,13 +5158,13 @@
         <v>382</v>
       </c>
       <c r="HB10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="HC10" t="s">
         <v>383</v>
       </c>
       <c r="HD10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="HE10" t="s">
         <v>382</v>
@@ -5134,7 +5185,7 @@
         <v>382</v>
       </c>
       <c r="HK10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="HL10" t="s">
         <v>382</v>
@@ -5143,19 +5194,19 @@
         <v>382</v>
       </c>
       <c r="HN10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="HO10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="HP10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="HQ10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="HR10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="HS10" t="s">
         <v>382</v>
@@ -5167,7 +5218,7 @@
         <v>383</v>
       </c>
       <c r="HV10" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="HW10" t="s">
         <v>382</v>
@@ -5176,94 +5227,106 @@
         <v>382</v>
       </c>
       <c r="HY10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="HZ10" t="s">
         <v>382</v>
       </c>
       <c r="IA10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IB10" t="s">
         <v>382</v>
       </c>
       <c r="IC10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="ID10" t="s">
         <v>382</v>
       </c>
       <c r="IE10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IF10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IG10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IH10" t="s">
         <v>382</v>
       </c>
       <c r="IJ10" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="IK10" t="s">
         <v>382</v>
       </c>
       <c r="IL10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IM10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IN10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IO10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IP10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IQ10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IR10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IS10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IT10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="IU10" t="s">
         <v>382</v>
       </c>
-      <c r="IV10" t="s">
-        <v>474</v>
+      <c r="IW10" t="s">
+        <v>487</v>
+      </c>
+      <c r="IX10" t="s">
+        <v>383</v>
+      </c>
+      <c r="IY10" t="s">
+        <v>383</v>
       </c>
       <c r="JJ10" t="s">
         <v>382</v>
       </c>
-      <c r="ND10" t="s">
-        <v>474</v>
+      <c r="NE10" t="s">
+        <v>487</v>
+      </c>
+      <c r="NH10" t="s">
+        <v>382</v>
+      </c>
+      <c r="SC10" t="s">
+        <v>488</v>
       </c>
       <c r="SE10" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF10" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI10" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="SJ10" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="SK10" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:508">
@@ -5271,142 +5334,304 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
-      </c>
-      <c r="EZ11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FA11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FB11" t="s">
-        <v>383</v>
-      </c>
-      <c r="FC11" t="s">
-        <v>383</v>
-      </c>
-      <c r="FD11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FE11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FF11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FG11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FH11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FI11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FJ11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FK11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FM11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FN11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FO11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FP11" t="s">
-        <v>383</v>
-      </c>
-      <c r="FS11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FT11" t="s">
-        <v>383</v>
-      </c>
-      <c r="FU11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FV11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FW11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FX11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FY11" t="s">
-        <v>382</v>
-      </c>
-      <c r="FZ11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GA11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GB11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GC11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GD11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GE11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GF11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GG11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GH11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GI11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GJ11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GK11" t="s">
-        <v>382</v>
-      </c>
-      <c r="GL11" t="s">
-        <v>459</v>
-      </c>
-      <c r="GM11" t="s">
-        <v>463</v>
+        <v>375</v>
+      </c>
+      <c r="I11" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11" t="s">
+        <v>382</v>
+      </c>
+      <c r="K11" t="s">
+        <v>382</v>
+      </c>
+      <c r="L11" t="s">
+        <v>382</v>
+      </c>
+      <c r="M11" t="s">
+        <v>382</v>
+      </c>
+      <c r="N11" t="s">
+        <v>382</v>
+      </c>
+      <c r="O11" t="s">
+        <v>382</v>
+      </c>
+      <c r="P11" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>382</v>
+      </c>
+      <c r="R11" t="s">
+        <v>382</v>
+      </c>
+      <c r="S11" t="s">
+        <v>382</v>
+      </c>
+      <c r="T11" t="s">
+        <v>382</v>
+      </c>
+      <c r="U11" t="s">
+        <v>382</v>
+      </c>
+      <c r="V11" t="s">
+        <v>382</v>
+      </c>
+      <c r="W11" t="s">
+        <v>382</v>
+      </c>
+      <c r="X11" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>398</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>402</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>406</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>404</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>413</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>383</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>383</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>415</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>382</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>383</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>419</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>423</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>425</v>
       </c>
       <c r="SE11" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF11" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI11" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="SJ11" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="SK11" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -5414,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C12" t="s">
         <v>371</v>
@@ -5422,85 +5647,88 @@
       <c r="D12" t="s">
         <v>374</v>
       </c>
-      <c r="E12" t="s">
-        <v>378</v>
-      </c>
-      <c r="F12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G12" t="s">
-        <v>380</v>
-      </c>
-      <c r="H12" t="s">
-        <v>381</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>427</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DK12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>428</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>383</v>
-      </c>
-      <c r="DR12" t="s">
-        <v>383</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>383</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>382</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>383</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>432</v>
-      </c>
-      <c r="FQ12" t="s">
-        <v>382</v>
-      </c>
-      <c r="SD12" t="s">
-        <v>477</v>
+      <c r="DZ12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>382</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>383</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>438</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>443</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>446</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>450</v>
+      </c>
+      <c r="EX12" t="s">
+        <v>454</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>459</v>
       </c>
       <c r="SE12" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="SF12" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="SI12" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="SJ12" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="SK12" t="s">
-        <v>497</v>
-      </c>
-      <c r="SN12" t="s">
         <v>510</v>
       </c>
     </row>
@@ -5512,99 +5740,210 @@
         <v>365</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E13" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13" t="s">
-        <v>380</v>
-      </c>
-      <c r="H13" t="s">
-        <v>381</v>
-      </c>
-      <c r="DG13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DI13" t="s">
-        <v>427</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DK13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>429</v>
-      </c>
-      <c r="DN13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DO13" t="s">
-        <v>383</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>383</v>
-      </c>
-      <c r="DQ13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DR13" t="s">
-        <v>383</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DT13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DU13" t="s">
-        <v>382</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>383</v>
-      </c>
-      <c r="DW13" t="s">
-        <v>383</v>
-      </c>
-      <c r="DX13" t="s">
-        <v>383</v>
-      </c>
-      <c r="DY13" t="s">
-        <v>433</v>
-      </c>
-      <c r="FQ13" t="s">
-        <v>382</v>
-      </c>
-      <c r="SD13" t="s">
-        <v>477</v>
+        <v>374</v>
+      </c>
+      <c r="GN13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GO13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GP13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GR13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GS13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GT13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GV13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GW13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GX13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GY13" t="s">
+        <v>382</v>
+      </c>
+      <c r="GZ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HA13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HC13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HD13" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HF13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HG13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HH13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HI13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HJ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HK13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HL13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HN13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HQ13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HR13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HS13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HT13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HU13" t="s">
+        <v>383</v>
+      </c>
+      <c r="HV13" t="s">
+        <v>478</v>
+      </c>
+      <c r="HW13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HX13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HY13" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IB13" t="s">
+        <v>382</v>
+      </c>
+      <c r="IC13" t="s">
+        <v>383</v>
+      </c>
+      <c r="ID13" t="s">
+        <v>382</v>
+      </c>
+      <c r="IE13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IF13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IG13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IH13" t="s">
+        <v>382</v>
+      </c>
+      <c r="IJ13" t="s">
+        <v>482</v>
+      </c>
+      <c r="IK13" t="s">
+        <v>382</v>
+      </c>
+      <c r="IL13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IM13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IN13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IO13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IP13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IQ13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IR13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IS13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IT13" t="s">
+        <v>383</v>
+      </c>
+      <c r="IU13" t="s">
+        <v>382</v>
+      </c>
+      <c r="IV13" t="s">
+        <v>486</v>
+      </c>
+      <c r="JJ13" t="s">
+        <v>382</v>
+      </c>
+      <c r="ND13" t="s">
+        <v>486</v>
       </c>
       <c r="SE13" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="SF13" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="SI13" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="SJ13" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="SK13" t="s">
-        <v>498</v>
-      </c>
-      <c r="SN13" t="s">
         <v>511</v>
       </c>
     </row>
@@ -5613,22 +5952,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="EZ14" t="s">
-        <v>383</v>
+        <v>382</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>382</v>
       </c>
       <c r="FB14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="FC14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="FD14" t="s">
         <v>382</v>
@@ -5640,10 +5982,10 @@
         <v>382</v>
       </c>
       <c r="FG14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="FH14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="FI14" t="s">
         <v>382</v>
@@ -5670,7 +6012,7 @@
         <v>383</v>
       </c>
       <c r="FS14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="FT14" t="s">
         <v>383</v>
@@ -5706,7 +6048,7 @@
         <v>382</v>
       </c>
       <c r="GE14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="GF14" t="s">
         <v>382</v>
@@ -5727,22 +6069,25 @@
         <v>382</v>
       </c>
       <c r="GL14" t="s">
-        <v>460</v>
+        <v>463</v>
+      </c>
+      <c r="GM14" t="s">
+        <v>467</v>
       </c>
       <c r="SE14" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF14" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI14" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="SJ14" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="SK14" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:508">
@@ -5750,67 +6095,94 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>376</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EL15" t="s">
-        <v>383</v>
-      </c>
-      <c r="EM15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EO15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>382</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>438</v>
-      </c>
-      <c r="ER15" t="s">
-        <v>442</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>445</v>
-      </c>
-      <c r="EX15" t="s">
-        <v>452</v>
-      </c>
-      <c r="EY15" t="s">
-        <v>456</v>
+        <v>374</v>
+      </c>
+      <c r="E15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" t="s">
+        <v>379</v>
+      </c>
+      <c r="G15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H15" t="s">
+        <v>381</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>428</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>383</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>383</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>432</v>
+      </c>
+      <c r="FQ15" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD15" t="s">
+        <v>489</v>
       </c>
       <c r="SE15" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="SF15" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="SI15" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="SJ15" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="SK15" t="s">
-        <v>500</v>
+        <v>513</v>
+      </c>
+      <c r="SN15" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:508">
@@ -5818,310 +6190,103 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C16" t="s">
         <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
-      </c>
-      <c r="I16" t="s">
-        <v>382</v>
-      </c>
-      <c r="J16" t="s">
-        <v>382</v>
-      </c>
-      <c r="K16" t="s">
-        <v>382</v>
-      </c>
-      <c r="L16" t="s">
-        <v>382</v>
-      </c>
-      <c r="M16" t="s">
-        <v>382</v>
-      </c>
-      <c r="N16" t="s">
-        <v>382</v>
-      </c>
-      <c r="O16" t="s">
-        <v>382</v>
-      </c>
-      <c r="P16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>382</v>
-      </c>
-      <c r="R16" t="s">
-        <v>382</v>
-      </c>
-      <c r="S16" t="s">
-        <v>382</v>
-      </c>
-      <c r="T16" t="s">
-        <v>382</v>
-      </c>
-      <c r="U16" t="s">
-        <v>382</v>
-      </c>
-      <c r="V16" t="s">
-        <v>382</v>
-      </c>
-      <c r="W16" t="s">
-        <v>382</v>
-      </c>
-      <c r="X16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>391</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>394</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>383</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>401</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>383</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>403</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>404</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>406</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>408</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>409</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>411</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>382</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>383</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>383</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>416</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>382</v>
-      </c>
-      <c r="CZ16" t="s">
-        <v>382</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>382</v>
-      </c>
-      <c r="DB16" t="s">
-        <v>382</v>
-      </c>
-      <c r="DC16" t="s">
-        <v>382</v>
-      </c>
-      <c r="DD16" t="s">
-        <v>419</v>
-      </c>
-      <c r="DE16" t="s">
-        <v>422</v>
-      </c>
-      <c r="DF16" t="s">
-        <v>426</v>
+        <v>375</v>
+      </c>
+      <c r="E16" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" t="s">
+        <v>381</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>429</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>383</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>383</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>383</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>433</v>
+      </c>
+      <c r="FQ16" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD16" t="s">
+        <v>489</v>
       </c>
       <c r="SE16" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="SF16" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="SI16" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="SJ16" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="SK16" t="s">
-        <v>501</v>
+        <v>514</v>
+      </c>
+      <c r="SN16" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:508">
@@ -6129,103 +6294,136 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C17" t="s">
         <v>372</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
-      </c>
-      <c r="E17" t="s">
-        <v>378</v>
-      </c>
-      <c r="F17" t="s">
-        <v>379</v>
-      </c>
-      <c r="G17" t="s">
-        <v>380</v>
-      </c>
-      <c r="H17" t="s">
-        <v>381</v>
-      </c>
-      <c r="DG17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DH17" t="s">
-        <v>383</v>
-      </c>
-      <c r="DI17" t="s">
-        <v>427</v>
-      </c>
-      <c r="DJ17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DK17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DM17" t="s">
-        <v>430</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DO17" t="s">
-        <v>383</v>
-      </c>
-      <c r="DP17" t="s">
-        <v>383</v>
-      </c>
-      <c r="DQ17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DR17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DS17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DT17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DU17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DV17" t="s">
-        <v>382</v>
-      </c>
-      <c r="DW17" t="s">
-        <v>383</v>
-      </c>
-      <c r="DX17" t="s">
-        <v>383</v>
-      </c>
-      <c r="DY17" t="s">
-        <v>434</v>
-      </c>
-      <c r="FQ17" t="s">
-        <v>382</v>
-      </c>
-      <c r="SD17" t="s">
-        <v>477</v>
+        <v>375</v>
+      </c>
+      <c r="EZ17" t="s">
+        <v>383</v>
+      </c>
+      <c r="FB17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FG17" t="s">
+        <v>383</v>
+      </c>
+      <c r="FH17" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FO17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP17" t="s">
+        <v>383</v>
+      </c>
+      <c r="FS17" t="s">
+        <v>383</v>
+      </c>
+      <c r="FT17" t="s">
+        <v>383</v>
+      </c>
+      <c r="FU17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY17" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE17" t="s">
+        <v>383</v>
+      </c>
+      <c r="GF17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK17" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL17" t="s">
+        <v>464</v>
       </c>
       <c r="SE17" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="SF17" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="SI17" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="SJ17" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="SK17" t="s">
-        <v>502</v>
-      </c>
-      <c r="SN17" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:508">
@@ -6236,226 +6434,64 @@
         <v>366</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
-      </c>
-      <c r="I18" t="s">
-        <v>382</v>
-      </c>
-      <c r="J18" t="s">
-        <v>382</v>
-      </c>
-      <c r="K18" t="s">
-        <v>382</v>
-      </c>
-      <c r="L18" t="s">
-        <v>382</v>
-      </c>
-      <c r="M18" t="s">
-        <v>382</v>
-      </c>
-      <c r="N18" t="s">
-        <v>382</v>
-      </c>
-      <c r="O18" t="s">
-        <v>382</v>
-      </c>
-      <c r="P18" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>382</v>
-      </c>
-      <c r="R18" t="s">
-        <v>382</v>
-      </c>
-      <c r="S18" t="s">
-        <v>382</v>
-      </c>
-      <c r="T18" t="s">
-        <v>382</v>
-      </c>
-      <c r="U18" t="s">
-        <v>382</v>
-      </c>
-      <c r="V18" t="s">
-        <v>382</v>
-      </c>
-      <c r="W18" t="s">
-        <v>382</v>
-      </c>
-      <c r="X18" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>383</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>383</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>383</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>388</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>395</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>382</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>400</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH18" t="s">
-        <v>407</v>
-      </c>
-      <c r="BI18" t="s">
-        <v>406</v>
-      </c>
-      <c r="BJ18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BK18" t="s">
-        <v>408</v>
-      </c>
-      <c r="BL18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BM18" t="s">
-        <v>409</v>
-      </c>
-      <c r="BN18" t="s">
-        <v>410</v>
-      </c>
-      <c r="BO18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BP18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BS18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BT18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BV18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>382</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CN18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CQ18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CR18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CS18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CT18" t="s">
-        <v>383</v>
-      </c>
-      <c r="CU18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CV18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CW18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CX18" t="s">
-        <v>382</v>
-      </c>
-      <c r="CY18" t="s">
-        <v>383</v>
-      </c>
-      <c r="CZ18" t="s">
-        <v>382</v>
-      </c>
-      <c r="DA18" t="s">
-        <v>382</v>
-      </c>
-      <c r="DB18" t="s">
-        <v>383</v>
-      </c>
-      <c r="DC18" t="s">
-        <v>382</v>
-      </c>
-      <c r="DD18" t="s">
-        <v>420</v>
-      </c>
-      <c r="DE18" t="s">
-        <v>422</v>
+        <v>376</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EL18" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EP18" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ18" t="s">
+        <v>439</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>441</v>
+      </c>
+      <c r="ET18" t="s">
+        <v>447</v>
+      </c>
+      <c r="EX18" t="s">
+        <v>455</v>
+      </c>
+      <c r="EY18" t="s">
+        <v>460</v>
       </c>
       <c r="SE18" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF18" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI18" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="SJ18" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="SK18" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:508">
@@ -6463,7 +6499,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
         <v>372</v>
@@ -6471,140 +6507,302 @@
       <c r="D19" t="s">
         <v>376</v>
       </c>
-      <c r="DL19" t="s">
-        <v>382</v>
-      </c>
-      <c r="EZ19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FA19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FB19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FC19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FD19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FE19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FF19" t="s">
-        <v>383</v>
-      </c>
-      <c r="FG19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FH19" t="s">
-        <v>383</v>
-      </c>
-      <c r="FI19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FJ19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FK19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FL19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FM19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FN19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FO19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FP19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FR19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FS19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FT19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FU19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FV19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FW19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FX19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FY19" t="s">
-        <v>382</v>
-      </c>
-      <c r="FZ19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GA19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GB19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GC19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GD19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GE19" t="s">
-        <v>383</v>
-      </c>
-      <c r="GF19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GG19" t="s">
-        <v>383</v>
-      </c>
-      <c r="GH19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GI19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GJ19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GK19" t="s">
-        <v>382</v>
-      </c>
-      <c r="GL19" t="s">
-        <v>461</v>
-      </c>
-      <c r="GM19" t="s">
-        <v>464</v>
+      <c r="I19" t="s">
+        <v>382</v>
+      </c>
+      <c r="J19" t="s">
+        <v>382</v>
+      </c>
+      <c r="K19" t="s">
+        <v>382</v>
+      </c>
+      <c r="L19" t="s">
+        <v>382</v>
+      </c>
+      <c r="M19" t="s">
+        <v>382</v>
+      </c>
+      <c r="N19" t="s">
+        <v>382</v>
+      </c>
+      <c r="O19" t="s">
+        <v>382</v>
+      </c>
+      <c r="P19" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>382</v>
+      </c>
+      <c r="R19" t="s">
+        <v>382</v>
+      </c>
+      <c r="S19" t="s">
+        <v>382</v>
+      </c>
+      <c r="T19" t="s">
+        <v>382</v>
+      </c>
+      <c r="U19" t="s">
+        <v>382</v>
+      </c>
+      <c r="V19" t="s">
+        <v>382</v>
+      </c>
+      <c r="W19" t="s">
+        <v>382</v>
+      </c>
+      <c r="X19" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>391</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>383</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>383</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>403</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>404</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>411</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>382</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>383</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>383</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>416</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>382</v>
+      </c>
+      <c r="DC19" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>419</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>422</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>426</v>
       </c>
       <c r="SE19" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF19" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI19" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="SJ19" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="SK19" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:508">
@@ -6612,97 +6810,103 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>377</v>
-      </c>
-      <c r="DZ20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EA20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EB20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EC20" t="s">
-        <v>382</v>
-      </c>
-      <c r="ED20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EE20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EF20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EG20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EH20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EI20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EJ20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EK20" t="s">
-        <v>383</v>
-      </c>
-      <c r="EL20" t="s">
-        <v>383</v>
-      </c>
-      <c r="EM20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EN20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EO20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EP20" t="s">
-        <v>382</v>
-      </c>
-      <c r="EQ20" t="s">
-        <v>439</v>
-      </c>
-      <c r="ER20" t="s">
-        <v>443</v>
-      </c>
-      <c r="ET20" t="s">
-        <v>446</v>
-      </c>
-      <c r="EV20" t="s">
-        <v>449</v>
-      </c>
-      <c r="EX20" t="s">
-        <v>453</v>
-      </c>
-      <c r="EY20" t="s">
-        <v>457</v>
+        <v>376</v>
+      </c>
+      <c r="E20" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" t="s">
+        <v>380</v>
+      </c>
+      <c r="H20" t="s">
+        <v>381</v>
+      </c>
+      <c r="DG20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH20" t="s">
+        <v>383</v>
+      </c>
+      <c r="DI20" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DK20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>430</v>
+      </c>
+      <c r="DN20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DO20" t="s">
+        <v>383</v>
+      </c>
+      <c r="DP20" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>383</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>434</v>
+      </c>
+      <c r="FQ20" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD20" t="s">
+        <v>489</v>
       </c>
       <c r="SE20" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="SF20" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="SI20" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="SJ20" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="SK20" t="s">
-        <v>505</v>
+        <v>518</v>
+      </c>
+      <c r="SN20" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:508">
@@ -6710,7 +6914,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C21" t="s">
         <v>371</v>
@@ -6718,140 +6922,221 @@
       <c r="D21" t="s">
         <v>377</v>
       </c>
-      <c r="DL21" t="s">
-        <v>382</v>
-      </c>
-      <c r="EZ21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FA21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FB21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FC21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FD21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FE21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FF21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FG21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FH21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FI21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FJ21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FK21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FL21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FM21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FN21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FO21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FP21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FR21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FS21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FT21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FU21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FV21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FW21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FX21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FY21" t="s">
-        <v>382</v>
-      </c>
-      <c r="FZ21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GA21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GB21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GC21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GD21" t="s">
-        <v>383</v>
-      </c>
-      <c r="GE21" t="s">
-        <v>383</v>
-      </c>
-      <c r="GF21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GG21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GH21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GI21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GJ21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GK21" t="s">
-        <v>382</v>
-      </c>
-      <c r="GL21" t="s">
-        <v>462</v>
-      </c>
-      <c r="GM21" t="s">
-        <v>465</v>
+      <c r="I21" t="s">
+        <v>382</v>
+      </c>
+      <c r="J21" t="s">
+        <v>382</v>
+      </c>
+      <c r="K21" t="s">
+        <v>382</v>
+      </c>
+      <c r="L21" t="s">
+        <v>382</v>
+      </c>
+      <c r="M21" t="s">
+        <v>382</v>
+      </c>
+      <c r="N21" t="s">
+        <v>382</v>
+      </c>
+      <c r="O21" t="s">
+        <v>382</v>
+      </c>
+      <c r="P21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>382</v>
+      </c>
+      <c r="R21" t="s">
+        <v>382</v>
+      </c>
+      <c r="S21" t="s">
+        <v>382</v>
+      </c>
+      <c r="T21" t="s">
+        <v>382</v>
+      </c>
+      <c r="U21" t="s">
+        <v>382</v>
+      </c>
+      <c r="V21" t="s">
+        <v>382</v>
+      </c>
+      <c r="W21" t="s">
+        <v>382</v>
+      </c>
+      <c r="X21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>383</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>383</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>392</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>407</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>406</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>408</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>409</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>410</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>382</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CQ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CR21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CT21" t="s">
+        <v>383</v>
+      </c>
+      <c r="CU21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>382</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>383</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>382</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>382</v>
+      </c>
+      <c r="DB21" t="s">
+        <v>383</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>382</v>
+      </c>
+      <c r="DD21" t="s">
+        <v>420</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>422</v>
       </c>
       <c r="SE21" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF21" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI21" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="SJ21" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="SK21" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="22" spans="1:508">
@@ -6862,208 +7147,145 @@
         <v>369</v>
       </c>
       <c r="C22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
-      </c>
-      <c r="GN22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GO22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GP22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GQ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GR22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GS22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GT22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GU22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GV22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GW22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GX22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GY22" t="s">
-        <v>382</v>
-      </c>
-      <c r="GZ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HA22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HB22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HC22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HD22" t="s">
+        <v>376</v>
+      </c>
+      <c r="DL22" t="s">
+        <v>382</v>
+      </c>
+      <c r="EZ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF22" t="s">
+        <v>383</v>
+      </c>
+      <c r="FG22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FH22" t="s">
+        <v>383</v>
+      </c>
+      <c r="FI22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FO22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FT22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY22" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GE22" t="s">
+        <v>383</v>
+      </c>
+      <c r="GF22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG22" t="s">
+        <v>383</v>
+      </c>
+      <c r="GH22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK22" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL22" t="s">
+        <v>465</v>
+      </c>
+      <c r="GM22" t="s">
         <v>468</v>
       </c>
-      <c r="HE22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HF22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HG22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HH22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HI22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HJ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HK22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HL22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HM22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HN22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HO22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HP22" t="s">
-        <v>383</v>
-      </c>
-      <c r="HQ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HR22" t="s">
-        <v>383</v>
-      </c>
-      <c r="HS22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HT22" t="s">
-        <v>383</v>
-      </c>
-      <c r="HU22" t="s">
-        <v>383</v>
-      </c>
-      <c r="HW22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HX22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HY22" t="s">
-        <v>382</v>
-      </c>
-      <c r="HZ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IA22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IB22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IC22" t="s">
-        <v>382</v>
-      </c>
-      <c r="ID22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IE22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IF22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IG22" t="s">
-        <v>383</v>
-      </c>
-      <c r="IH22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IJ22" t="s">
-        <v>473</v>
-      </c>
-      <c r="IK22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IL22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IM22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IN22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IO22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IP22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IQ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IR22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IS22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IT22" t="s">
-        <v>383</v>
-      </c>
-      <c r="IU22" t="s">
-        <v>382</v>
-      </c>
-      <c r="IV22" t="s">
-        <v>473</v>
-      </c>
-      <c r="JJ22" t="s">
-        <v>382</v>
-      </c>
-      <c r="ND22" t="s">
-        <v>473</v>
-      </c>
       <c r="SE22" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SF22" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="SI22" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="SJ22" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="SK22" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:508">
@@ -7071,7 +7293,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C23" t="s">
         <v>371</v>
@@ -7079,92 +7301,551 @@
       <c r="D23" t="s">
         <v>377</v>
       </c>
-      <c r="E23" t="s">
+      <c r="DZ23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>382</v>
+      </c>
+      <c r="ED23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EE23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EG23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EH23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EJ23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EK23" t="s">
+        <v>383</v>
+      </c>
+      <c r="EL23" t="s">
+        <v>383</v>
+      </c>
+      <c r="EM23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EN23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EO23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EP23" t="s">
+        <v>382</v>
+      </c>
+      <c r="EQ23" t="s">
+        <v>440</v>
+      </c>
+      <c r="ER23" t="s">
+        <v>444</v>
+      </c>
+      <c r="ET23" t="s">
+        <v>448</v>
+      </c>
+      <c r="EV23" t="s">
+        <v>451</v>
+      </c>
+      <c r="EX23" t="s">
+        <v>456</v>
+      </c>
+      <c r="EY23" t="s">
+        <v>461</v>
+      </c>
+      <c r="SE23" t="s">
+        <v>490</v>
+      </c>
+      <c r="SF23" t="s">
+        <v>490</v>
+      </c>
+      <c r="SI23" t="s">
+        <v>499</v>
+      </c>
+      <c r="SJ23" t="s">
+        <v>499</v>
+      </c>
+      <c r="SK23" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:508">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" t="s">
+        <v>377</v>
+      </c>
+      <c r="DL24" t="s">
+        <v>382</v>
+      </c>
+      <c r="EZ24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FA24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FB24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FC24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FD24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FE24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FF24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FG24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FH24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FI24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FJ24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FK24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FL24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FM24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FN24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FO24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FP24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FR24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FS24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FT24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FU24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FV24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FW24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FX24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY24" t="s">
+        <v>382</v>
+      </c>
+      <c r="FZ24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GA24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GB24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GC24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GD24" t="s">
+        <v>383</v>
+      </c>
+      <c r="GE24" t="s">
+        <v>383</v>
+      </c>
+      <c r="GF24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GG24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GH24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GI24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GJ24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GK24" t="s">
+        <v>382</v>
+      </c>
+      <c r="GL24" t="s">
+        <v>466</v>
+      </c>
+      <c r="GM24" t="s">
+        <v>469</v>
+      </c>
+      <c r="SE24" t="s">
+        <v>490</v>
+      </c>
+      <c r="SF24" t="s">
+        <v>490</v>
+      </c>
+      <c r="SI24" t="s">
+        <v>495</v>
+      </c>
+      <c r="SJ24" t="s">
+        <v>495</v>
+      </c>
+      <c r="SK24" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:508">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" t="s">
+        <v>377</v>
+      </c>
+      <c r="GN25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GO25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GP25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GQ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GR25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GS25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GT25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GU25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GV25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GW25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GX25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GY25" t="s">
+        <v>382</v>
+      </c>
+      <c r="GZ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HA25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HC25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HD25" t="s">
+        <v>474</v>
+      </c>
+      <c r="HE25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HF25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HG25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HH25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HI25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HJ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HK25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HL25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HM25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HN25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HO25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HP25" t="s">
+        <v>383</v>
+      </c>
+      <c r="HQ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HR25" t="s">
+        <v>383</v>
+      </c>
+      <c r="HS25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HT25" t="s">
+        <v>383</v>
+      </c>
+      <c r="HU25" t="s">
+        <v>383</v>
+      </c>
+      <c r="HW25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HX25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HY25" t="s">
+        <v>382</v>
+      </c>
+      <c r="HZ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IA25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IB25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IC25" t="s">
+        <v>382</v>
+      </c>
+      <c r="ID25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IE25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IF25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IG25" t="s">
+        <v>383</v>
+      </c>
+      <c r="IH25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IJ25" t="s">
+        <v>483</v>
+      </c>
+      <c r="IK25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IL25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IM25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IN25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IO25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IP25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IQ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IR25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IS25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IT25" t="s">
+        <v>383</v>
+      </c>
+      <c r="IU25" t="s">
+        <v>382</v>
+      </c>
+      <c r="IV25" t="s">
+        <v>483</v>
+      </c>
+      <c r="JJ25" t="s">
+        <v>382</v>
+      </c>
+      <c r="ND25" t="s">
+        <v>483</v>
+      </c>
+      <c r="SE25" t="s">
+        <v>490</v>
+      </c>
+      <c r="SF25" t="s">
+        <v>490</v>
+      </c>
+      <c r="SI25" t="s">
+        <v>495</v>
+      </c>
+      <c r="SJ25" t="s">
+        <v>495</v>
+      </c>
+      <c r="SK25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:508">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" t="s">
         <v>378</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>379</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G26" t="s">
         <v>380</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>381</v>
       </c>
-      <c r="DG23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DH23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DI23" t="s">
+      <c r="DG26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DH26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DI26" t="s">
         <v>427</v>
       </c>
-      <c r="DJ23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DK23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DM23" t="s">
+      <c r="DJ26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DK26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DM26" t="s">
         <v>431</v>
       </c>
-      <c r="DN23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DO23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DP23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DQ23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DR23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DS23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DT23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DU23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DV23" t="s">
-        <v>382</v>
-      </c>
-      <c r="DW23" t="s">
-        <v>383</v>
-      </c>
-      <c r="DY23" t="s">
+      <c r="DN26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DO26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DP26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DQ26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DR26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DS26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DT26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DU26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DV26" t="s">
+        <v>382</v>
+      </c>
+      <c r="DW26" t="s">
+        <v>383</v>
+      </c>
+      <c r="DY26" t="s">
         <v>435</v>
       </c>
-      <c r="FQ23" t="s">
-        <v>382</v>
-      </c>
-      <c r="SD23" t="s">
-        <v>477</v>
-      </c>
-      <c r="SE23" t="s">
-        <v>478</v>
-      </c>
-      <c r="SF23" t="s">
-        <v>480</v>
-      </c>
-      <c r="SI23" t="s">
-        <v>485</v>
-      </c>
-      <c r="SJ23" t="s">
-        <v>485</v>
-      </c>
-      <c r="SK23" t="s">
-        <v>508</v>
-      </c>
-      <c r="SN23" t="s">
-        <v>513</v>
+      <c r="FQ26" t="s">
+        <v>382</v>
+      </c>
+      <c r="SD26" t="s">
+        <v>489</v>
+      </c>
+      <c r="SE26" t="s">
+        <v>491</v>
+      </c>
+      <c r="SF26" t="s">
+        <v>492</v>
+      </c>
+      <c r="SI26" t="s">
+        <v>498</v>
+      </c>
+      <c r="SJ26" t="s">
+        <v>498</v>
+      </c>
+      <c r="SK26" t="s">
+        <v>524</v>
+      </c>
+      <c r="SN26" t="s">
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1395,7 +1395,7 @@
     <t>Chiefs Headmen Councilors</t>
   </si>
   <si>
-    <t>Calling for support from other clinic departments and professionals, eg. getting a long serving nurse in uniform who is popular in the area to speak to resistant communities because they trust him. Identify influential people in the locality to lead planning of engagements on behalf of the program.</t>
+    <t>Yes, Calling for support from other clinic departments and professionals, eg. getting a long serving nurse in uniform who is popular in the area to speak to resistant communities because they trust him. Identify influential people in the locality to lead planning of engagements on behalf of the program.</t>
   </si>
   <si>
     <t>Yes. Studio outreach initiative.</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="560">
   <si>
     <t>section</t>
   </si>
@@ -1114,36 +1114,36 @@
     <t>b</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>e</t>
   </si>
   <si>
     <t>d</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>HURUNGWE</t>
   </si>
   <si>
     <t>GOROMONZI</t>
   </si>
   <si>
-    <t>HURUNGWE</t>
-  </si>
-  <si>
     <t>MARONDERA</t>
   </si>
   <si>
     <t>SANYATI</t>
   </si>
   <si>
+    <t>Zvipani Rural Health Centre</t>
+  </si>
+  <si>
     <t>Chinyika</t>
   </si>
   <si>
-    <t>Zvipani Rural Health Centre</t>
-  </si>
-  <si>
     <t>Mwami Rural Hosptal</t>
   </si>
   <si>
@@ -1165,6 +1165,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>June</t>
+  </si>
+  <si>
     <t>May</t>
   </si>
   <si>
@@ -1192,15 +1195,15 @@
     <t>Caravan in use no formal rooms available</t>
   </si>
   <si>
+    <t>Disposable_Dorsal_slit</t>
+  </si>
+  <si>
     <t>Reusable_Dorsal_slit</t>
   </si>
   <si>
     <t>Reusable_Dorsal_slit Disposable_universal</t>
   </si>
   <si>
-    <t>Disposable_Dorsal_slit</t>
-  </si>
-  <si>
     <t>Reusable_Dorsal_slit Device_placement_kit Device_removal_kit other</t>
   </si>
   <si>
@@ -1265,6 +1268,9 @@
   </si>
   <si>
     <t>Argument has been out of stock for the past 5 months</t>
+  </si>
+  <si>
+    <t>The waste disposal area is not fenced and lockable</t>
   </si>
   <si>
     <t>no segregation of waste, presently site does not have color coded waste bins/points but staff is knowledgeable on these.</t>
@@ -1277,6 +1283,9 @@
 incinerator is done off site at Rimuka Maternity</t>
   </si>
   <si>
+    <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sphygmomanometer_Batteries Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
+  </si>
+  <si>
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline 2_Sizes_of_Syringes 2_Sizes_of_Needles Oxygen_and_accessories Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Stethoscope_is_not_shared sphygmomanometer_dedicated_to_Emergency_Cart_and_is_not_shared</t>
   </si>
   <si>
@@ -1289,13 +1298,16 @@
     <t>Stethoscope Sphygmomanometer Adult_Blood_pressure_cuff Sodium_Chloride Tourniquet IV_Infusion_Tubing 3_sizes_of_IV_Catheters Adrenaline Hydrocortisone 2_Sizes_of_Syringes 2_Sizes_of_Needles Bags_and_Masks_for_children Bags_and_Masks_for_adults Exam_gloves Alcohol_Swabs Gauze Adhesive_Tape Oropharyngeal_Airways</t>
   </si>
   <si>
+    <t>glucometer Glucometer_Strips</t>
+  </si>
+  <si>
     <t>glucometer</t>
   </si>
   <si>
     <t>glucometer Glucometer_Strips Pulse-oximeter</t>
   </si>
   <si>
-    <t>glucometer Glucometer_Strips</t>
+    <t>Well stocked jump bag. There is need to update the checklist on Atropine which was out of stock but now available with an expiry date of August 2027</t>
   </si>
   <si>
     <t>Training need for emergency management.</t>
@@ -1308,6 +1320,9 @@
   </si>
   <si>
     <t>Client_Name Client_Address dob MC_Method HIV_Testing_Offered_/HIV_Status_Data Medical_Screening_and_Physical_Examination</t>
+  </si>
+  <si>
+    <t>June 2025 data entry into DHIS2 has not yet started, its pending,  hence 0.</t>
   </si>
   <si>
     <t>1) The facility is doing very well in Storing Information Records.
@@ -1334,6 +1349,9 @@
 and without cancellations</t>
   </si>
   <si>
+    <t>Phone ownership rate is low and network coverage is poor in this area, thereby affecting 2WT and EHR uptake negatively.</t>
+  </si>
+  <si>
     <t>Clients eager and motivated to use EHR because its fast &amp; user friendly
 High uptake of 2WT of more than 60%.
 High data capture, recording and book keeping standards shown by facility with evidence of facity team involvent
@@ -1358,6 +1376,9 @@
   </si>
   <si>
     <t>Facility not using EHR</t>
+  </si>
+  <si>
+    <t>15-24years- most are in school. creating good relations with schoos, use of peer champions, use of young mobilizer, working on having more young mobilizer. 25-34- not very easy, follow them where they spend time eg pool tables, one in one, workplaces. some activities with traditional leadership already carried out, need to have formal relations and programmes with them. Message to school children could have been more targeted as per their age range. more focus on abstinence, working with assumption  that majority of them are not yet sexually active. need skill to control the crowd, do not speak when they are not listening. overall good work is taking place</t>
   </si>
   <si>
     <t>approach schools with ASRH content for both boys and girls. for older men, soccer, traditional leaders assist with demand creation</t>
@@ -1565,6 +1586,9 @@
     <t>Not observed</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -1574,18 +1598,21 @@
     <t>0</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>vmuseza</t>
+  </si>
+  <si>
+    <t>lmasimba</t>
+  </si>
+  <si>
     <t>amutenha</t>
   </si>
   <si>
-    <t>lmasimba</t>
-  </si>
-  <si>
-    <t>vmuseza</t>
-  </si>
-  <si>
     <t>jgavhera</t>
   </si>
   <si>
@@ -1598,6 +1625,15 @@
     <t>tmunyaradzi</t>
   </si>
   <si>
+    <t>2025-07-02T10:26:04.552763Z</t>
+  </si>
+  <si>
+    <t>2025-07-02T10:21:45.743709Z</t>
+  </si>
+  <si>
+    <t>2025-07-02T10:04:18.328331Z</t>
+  </si>
+  <si>
     <t>2025-07-02T09:29:32.149868Z</t>
   </si>
   <si>
@@ -1683,6 +1719,9 @@
   </si>
   <si>
     <t>2025-06-30T11:51:05.207097Z</t>
+  </si>
+  <si>
+    <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '0', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '17', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '17', 'current_iteration': '1', 'mrfmcs': '17', 'registermcs': '17'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '30', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '25', 'current_iteration': '2', 'mrfmcs': '25', 'registermcs': '30'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '18', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '18', 'current_iteration': '3', 'mrfmcs': '18', 'registermcs': '18'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '15', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '15', 'current_iteration': '4', 'mrfmcs': '15', 'registermcs': '15'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '26', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '26', 'current_iteration': '5', 'mrfmcs': '26', 'registermcs': '26'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '12', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '12', 'current_iteration': '6', 'mrfmcs': '12', 'registermcs': '12'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '20', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '20', 'current_iteration': '7', 'mrfmcs': '20', 'registermcs': '20'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '17', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '8', 'mrfmcs': '17', 'registermcs': '17'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'October', 'calculatedYear': '2024', 'calculated_month_numeric': '10', 'cifno': '75', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '75', 'current_iteration': '0', 'mrfmcs': '75', 'registermcs': '75'}, {'calculatedMonth': 'November', 'calculatedYear': '2024', 'calculated_month_numeric': '11', 'cifno': '71', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '71', 'current_iteration': '1', 'mrfmcs': '71', 'registermcs': '71'}, {'calculatedMonth': 'December', 'calculatedYear': '2024', 'calculated_month_numeric': '12', 'cifno': '14', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '14', 'current_iteration': '2', 'mrfmcs': '14', 'registermcs': '14'}, {'calculatedMonth': 'January', 'calculatedYear': '2025', 'calculated_month_numeric': '13', 'cifno': '43', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '43', 'current_iteration': '3', 'mrfmcs': '43', 'registermcs': '43'}, {'calculatedMonth': 'February', 'calculatedYear': '2025', 'calculated_month_numeric': '2', 'cifno': '29', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '29', 'current_iteration': '4', 'mrfmcs': '29', 'registermcs': '29'}, {'calculatedMonth': 'March', 'calculatedYear': '2025', 'calculated_month_numeric': '3', 'cifno': '61', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '61', 'current_iteration': '5', 'mrfmcs': '61', 'registermcs': '61'}, {'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '78', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '78', 'current_iteration': '6', 'mrfmcs': '78', 'registermcs': '78'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '64', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '64', 'current_iteration': '7', 'mrfmcs': '64', 'registermcs': '64'}]</t>
@@ -2058,7 +2097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:SN30"/>
+  <dimension ref="A1:SN33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3610,82 +3649,85 @@
         <v>383</v>
       </c>
       <c r="H2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="DG2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DH2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DI2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="DJ2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DK2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DM2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="DN2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DO2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DP2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="DQ2" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>387</v>
       </c>
       <c r="DS2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DT2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DU2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DV2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DW2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DX2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="DY2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="FQ2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="SD2" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="SE2" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="SF2" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="SI2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="SJ2" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="SK2" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="SN2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:508">
@@ -3696,211 +3738,79 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" t="s">
-        <v>375</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GT3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GV3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>385</v>
-      </c>
-      <c r="GZ3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>478</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HH3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HI3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HJ3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HK3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HL3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HM3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HN3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HO3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HR3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HT3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HU3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>484</v>
-      </c>
-      <c r="HW3" t="s">
-        <v>385</v>
-      </c>
-      <c r="HX3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HY3" t="s">
-        <v>386</v>
-      </c>
-      <c r="HZ3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IA3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IB3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IC3" t="s">
-        <v>386</v>
-      </c>
-      <c r="ID3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IE3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IF3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IG3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IH3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IJ3" t="s">
-        <v>489</v>
-      </c>
-      <c r="IK3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IL3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IM3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IN3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IO3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IP3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IQ3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IR3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IS3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IT3" t="s">
-        <v>386</v>
-      </c>
-      <c r="IU3" t="s">
-        <v>385</v>
-      </c>
-      <c r="IV3" t="s">
-        <v>495</v>
-      </c>
-      <c r="JJ3" t="s">
-        <v>385</v>
-      </c>
-      <c r="ND3" t="s">
-        <v>495</v>
+        <v>374</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>447</v>
       </c>
       <c r="SE3" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF3" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI3" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="SJ3" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="SK3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:508">
@@ -3911,142 +3821,310 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D4" t="s">
-        <v>375</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>386</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FN4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FP4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FR4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FT4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FV4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX4" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>386</v>
-      </c>
-      <c r="FZ4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GD4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>386</v>
-      </c>
-      <c r="GH4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GJ4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>385</v>
-      </c>
-      <c r="GL4" t="s">
-        <v>470</v>
+        <v>374</v>
+      </c>
+      <c r="I4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J4" t="s">
+        <v>386</v>
+      </c>
+      <c r="K4" t="s">
+        <v>386</v>
+      </c>
+      <c r="L4" t="s">
+        <v>386</v>
+      </c>
+      <c r="M4" t="s">
+        <v>386</v>
+      </c>
+      <c r="N4" t="s">
+        <v>386</v>
+      </c>
+      <c r="O4" t="s">
+        <v>386</v>
+      </c>
+      <c r="P4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>386</v>
+      </c>
+      <c r="R4" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" t="s">
+        <v>386</v>
+      </c>
+      <c r="T4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U4" t="s">
+        <v>386</v>
+      </c>
+      <c r="V4" t="s">
+        <v>386</v>
+      </c>
+      <c r="W4" t="s">
+        <v>386</v>
+      </c>
+      <c r="X4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>408</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>387</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>418</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>387</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>387</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>422</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>427</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>430</v>
       </c>
       <c r="SE4" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF4" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="SJ4" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="SK4" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:508">
@@ -4054,97 +4132,100 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C5" t="s">
         <v>371</v>
       </c>
       <c r="D5" t="s">
-        <v>376</v>
-      </c>
-      <c r="DZ5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" t="s">
         <v>385</v>
       </c>
-      <c r="EA5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>385</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>386</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>385</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>441</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>447</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>451</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>455</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>458</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>464</v>
+      <c r="DG5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>434</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>436</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>387</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>386</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>442</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD5" t="s">
+        <v>509</v>
       </c>
       <c r="SE5" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="SF5" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="SI5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="SJ5" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="SK5" t="s">
-        <v>515</v>
+        <v>524</v>
+      </c>
+      <c r="SN5" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:508">
@@ -4152,214 +4233,214 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="GN6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GO6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GP6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GQ6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GR6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GS6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GT6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GU6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GV6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GW6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GX6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GY6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GZ6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HA6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HB6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HC6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="HD6" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="HE6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HF6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HG6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HH6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HI6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HJ6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HK6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HL6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HM6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HN6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HO6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HP6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HQ6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HR6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HS6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HT6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HU6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="HV6" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="HW6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HX6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HY6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HZ6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IA6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IB6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IC6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="ID6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IE6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IF6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IG6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IH6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IJ6" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="IK6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IL6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IM6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IN6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IO6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IP6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IQ6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IR6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IS6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IT6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="IU6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IV6" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="JJ6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="ND6" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="SE6" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF6" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="SJ6" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="SK6" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:508">
@@ -4367,97 +4448,145 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D7" t="s">
-        <v>376</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>385</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EE7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>386</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>385</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>442</v>
-      </c>
-      <c r="ER7" t="s">
-        <v>447</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>451</v>
-      </c>
-      <c r="EV7" t="s">
-        <v>455</v>
-      </c>
-      <c r="EX7" t="s">
-        <v>459</v>
-      </c>
-      <c r="EY7" t="s">
-        <v>465</v>
+        <v>374</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>387</v>
+      </c>
+      <c r="EZ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FB7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FH7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FR7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX7" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>387</v>
+      </c>
+      <c r="FZ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GF7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>387</v>
+      </c>
+      <c r="GH7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>477</v>
       </c>
       <c r="SE7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="SJ7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="SK7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:508">
@@ -4468,316 +4597,94 @@
         <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D8" t="s">
         <v>376</v>
       </c>
-      <c r="GN8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GO8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GP8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GQ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GR8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GS8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GT8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GV8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GW8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GX8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>385</v>
-      </c>
-      <c r="GZ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HA8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HB8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HD8" t="s">
-        <v>480</v>
-      </c>
-      <c r="HE8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HF8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HG8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HH8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HI8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HJ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HK8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HL8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HM8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HN8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HO8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HP8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HQ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HR8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HT8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HU8" t="s">
-        <v>386</v>
-      </c>
-      <c r="HV8" t="s">
-        <v>486</v>
-      </c>
-      <c r="HW8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HX8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HY8" t="s">
-        <v>385</v>
-      </c>
-      <c r="HZ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IA8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IB8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IC8" t="s">
-        <v>385</v>
-      </c>
-      <c r="ID8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IE8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IF8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IG8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IH8" t="s">
-        <v>385</v>
-      </c>
-      <c r="II8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IJ8" t="s">
-        <v>491</v>
-      </c>
-      <c r="IK8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IL8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IM8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IN8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IO8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IP8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IQ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IR8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IS8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IT8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IU8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IV8" t="s">
-        <v>497</v>
-      </c>
-      <c r="IX8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IY8" t="s">
-        <v>385</v>
-      </c>
-      <c r="IZ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JA8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JB8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JC8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JD8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JE8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JF8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JG8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JH8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JI8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JJ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JK8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JL8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JM8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JN8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JO8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JR8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JS8" t="s">
-        <v>386</v>
-      </c>
-      <c r="JT8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JV8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JX8" t="s">
-        <v>385</v>
-      </c>
-      <c r="JZ8" t="s">
-        <v>385</v>
-      </c>
-      <c r="KB8" t="s">
-        <v>385</v>
-      </c>
-      <c r="KD8" t="s">
-        <v>385</v>
-      </c>
-      <c r="KF8" t="s">
-        <v>385</v>
-      </c>
-      <c r="KH8" t="s">
-        <v>385</v>
-      </c>
-      <c r="ND8" t="s">
-        <v>497</v>
-      </c>
-      <c r="OA8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OC8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OE8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OG8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OI8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OK8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OM8" t="s">
-        <v>385</v>
-      </c>
-      <c r="OO8" t="s">
-        <v>385</v>
+      <c r="DZ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>387</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>448</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>454</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>458</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>462</v>
+      </c>
+      <c r="EX8" t="s">
+        <v>465</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>471</v>
       </c>
       <c r="SE8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF8" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="SJ8" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="SK8" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:508">
@@ -4785,97 +4692,214 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
         <v>376</v>
       </c>
-      <c r="E9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G9" t="s">
-        <v>383</v>
-      </c>
-      <c r="H9" t="s">
-        <v>384</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>430</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>385</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>386</v>
-      </c>
-      <c r="FQ9" t="s">
-        <v>385</v>
-      </c>
-      <c r="SD9" t="s">
-        <v>501</v>
+      <c r="GN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GV9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="GZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>387</v>
+      </c>
+      <c r="HD9" t="s">
+        <v>486</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HI9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HU9" t="s">
+        <v>387</v>
+      </c>
+      <c r="HV9" t="s">
+        <v>492</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HX9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HY9" t="s">
+        <v>386</v>
+      </c>
+      <c r="HZ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IB9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IC9" t="s">
+        <v>386</v>
+      </c>
+      <c r="ID9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IF9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IG9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IH9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IJ9" t="s">
+        <v>497</v>
+      </c>
+      <c r="IK9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IM9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IN9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IO9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IP9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IQ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IR9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IS9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IT9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IU9" t="s">
+        <v>386</v>
+      </c>
+      <c r="IV9" t="s">
+        <v>503</v>
+      </c>
+      <c r="JJ9" t="s">
+        <v>386</v>
+      </c>
+      <c r="ND9" t="s">
+        <v>503</v>
       </c>
       <c r="SE9" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="SF9" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="SI9" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="SJ9" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="SK9" t="s">
-        <v>519</v>
-      </c>
-      <c r="SN9" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:508">
@@ -4883,313 +4907,97 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D10" t="s">
         <v>376</v>
       </c>
-      <c r="I10" t="s">
-        <v>385</v>
-      </c>
-      <c r="J10" t="s">
-        <v>385</v>
-      </c>
-      <c r="K10" t="s">
-        <v>385</v>
-      </c>
-      <c r="L10" t="s">
-        <v>385</v>
-      </c>
-      <c r="M10" t="s">
-        <v>385</v>
-      </c>
-      <c r="N10" t="s">
-        <v>385</v>
-      </c>
-      <c r="O10" t="s">
-        <v>385</v>
-      </c>
-      <c r="P10" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>385</v>
-      </c>
-      <c r="R10" t="s">
-        <v>385</v>
-      </c>
-      <c r="S10" t="s">
-        <v>385</v>
-      </c>
-      <c r="T10" t="s">
-        <v>385</v>
-      </c>
-      <c r="U10" t="s">
-        <v>385</v>
-      </c>
-      <c r="V10" t="s">
-        <v>385</v>
-      </c>
-      <c r="W10" t="s">
-        <v>385</v>
-      </c>
-      <c r="X10" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>387</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>396</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>399</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>404</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>386</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>386</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>386</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>407</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>408</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>411</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>412</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>413</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>385</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CB10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CE10" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF10" t="s">
-        <v>386</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>386</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>386</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CU10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CW10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>385</v>
-      </c>
-      <c r="CY10" t="s">
-        <v>386</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>385</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>385</v>
-      </c>
-      <c r="DB10" t="s">
-        <v>385</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>385</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>420</v>
-      </c>
-      <c r="DE10" t="s">
-        <v>424</v>
+      <c r="DZ10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>387</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>449</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>454</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>458</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>462</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>466</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>472</v>
       </c>
       <c r="SE10" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF10" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="SJ10" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="SK10" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:508">
@@ -5197,145 +5005,319 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D11" t="s">
         <v>376</v>
       </c>
-      <c r="DL11" t="s">
-        <v>385</v>
-      </c>
-      <c r="EZ11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FA11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FB11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FC11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FD11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FE11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FF11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FG11" t="s">
-        <v>386</v>
-      </c>
-      <c r="FH11" t="s">
-        <v>386</v>
-      </c>
-      <c r="FI11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FK11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FM11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FN11" t="s">
-        <v>386</v>
-      </c>
-      <c r="FO11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FP11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FR11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FS11" t="s">
-        <v>386</v>
-      </c>
-      <c r="FT11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FU11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FV11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FW11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY11" t="s">
-        <v>385</v>
-      </c>
-      <c r="FZ11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GA11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GC11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GD11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GE11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GF11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GG11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GH11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GI11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GJ11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GK11" t="s">
-        <v>385</v>
-      </c>
-      <c r="GL11" t="s">
-        <v>470</v>
+      <c r="GN11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GO11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GP11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GR11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GS11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GT11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GU11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GV11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY11" t="s">
+        <v>386</v>
+      </c>
+      <c r="GZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HA11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HB11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HD11" t="s">
+        <v>487</v>
+      </c>
+      <c r="HE11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HH11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HI11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HJ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HL11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HM11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HN11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HO11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HP11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HQ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HR11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HS11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HT11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HU11" t="s">
+        <v>387</v>
+      </c>
+      <c r="HV11" t="s">
+        <v>493</v>
+      </c>
+      <c r="HW11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HX11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HY11" t="s">
+        <v>386</v>
+      </c>
+      <c r="HZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IB11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="ID11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IG11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IH11" t="s">
+        <v>386</v>
+      </c>
+      <c r="II11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IJ11" t="s">
+        <v>498</v>
+      </c>
+      <c r="IK11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IL11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IM11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IN11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IO11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IP11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IQ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IR11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IS11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IT11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IU11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IV11" t="s">
+        <v>504</v>
+      </c>
+      <c r="IX11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IY11" t="s">
+        <v>386</v>
+      </c>
+      <c r="IZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JA11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JB11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JD11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JE11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JG11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JH11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JI11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JJ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JK11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JL11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JM11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JN11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JO11" t="s">
+        <v>387</v>
+      </c>
+      <c r="JR11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JS11" t="s">
+        <v>387</v>
+      </c>
+      <c r="JT11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JV11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JX11" t="s">
+        <v>386</v>
+      </c>
+      <c r="JZ11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KB11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KD11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KF11" t="s">
+        <v>386</v>
+      </c>
+      <c r="KH11" t="s">
+        <v>386</v>
+      </c>
+      <c r="ND11" t="s">
+        <v>504</v>
+      </c>
+      <c r="OA11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OE11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OG11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OI11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OK11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OM11" t="s">
+        <v>386</v>
+      </c>
+      <c r="OO11" t="s">
+        <v>386</v>
       </c>
       <c r="SE11" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF11" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI11" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="SJ11" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="SK11" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:508">
@@ -5343,310 +5325,97 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" t="s">
-        <v>377</v>
-      </c>
-      <c r="I12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" t="s">
         <v>385</v>
       </c>
-      <c r="J12" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" t="s">
-        <v>385</v>
-      </c>
-      <c r="L12" t="s">
-        <v>385</v>
-      </c>
-      <c r="M12" t="s">
-        <v>385</v>
-      </c>
-      <c r="N12" t="s">
-        <v>385</v>
-      </c>
-      <c r="O12" t="s">
-        <v>385</v>
-      </c>
-      <c r="P12" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>386</v>
-      </c>
-      <c r="R12" t="s">
-        <v>385</v>
-      </c>
-      <c r="S12" t="s">
-        <v>385</v>
-      </c>
-      <c r="T12" t="s">
-        <v>385</v>
-      </c>
-      <c r="U12" t="s">
-        <v>385</v>
-      </c>
-      <c r="V12" t="s">
-        <v>385</v>
-      </c>
-      <c r="W12" t="s">
-        <v>385</v>
-      </c>
-      <c r="X12" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>388</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>397</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>400</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>404</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>408</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>408</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>413</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>415</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>385</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>386</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>417</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CO12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CP12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CR12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>385</v>
-      </c>
-      <c r="CU12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>386</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>385</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>385</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>385</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>385</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>421</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>425</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>427</v>
+      <c r="DG12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>434</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>387</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>387</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>386</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>387</v>
+      </c>
+      <c r="FQ12" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD12" t="s">
+        <v>509</v>
       </c>
       <c r="SE12" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="SF12" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="SI12" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="SJ12" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="SK12" t="s">
-        <v>522</v>
+        <v>531</v>
+      </c>
+      <c r="SN12" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:508">
@@ -5654,70 +5423,313 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>386</v>
-      </c>
-      <c r="EA13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EP13" t="s">
-        <v>385</v>
-      </c>
-      <c r="EQ13" t="s">
-        <v>443</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>448</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>452</v>
-      </c>
-      <c r="EV13" t="s">
-        <v>455</v>
-      </c>
-      <c r="EX13" t="s">
-        <v>460</v>
-      </c>
-      <c r="EY13" t="s">
-        <v>466</v>
+        <v>376</v>
+      </c>
+      <c r="I13" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" t="s">
+        <v>386</v>
+      </c>
+      <c r="L13" t="s">
+        <v>386</v>
+      </c>
+      <c r="M13" t="s">
+        <v>386</v>
+      </c>
+      <c r="N13" t="s">
+        <v>386</v>
+      </c>
+      <c r="O13" t="s">
+        <v>386</v>
+      </c>
+      <c r="P13" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>386</v>
+      </c>
+      <c r="R13" t="s">
+        <v>386</v>
+      </c>
+      <c r="S13" t="s">
+        <v>386</v>
+      </c>
+      <c r="T13" t="s">
+        <v>386</v>
+      </c>
+      <c r="U13" t="s">
+        <v>386</v>
+      </c>
+      <c r="V13" t="s">
+        <v>386</v>
+      </c>
+      <c r="W13" t="s">
+        <v>386</v>
+      </c>
+      <c r="X13" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>400</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>387</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>387</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>409</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>387</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>387</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>387</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>387</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>387</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>387</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>423</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>428</v>
       </c>
       <c r="SE13" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF13" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI13" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="SJ13" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="SK13" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:508">
@@ -5725,226 +5737,145 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>378</v>
-      </c>
-      <c r="GN14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GO14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GP14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GQ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GR14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GS14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GT14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GU14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GV14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GW14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GX14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GY14" t="s">
-        <v>385</v>
-      </c>
-      <c r="GZ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HA14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HB14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HC14" t="s">
-        <v>386</v>
-      </c>
-      <c r="HD14" t="s">
-        <v>481</v>
-      </c>
-      <c r="HE14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HF14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HG14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HH14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HI14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HJ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HK14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HL14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HM14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HN14" t="s">
-        <v>386</v>
-      </c>
-      <c r="HO14" t="s">
-        <v>386</v>
-      </c>
-      <c r="HP14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HQ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HR14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HS14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HT14" t="s">
-        <v>386</v>
-      </c>
-      <c r="HU14" t="s">
-        <v>386</v>
-      </c>
-      <c r="HV14" t="s">
-        <v>487</v>
-      </c>
-      <c r="HW14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HX14" t="s">
-        <v>385</v>
-      </c>
-      <c r="HY14" t="s">
-        <v>386</v>
-      </c>
-      <c r="HZ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IA14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IB14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IC14" t="s">
-        <v>385</v>
-      </c>
-      <c r="ID14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IE14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IF14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IG14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IH14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IJ14" t="s">
-        <v>492</v>
-      </c>
-      <c r="IK14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IL14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IM14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IN14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IO14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IP14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IQ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IR14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IS14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IT14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IU14" t="s">
-        <v>385</v>
-      </c>
-      <c r="IW14" t="s">
-        <v>499</v>
-      </c>
-      <c r="IX14" t="s">
-        <v>386</v>
-      </c>
-      <c r="IY14" t="s">
-        <v>386</v>
-      </c>
-      <c r="JJ14" t="s">
-        <v>385</v>
-      </c>
-      <c r="NE14" t="s">
-        <v>499</v>
-      </c>
-      <c r="NH14" t="s">
-        <v>385</v>
-      </c>
-      <c r="SC14" t="s">
-        <v>500</v>
+        <v>376</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="EZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG14" t="s">
+        <v>387</v>
+      </c>
+      <c r="FH14" t="s">
+        <v>387</v>
+      </c>
+      <c r="FI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN14" t="s">
+        <v>387</v>
+      </c>
+      <c r="FO14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FS14" t="s">
+        <v>387</v>
+      </c>
+      <c r="FT14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FU14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY14" t="s">
+        <v>386</v>
+      </c>
+      <c r="FZ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GE14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GF14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GH14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK14" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL14" t="s">
+        <v>477</v>
       </c>
       <c r="SE14" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF14" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI14" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="SJ14" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="SK14" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="15" spans="1:508">
@@ -5952,304 +5883,310 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="S15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="T15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="U15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="X15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Y15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AB15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AC15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AD15" t="s">
         <v>389</v>
       </c>
       <c r="AE15" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>386</v>
       </c>
       <c r="AK15" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AM15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AP15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AQ15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AR15" t="s">
         <v>401</v>
       </c>
       <c r="AS15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AT15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AU15" t="s">
-        <v>404</v>
-      </c>
-      <c r="AW15" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV15" t="s">
         <v>386</v>
       </c>
       <c r="AX15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AY15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AZ15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BA15" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>387</v>
       </c>
       <c r="BC15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BD15" t="s">
-        <v>385</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="BF15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BG15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BH15" t="s">
         <v>409</v>
       </c>
       <c r="BI15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="BJ15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BL15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BN15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="BO15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BP15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BQ15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BR15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BS15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BT15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BU15" t="s">
         <v>416</v>
       </c>
       <c r="BV15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BW15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BX15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="BY15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="BZ15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CA15" t="s">
-        <v>385</v>
-      </c>
-      <c r="CB15" t="s">
         <v>386</v>
       </c>
       <c r="CC15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CD15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CE15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CF15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CG15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CH15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CI15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CJ15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="CK15" t="s">
         <v>386</v>
       </c>
       <c r="CL15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CM15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="CN15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CO15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CP15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CQ15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CR15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CS15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CT15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="CU15" t="s">
-        <v>385</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CW15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CX15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CY15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="CZ15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DA15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DB15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="DC15" t="s">
         <v>386</v>
       </c>
       <c r="DD15" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="DE15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="DF15" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="SE15" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF15" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI15" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="SJ15" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="SK15" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16" spans="1:508">
@@ -6257,46 +6194,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="DZ16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="EA16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EB16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>385</v>
-      </c>
-      <c r="ED16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EE16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EG16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EI16" t="s">
-        <v>385</v>
-      </c>
-      <c r="EJ16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EK16" t="s">
         <v>386</v>
@@ -6305,49 +6215,49 @@
         <v>386</v>
       </c>
       <c r="EM16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EN16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EO16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EP16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="EQ16" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="ER16" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="ET16" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="EV16" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="EX16" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="EY16" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="SE16" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF16" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI16" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="SJ16" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="SK16" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:508">
@@ -6355,97 +6265,97 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="GN17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GO17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GP17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GQ17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GR17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GS17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GT17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GU17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GV17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GW17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GX17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GY17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GZ17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HA17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HB17" t="s">
         <v>386</v>
       </c>
       <c r="HC17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="HD17" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="HE17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HF17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HG17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HH17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HI17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HJ17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HK17" t="s">
         <v>386</v>
       </c>
       <c r="HL17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HM17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HN17" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HO17" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HP17" t="s">
         <v>386</v>
@@ -6457,40 +6367,40 @@
         <v>386</v>
       </c>
       <c r="HS17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HT17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="HU17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="HV17" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="HW17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HX17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="HY17" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="HZ17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IA17" t="s">
         <v>386</v>
       </c>
       <c r="IB17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IC17" t="s">
         <v>386</v>
       </c>
       <c r="ID17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IE17" t="s">
         <v>386</v>
@@ -6502,13 +6412,13 @@
         <v>386</v>
       </c>
       <c r="IH17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IJ17" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="IK17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="IL17" t="s">
         <v>386</v>
@@ -6538,31 +6448,43 @@
         <v>386</v>
       </c>
       <c r="IU17" t="s">
-        <v>385</v>
-      </c>
-      <c r="IV17" t="s">
-        <v>498</v>
+        <v>386</v>
+      </c>
+      <c r="IW17" t="s">
+        <v>506</v>
+      </c>
+      <c r="IX17" t="s">
+        <v>387</v>
+      </c>
+      <c r="IY17" t="s">
+        <v>387</v>
       </c>
       <c r="JJ17" t="s">
-        <v>385</v>
-      </c>
-      <c r="ND17" t="s">
-        <v>498</v>
+        <v>386</v>
+      </c>
+      <c r="NE17" t="s">
+        <v>506</v>
+      </c>
+      <c r="NH17" t="s">
+        <v>386</v>
+      </c>
+      <c r="SC17" t="s">
+        <v>507</v>
       </c>
       <c r="SE17" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF17" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI17" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="SJ17" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="SK17" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:508">
@@ -6573,139 +6495,301 @@
         <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D18" t="s">
-        <v>377</v>
-      </c>
-      <c r="EZ18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FA18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FB18" t="s">
-        <v>386</v>
-      </c>
-      <c r="FC18" t="s">
-        <v>386</v>
-      </c>
-      <c r="FD18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FE18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FF18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FG18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FH18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FI18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FK18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FL18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FM18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FN18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FO18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FP18" t="s">
-        <v>386</v>
-      </c>
-      <c r="FS18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FT18" t="s">
-        <v>386</v>
-      </c>
-      <c r="FU18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FV18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FW18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY18" t="s">
-        <v>385</v>
-      </c>
-      <c r="FZ18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GA18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GC18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GD18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GE18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GF18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GG18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GH18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GI18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GJ18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GK18" t="s">
-        <v>385</v>
-      </c>
-      <c r="GL18" t="s">
-        <v>471</v>
-      </c>
-      <c r="GM18" t="s">
-        <v>475</v>
+        <v>378</v>
+      </c>
+      <c r="I18" t="s">
+        <v>386</v>
+      </c>
+      <c r="J18" t="s">
+        <v>386</v>
+      </c>
+      <c r="K18" t="s">
+        <v>386</v>
+      </c>
+      <c r="L18" t="s">
+        <v>386</v>
+      </c>
+      <c r="M18" t="s">
+        <v>386</v>
+      </c>
+      <c r="N18" t="s">
+        <v>386</v>
+      </c>
+      <c r="O18" t="s">
+        <v>386</v>
+      </c>
+      <c r="P18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>386</v>
+      </c>
+      <c r="R18" t="s">
+        <v>386</v>
+      </c>
+      <c r="S18" t="s">
+        <v>386</v>
+      </c>
+      <c r="T18" t="s">
+        <v>386</v>
+      </c>
+      <c r="U18" t="s">
+        <v>386</v>
+      </c>
+      <c r="V18" t="s">
+        <v>386</v>
+      </c>
+      <c r="W18" t="s">
+        <v>386</v>
+      </c>
+      <c r="X18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>390</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>402</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>405</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>387</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>406</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>410</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>408</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>417</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>387</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>387</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>420</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY18" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC18" t="s">
+        <v>387</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>425</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>427</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>432</v>
       </c>
       <c r="SE18" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF18" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI18" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="SJ18" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="SK18" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:508">
@@ -6713,7 +6797,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C19" t="s">
         <v>372</v>
@@ -6721,86 +6805,89 @@
       <c r="D19" t="s">
         <v>377</v>
       </c>
-      <c r="E19" t="s">
-        <v>381</v>
-      </c>
-      <c r="F19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G19" t="s">
-        <v>383</v>
-      </c>
-      <c r="H19" t="s">
-        <v>384</v>
-      </c>
-      <c r="DG19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DH19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DI19" t="s">
-        <v>430</v>
-      </c>
-      <c r="DJ19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DK19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DM19" t="s">
-        <v>432</v>
-      </c>
-      <c r="DN19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DO19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DP19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DQ19" t="s">
-        <v>386</v>
-      </c>
-      <c r="DR19" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS19" t="s">
-        <v>386</v>
-      </c>
-      <c r="DU19" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW19" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY19" t="s">
-        <v>437</v>
-      </c>
-      <c r="FQ19" t="s">
-        <v>385</v>
-      </c>
-      <c r="SD19" t="s">
-        <v>501</v>
+      <c r="DZ19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>387</v>
+      </c>
+      <c r="EL19" t="s">
+        <v>387</v>
+      </c>
+      <c r="EM19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP19" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>451</v>
+      </c>
+      <c r="ER19" t="s">
+        <v>456</v>
+      </c>
+      <c r="ET19" t="s">
+        <v>459</v>
+      </c>
+      <c r="EV19" t="s">
+        <v>463</v>
+      </c>
+      <c r="EX19" t="s">
+        <v>468</v>
+      </c>
+      <c r="EY19" t="s">
+        <v>474</v>
       </c>
       <c r="SE19" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="SF19" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="SI19" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="SJ19" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="SK19" t="s">
-        <v>529</v>
-      </c>
-      <c r="SN19" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:508">
@@ -6808,103 +6895,214 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" t="s">
-        <v>381</v>
-      </c>
-      <c r="F20" t="s">
-        <v>382</v>
-      </c>
-      <c r="G20" t="s">
-        <v>383</v>
-      </c>
-      <c r="H20" t="s">
-        <v>384</v>
-      </c>
-      <c r="DG20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DH20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DI20" t="s">
-        <v>430</v>
-      </c>
-      <c r="DJ20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DK20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DM20" t="s">
-        <v>433</v>
-      </c>
-      <c r="DN20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DO20" t="s">
-        <v>386</v>
-      </c>
-      <c r="DP20" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DR20" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DT20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DU20" t="s">
-        <v>385</v>
-      </c>
-      <c r="DV20" t="s">
-        <v>386</v>
-      </c>
-      <c r="DW20" t="s">
-        <v>386</v>
-      </c>
-      <c r="DX20" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY20" t="s">
-        <v>438</v>
-      </c>
-      <c r="FQ20" t="s">
-        <v>385</v>
-      </c>
-      <c r="SD20" t="s">
-        <v>501</v>
+        <v>377</v>
+      </c>
+      <c r="GN20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GO20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GP20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GR20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GS20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GT20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GU20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GV20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY20" t="s">
+        <v>386</v>
+      </c>
+      <c r="GZ20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HA20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HB20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HC20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HD20" t="s">
+        <v>489</v>
+      </c>
+      <c r="HE20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HF20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HG20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HH20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HI20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HJ20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HL20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HM20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HN20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HO20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HP20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HQ20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HR20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HS20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HT20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HU20" t="s">
+        <v>387</v>
+      </c>
+      <c r="HV20" t="s">
+        <v>495</v>
+      </c>
+      <c r="HW20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HX20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HY20" t="s">
+        <v>386</v>
+      </c>
+      <c r="HZ20" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IB20" t="s">
+        <v>386</v>
+      </c>
+      <c r="IC20" t="s">
+        <v>387</v>
+      </c>
+      <c r="ID20" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IF20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IG20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IH20" t="s">
+        <v>386</v>
+      </c>
+      <c r="IJ20" t="s">
+        <v>500</v>
+      </c>
+      <c r="IK20" t="s">
+        <v>386</v>
+      </c>
+      <c r="IL20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IM20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IN20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IO20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IP20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IQ20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IR20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IS20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IT20" t="s">
+        <v>387</v>
+      </c>
+      <c r="IU20" t="s">
+        <v>386</v>
+      </c>
+      <c r="IV20" t="s">
+        <v>505</v>
+      </c>
+      <c r="JJ20" t="s">
+        <v>386</v>
+      </c>
+      <c r="ND20" t="s">
+        <v>505</v>
       </c>
       <c r="SE20" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="SF20" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="SI20" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="SJ20" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="SK20" t="s">
-        <v>530</v>
-      </c>
-      <c r="SN20" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:508">
@@ -6912,31 +7110,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="EZ21" t="s">
         <v>386</v>
       </c>
+      <c r="FA21" t="s">
+        <v>386</v>
+      </c>
       <c r="FB21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="FC21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="FD21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FE21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FF21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FG21" t="s">
         <v>386</v>
@@ -6945,103 +7146,106 @@
         <v>386</v>
       </c>
       <c r="FI21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FJ21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FK21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FL21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FM21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FN21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FO21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FP21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="FS21" t="s">
         <v>386</v>
       </c>
       <c r="FT21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="FU21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FV21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FW21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FX21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FY21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FZ21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GA21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GB21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GC21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GD21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GE21" t="s">
         <v>386</v>
       </c>
       <c r="GF21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GG21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GH21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GI21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GJ21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GK21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="GL21" t="s">
-        <v>472</v>
+        <v>478</v>
+      </c>
+      <c r="GM21" t="s">
+        <v>482</v>
       </c>
       <c r="SE21" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF21" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI21" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="SJ21" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="SK21" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:508">
@@ -7049,67 +7253,94 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
-      </c>
-      <c r="DZ22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" t="s">
+        <v>381</v>
+      </c>
+      <c r="F22" t="s">
+        <v>382</v>
+      </c>
+      <c r="G22" t="s">
+        <v>384</v>
+      </c>
+      <c r="H22" t="s">
         <v>385</v>
       </c>
-      <c r="EA22" t="s">
-        <v>385</v>
-      </c>
-      <c r="EK22" t="s">
-        <v>385</v>
-      </c>
-      <c r="EL22" t="s">
-        <v>386</v>
-      </c>
-      <c r="EM22" t="s">
-        <v>385</v>
-      </c>
-      <c r="EN22" t="s">
-        <v>385</v>
-      </c>
-      <c r="EO22" t="s">
-        <v>385</v>
-      </c>
-      <c r="EP22" t="s">
-        <v>385</v>
-      </c>
-      <c r="EQ22" t="s">
-        <v>445</v>
-      </c>
-      <c r="ER22" t="s">
-        <v>447</v>
-      </c>
-      <c r="ET22" t="s">
-        <v>453</v>
-      </c>
-      <c r="EX22" t="s">
-        <v>462</v>
-      </c>
-      <c r="EY22" t="s">
-        <v>468</v>
+      <c r="DG22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI22" t="s">
+        <v>434</v>
+      </c>
+      <c r="DJ22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM22" t="s">
+        <v>437</v>
+      </c>
+      <c r="DN22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DP22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DQ22" t="s">
+        <v>387</v>
+      </c>
+      <c r="DR22" t="s">
+        <v>387</v>
+      </c>
+      <c r="DS22" t="s">
+        <v>387</v>
+      </c>
+      <c r="DU22" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>387</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>443</v>
+      </c>
+      <c r="FQ22" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD22" t="s">
+        <v>509</v>
       </c>
       <c r="SE22" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="SF22" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="SI22" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="SJ22" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="SK22" t="s">
-        <v>532</v>
+        <v>541</v>
+      </c>
+      <c r="SN22" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:508">
@@ -7117,310 +7348,103 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
         <v>373</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
-      </c>
-      <c r="I23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" t="s">
         <v>385</v>
       </c>
-      <c r="J23" t="s">
-        <v>385</v>
-      </c>
-      <c r="K23" t="s">
-        <v>385</v>
-      </c>
-      <c r="L23" t="s">
-        <v>385</v>
-      </c>
-      <c r="M23" t="s">
-        <v>385</v>
-      </c>
-      <c r="N23" t="s">
-        <v>385</v>
-      </c>
-      <c r="O23" t="s">
-        <v>385</v>
-      </c>
-      <c r="P23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>385</v>
-      </c>
-      <c r="R23" t="s">
-        <v>385</v>
-      </c>
-      <c r="S23" t="s">
-        <v>385</v>
-      </c>
-      <c r="T23" t="s">
-        <v>385</v>
-      </c>
-      <c r="U23" t="s">
-        <v>385</v>
-      </c>
-      <c r="V23" t="s">
-        <v>385</v>
-      </c>
-      <c r="W23" t="s">
-        <v>385</v>
-      </c>
-      <c r="X23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>390</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>397</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>386</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>402</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>404</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>386</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>386</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>406</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>407</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>409</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>411</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>412</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>414</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>385</v>
-      </c>
-      <c r="BZ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CA23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CB23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CC23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CD23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CE23" t="s">
-        <v>386</v>
-      </c>
-      <c r="CF23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CG23" t="s">
-        <v>386</v>
-      </c>
-      <c r="CK23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CL23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CM23" t="s">
-        <v>419</v>
-      </c>
-      <c r="CN23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CO23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CP23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CQ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CR23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CS23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CT23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CU23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CV23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CW23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CX23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CY23" t="s">
-        <v>385</v>
-      </c>
-      <c r="CZ23" t="s">
-        <v>385</v>
-      </c>
-      <c r="DA23" t="s">
-        <v>385</v>
-      </c>
-      <c r="DB23" t="s">
-        <v>385</v>
-      </c>
-      <c r="DC23" t="s">
-        <v>385</v>
-      </c>
-      <c r="DD23" t="s">
-        <v>422</v>
-      </c>
-      <c r="DE23" t="s">
-        <v>425</v>
-      </c>
-      <c r="DF23" t="s">
-        <v>429</v>
+      <c r="DG23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI23" t="s">
+        <v>434</v>
+      </c>
+      <c r="DJ23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>438</v>
+      </c>
+      <c r="DN23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>387</v>
+      </c>
+      <c r="DP23" t="s">
+        <v>387</v>
+      </c>
+      <c r="DQ23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR23" t="s">
+        <v>387</v>
+      </c>
+      <c r="DS23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU23" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>387</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>387</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>387</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>444</v>
+      </c>
+      <c r="FQ23" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD23" t="s">
+        <v>509</v>
       </c>
       <c r="SE23" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="SF23" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="SI23" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="SJ23" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="SK23" t="s">
-        <v>533</v>
+        <v>542</v>
+      </c>
+      <c r="SN23" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:508">
@@ -7428,103 +7452,136 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C24" t="s">
         <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
-      </c>
-      <c r="E24" t="s">
-        <v>381</v>
-      </c>
-      <c r="F24" t="s">
-        <v>382</v>
-      </c>
-      <c r="G24" t="s">
-        <v>383</v>
-      </c>
-      <c r="H24" t="s">
-        <v>384</v>
-      </c>
-      <c r="DG24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DH24" t="s">
-        <v>386</v>
-      </c>
-      <c r="DI24" t="s">
-        <v>430</v>
-      </c>
-      <c r="DJ24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DK24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DM24" t="s">
-        <v>434</v>
-      </c>
-      <c r="DN24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DO24" t="s">
-        <v>386</v>
-      </c>
-      <c r="DP24" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DR24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DS24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DT24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DU24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DV24" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW24" t="s">
-        <v>386</v>
-      </c>
-      <c r="DX24" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY24" t="s">
-        <v>439</v>
-      </c>
-      <c r="FQ24" t="s">
-        <v>385</v>
-      </c>
-      <c r="SD24" t="s">
-        <v>501</v>
+        <v>378</v>
+      </c>
+      <c r="EZ24" t="s">
+        <v>387</v>
+      </c>
+      <c r="FB24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG24" t="s">
+        <v>387</v>
+      </c>
+      <c r="FH24" t="s">
+        <v>387</v>
+      </c>
+      <c r="FI24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FO24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP24" t="s">
+        <v>387</v>
+      </c>
+      <c r="FS24" t="s">
+        <v>387</v>
+      </c>
+      <c r="FT24" t="s">
+        <v>387</v>
+      </c>
+      <c r="FU24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY24" t="s">
+        <v>386</v>
+      </c>
+      <c r="FZ24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GE24" t="s">
+        <v>387</v>
+      </c>
+      <c r="GF24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GH24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK24" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL24" t="s">
+        <v>479</v>
       </c>
       <c r="SE24" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="SF24" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="SI24" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="SJ24" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="SK24" t="s">
-        <v>534</v>
-      </c>
-      <c r="SN24" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:508">
@@ -7532,229 +7589,67 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
-      </c>
-      <c r="I25" t="s">
-        <v>385</v>
-      </c>
-      <c r="J25" t="s">
-        <v>385</v>
-      </c>
-      <c r="K25" t="s">
-        <v>385</v>
-      </c>
-      <c r="L25" t="s">
-        <v>385</v>
-      </c>
-      <c r="M25" t="s">
-        <v>385</v>
-      </c>
-      <c r="N25" t="s">
-        <v>385</v>
-      </c>
-      <c r="O25" t="s">
-        <v>385</v>
-      </c>
-      <c r="P25" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>385</v>
-      </c>
-      <c r="R25" t="s">
-        <v>385</v>
-      </c>
-      <c r="S25" t="s">
-        <v>385</v>
-      </c>
-      <c r="T25" t="s">
-        <v>385</v>
-      </c>
-      <c r="U25" t="s">
-        <v>385</v>
-      </c>
-      <c r="V25" t="s">
-        <v>385</v>
-      </c>
-      <c r="W25" t="s">
-        <v>385</v>
-      </c>
-      <c r="X25" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>385</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>386</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>395</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>398</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>385</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>403</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>410</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>409</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>411</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>412</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>413</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>385</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CN25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CO25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CP25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CQ25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CR25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CS25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CT25" t="s">
-        <v>386</v>
-      </c>
-      <c r="CU25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CV25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CW25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CX25" t="s">
-        <v>385</v>
-      </c>
-      <c r="CY25" t="s">
-        <v>386</v>
-      </c>
-      <c r="CZ25" t="s">
-        <v>385</v>
-      </c>
-      <c r="DA25" t="s">
-        <v>385</v>
-      </c>
-      <c r="DB25" t="s">
-        <v>386</v>
-      </c>
-      <c r="DC25" t="s">
-        <v>385</v>
-      </c>
-      <c r="DD25" t="s">
-        <v>423</v>
-      </c>
-      <c r="DE25" t="s">
-        <v>425</v>
+        <v>379</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EL25" t="s">
+        <v>387</v>
+      </c>
+      <c r="EM25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP25" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ25" t="s">
+        <v>452</v>
+      </c>
+      <c r="ER25" t="s">
+        <v>454</v>
+      </c>
+      <c r="ET25" t="s">
+        <v>460</v>
+      </c>
+      <c r="EX25" t="s">
+        <v>469</v>
+      </c>
+      <c r="EY25" t="s">
+        <v>475</v>
       </c>
       <c r="SE25" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF25" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI25" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="SJ25" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="SK25" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:508">
@@ -7770,140 +7665,302 @@
       <c r="D26" t="s">
         <v>379</v>
       </c>
-      <c r="DL26" t="s">
-        <v>385</v>
-      </c>
-      <c r="EZ26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FA26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FB26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FC26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FD26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FE26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FF26" t="s">
-        <v>386</v>
-      </c>
-      <c r="FG26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FH26" t="s">
-        <v>386</v>
-      </c>
-      <c r="FI26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FK26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FL26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FM26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FN26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FO26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FP26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FR26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FS26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FT26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FU26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FV26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FW26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY26" t="s">
-        <v>385</v>
-      </c>
-      <c r="FZ26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GA26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GC26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GD26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GE26" t="s">
-        <v>386</v>
-      </c>
-      <c r="GF26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GG26" t="s">
-        <v>386</v>
-      </c>
-      <c r="GH26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GI26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GJ26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GK26" t="s">
-        <v>385</v>
-      </c>
-      <c r="GL26" t="s">
-        <v>473</v>
-      </c>
-      <c r="GM26" t="s">
-        <v>476</v>
+      <c r="I26" t="s">
+        <v>386</v>
+      </c>
+      <c r="J26" t="s">
+        <v>386</v>
+      </c>
+      <c r="K26" t="s">
+        <v>386</v>
+      </c>
+      <c r="L26" t="s">
+        <v>386</v>
+      </c>
+      <c r="M26" t="s">
+        <v>386</v>
+      </c>
+      <c r="N26" t="s">
+        <v>386</v>
+      </c>
+      <c r="O26" t="s">
+        <v>386</v>
+      </c>
+      <c r="P26" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>386</v>
+      </c>
+      <c r="R26" t="s">
+        <v>386</v>
+      </c>
+      <c r="S26" t="s">
+        <v>386</v>
+      </c>
+      <c r="T26" t="s">
+        <v>386</v>
+      </c>
+      <c r="U26" t="s">
+        <v>386</v>
+      </c>
+      <c r="V26" t="s">
+        <v>386</v>
+      </c>
+      <c r="W26" t="s">
+        <v>386</v>
+      </c>
+      <c r="X26" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>387</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>415</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>386</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>387</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>387</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>421</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CU26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY26" t="s">
+        <v>386</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA26" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB26" t="s">
+        <v>386</v>
+      </c>
+      <c r="DC26" t="s">
+        <v>386</v>
+      </c>
+      <c r="DD26" t="s">
+        <v>425</v>
+      </c>
+      <c r="DE26" t="s">
+        <v>429</v>
+      </c>
+      <c r="DF26" t="s">
+        <v>433</v>
       </c>
       <c r="SE26" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF26" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI26" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="SJ26" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="SK26" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:508">
@@ -7911,97 +7968,103 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
-      </c>
-      <c r="DZ27" t="s">
+        <v>379</v>
+      </c>
+      <c r="E27" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="s">
         <v>385</v>
       </c>
-      <c r="EA27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EB27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EC27" t="s">
-        <v>385</v>
-      </c>
-      <c r="ED27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EE27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EF27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EG27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EH27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EI27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EJ27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EK27" t="s">
-        <v>386</v>
-      </c>
-      <c r="EL27" t="s">
-        <v>386</v>
-      </c>
-      <c r="EM27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EN27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EO27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EP27" t="s">
-        <v>385</v>
-      </c>
-      <c r="EQ27" t="s">
-        <v>446</v>
-      </c>
-      <c r="ER27" t="s">
-        <v>450</v>
-      </c>
-      <c r="ET27" t="s">
-        <v>454</v>
-      </c>
-      <c r="EV27" t="s">
-        <v>457</v>
-      </c>
-      <c r="EX27" t="s">
-        <v>463</v>
-      </c>
-      <c r="EY27" t="s">
-        <v>469</v>
+      <c r="DG27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH27" t="s">
+        <v>387</v>
+      </c>
+      <c r="DI27" t="s">
+        <v>434</v>
+      </c>
+      <c r="DJ27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DK27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM27" t="s">
+        <v>439</v>
+      </c>
+      <c r="DN27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DO27" t="s">
+        <v>387</v>
+      </c>
+      <c r="DP27" t="s">
+        <v>387</v>
+      </c>
+      <c r="DQ27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DS27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DT27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV27" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW27" t="s">
+        <v>387</v>
+      </c>
+      <c r="DX27" t="s">
+        <v>387</v>
+      </c>
+      <c r="DY27" t="s">
+        <v>445</v>
+      </c>
+      <c r="FQ27" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD27" t="s">
+        <v>509</v>
       </c>
       <c r="SE27" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="SF27" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="SI27" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="SJ27" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="SK27" t="s">
-        <v>537</v>
+        <v>546</v>
+      </c>
+      <c r="SN27" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="1:508">
@@ -8017,140 +8080,221 @@
       <c r="D28" t="s">
         <v>380</v>
       </c>
-      <c r="DL28" t="s">
-        <v>385</v>
-      </c>
-      <c r="EZ28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FA28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FB28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FC28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FD28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FE28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FF28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FG28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FH28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FI28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FJ28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FK28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FL28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FM28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FN28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FO28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FP28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FR28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FS28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FT28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FU28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FV28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FW28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FX28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY28" t="s">
-        <v>385</v>
-      </c>
-      <c r="FZ28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GA28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GB28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GC28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GD28" t="s">
-        <v>386</v>
-      </c>
-      <c r="GE28" t="s">
-        <v>386</v>
-      </c>
-      <c r="GF28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GG28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GH28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GI28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GJ28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GK28" t="s">
-        <v>385</v>
-      </c>
-      <c r="GL28" t="s">
-        <v>474</v>
-      </c>
-      <c r="GM28" t="s">
-        <v>477</v>
+      <c r="I28" t="s">
+        <v>386</v>
+      </c>
+      <c r="J28" t="s">
+        <v>386</v>
+      </c>
+      <c r="K28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L28" t="s">
+        <v>386</v>
+      </c>
+      <c r="M28" t="s">
+        <v>386</v>
+      </c>
+      <c r="N28" t="s">
+        <v>386</v>
+      </c>
+      <c r="O28" t="s">
+        <v>386</v>
+      </c>
+      <c r="P28" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>386</v>
+      </c>
+      <c r="R28" t="s">
+        <v>386</v>
+      </c>
+      <c r="S28" t="s">
+        <v>386</v>
+      </c>
+      <c r="T28" t="s">
+        <v>386</v>
+      </c>
+      <c r="U28" t="s">
+        <v>386</v>
+      </c>
+      <c r="V28" t="s">
+        <v>386</v>
+      </c>
+      <c r="W28" t="s">
+        <v>386</v>
+      </c>
+      <c r="X28" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>386</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>404</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>411</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>413</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>414</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BQ28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>386</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CQ28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CR28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CS28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>387</v>
+      </c>
+      <c r="CU28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CV28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CW28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CX28" t="s">
+        <v>386</v>
+      </c>
+      <c r="CY28" t="s">
+        <v>387</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>386</v>
+      </c>
+      <c r="DA28" t="s">
+        <v>386</v>
+      </c>
+      <c r="DB28" t="s">
+        <v>387</v>
+      </c>
+      <c r="DC28" t="s">
+        <v>386</v>
+      </c>
+      <c r="DD28" t="s">
+        <v>426</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>429</v>
       </c>
       <c r="SE28" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF28" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI28" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="SJ28" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="SK28" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="29" spans="1:508">
@@ -8158,211 +8302,148 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
-      </c>
-      <c r="GN29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GO29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GP29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GQ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GR29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GS29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GT29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GU29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GV29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GW29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GX29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GY29" t="s">
-        <v>385</v>
-      </c>
-      <c r="GZ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HA29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HB29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HC29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HD29" t="s">
+        <v>379</v>
+      </c>
+      <c r="DL29" t="s">
+        <v>386</v>
+      </c>
+      <c r="EZ29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FA29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FB29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF29" t="s">
+        <v>387</v>
+      </c>
+      <c r="FG29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FH29" t="s">
+        <v>387</v>
+      </c>
+      <c r="FI29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FO29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FR29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FS29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FT29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FU29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY29" t="s">
+        <v>386</v>
+      </c>
+      <c r="FZ29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GE29" t="s">
+        <v>387</v>
+      </c>
+      <c r="GF29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG29" t="s">
+        <v>387</v>
+      </c>
+      <c r="GH29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK29" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL29" t="s">
+        <v>480</v>
+      </c>
+      <c r="GM29" t="s">
         <v>483</v>
       </c>
-      <c r="HE29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HF29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HG29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HH29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HI29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HJ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HK29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HL29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HM29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HN29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HO29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HP29" t="s">
-        <v>386</v>
-      </c>
-      <c r="HQ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HR29" t="s">
-        <v>386</v>
-      </c>
-      <c r="HS29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HT29" t="s">
-        <v>386</v>
-      </c>
-      <c r="HU29" t="s">
-        <v>386</v>
-      </c>
-      <c r="HW29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HX29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HY29" t="s">
-        <v>385</v>
-      </c>
-      <c r="HZ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IA29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IB29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IC29" t="s">
-        <v>385</v>
-      </c>
-      <c r="ID29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IE29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IF29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IG29" t="s">
-        <v>386</v>
-      </c>
-      <c r="IH29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IJ29" t="s">
-        <v>494</v>
-      </c>
-      <c r="IK29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IL29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IM29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IN29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IO29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IP29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IQ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IR29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IS29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IT29" t="s">
-        <v>386</v>
-      </c>
-      <c r="IU29" t="s">
-        <v>385</v>
-      </c>
-      <c r="IV29" t="s">
-        <v>494</v>
-      </c>
-      <c r="JJ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="ND29" t="s">
-        <v>494</v>
-      </c>
       <c r="SE29" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SF29" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="SI29" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="SJ29" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="SK29" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:508">
@@ -8370,7 +8451,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C30" t="s">
         <v>372</v>
@@ -8378,92 +8459,551 @@
       <c r="D30" t="s">
         <v>380</v>
       </c>
-      <c r="E30" t="s">
+      <c r="DZ30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EA30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EB30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EC30" t="s">
+        <v>386</v>
+      </c>
+      <c r="ED30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EE30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EF30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EG30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EH30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EI30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EJ30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EK30" t="s">
+        <v>387</v>
+      </c>
+      <c r="EL30" t="s">
+        <v>387</v>
+      </c>
+      <c r="EM30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EN30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EO30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EP30" t="s">
+        <v>386</v>
+      </c>
+      <c r="EQ30" t="s">
+        <v>453</v>
+      </c>
+      <c r="ER30" t="s">
+        <v>457</v>
+      </c>
+      <c r="ET30" t="s">
+        <v>461</v>
+      </c>
+      <c r="EV30" t="s">
+        <v>464</v>
+      </c>
+      <c r="EX30" t="s">
+        <v>470</v>
+      </c>
+      <c r="EY30" t="s">
+        <v>476</v>
+      </c>
+      <c r="SE30" t="s">
+        <v>511</v>
+      </c>
+      <c r="SF30" t="s">
+        <v>511</v>
+      </c>
+      <c r="SI30" t="s">
+        <v>520</v>
+      </c>
+      <c r="SJ30" t="s">
+        <v>520</v>
+      </c>
+      <c r="SK30" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:508">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" t="s">
+        <v>380</v>
+      </c>
+      <c r="DL31" t="s">
+        <v>386</v>
+      </c>
+      <c r="EZ31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FA31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FB31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FC31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FD31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FE31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FF31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FG31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FH31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FI31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FJ31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FK31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FL31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FM31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FN31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FO31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FR31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FS31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FT31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FU31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FV31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FW31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FX31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FY31" t="s">
+        <v>386</v>
+      </c>
+      <c r="FZ31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GA31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GB31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GC31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GD31" t="s">
+        <v>387</v>
+      </c>
+      <c r="GE31" t="s">
+        <v>387</v>
+      </c>
+      <c r="GF31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GG31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GH31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GI31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GJ31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GK31" t="s">
+        <v>386</v>
+      </c>
+      <c r="GL31" t="s">
+        <v>481</v>
+      </c>
+      <c r="GM31" t="s">
+        <v>484</v>
+      </c>
+      <c r="SE31" t="s">
+        <v>511</v>
+      </c>
+      <c r="SF31" t="s">
+        <v>511</v>
+      </c>
+      <c r="SI31" t="s">
+        <v>517</v>
+      </c>
+      <c r="SJ31" t="s">
+        <v>517</v>
+      </c>
+      <c r="SK31" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:508">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>368</v>
+      </c>
+      <c r="C32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" t="s">
+        <v>380</v>
+      </c>
+      <c r="GN32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GO32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GP32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GQ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GR32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GS32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GT32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GU32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GV32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GX32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GY32" t="s">
+        <v>386</v>
+      </c>
+      <c r="GZ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HA32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HB32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HC32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HD32" t="s">
+        <v>490</v>
+      </c>
+      <c r="HE32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HF32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HG32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HH32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HI32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HJ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HK32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HL32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HM32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HN32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HO32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HP32" t="s">
+        <v>387</v>
+      </c>
+      <c r="HQ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HR32" t="s">
+        <v>387</v>
+      </c>
+      <c r="HS32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HT32" t="s">
+        <v>387</v>
+      </c>
+      <c r="HU32" t="s">
+        <v>387</v>
+      </c>
+      <c r="HW32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HX32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HY32" t="s">
+        <v>386</v>
+      </c>
+      <c r="HZ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IB32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IC32" t="s">
+        <v>386</v>
+      </c>
+      <c r="ID32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IE32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IF32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IG32" t="s">
+        <v>387</v>
+      </c>
+      <c r="IH32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IJ32" t="s">
+        <v>501</v>
+      </c>
+      <c r="IK32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IL32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IM32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IN32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IO32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IP32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IQ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IR32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IS32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IT32" t="s">
+        <v>387</v>
+      </c>
+      <c r="IU32" t="s">
+        <v>386</v>
+      </c>
+      <c r="IV32" t="s">
+        <v>501</v>
+      </c>
+      <c r="JJ32" t="s">
+        <v>386</v>
+      </c>
+      <c r="ND32" t="s">
+        <v>501</v>
+      </c>
+      <c r="SE32" t="s">
+        <v>511</v>
+      </c>
+      <c r="SF32" t="s">
+        <v>511</v>
+      </c>
+      <c r="SI32" t="s">
+        <v>517</v>
+      </c>
+      <c r="SJ32" t="s">
+        <v>517</v>
+      </c>
+      <c r="SK32" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="33" spans="1:508">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E33" t="s">
         <v>381</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F33" t="s">
         <v>382</v>
       </c>
-      <c r="G30" t="s">
-        <v>383</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G33" t="s">
         <v>384</v>
       </c>
-      <c r="DG30" t="s">
+      <c r="H33" t="s">
         <v>385</v>
       </c>
-      <c r="DH30" t="s">
-        <v>385</v>
-      </c>
-      <c r="DI30" t="s">
-        <v>430</v>
-      </c>
-      <c r="DJ30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DK30" t="s">
-        <v>385</v>
-      </c>
-      <c r="DM30" t="s">
-        <v>435</v>
-      </c>
-      <c r="DN30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DO30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DP30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DQ30" t="s">
-        <v>385</v>
-      </c>
-      <c r="DR30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DS30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DT30" t="s">
-        <v>385</v>
-      </c>
-      <c r="DU30" t="s">
-        <v>385</v>
-      </c>
-      <c r="DV30" t="s">
-        <v>385</v>
-      </c>
-      <c r="DW30" t="s">
-        <v>386</v>
-      </c>
-      <c r="DY30" t="s">
+      <c r="DG33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DH33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DI33" t="s">
+        <v>434</v>
+      </c>
+      <c r="DJ33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DK33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DM33" t="s">
         <v>440</v>
       </c>
-      <c r="FQ30" t="s">
-        <v>385</v>
-      </c>
-      <c r="SD30" t="s">
-        <v>501</v>
-      </c>
-      <c r="SE30" t="s">
-        <v>502</v>
-      </c>
-      <c r="SF30" t="s">
-        <v>504</v>
-      </c>
-      <c r="SI30" t="s">
-        <v>505</v>
-      </c>
-      <c r="SJ30" t="s">
-        <v>505</v>
-      </c>
-      <c r="SK30" t="s">
-        <v>540</v>
-      </c>
-      <c r="SN30" t="s">
-        <v>546</v>
+      <c r="DN33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DO33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DP33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DQ33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DR33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DS33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DT33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DU33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DV33" t="s">
+        <v>386</v>
+      </c>
+      <c r="DW33" t="s">
+        <v>387</v>
+      </c>
+      <c r="DY33" t="s">
+        <v>446</v>
+      </c>
+      <c r="FQ33" t="s">
+        <v>386</v>
+      </c>
+      <c r="SD33" t="s">
+        <v>509</v>
+      </c>
+      <c r="SE33" t="s">
+        <v>510</v>
+      </c>
+      <c r="SF33" t="s">
+        <v>513</v>
+      </c>
+      <c r="SI33" t="s">
+        <v>516</v>
+      </c>
+      <c r="SJ33" t="s">
+        <v>516</v>
+      </c>
+      <c r="SK33" t="s">
+        <v>552</v>
+      </c>
+      <c r="SN33" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1522,7 +1522,7 @@
     <t>Yes, DC officer is of Remba tribe, a circumcizing population and leverages on his knowledge of the tradition. use of champions, and influential people</t>
   </si>
   <si>
-    <t>Addressing both boys and girls on ASRH, destigmatizing vmmc in the process, integration of messages with other related concepts helps reach out to boys and their girl school mates</t>
+    <t>Yes, Addressing both boys and girls on ASRH, destigmatizing vmmc in the process, integration of messages with other related concepts helps reach out to boys and their girl school mates</t>
   </si>
   <si>
     <t>Yes, Calling for support from other clinic departments and professionals, eg. getting a long serving nurse in uniform who is popular in the area to speak to resistant communities because they trust him. Identify influential people in the locality to lead planning of engagements on behalf of the program.</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1546,7 +1546,7 @@
     <t>darkClerk</t>
   </si>
   <si>
-    <t>darkClerk_2</t>
+    <t>vmmcDataClerk</t>
   </si>
   <si>
     <t>staffingCapabilities</t>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4501" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4503" uniqueCount="1002">
   <si>
     <t>startingMonth</t>
   </si>
@@ -2644,7 +2644,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>2025-07-17T09:12:56.208676Z</t>
+    <t>2025-07-17T10:49:57.861078Z</t>
   </si>
   <si>
     <t>2025-07-15T06:57:01.136994Z</t>
@@ -2911,24 +2911,37 @@
     <t>waste management done very poorly</t>
   </si>
   <si>
-    <t>This was covered very well</t>
+    <t>Leadership is strong</t>
+  </si>
+  <si>
+    <t>Pre Cleaning was done at a high standard</t>
+  </si>
+  <si>
+    <t>Needs to Improve 
+Didnt cover hair</t>
+  </si>
+  <si>
+    <t>This was done to the highest standard</t>
+  </si>
+  <si>
+    <t>Date_of_sterilization Cycle_number Cycle_length Cycle_temperature external_indicator_change</t>
+  </si>
+  <si>
+    <t>Didnt reach the required temperature</t>
+  </si>
+  <si>
+    <t>This was done very well</t>
+  </si>
+  <si>
+    <t>Strong storage mechanism</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>Room for improvement</t>
-  </si>
-  <si>
-    <t>Packaging was done well</t>
-  </si>
-  <si>
-    <t>Date_of_sterilization Cycle_number Cycle_length Cycle_temperature external_indicator_change</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -2938,6 +2951,9 @@
     <t>e</t>
   </si>
   <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
     <t>LUPANE</t>
   </si>
   <si>
@@ -2953,13 +2969,13 @@
     <t>GOROMONZI</t>
   </si>
   <si>
-    <t>HURUNGWE</t>
-  </si>
-  <si>
     <t>MARONDERA</t>
   </si>
   <si>
     <t>SANYATI</t>
+  </si>
+  <si>
+    <t>Chidamoyo Mission Hospital</t>
   </si>
   <si>
     <t>Dandanda Rural Health Centre</t>
@@ -5331,7 +5347,7 @@
         <v>627</v>
       </c>
       <c r="UK2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="UL2" t="s">
         <v>627</v>
@@ -5340,19 +5356,19 @@
         <v>627</v>
       </c>
       <c r="UN2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="UO2" t="s">
+        <v>627</v>
+      </c>
+      <c r="UP2" t="s">
+        <v>627</v>
+      </c>
+      <c r="UQ2" t="s">
         <v>946</v>
       </c>
-      <c r="UP2" t="s">
-        <v>627</v>
-      </c>
-      <c r="UQ2" t="s">
-        <v>947</v>
-      </c>
       <c r="UR2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="US2" t="s">
         <v>627</v>
@@ -5367,13 +5383,13 @@
         <v>627</v>
       </c>
       <c r="UW2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="UX2" t="s">
         <v>627</v>
       </c>
       <c r="UY2" t="s">
-        <v>946</v>
+        <v>627</v>
       </c>
       <c r="UZ2" t="s">
         <v>627</v>
@@ -5394,7 +5410,7 @@
         <v>627</v>
       </c>
       <c r="VF2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="VG2" t="s">
         <v>627</v>
@@ -5412,13 +5428,13 @@
         <v>948</v>
       </c>
       <c r="VL2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="VM2" t="s">
         <v>627</v>
       </c>
       <c r="VN2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="VO2" t="s">
         <v>949</v>
@@ -5442,10 +5458,10 @@
         <v>627</v>
       </c>
       <c r="VV2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="VW2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="VX2" t="s">
         <v>627</v>
@@ -5466,7 +5482,7 @@
         <v>627</v>
       </c>
       <c r="WD2" t="s">
-        <v>814</v>
+        <v>950</v>
       </c>
       <c r="WE2" t="s">
         <v>627</v>
@@ -5478,7 +5494,7 @@
         <v>627</v>
       </c>
       <c r="WH2" t="s">
-        <v>814</v>
+        <v>951</v>
       </c>
       <c r="WI2" t="s">
         <v>627</v>
@@ -5490,10 +5506,16 @@
         <v>627</v>
       </c>
       <c r="WL2" t="s">
-        <v>814</v>
+        <v>952</v>
+      </c>
+      <c r="WV2" t="s">
+        <v>958</v>
+      </c>
+      <c r="WW2" t="s">
+        <v>966</v>
       </c>
       <c r="WY2" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3" spans="1:623">
@@ -5576,16 +5598,16 @@
         <v>942</v>
       </c>
       <c r="WU3" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV3" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="WW3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="WY3" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:623">
@@ -5668,16 +5690,16 @@
         <v>943</v>
       </c>
       <c r="WU4" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV4" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="WW4" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="WY4" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:623">
@@ -5730,16 +5752,16 @@
         <v>940</v>
       </c>
       <c r="WU5" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV5" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="WW5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="WY5" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="6" spans="1:623">
@@ -5810,19 +5832,19 @@
         <v>939</v>
       </c>
       <c r="WU6" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV6" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="WW6" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="WX6" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="WY6" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="7" spans="1:623">
@@ -5905,16 +5927,16 @@
         <v>944</v>
       </c>
       <c r="WU7" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV7" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="WW7" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="WY7" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="8" spans="1:623">
@@ -5967,16 +5989,16 @@
         <v>941</v>
       </c>
       <c r="WU8" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV8" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="WW8" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="WY8" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9" spans="1:623">
@@ -6083,19 +6105,19 @@
         <v>2025</v>
       </c>
       <c r="WU9" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV9" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW9" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="WX9" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="WY9" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="10" spans="1:623">
@@ -6199,19 +6221,19 @@
         <v>2025</v>
       </c>
       <c r="WU10" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV10" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW10" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="WX10" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="WY10" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:623">
@@ -6315,19 +6337,19 @@
         <v>2025</v>
       </c>
       <c r="WU11" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV11" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW11" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WX11" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="WY11" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="12" spans="1:623">
@@ -6644,16 +6666,16 @@
         <v>2025</v>
       </c>
       <c r="WU12" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV12" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW12" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="WY12" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:623">
@@ -6799,16 +6821,16 @@
         <v>2025</v>
       </c>
       <c r="WU13" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV13" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW13" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY13" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="14" spans="1:623">
@@ -7122,16 +7144,16 @@
         <v>2025</v>
       </c>
       <c r="WU14" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV14" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW14" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY14" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="15" spans="1:623">
@@ -7199,16 +7221,16 @@
         <v>2025</v>
       </c>
       <c r="WU15" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV15" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW15" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY15" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="16" spans="1:623">
@@ -7423,16 +7445,16 @@
         <v>2025</v>
       </c>
       <c r="WU16" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV16" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW16" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY16" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="17" spans="1:623">
@@ -7647,16 +7669,16 @@
         <v>2025</v>
       </c>
       <c r="WU17" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV17" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW17" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY17" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="18" spans="1:623">
@@ -7715,16 +7737,16 @@
         <v>2025</v>
       </c>
       <c r="WU18" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV18" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW18" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY18" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:623">
@@ -7897,16 +7919,16 @@
         <v>2025</v>
       </c>
       <c r="WU19" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV19" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="WW19" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="WY19" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="20" spans="1:623">
@@ -7977,16 +7999,16 @@
         <v>2025</v>
       </c>
       <c r="WU20" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV20" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW20" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="WY20" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:623">
@@ -8195,16 +8217,16 @@
         <v>2025</v>
       </c>
       <c r="WU21" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV21" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW21" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="WY21" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="22" spans="1:623">
@@ -8353,16 +8375,16 @@
         <v>2025</v>
       </c>
       <c r="WU22" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV22" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW22" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="WY22" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:623">
@@ -8667,16 +8689,16 @@
         <v>2025</v>
       </c>
       <c r="WU23" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV23" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW23" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="WY23" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:623">
@@ -8774,16 +8796,16 @@
         <v>2025</v>
       </c>
       <c r="WU24" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV24" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW24" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="WY24" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="1:623">
@@ -8863,16 +8885,16 @@
         <v>2025</v>
       </c>
       <c r="WU25" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV25" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW25" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="WY25" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="26" spans="1:623">
@@ -9021,16 +9043,16 @@
         <v>2025</v>
       </c>
       <c r="WU26" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV26" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW26" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="WY26" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="27" spans="1:623">
@@ -9311,16 +9333,16 @@
         <v>2025</v>
       </c>
       <c r="WU27" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV27" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW27" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="WY27" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="28" spans="1:623">
@@ -9529,16 +9551,16 @@
         <v>2025</v>
       </c>
       <c r="WU28" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV28" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW28" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="WY28" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="29" spans="1:623">
@@ -9645,19 +9667,19 @@
         <v>2025</v>
       </c>
       <c r="WU29" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV29" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW29" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="WX29" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="WY29" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="30" spans="1:623">
@@ -9728,16 +9750,16 @@
         <v>2025</v>
       </c>
       <c r="WU30" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV30" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW30" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="WY30" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:623">
@@ -9961,16 +9983,16 @@
         <v>2025</v>
       </c>
       <c r="WU31" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV31" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW31" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="WY31" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="1:623">
@@ -10119,16 +10141,16 @@
         <v>2025</v>
       </c>
       <c r="WU32" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV32" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW32" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="WY32" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:623">
@@ -10433,16 +10455,16 @@
         <v>2025</v>
       </c>
       <c r="WU33" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV33" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW33" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="WY33" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:623">
@@ -10549,19 +10571,19 @@
         <v>2025</v>
       </c>
       <c r="WU34" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV34" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="WW34" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="WX34" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="WY34" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="35" spans="1:623">
@@ -10659,16 +10681,16 @@
         <v>2025</v>
       </c>
       <c r="WU35" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV35" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW35" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="WY35" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="36" spans="1:623">
@@ -10997,16 +11019,16 @@
         <v>2025</v>
       </c>
       <c r="WU36" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV36" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW36" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="WY36" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="37" spans="1:623">
@@ -11146,16 +11168,16 @@
         <v>2025</v>
       </c>
       <c r="WU37" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV37" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW37" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="WY37" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="38" spans="1:623">
@@ -11616,16 +11638,16 @@
         <v>2025</v>
       </c>
       <c r="WU38" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV38" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW38" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="WY38" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="39" spans="1:623">
@@ -11720,16 +11742,16 @@
         <v>2025</v>
       </c>
       <c r="WU39" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV39" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW39" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="WY39" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:623">
@@ -11836,19 +11858,19 @@
         <v>2025</v>
       </c>
       <c r="WU40" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW40" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="WX40" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="WY40" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="41" spans="1:623">
@@ -11931,16 +11953,16 @@
         <v>2025</v>
       </c>
       <c r="WU41" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV41" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW41" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="WY41" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:623">
@@ -12263,16 +12285,16 @@
         <v>2025</v>
       </c>
       <c r="WU42" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV42" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW42" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="WY42" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:623">
@@ -12376,19 +12398,19 @@
         <v>2025</v>
       </c>
       <c r="WU43" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV43" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="WW43" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="WX43" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="WY43" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="44" spans="1:623">
@@ -12603,16 +12625,16 @@
         <v>2025</v>
       </c>
       <c r="WU44" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW44" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="WY44" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="45" spans="1:623">
@@ -12758,16 +12780,16 @@
         <v>2025</v>
       </c>
       <c r="WU45" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW45" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="WY45" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="46" spans="1:623">
@@ -12865,16 +12887,16 @@
         <v>2025</v>
       </c>
       <c r="WU46" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV46" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW46" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WY46" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="47" spans="1:623">
@@ -13089,16 +13111,16 @@
         <v>2025</v>
       </c>
       <c r="WU47" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV47" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW47" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WY47" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="48" spans="1:623">
@@ -13196,16 +13218,16 @@
         <v>2025</v>
       </c>
       <c r="WU48" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV48" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW48" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WY48" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:623">
@@ -13525,16 +13547,16 @@
         <v>2025</v>
       </c>
       <c r="WU49" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV49" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW49" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WY49" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="50" spans="1:623">
@@ -13635,19 +13657,19 @@
         <v>2025</v>
       </c>
       <c r="WU50" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV50" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW50" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WX50" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="WY50" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="51" spans="1:623">
@@ -13970,16 +13992,16 @@
         <v>2025</v>
       </c>
       <c r="WU51" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV51" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW51" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WY51" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="52" spans="1:623">
@@ -14125,16 +14147,16 @@
         <v>2025</v>
       </c>
       <c r="WU52" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV52" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WW52" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="WY52" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="53" spans="1:623">
@@ -14454,16 +14476,16 @@
         <v>2025</v>
       </c>
       <c r="WU53" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV53" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW53" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="WY53" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="54" spans="1:623">
@@ -14534,16 +14556,16 @@
         <v>2025</v>
       </c>
       <c r="WU54" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV54" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW54" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="WY54" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="55" spans="1:623">
@@ -14770,16 +14792,16 @@
         <v>2025</v>
       </c>
       <c r="WU55" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV55" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW55" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="WY55" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:623">
@@ -15093,16 +15115,16 @@
         <v>2025</v>
       </c>
       <c r="WU56" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV56" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW56" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="WY56" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="1:623">
@@ -15200,16 +15222,16 @@
         <v>2025</v>
       </c>
       <c r="WU57" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV57" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW57" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="WY57" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="58" spans="1:623">
@@ -15424,16 +15446,16 @@
         <v>2025</v>
       </c>
       <c r="WU58" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV58" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW58" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="WY58" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="59" spans="1:623">
@@ -15576,16 +15598,16 @@
         <v>2025</v>
       </c>
       <c r="WU59" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV59" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW59" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="WY59" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="60" spans="1:623">
@@ -15683,19 +15705,19 @@
         <v>2025</v>
       </c>
       <c r="WU60" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV60" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW60" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="WX60" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="WY60" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="61" spans="1:623">
@@ -15802,19 +15824,19 @@
         <v>2025</v>
       </c>
       <c r="WU61" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV61" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW61" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="WX61" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="WY61" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="62" spans="1:623">
@@ -15951,16 +15973,16 @@
         <v>2025</v>
       </c>
       <c r="WU62" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV62" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW62" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="WY62" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="63" spans="1:623">
@@ -16028,16 +16050,16 @@
         <v>2025</v>
       </c>
       <c r="WU63" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV63" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW63" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="WY63" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:623">
@@ -16354,16 +16376,16 @@
         <v>2025</v>
       </c>
       <c r="WU64" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV64" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW64" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="WY64" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:623">
@@ -16470,19 +16492,19 @@
         <v>2025</v>
       </c>
       <c r="WU65" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV65" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW65" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="WX65" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="WY65" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="66" spans="1:623">
@@ -16718,16 +16740,16 @@
         <v>2025</v>
       </c>
       <c r="WU66" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="WV66" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW66" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="WY66" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:623">
@@ -16876,16 +16898,16 @@
         <v>2025</v>
       </c>
       <c r="WU67" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV67" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="WW67" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="WY67" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="68" spans="1:623">
@@ -16983,16 +17005,16 @@
         <v>2025</v>
       </c>
       <c r="WU68" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="WV68" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW68" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="WY68" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69" spans="1:623">
@@ -17141,16 +17163,16 @@
         <v>2025</v>
       </c>
       <c r="WU69" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="WV69" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW69" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="WY69" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="70" spans="1:623">
@@ -17362,16 +17384,16 @@
         <v>2025</v>
       </c>
       <c r="WU70" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="WV70" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW70" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="WY70" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="71" spans="1:623">
@@ -17475,19 +17497,19 @@
         <v>2025</v>
       </c>
       <c r="WU71" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="WV71" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="WW71" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="WX71" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="WY71" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -2947,9 +2947,6 @@
     <t>OK</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
@@ -3059,6 +3056,9 @@
     <t>MOHCC</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
@@ -3164,7 +3164,7 @@
     <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '0', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '0', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '1', 'mrfmcs': '0', 'registermcs': '0'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5'}]</t>
   </si>
   <si>
-    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '37', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '37', 'current_iteration': '0', 'mrfmcs': '37', 'registermcs': '37'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '35', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '35', 'current_iteration': '1', 'mrfmcs': '35', 'registermcs': '35'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '14', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '0', 'current_iteration': '2', 'mrfmcs': '14', 'registermcs': '14'}]</t>
+    <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '37', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '37', 'current_iteration': '0', 'mrfmcs': '37', 'registermcs': '37'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '35', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '35', 'current_iteration': '1', 'mrfmcs': '35', 'registermcs': '35'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '14', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '14', 'current_iteration': '2', 'mrfmcs': '14', 'registermcs': '14'}]</t>
   </si>
   <si>
     <t>[{'calculatedMonth': 'April', 'calculatedYear': '2025', 'calculated_month_numeric': '4', 'cifno': '4', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '7', 'current_iteration': '0', 'mrfmcs': '7', 'registermcs': '7'}, {'calculatedMonth': 'May', 'calculatedYear': '2025', 'calculated_month_numeric': '5', 'cifno': '9', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '9', 'current_iteration': '1', 'mrfmcs': '9', 'registermcs': '9'}, {'calculatedMonth': 'June', 'calculatedYear': '2025', 'calculated_month_numeric': '6', 'cifno': '5', 'copy-1-of-calculated_month_numeric': 'OK', 'copy-1-of-cifno': '5', 'current_iteration': '2', 'mrfmcs': '5', 'registermcs': '5'}]</t>
@@ -5512,19 +5512,19 @@
         <v>942</v>
       </c>
       <c r="TX2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY2" t="s">
         <v>627</v>
       </c>
       <c r="UA2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="WU2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY2" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ2" t="s">
         <v>995</v>
@@ -5601,28 +5601,28 @@
         <v>942</v>
       </c>
       <c r="TX3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY3" t="s">
         <v>627</v>
       </c>
       <c r="UB3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="UC3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="WU3" t="s">
+        <v>986</v>
+      </c>
+      <c r="WV3" t="s">
         <v>987</v>
       </c>
-      <c r="WV3" t="s">
+      <c r="WW3" t="s">
         <v>988</v>
       </c>
-      <c r="WW3" t="s">
+      <c r="WX3" t="s">
         <v>989</v>
-      </c>
-      <c r="WX3" t="s">
-        <v>990</v>
       </c>
       <c r="WY3" t="s">
         <v>991</v>
@@ -5672,7 +5672,7 @@
         <v>942</v>
       </c>
       <c r="TX4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY4" t="s">
         <v>627</v>
@@ -5734,16 +5734,16 @@
         <v>942</v>
       </c>
       <c r="TX5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY5" t="s">
         <v>627</v>
       </c>
       <c r="UA5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="WY5" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ5" t="s">
         <v>996</v>
@@ -5820,16 +5820,16 @@
         <v>942</v>
       </c>
       <c r="TX6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY6" t="s">
         <v>627</v>
       </c>
       <c r="UB6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="UC6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="WY6" t="s">
         <v>991</v>
@@ -5903,13 +5903,13 @@
         <v>942</v>
       </c>
       <c r="TX7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY7" t="s">
         <v>627</v>
       </c>
       <c r="TZ7" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="WY7" t="s">
         <v>992</v>
@@ -5992,16 +5992,16 @@
         <v>942</v>
       </c>
       <c r="TX8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY8" t="s">
         <v>627</v>
       </c>
       <c r="UB8" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="UC8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="WY8" t="s">
         <v>991</v>
@@ -6057,16 +6057,16 @@
         <v>942</v>
       </c>
       <c r="TX9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY9" t="s">
         <v>627</v>
       </c>
       <c r="UA9" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="WY9" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ9" t="s">
         <v>996</v>
@@ -6137,13 +6137,13 @@
         <v>942</v>
       </c>
       <c r="TX10" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY10" t="s">
         <v>627</v>
       </c>
       <c r="TZ10" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="WY10" t="s">
         <v>992</v>
@@ -6226,19 +6226,19 @@
         <v>942</v>
       </c>
       <c r="TX11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY11" t="s">
         <v>627</v>
       </c>
       <c r="UB11" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="UC11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="WU11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY11" t="s">
         <v>991</v>
@@ -6294,22 +6294,22 @@
         <v>942</v>
       </c>
       <c r="TX12" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY12" t="s">
         <v>627</v>
       </c>
       <c r="UA12" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="WS12" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="WU12" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY12" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ12" t="s">
         <v>996</v>
@@ -6380,19 +6380,19 @@
         <v>942</v>
       </c>
       <c r="TX13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY13" t="s">
         <v>627</v>
       </c>
       <c r="TZ13" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="WT13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="WU13" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY13" t="s">
         <v>992</v>
@@ -6466,19 +6466,19 @@
         <v>942</v>
       </c>
       <c r="TX14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY14" t="s">
         <v>627</v>
       </c>
       <c r="UB14" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="UC14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="WU14" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY14" t="s">
         <v>991</v>
@@ -6534,19 +6534,19 @@
         <v>942</v>
       </c>
       <c r="TX15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY15" t="s">
         <v>627</v>
       </c>
       <c r="UA15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="WU15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY15" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ15" t="s">
         <v>995</v>
@@ -6617,22 +6617,22 @@
         <v>942</v>
       </c>
       <c r="TX16" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY16" t="s">
         <v>627</v>
       </c>
       <c r="TZ16" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="WS16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="WT16" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="WU16" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY16" t="s">
         <v>992</v>
@@ -6700,31 +6700,31 @@
         <v>631</v>
       </c>
       <c r="TQ17" t="s">
-        <v>955</v>
+        <v>632</v>
       </c>
       <c r="TS17" t="s">
-        <v>957</v>
+        <v>632</v>
       </c>
       <c r="TT17" t="s">
         <v>942</v>
       </c>
       <c r="TX17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY17" t="s">
         <v>627</v>
       </c>
       <c r="TZ17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="WS17" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="WT17" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="WU17" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY17" t="s">
         <v>992</v>
@@ -6807,19 +6807,19 @@
         <v>942</v>
       </c>
       <c r="TX18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY18" t="s">
         <v>627</v>
       </c>
       <c r="UB18" t="s">
+        <v>975</v>
+      </c>
+      <c r="UC18" t="s">
         <v>976</v>
       </c>
-      <c r="UC18" t="s">
-        <v>977</v>
-      </c>
       <c r="WU18" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY18" t="s">
         <v>991</v>
@@ -6875,22 +6875,22 @@
         <v>942</v>
       </c>
       <c r="TX19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY19" t="s">
         <v>627</v>
       </c>
       <c r="UA19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="WS19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="WU19" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="WY19" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ19" t="s">
         <v>996</v>
@@ -6961,19 +6961,19 @@
         <v>942</v>
       </c>
       <c r="TX20" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY20" t="s">
         <v>627</v>
       </c>
       <c r="TZ20" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="WT20" t="s">
+        <v>985</v>
+      </c>
+      <c r="WU20" t="s">
         <v>986</v>
-      </c>
-      <c r="WU20" t="s">
-        <v>987</v>
       </c>
       <c r="WY20" t="s">
         <v>992</v>
@@ -7089,7 +7089,7 @@
         <v>943</v>
       </c>
       <c r="TX21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY21">
         <v>2025</v>
@@ -7205,7 +7205,7 @@
         <v>943</v>
       </c>
       <c r="TX22" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY22">
         <v>2025</v>
@@ -7321,7 +7321,7 @@
         <v>943</v>
       </c>
       <c r="TX23" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY23">
         <v>2025</v>
@@ -7650,13 +7650,13 @@
         <v>943</v>
       </c>
       <c r="TX24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY24">
         <v>2025</v>
       </c>
       <c r="WY24" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ24" t="s">
         <v>998</v>
@@ -7805,7 +7805,7 @@
         <v>943</v>
       </c>
       <c r="TX25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY25">
         <v>2025</v>
@@ -8128,13 +8128,13 @@
         <v>943</v>
       </c>
       <c r="TX26" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY26">
         <v>2025</v>
       </c>
       <c r="WY26" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ26" t="s">
         <v>998</v>
@@ -8205,7 +8205,7 @@
         <v>943</v>
       </c>
       <c r="TX27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY27">
         <v>2025</v>
@@ -8429,7 +8429,7 @@
         <v>943</v>
       </c>
       <c r="TX28" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY28">
         <v>2025</v>
@@ -8653,7 +8653,7 @@
         <v>943</v>
       </c>
       <c r="TX29" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY29">
         <v>2025</v>
@@ -8721,7 +8721,7 @@
         <v>943</v>
       </c>
       <c r="TX30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY30">
         <v>2025</v>
@@ -8903,7 +8903,7 @@
         <v>943</v>
       </c>
       <c r="TX31" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY31">
         <v>2025</v>
@@ -8983,7 +8983,7 @@
         <v>943</v>
       </c>
       <c r="TX32" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY32">
         <v>2025</v>
@@ -9201,7 +9201,7 @@
         <v>943</v>
       </c>
       <c r="TX33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY33">
         <v>2025</v>
@@ -9359,7 +9359,7 @@
         <v>943</v>
       </c>
       <c r="TX34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY34">
         <v>2025</v>
@@ -9673,13 +9673,13 @@
         <v>943</v>
       </c>
       <c r="TX35" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY35">
         <v>2025</v>
       </c>
       <c r="WY35" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ35" t="s">
         <v>997</v>
@@ -9780,7 +9780,7 @@
         <v>943</v>
       </c>
       <c r="TX36" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY36">
         <v>2025</v>
@@ -9869,13 +9869,13 @@
         <v>943</v>
       </c>
       <c r="TX37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY37">
         <v>2025</v>
       </c>
       <c r="WY37" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ37" t="s">
         <v>999</v>
@@ -10027,7 +10027,7 @@
         <v>943</v>
       </c>
       <c r="TX38" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY38">
         <v>2025</v>
@@ -10317,13 +10317,13 @@
         <v>943</v>
       </c>
       <c r="TX39" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY39">
         <v>2025</v>
       </c>
       <c r="WY39" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ39" t="s">
         <v>999</v>
@@ -10535,7 +10535,7 @@
         <v>943</v>
       </c>
       <c r="TX40" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY40">
         <v>2025</v>
@@ -10651,7 +10651,7 @@
         <v>943</v>
       </c>
       <c r="TX41" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY41">
         <v>2025</v>
@@ -10734,7 +10734,7 @@
         <v>943</v>
       </c>
       <c r="TX42" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY42">
         <v>2025</v>
@@ -10967,7 +10967,7 @@
         <v>943</v>
       </c>
       <c r="TX43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY43">
         <v>2025</v>
@@ -11125,7 +11125,7 @@
         <v>943</v>
       </c>
       <c r="TX44" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY44">
         <v>2025</v>
@@ -11439,13 +11439,13 @@
         <v>943</v>
       </c>
       <c r="TX45" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY45">
         <v>2025</v>
       </c>
       <c r="WY45" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ45" t="s">
         <v>997</v>
@@ -11555,7 +11555,7 @@
         <v>943</v>
       </c>
       <c r="TX46" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY46">
         <v>2025</v>
@@ -11665,7 +11665,7 @@
         <v>943</v>
       </c>
       <c r="TX47" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY47">
         <v>2025</v>
@@ -12003,13 +12003,13 @@
         <v>943</v>
       </c>
       <c r="TX48" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY48">
         <v>2025</v>
       </c>
       <c r="WY48" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ48" t="s">
         <v>999</v>
@@ -12152,7 +12152,7 @@
         <v>943</v>
       </c>
       <c r="TX49" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY49">
         <v>2025</v>
@@ -12622,7 +12622,7 @@
         <v>943</v>
       </c>
       <c r="TX50" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY50">
         <v>2025</v>
@@ -12726,7 +12726,7 @@
         <v>943</v>
       </c>
       <c r="TX51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY51">
         <v>2025</v>
@@ -12842,7 +12842,7 @@
         <v>943</v>
       </c>
       <c r="TX52" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY52">
         <v>2025</v>
@@ -12937,7 +12937,7 @@
         <v>943</v>
       </c>
       <c r="TX53" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY53">
         <v>2025</v>
@@ -13269,13 +13269,13 @@
         <v>943</v>
       </c>
       <c r="TX54" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY54">
         <v>2025</v>
       </c>
       <c r="WY54" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ54" t="s">
         <v>1000</v>
@@ -13382,7 +13382,7 @@
         <v>943</v>
       </c>
       <c r="TX55" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY55">
         <v>2025</v>
@@ -13609,7 +13609,7 @@
         <v>943</v>
       </c>
       <c r="TX56" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY56">
         <v>2025</v>
@@ -13764,7 +13764,7 @@
         <v>943</v>
       </c>
       <c r="TX57" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY57">
         <v>2025</v>
@@ -13871,7 +13871,7 @@
         <v>943</v>
       </c>
       <c r="TX58" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY58">
         <v>2025</v>
@@ -14095,7 +14095,7 @@
         <v>943</v>
       </c>
       <c r="TX59" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY59">
         <v>2025</v>
@@ -14202,7 +14202,7 @@
         <v>943</v>
       </c>
       <c r="TX60" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY60">
         <v>2025</v>
@@ -14531,7 +14531,7 @@
         <v>943</v>
       </c>
       <c r="TX61" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY61">
         <v>2025</v>
@@ -14641,7 +14641,7 @@
         <v>943</v>
       </c>
       <c r="TX62" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY62">
         <v>2025</v>
@@ -14976,13 +14976,13 @@
         <v>943</v>
       </c>
       <c r="TX63" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY63">
         <v>2025</v>
       </c>
       <c r="WY63" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ63" t="s">
         <v>1000</v>
@@ -15131,7 +15131,7 @@
         <v>943</v>
       </c>
       <c r="TX64" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY64">
         <v>2025</v>
@@ -15460,13 +15460,13 @@
         <v>943</v>
       </c>
       <c r="TX65" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY65">
         <v>2025</v>
       </c>
       <c r="WY65" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ65" t="s">
         <v>1001</v>
@@ -15540,7 +15540,7 @@
         <v>943</v>
       </c>
       <c r="TX66" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY66">
         <v>2025</v>
@@ -15776,7 +15776,7 @@
         <v>943</v>
       </c>
       <c r="TX67" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY67">
         <v>2025</v>
@@ -16099,13 +16099,13 @@
         <v>943</v>
       </c>
       <c r="TX68" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY68">
         <v>2025</v>
       </c>
       <c r="WY68" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ68" t="s">
         <v>1002</v>
@@ -16206,7 +16206,7 @@
         <v>943</v>
       </c>
       <c r="TX69" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY69">
         <v>2025</v>
@@ -16430,7 +16430,7 @@
         <v>943</v>
       </c>
       <c r="TX70" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY70">
         <v>2025</v>
@@ -16582,7 +16582,7 @@
         <v>943</v>
       </c>
       <c r="TX71" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY71">
         <v>2025</v>
@@ -16689,7 +16689,7 @@
         <v>943</v>
       </c>
       <c r="TX72" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY72">
         <v>2025</v>
@@ -16808,7 +16808,7 @@
         <v>943</v>
       </c>
       <c r="TX73" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY73">
         <v>2025</v>
@@ -16957,7 +16957,7 @@
         <v>943</v>
       </c>
       <c r="TX74" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY74">
         <v>2025</v>
@@ -17034,7 +17034,7 @@
         <v>943</v>
       </c>
       <c r="TX75" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY75">
         <v>2025</v>
@@ -17360,13 +17360,13 @@
         <v>943</v>
       </c>
       <c r="TX76" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY76">
         <v>2025</v>
       </c>
       <c r="WY76" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ76" t="s">
         <v>1002</v>
@@ -17476,7 +17476,7 @@
         <v>943</v>
       </c>
       <c r="TX77" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY77">
         <v>2025</v>
@@ -17724,13 +17724,13 @@
         <v>943</v>
       </c>
       <c r="TX78" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY78">
         <v>2025</v>
       </c>
       <c r="WY78" t="s">
-        <v>957</v>
+        <v>990</v>
       </c>
       <c r="WZ78" t="s">
         <v>1001</v>
@@ -17882,7 +17882,7 @@
         <v>943</v>
       </c>
       <c r="TX79" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY79">
         <v>2025</v>
@@ -17989,7 +17989,7 @@
         <v>943</v>
       </c>
       <c r="TX80" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY80">
         <v>2025</v>
@@ -18147,7 +18147,7 @@
         <v>943</v>
       </c>
       <c r="TX81" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY81">
         <v>2025</v>
@@ -18368,7 +18368,7 @@
         <v>943</v>
       </c>
       <c r="TX82" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY82">
         <v>2025</v>
@@ -18481,7 +18481,7 @@
         <v>943</v>
       </c>
       <c r="TX83" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="TY83">
         <v>2025</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -6428,7 +6428,7 @@
         <v>1031</v>
       </c>
       <c r="TX3" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY3" t="s">
         <v>628</v>
@@ -6502,7 +6502,7 @@
         <v>1031</v>
       </c>
       <c r="TX4" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY4" t="s">
         <v>628</v>
@@ -6573,7 +6573,7 @@
         <v>1031</v>
       </c>
       <c r="TX5" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY5" t="s">
         <v>628</v>
@@ -6638,7 +6638,7 @@
         <v>1031</v>
       </c>
       <c r="TX6" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY6" t="s">
         <v>628</v>
@@ -6724,7 +6724,7 @@
         <v>1031</v>
       </c>
       <c r="TX7" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY7" t="s">
         <v>628</v>
@@ -6798,7 +6798,7 @@
         <v>1031</v>
       </c>
       <c r="TX8" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY8" t="s">
         <v>628</v>
@@ -6881,7 +6881,7 @@
         <v>1031</v>
       </c>
       <c r="TX9" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY9" t="s">
         <v>628</v>
@@ -6964,7 +6964,7 @@
         <v>1031</v>
       </c>
       <c r="TX10" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY10" t="s">
         <v>628</v>
@@ -7053,7 +7053,7 @@
         <v>1031</v>
       </c>
       <c r="TX11" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY11" t="s">
         <v>628</v>
@@ -7121,7 +7121,7 @@
         <v>1031</v>
       </c>
       <c r="TX12" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY12" t="s">
         <v>628</v>
@@ -7195,7 +7195,7 @@
         <v>1031</v>
       </c>
       <c r="TX13" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY13" t="s">
         <v>628</v>
@@ -7287,7 +7287,7 @@
         <v>1031</v>
       </c>
       <c r="TX14" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY14" t="s">
         <v>628</v>
@@ -7331,7 +7331,7 @@
         <v>1031</v>
       </c>
       <c r="TX15" t="s">
-        <v>625</v>
+        <v>1054</v>
       </c>
       <c r="TY15" t="s">
         <v>628</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -6603,7 +6603,7 @@
         <v>1033</v>
       </c>
       <c r="TX5" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY5" t="s">
         <v>628</v>
@@ -6677,7 +6677,7 @@
         <v>1033</v>
       </c>
       <c r="TX6" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY6" t="s">
         <v>628</v>
@@ -6748,7 +6748,7 @@
         <v>1033</v>
       </c>
       <c r="TX7" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY7" t="s">
         <v>628</v>
@@ -6813,7 +6813,7 @@
         <v>1033</v>
       </c>
       <c r="TX8" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY8" t="s">
         <v>628</v>
@@ -6899,7 +6899,7 @@
         <v>1033</v>
       </c>
       <c r="TX9" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY9" t="s">
         <v>628</v>
@@ -6973,7 +6973,7 @@
         <v>1033</v>
       </c>
       <c r="TX10" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY10" t="s">
         <v>628</v>
@@ -7056,7 +7056,7 @@
         <v>1033</v>
       </c>
       <c r="TX11" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY11" t="s">
         <v>628</v>
@@ -7139,7 +7139,7 @@
         <v>1033</v>
       </c>
       <c r="TX12" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY12" t="s">
         <v>628</v>
@@ -7228,7 +7228,7 @@
         <v>1033</v>
       </c>
       <c r="TX13" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY13" t="s">
         <v>628</v>
@@ -7296,7 +7296,7 @@
         <v>1033</v>
       </c>
       <c r="TX14" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY14" t="s">
         <v>628</v>
@@ -7370,7 +7370,7 @@
         <v>1033</v>
       </c>
       <c r="TX15" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY15" t="s">
         <v>628</v>
@@ -7462,7 +7462,7 @@
         <v>1033</v>
       </c>
       <c r="TX16" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY16" t="s">
         <v>628</v>
@@ -7506,7 +7506,7 @@
         <v>1033</v>
       </c>
       <c r="TX17" t="s">
-        <v>1056</v>
+        <v>625</v>
       </c>
       <c r="TY17" t="s">
         <v>628</v>
